--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -12,7 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="USIGSector" sheetId="1" r:id="rId1"/>
+    <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
+    <sheet name="GAgg2" sheetId="3" r:id="rId2"/>
+    <sheet name="GAgg3" sheetId="4" r:id="rId3"/>
+    <sheet name="GAgg4" sheetId="5" r:id="rId4"/>
+    <sheet name="USIGSector" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="BoxPlot">"BoxPlot"</definedName>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Cyclical</t>
   </si>
@@ -154,6 +158,104 @@
   </si>
   <si>
     <t>Label07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ret01</t>
+  </si>
+  <si>
+    <t>Ret02</t>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y3_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y10_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ret07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -174,6 +276,36 @@
       <name val="KoPub돋움체_Pro Light"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="KoPub돋움체_Pro Light"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,23 +325,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,759 +643,3029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="4"/>
+    <col min="8" max="13" width="9.140625" style="8"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-2.526069465744929E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>-1.3207978075517768E-2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-2.7779108194836866E-2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>6.7929517631355463E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-2.7675818875235736E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <v>-1.9623721527057825E-2</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 1), $B2:$G2, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 2), $B2:$G2, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 3), $B2:$G2, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 4), $B2:$G2, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 5), $B2:$G2, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="T2" s="8">
+        <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
+        <v>6.7929517631355463E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:U5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
+        <v>-2.526069465744929E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" ref="V2:V5" ca="1" si="1">OFFSET($H2, 0, MATCH(P2,$B$1:$G$1, 0)-1)</f>
+        <v>-2.7779108194836866E-2</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ref="W2:W5" ca="1" si="2">OFFSET($H2, 0, MATCH(Q2,$B$1:$G$1, 0)-1)</f>
+        <v>-2.7675818875235736E-3</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" ref="X2:X5" ca="1" si="3">OFFSET($H2, 0, MATCH(R2,$B$1:$G$1, 0)-1)</f>
+        <v>-1.3207978075517768E-2</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" ref="Y2:Y5" ca="1" si="4">OFFSET($H2, 0, MATCH(S2,$B$1:$G$1, 0)-1)</f>
+        <v>-1.9623721527057825E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.695328640293825E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2.7000964320154086E-3</v>
+      </c>
+      <c r="J3" s="8">
+        <v>8.9166954037145363E-3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>7.6064343975659199E-3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-2.6582646005601784E-4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.6999291993815335E-2</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P7" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q7" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R7" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S7" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T5" ca="1" si="11">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
+        <v>8.9166954037145363E-3</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7000964320154086E-3</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6999291993815335E-2</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6064343975659199E-3</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.6582646005601784E-4</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.695328640293825E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.21E-2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>China</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UK</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>EUR</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>APAC</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>US</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>EM</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.21E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="W4" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="X4" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2.12E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.11E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>China</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>UK</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>APAC</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>EUR</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>EM</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>US</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.12E-2</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.44E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>China</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>US</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>EM</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>UK</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>EUR</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>APAC</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6:T7" ca="1" si="12">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" ref="U6" ca="1" si="13">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" ca="1" si="14">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6" ca="1" si="15">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" ca="1" si="16">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" ref="Y6" ca="1" si="17">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.41988415000000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.41515833000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.43455621999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.56244150000000004</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.43668273000000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.42997639999999998</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 1), $B7:$G7, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 2), $B7:$G7, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 3), $B7:$G7, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 4), $B7:$G7, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 5), $B7:$G7, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 6), $B7:$G7, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="T7" s="8">
+        <f ca="1">OFFSET($B7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <v>0.56244150000000004</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" ref="U7:Y7" ca="1" si="18">OFFSET($B7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
+        <v>0.43668273000000002</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.43455621999999999</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.42997639999999998</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.41988415000000001</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.41515833000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-2.3273962337771681E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-2.5447370635779065E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-3.0255585445815636E-2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 1), $B2:$D2, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 2), $B2:$D2, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 3), $B2:$D2, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="K2" s="8">
+        <f ca="1">OFFSET($E2, 0, MATCH(H2,$B$1:$D$1, 0)-1)</f>
+        <v>-2.5447370635779065E-2</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L5" ca="1" si="0">OFFSET($E2, 0, MATCH(I2,$B$1:$D$1, 0)-1)</f>
+        <v>-2.3273962337771681E-2</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M5" ca="1" si="1">OFFSET($E2, 0, MATCH(J2,$B$1:$D$1, 0)-1)</f>
+        <v>-3.0255585445815636E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.4567690505806086E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.8729909964657621E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.9981017055295203E-2</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H7" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I7" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J7" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K5" ca="1" si="5">OFFSET($E3, 0, MATCH(H3,$B$1:$D$1, 0)-1)</f>
+        <v>1.8729909964657621E-2</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9981017055295203E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4567690505806086E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Tsy</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MBS</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.64E-2</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>MBS</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Corp</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" ref="K6" ca="1" si="6">OFFSET($E6, 0, MATCH(H6,$B$1:$D$1, 0)-1)</f>
+        <v>1.61E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6" ca="1" si="7">OFFSET($E6, 0, MATCH(I6,$B$1:$D$1, 0)-1)</f>
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6" ca="1" si="8">OFFSET($E6, 0, MATCH(J6,$B$1:$D$1, 0)-1)</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.12707705999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.59813959999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52462410000000004</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 1), $B7:$D7, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 2), $B7:$D7, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 3), $B7:$D7, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K7" s="8">
+        <f ca="1">OFFSET($B7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
+        <v>0.59813959999999999</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:M7" ca="1" si="9">OFFSET($B7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
+        <v>0.52462410000000004</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.12707705999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-6.5253018160699172E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-2.3162929869394056E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-4.9381116698660965E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-9.4018724270023002E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-3.5280728513869541E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5.3238686779060185E-3</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 1), $B2:$G2, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 2), $B2:$G2, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 3), $B2:$G2, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 4), $B2:$G2, 0))</f>
+        <v>Y5_10</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 5), $B2:$G2, 0))</f>
+        <v>Long</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
+        <v>Y1_5</v>
+      </c>
+      <c r="T2" s="8">
+        <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
+        <v>-9.4018724270023002E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:Y5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
+        <v>-3.5280728513869541E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3238686779060185E-3</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.3162929869394056E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9381116698660965E-2</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.5253018160699172E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.0355772590442403E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.9399303693745873E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.8248965534329429E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.0987379957157595E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.0013131127499362E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5.5478502080443803E-3</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N7" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O7" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P7" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q7" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <v>Long</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <v>Y5_10</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <v>Y1_5</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T5" ca="1" si="7">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
+        <v>1.0987379957157595E-2</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5478502080443803E-3</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0013131127499362E-2</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8248965534329429E-2</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9399303693745873E-2</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0355772590442403E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.3E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Long</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Y5_10</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Y1_5</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>HY</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="X4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.58E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Long</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>HY</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Y5_10</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Y1_5</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.58E-2</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.55E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.12E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HY</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Y5_10</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Long</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Y1_5</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6" ca="1" si="8">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" ref="U6" ca="1" si="9">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
+        <v>1.55E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" ca="1" si="10">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6" ca="1" si="11">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
+        <v>2.12E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" ca="1" si="12">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" ref="Y6" ca="1" si="13">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.41679832</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.48387926999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.49029445999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.50516430000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.49280544999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.36203491999999998</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 1), $B7:$G7, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 2), $B7:$G7, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 3), $B7:$G7, 0))</f>
+        <v>Long</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 4), $B7:$G7, 0))</f>
+        <v>Y5_10</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 5), $B7:$G7, 0))</f>
+        <v>Y1_5</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 6), $B7:$G7, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T7" s="8">
+        <f ca="1">OFFSET($B7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <v>0.50516430000000001</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" ref="U7:Y7" ca="1" si="14">OFFSET($B7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
+        <v>0.49280544999999998</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.49029445999999999</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.48387926999999997</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.41679832</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.36203491999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-3.7994193340262772E-3</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-1.7880113197838887E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-3.1547864602557651E-2</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-5.3671208255656411E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-6.6060841511409896E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-1.2384860214661786E-2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>-1.6861953532216201E-2</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 1), $B2:$H2, 0))</f>
+        <v>Tips</v>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 2), $B2:$H2, 0))</f>
+        <v>Y1_3</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 3), $B2:$H2, 0))</f>
+        <v>Y3_7</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 4), $B2:$H2, 0))</f>
+        <v>Y7_10</v>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 5), $B2:$H2, 0))</f>
+        <v>Y20</v>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 6), $B2:$H2, 0))</f>
+        <v>Muni</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 7), $B2:$H2, 0))</f>
+        <v>Y10_20</v>
+      </c>
+      <c r="W2" s="8">
+        <f ca="1">OFFSET($I2, 0, MATCH(P2,$B$1:$H$1, 0)-1)</f>
+        <v>-1.6861953532216201E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" ref="X2:X5" ca="1" si="0">OFFSET($I2, 0, MATCH(Q2,$B$1:$H$1, 0)-1)</f>
+        <v>-3.7994193340262772E-3</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" ref="Y2:Y5" ca="1" si="1">OFFSET($I2, 0, MATCH(R2,$B$1:$H$1, 0)-1)</f>
+        <v>-1.7880113197838887E-2</v>
+      </c>
+      <c r="Z2" s="8">
+        <f t="shared" ref="Z2:Z5" ca="1" si="2">OFFSET($I2, 0, MATCH(S2,$B$1:$H$1, 0)-1)</f>
+        <v>-3.1547864602557651E-2</v>
+      </c>
+      <c r="AA2" s="8">
+        <f t="shared" ref="AA2:AA5" ca="1" si="3">OFFSET($I2, 0, MATCH(T2,$B$1:$H$1, 0)-1)</f>
+        <v>-6.6060841511409896E-2</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" ref="AB2:AC5" ca="1" si="4">OFFSET($I2, 0, MATCH(U2,$B$1:$H$1, 0)-1)</f>
+        <v>-1.2384860214661786E-2</v>
+      </c>
+      <c r="AC2" s="8">
+        <f ca="1">OFFSET($I2, 0, MATCH(V2,$B$1:$H$1, 0)-1)</f>
+        <v>-5.3671208255656411E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7.0521354297843342E-3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.3123772102161091E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.8092547753564725E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.7548121349840526E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2.9298994429574066E-2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-2.9335750937552474E-3</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1.7178252433660113E-2</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P7" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <v>Y1_3</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q7" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <v>Muni</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R7" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <v>Y20</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S7" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <v>Y10_20</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f t="shared" ref="T3:T7" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <v>Tips</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f t="shared" ref="U3:U7" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <v>Y7_10</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V7" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <v>Y3_7</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3:W5" ca="1" si="12">OFFSET($I3, 0, MATCH(P3,$B$1:$H$1, 0)-1)</f>
+        <v>7.0521354297843342E-3</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.9335750937552474E-3</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9298994429574066E-2</v>
+      </c>
+      <c r="Z3" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7548121349840526E-2</v>
+      </c>
+      <c r="AA3" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7178252433660113E-2</v>
+      </c>
+      <c r="AB3" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8092547753564725E-2</v>
+      </c>
+      <c r="AC3" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3123772102161091E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Y20</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>Y1_3</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Y7_10</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>Muni</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Y3_7</v>
+      </c>
+      <c r="U4" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Tips</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Y10_20</v>
+      </c>
+      <c r="W4" s="8">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.78E-2</v>
+      </c>
+      <c r="X4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="Z4" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="AA4" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="AB4" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="AC4" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.18E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Muni</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>Y1_3</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Y3_7</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>Tips</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Y7_10</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Y20</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Y10_20</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.17E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.18E-2</v>
+      </c>
+      <c r="Z5" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.78E-2</v>
+      </c>
+      <c r="AA5" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="AB5" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="O6" s="6">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Y20</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>Y10_20</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Muni</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>Y1_3</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Y7_10</v>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Tips</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Y3_7</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6:W7" ca="1" si="13">OFFSET($I6, 0, MATCH(P6,$B$1:$H$1, 0)-1)</f>
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6:X7" ca="1" si="14">OFFSET($I6, 0, MATCH(Q6,$B$1:$H$1, 0)-1)</f>
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" ref="Y6:Y7" ca="1" si="15">OFFSET($I6, 0, MATCH(R6,$B$1:$H$1, 0)-1)</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" ref="Z6:Z7" ca="1" si="16">OFFSET($I6, 0, MATCH(S6,$B$1:$H$1, 0)-1)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" ref="AA6:AA7" ca="1" si="17">OFFSET($I6, 0, MATCH(T6,$B$1:$H$1, 0)-1)</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6:AB7" ca="1" si="18">OFFSET($I6, 0, MATCH(U6,$B$1:$H$1, 0)-1)</f>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="AC6" s="8">
+        <f t="shared" ref="AC6:AC7" ca="1" si="19">OFFSET($I6, 0, MATCH(V6,$B$1:$H$1, 0)-1)</f>
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.57451490000000005</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.51027935999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.44822820000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.37309357999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.42091513000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.43167369999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.50650083999999995</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 1), $B7:$H7, 0))</f>
+        <v>Y1_3</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 2), $B7:$H7, 0))</f>
+        <v>Y3_7</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 3), $B7:$H7, 0))</f>
+        <v>Tips</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 4), $B7:$H7, 0))</f>
+        <v>Y7_10</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 5), $B7:$H7, 0))</f>
+        <v>Muni</v>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 6), $B7:$H7, 0))</f>
+        <v>Y20</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 7), $B7:$H7, 0))</f>
+        <v>Y10_20</v>
+      </c>
+      <c r="W7" s="8">
+        <f ca="1">OFFSET($B7, 0, MATCH(P7,$B$1:$H$1, 0)-1)</f>
+        <v>0.57451490000000005</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" ref="X7:AC7" ca="1" si="20">OFFSET($B7, 0, MATCH(Q7,$B$1:$H$1, 0)-1)</f>
+        <v>0.51027935999999996</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.50650083999999995</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.44822820000000002</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.43167369999999999</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.42091513000000003</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.37309357999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45383</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.44748085737228405</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.45999278426170359</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.55680293440818784</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.48342025876045236</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.45021173357963579</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.49395900368690498</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.57804032564163221</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>-2.5447370635779287E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>-2.3155785985105037E-2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>-2.8656829931144601E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>-2.7639921583864746E-2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>-3.3102795808539254E-2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>-3.1879922000172645E-2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>-1.5349990257957691E-2</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>-2.4485454389026051E-2</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 1), $B2:$H2, 0))</f>
         <v>Fin ex Banking</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 2), $B2:$H2, 0))</f>
         <v>Energy</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 3), $B2:$H2, 0))</f>
         <v>Banking</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 4), $B2:$H2, 0))</f>
         <v>Infrastructure</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 5), $B2:$H2, 0))</f>
         <v>Defensive</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 6), $B2:$H2, 0))</f>
         <v>Utility</v>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 7), $B2:$H2, 0))</f>
         <v>Cyclical</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="3">
         <f>I2</f>
         <v>-2.5447370635779287E-2</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="3">
         <f ca="1">OFFSET($J2, 0, MATCH(R2,$B$1:$H$1, 0)-1)</f>
         <v>-2.4485454389026051E-2</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="3">
         <f t="shared" ref="AA2:AF2" ca="1" si="0">OFFSET($J2, 0, MATCH(S2,$B$1:$H$1, 0)-1)</f>
         <v>-2.7639921583864746E-2</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-1.5349990257957691E-2</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-3.3102795808539254E-2</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-2.8656829931144601E-2</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-3.1879922000172645E-2</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-2.3155785985105037E-2</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45413</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.58514037132263175</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.45266019105911265</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.53377550840377819</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.44798398017883301</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.50691521763801561</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.49715332984924315</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.56635168194770824</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>1.8729909964657621E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>1.7510266214153747E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>1.8338252883892014E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>1.8980674222609961E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>2.2692751561654845E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>2.1129138875748188E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>1.7049387495517321E-2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>1.8312442314646793E-2</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="str">
+      <c r="R3" s="1" t="str">
         <f t="shared" ref="R3:R7" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cyclical</v>
       </c>
-      <c r="S3" t="str">
+      <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S7" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin ex Banking</v>
       </c>
-      <c r="T3" t="str">
+      <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T7" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Energy</v>
       </c>
-      <c r="U3" t="str">
+      <c r="U3" s="1" t="str">
         <f t="shared" ref="U3:U7" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Utility</v>
       </c>
-      <c r="V3" t="str">
+      <c r="V3" s="1" t="str">
         <f t="shared" ref="V3:V7" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Banking</v>
       </c>
-      <c r="W3" t="str">
+      <c r="W3" s="1" t="str">
         <f t="shared" ref="W3:W7" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Defensive</v>
       </c>
-      <c r="X3" t="str">
+      <c r="X3" s="1" t="str">
         <f t="shared" ref="X3:X7" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infrastructure</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y6" si="8">I3</f>
         <v>1.8729909964657621E-2</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="3">
         <f t="shared" ref="Z3:Z6" ca="1" si="9">OFFSET($J3, 0, MATCH(R3,$B$1:$H$1, 0)-1)</f>
         <v>1.7510266214153747E-2</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="3">
         <f t="shared" ref="AA3:AA6" ca="1" si="10">OFFSET($J3, 0, MATCH(S3,$B$1:$H$1, 0)-1)</f>
         <v>1.8312442314646793E-2</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="3">
         <f t="shared" ref="AB3:AB6" ca="1" si="11">OFFSET($J3, 0, MATCH(T3,$B$1:$H$1, 0)-1)</f>
         <v>1.8980674222609961E-2</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="3">
         <f t="shared" ref="AC3:AC6" ca="1" si="12">OFFSET($J3, 0, MATCH(U3,$B$1:$H$1, 0)-1)</f>
         <v>2.1129138875748188E-2</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="3">
         <f t="shared" ref="AD3:AD6" ca="1" si="13">OFFSET($J3, 0, MATCH(V3,$B$1:$H$1, 0)-1)</f>
         <v>1.7049387495517321E-2</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="3">
         <f t="shared" ref="AE3:AE6" ca="1" si="14">OFFSET($J3, 0, MATCH(W3,$B$1:$H$1, 0)-1)</f>
         <v>1.8338252883892014E-2</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="3">
         <f t="shared" ref="AF3:AF6" ca="1" si="15">OFFSET($J3, 0, MATCH(X3,$B$1:$H$1, 0)-1)</f>
         <v>2.2692751561654845E-2</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45444</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.4538581669330598</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.461936265230179</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.53976473808288572</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.51354753971099842</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.52796610593795779</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.49395807981491091</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.55110430121421827</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>6.3608478200123386E-3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>6.2986334749755013E-3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>7.1502787204811291E-3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>5.4366232330971265E-3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>6.2438186327051781E-3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>5.5244765399962148E-3</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>5.8445721866020595E-3</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>6.4595727379881396E-3</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin ex Banking</v>
       </c>
-      <c r="S4" t="str">
+      <c r="S4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Energy</v>
       </c>
-      <c r="T4" t="str">
+      <c r="T4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Utility</v>
       </c>
-      <c r="U4" t="str">
+      <c r="U4" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Infrastructure</v>
       </c>
-      <c r="V4" t="str">
+      <c r="V4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Banking</v>
       </c>
-      <c r="W4" t="str">
+      <c r="W4" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Defensive</v>
       </c>
-      <c r="X4" t="str">
+      <c r="X4" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Cyclical</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <f t="shared" si="8"/>
         <v>6.3608478200123386E-3</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="3">
         <f t="shared" ca="1" si="9"/>
         <v>6.4595727379881396E-3</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="3">
         <f t="shared" ca="1" si="10"/>
         <v>5.4366232330971265E-3</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="3">
         <f t="shared" ca="1" si="11"/>
         <v>5.5244765399962148E-3</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>6.2438186327051781E-3</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="3">
         <f t="shared" ca="1" si="13"/>
         <v>5.8445721866020595E-3</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="3">
         <f t="shared" ca="1" si="14"/>
         <v>7.1502787204811291E-3</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>6.2986334749755013E-3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45474</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.45673935413360595</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.43884102702140815</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.58523991703987099</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.46640861034393299</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.52769359946250916</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.5157936036586761</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.48571235537529001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>2.3835001887457574E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>2.2248041324894219E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>2.4869721183520044E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>2.5192355423181656E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>2.4127618456179611E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>2.7868289911579636E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>2.0934467686646974E-2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>2.3432729545773245E-2</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Energy</v>
       </c>
-      <c r="S5" t="str">
+      <c r="S5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Utility</v>
       </c>
-      <c r="T5" t="str">
+      <c r="T5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Banking</v>
       </c>
-      <c r="U5" t="str">
+      <c r="U5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fin ex Banking</v>
       </c>
-      <c r="V5" t="str">
+      <c r="V5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Infrastructure</v>
       </c>
-      <c r="W5" t="str">
+      <c r="W5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Cyclical</v>
       </c>
-      <c r="X5" t="str">
+      <c r="X5" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Defensive</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3">
         <f t="shared" si="8"/>
         <v>2.3835001887457574E-2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3">
         <f t="shared" ca="1" si="9"/>
         <v>2.5192355423181656E-2</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3">
         <f t="shared" ca="1" si="10"/>
         <v>2.7868289911579636E-2</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3">
         <f t="shared" ca="1" si="11"/>
         <v>2.0934467686646974E-2</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>2.3432729545773245E-2</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="3">
         <f t="shared" ca="1" si="13"/>
         <v>2.4127618456179611E-2</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="3">
         <f t="shared" ca="1" si="14"/>
         <v>2.2248041324894219E-2</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>2.4869721183520044E-2</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45505</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.46966392993927003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.44985861778259306</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.58905769586563106</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.49903690814971907</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.52889268398284917</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.46350888013839719</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.47044384479522694</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>1.5726269665454984E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>1.5778605989783312E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>1.5568246103825789E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>1.4577965310321961E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>1.6604877393575856E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>1.7889180763109636E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>1.4244986642409918E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>1.6896698187487846E-2</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" t="str">
+      <c r="R6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Energy</v>
       </c>
-      <c r="S6" t="str">
+      <c r="S6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Utility</v>
       </c>
-      <c r="T6" t="str">
+      <c r="T6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Infrastructure</v>
       </c>
-      <c r="U6" t="str">
+      <c r="U6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fin ex Banking</v>
       </c>
-      <c r="V6" t="str">
+      <c r="V6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cyclical</v>
       </c>
-      <c r="W6" t="str">
+      <c r="W6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Banking</v>
       </c>
-      <c r="X6" t="str">
+      <c r="X6" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Defensive</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <f t="shared" si="8"/>
         <v>1.5726269665454984E-2</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="3">
         <f t="shared" ca="1" si="9"/>
         <v>1.4577965310321961E-2</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="3">
         <f t="shared" ca="1" si="10"/>
         <v>1.7889180763109636E-2</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="3">
         <f t="shared" ca="1" si="11"/>
         <v>1.6604877393575856E-2</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="3">
         <f t="shared" ca="1" si="12"/>
         <v>1.6896698187487846E-2</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="3">
         <f t="shared" ca="1" si="13"/>
         <v>1.5778605989783312E-2</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="3">
         <f t="shared" ca="1" si="14"/>
         <v>1.4244986642409918E-2</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="3">
         <f t="shared" ca="1" si="15"/>
         <v>1.5568246103825789E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45536</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.44310544729232781</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.39746590256690978</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.5720584452152252</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.423749303817749</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.49498879909515398</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.52419025897979732</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.56211872696876519</v>
       </c>
-      <c r="R7" t="str">
+      <c r="R7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Energy</v>
       </c>
-      <c r="S7" t="str">
+      <c r="S7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fin ex Banking</v>
       </c>
-      <c r="T7" t="str">
+      <c r="T7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Banking</v>
       </c>
-      <c r="U7" t="str">
+      <c r="U7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Utility</v>
       </c>
-      <c r="V7" t="str">
+      <c r="V7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cyclical</v>
       </c>
-      <c r="W7" t="str">
+      <c r="W7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Infrastructure</v>
       </c>
-      <c r="X7" t="str">
+      <c r="X7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Defensive</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="3">
         <f ca="1">OFFSET($B7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>
         <v>0.5720584452152252</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="3">
         <f t="shared" ref="AA7:AF7" ca="1" si="16">OFFSET($B7, 0, MATCH(S7,$B$1:$H$1, 0)-1)</f>
         <v>0.56211872696876519</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>0.52419025897979732</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>0.49498879909515398</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>0.44310544729232781</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>0.423749303817749</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>0.39746590256690978</v>
       </c>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -48,28 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
-  <si>
-    <t>Cyclical</t>
-  </si>
-  <si>
-    <t>Defensive</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>Utility</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Fin ex Banking</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,18 +182,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y1_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y5_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,35 +194,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y3_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y10_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ret07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초단기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초장기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +645,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -659,79 +658,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -864,27 +863,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N6" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O6" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P6" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q6" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R6" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S6" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -1155,7 +1154,7 @@
         <v>APAC</v>
       </c>
       <c r="T6" s="8">
-        <f t="shared" ref="T6:T7" ca="1" si="12">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="T6" ca="1" si="12">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="U6" s="8">
@@ -1272,43 +1271,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1381,15 +1380,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H7" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H6" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I7" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I6" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J7" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J6" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -1595,7 +1594,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1606,79 +1605,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1735,15 +1734,15 @@
       </c>
       <c r="Q2" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 4), $B2:$G2, 0))</f>
-        <v>Y5_10</v>
+        <v>중기</v>
       </c>
       <c r="R2" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 5), $B2:$G2, 0))</f>
-        <v>Long</v>
+        <v>장기</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
-        <v>Y1_5</v>
+        <v>단기</v>
       </c>
       <c r="T2" s="8">
         <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
@@ -1811,28 +1810,28 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N7" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N6" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O7" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O6" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P6" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
-        <v>Long</v>
+        <f t="shared" ref="Q3:Q6" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
-        <v>Y5_10</v>
+        <f t="shared" ref="R3:R6" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
-        <v>Y1_5</v>
+        <f t="shared" ref="S3:S6" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <v>단기</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" ref="T3:T5" ca="1" si="7">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
@@ -1901,11 +1900,11 @@
       </c>
       <c r="N4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Long</v>
+        <v>장기</v>
       </c>
       <c r="O4" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Y5_10</v>
+        <v>중기</v>
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1913,7 +1912,7 @@
       </c>
       <c r="Q4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Y1_5</v>
+        <v>단기</v>
       </c>
       <c r="R4" s="4" t="str">
         <f t="shared" si="5"/>
@@ -1990,7 +1989,7 @@
       </c>
       <c r="N5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Long</v>
+        <v>장기</v>
       </c>
       <c r="O5" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2002,11 +2001,11 @@
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Y5_10</v>
+        <v>중기</v>
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Y1_5</v>
+        <v>단기</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2083,7 +2082,7 @@
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Y5_10</v>
+        <v>중기</v>
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2091,11 +2090,11 @@
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Long</v>
+        <v>장기</v>
       </c>
       <c r="R6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Y1_5</v>
+        <v>단기</v>
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2158,15 +2157,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 3), $B7:$G7, 0))</f>
-        <v>Long</v>
+        <v>장기</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 4), $B7:$G7, 0))</f>
-        <v>Y5_10</v>
+        <v>중기</v>
       </c>
       <c r="R7" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 5), $B7:$G7, 0))</f>
-        <v>Y1_5</v>
+        <v>단기</v>
       </c>
       <c r="S7" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 6), $B7:$G7, 0))</f>
@@ -2207,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2219,91 +2218,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="Y1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Z1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AB1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -2354,31 +2353,31 @@
       </c>
       <c r="P2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 1), $B2:$H2, 0))</f>
-        <v>Tips</v>
+        <v>TIPS</v>
       </c>
       <c r="Q2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 2), $B2:$H2, 0))</f>
-        <v>Y1_3</v>
+        <v>초단기</v>
       </c>
       <c r="R2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 3), $B2:$H2, 0))</f>
-        <v>Y3_7</v>
+        <v>중단기</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 4), $B2:$H2, 0))</f>
-        <v>Y7_10</v>
+        <v>중기</v>
       </c>
       <c r="T2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 5), $B2:$H2, 0))</f>
-        <v>Y20</v>
+        <v>초장기</v>
       </c>
       <c r="U2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 6), $B2:$H2, 0))</f>
-        <v>Muni</v>
+        <v>지방정부</v>
       </c>
       <c r="V2" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 7), $B2:$H2, 0))</f>
-        <v>Y10_20</v>
+        <v>장기</v>
       </c>
       <c r="W2" s="8">
         <f ca="1">OFFSET($I2, 0, MATCH(P2,$B$1:$H$1, 0)-1)</f>
@@ -2456,32 +2455,32 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
-        <v>Y1_3</v>
+        <f t="shared" ref="P3:P6" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
-        <v>Muni</v>
+        <f t="shared" ref="Q3:Q6" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
-        <v>Y20</v>
+        <f t="shared" ref="R3:R6" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
-        <v>Y10_20</v>
+        <f t="shared" ref="S3:S6" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T7" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
-        <v>Tips</v>
+        <f t="shared" ref="T3:T6" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U7" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
-        <v>Y7_10</v>
+        <f t="shared" ref="U3:U6" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V7" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
-        <v>Y3_7</v>
+        <f t="shared" ref="V3:V6" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <v>중단기</v>
       </c>
       <c r="W3" s="8">
         <f t="shared" ref="W3:W5" ca="1" si="12">OFFSET($I3, 0, MATCH(P3,$B$1:$H$1, 0)-1)</f>
@@ -2560,31 +2559,31 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Y20</v>
+        <v>초장기</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Y1_3</v>
+        <v>초단기</v>
       </c>
       <c r="R4" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Y7_10</v>
+        <v>중기</v>
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Muni</v>
+        <v>지방정부</v>
       </c>
       <c r="T4" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Y3_7</v>
+        <v>중단기</v>
       </c>
       <c r="U4" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Tips</v>
+        <v>TIPS</v>
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Y10_20</v>
+        <v>장기</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" ca="1" si="12"/>
@@ -2663,31 +2662,31 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Muni</v>
+        <v>지방정부</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Y1_3</v>
+        <v>초단기</v>
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Y3_7</v>
+        <v>중단기</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Tips</v>
+        <v>TIPS</v>
       </c>
       <c r="T5" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Y7_10</v>
+        <v>중기</v>
       </c>
       <c r="U5" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Y20</v>
+        <v>초장기</v>
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Y10_20</v>
+        <v>장기</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ca="1" si="12"/>
@@ -2766,58 +2765,58 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Y20</v>
+        <v>초장기</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Y10_20</v>
+        <v>장기</v>
       </c>
       <c r="R6" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Muni</v>
+        <v>지방정부</v>
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Y1_3</v>
+        <v>초단기</v>
       </c>
       <c r="T6" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Y7_10</v>
+        <v>중기</v>
       </c>
       <c r="U6" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Tips</v>
+        <v>TIPS</v>
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Y3_7</v>
+        <v>중단기</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" ref="W6:W7" ca="1" si="13">OFFSET($I6, 0, MATCH(P6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="W6" ca="1" si="13">OFFSET($I6, 0, MATCH(P6,$B$1:$H$1, 0)-1)</f>
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="X6" s="8">
-        <f t="shared" ref="X6:X7" ca="1" si="14">OFFSET($I6, 0, MATCH(Q6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="X6" ca="1" si="14">OFFSET($I6, 0, MATCH(Q6,$B$1:$H$1, 0)-1)</f>
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" ref="Y6:Y7" ca="1" si="15">OFFSET($I6, 0, MATCH(R6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="Y6" ca="1" si="15">OFFSET($I6, 0, MATCH(R6,$B$1:$H$1, 0)-1)</f>
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="Z6" s="8">
-        <f t="shared" ref="Z6:Z7" ca="1" si="16">OFFSET($I6, 0, MATCH(S6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="Z6" ca="1" si="16">OFFSET($I6, 0, MATCH(S6,$B$1:$H$1, 0)-1)</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AA6" s="8">
-        <f t="shared" ref="AA6:AA7" ca="1" si="17">OFFSET($I6, 0, MATCH(T6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="AA6" ca="1" si="17">OFFSET($I6, 0, MATCH(T6,$B$1:$H$1, 0)-1)</f>
         <v>1.4E-2</v>
       </c>
       <c r="AB6" s="8">
-        <f t="shared" ref="AB6:AB7" ca="1" si="18">OFFSET($I6, 0, MATCH(U6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="AB6" ca="1" si="18">OFFSET($I6, 0, MATCH(U6,$B$1:$H$1, 0)-1)</f>
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" ref="AC6:AC7" ca="1" si="19">OFFSET($I6, 0, MATCH(V6,$B$1:$H$1, 0)-1)</f>
+        <f t="shared" ref="AC6" ca="1" si="19">OFFSET($I6, 0, MATCH(V6,$B$1:$H$1, 0)-1)</f>
         <v>1.17E-2</v>
       </c>
     </row>
@@ -2848,31 +2847,31 @@
       </c>
       <c r="P7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 1), $B7:$H7, 0))</f>
-        <v>Y1_3</v>
+        <v>초단기</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 2), $B7:$H7, 0))</f>
-        <v>Y3_7</v>
+        <v>중단기</v>
       </c>
       <c r="R7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 3), $B7:$H7, 0))</f>
-        <v>Tips</v>
+        <v>TIPS</v>
       </c>
       <c r="S7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 4), $B7:$H7, 0))</f>
-        <v>Y7_10</v>
+        <v>중기</v>
       </c>
       <c r="T7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 5), $B7:$H7, 0))</f>
-        <v>Muni</v>
+        <v>지방정부</v>
       </c>
       <c r="U7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 6), $B7:$H7, 0))</f>
-        <v>Y20</v>
+        <v>초장기</v>
       </c>
       <c r="V7" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 7), $B7:$H7, 0))</f>
-        <v>Y10_20</v>
+        <v>장기</v>
       </c>
       <c r="W7" s="8">
         <f ca="1">OFFSET($B7, 0, MATCH(P7,$B$1:$H$1, 0)-1)</f>
@@ -2913,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2927,100 +2926,100 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -3073,35 +3072,35 @@
         <v>-2.4485454389026051E-2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 1), $B2:$H2, 0))</f>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 2), $B2:$H2, 0))</f>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="T2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 3), $B2:$H2, 0))</f>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="U2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 4), $B2:$H2, 0))</f>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="V2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 5), $B2:$H2, 0))</f>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="W2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 6), $B2:$H2, 0))</f>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="X2" s="1" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B2:$H2, 7), $B2:$H2, 0))</f>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="Y2" s="3">
         <f>I2</f>
@@ -3186,35 +3185,35 @@
         <v>1.8312442314646793E-2</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" ref="R3:R7" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S7" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" ref="T3:T7" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
         <f t="shared" ref="U3:U7" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
         <f t="shared" ref="V3:V7" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" ref="W3:W7" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
         <f t="shared" ref="X3:X7" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y6" si="8">I3</f>
@@ -3299,35 +3298,35 @@
         <v>6.4595727379881396E-3</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="T4" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="U4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="V4" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="X4" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="8"/>
@@ -3412,35 +3411,35 @@
         <v>2.3432729545773245E-2</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="S5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="V5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="X5" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="8"/>
@@ -3525,35 +3524,35 @@
         <v>1.6896698187487846E-2</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="S6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="T6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="X6" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" si="8"/>
@@ -3615,31 +3614,31 @@
       </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Energy</v>
+        <v>Ener</v>
       </c>
       <c r="S7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Fin ex Banking</v>
+        <v>Fin</v>
       </c>
       <c r="T7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Banking</v>
+        <v>Bank</v>
       </c>
       <c r="U7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Utility</v>
+        <v>Util</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Cyclical</v>
+        <v>Cycl</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Infrastructure</v>
+        <v>Infra</v>
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Defensive</v>
+        <v>Def</v>
       </c>
       <c r="Z7" s="3">
         <f ca="1">OFFSET($B7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -863,27 +863,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N6" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O6" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P6" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P7" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q6" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q7" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R6" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R7" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S6" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S7" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -1158,23 +1158,23 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="U6" s="8">
-        <f t="shared" ref="U6" ca="1" si="13">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U6:U7" ca="1" si="13">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
         <v>1.44E-2</v>
       </c>
       <c r="V6" s="8">
-        <f t="shared" ref="V6" ca="1" si="14">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V6:V7" ca="1" si="14">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" ref="W6" ca="1" si="15">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W6:W7" ca="1" si="15">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="X6" s="8">
-        <f t="shared" ref="X6" ca="1" si="16">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X6:X7" ca="1" si="16">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" ref="Y6" ca="1" si="17">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="Y6:Y7" ca="1" si="17">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -1183,70 +1183,159 @@
         <v>45536</v>
       </c>
       <c r="B7" s="7">
-        <v>0.41988415000000001</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>0.41515833000000002</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0.43455621999999999</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>0.56244150000000004</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>0.43668273000000002</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7">
-        <v>0.42997639999999998</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K7" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 1), $B7:$G7, 0))</f>
+        <f t="shared" si="5"/>
         <v>China</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 2), $B7:$G7, 0))</f>
+        <f t="shared" si="6"/>
         <v>APAC</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 3), $B7:$G7, 0))</f>
+        <f t="shared" si="7"/>
         <v>UK</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 4), $B7:$G7, 0))</f>
+        <f t="shared" si="8"/>
         <v>EM</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 5), $B7:$G7, 0))</f>
+        <f t="shared" si="9"/>
         <v>US</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 6), $B7:$G7, 0))</f>
+        <f t="shared" si="10"/>
         <v>EUR</v>
       </c>
       <c r="T7" s="8">
-        <f ca="1">OFFSET($B7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
-        <v>0.56244150000000004</v>
+        <f ca="1">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" ref="U7:Y7" ca="1" si="18">OFFSET($B7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
-        <v>0.43668273000000002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="V7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.34E-2</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.39797833999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.44801435000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.55408449999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.57956470000000004</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.44969730000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.44619593000000002</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 1), $B8:$G8, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 2), $B8:$G8, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 3), $B8:$G8, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 4), $B8:$G8, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 5), $B8:$G8, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 6), $B8:$G8, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="T8" s="8">
+        <f ca="1">OFFSET($B8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <v>0.57956470000000004</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" ref="U8:Y8" ca="1" si="18">OFFSET($B8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <v>0.55408449999999998</v>
+      </c>
+      <c r="V8" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.43455621999999999</v>
-      </c>
-      <c r="W7" s="8">
+        <v>0.44969730000000002</v>
+      </c>
+      <c r="W8" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42997639999999998</v>
-      </c>
-      <c r="X7" s="8">
+        <v>0.44801435000000001</v>
+      </c>
+      <c r="X8" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41988415000000001</v>
-      </c>
-      <c r="Y7" s="8">
+        <v>0.44619593000000002</v>
+      </c>
+      <c r="Y8" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41515833000000002</v>
+        <v>0.39797833999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1380,15 +1469,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H6" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H7" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I6" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I7" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J6" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J7" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -1550,37 +1639,84 @@
         <v>45536</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12707705999999999</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>0.59813959999999999</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0.52462410000000004</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.77E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 1), $B7:$D7, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 2), $B7:$D7, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B7:$D7, 3), $B7:$D7, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
       <c r="K7" s="8">
-        <f ca="1">OFFSET($B7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
-        <v>0.59813959999999999</v>
+        <f t="shared" ref="K7" ca="1" si="9">OFFSET($E7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
+        <v>1.77E-2</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" ref="L7:M7" ca="1" si="9">OFFSET($B7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
-        <v>0.52462410000000004</v>
+        <f t="shared" ref="L7" ca="1" si="10">OFFSET($E7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12707705999999999</v>
+        <f t="shared" ref="M7" ca="1" si="11">OFFSET($E7, 0, MATCH(J7,$B$1:$D$1, 0)-1)</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.17074963000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.4328438</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.48811710000000003</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 1), $B8:$D8, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 2), $B8:$D8, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 3), $B8:$D8, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K8" s="8">
+        <f ca="1">OFFSET($B8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
+        <v>0.48811710000000003</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" ref="L8" ca="1" si="12">OFFSET($B8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
+        <v>0.4328438</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8" ca="1" si="13">OFFSET($B8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
+        <v>0.17074963000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1591,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1810,27 +1946,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N6" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N7" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O6" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O7" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P6" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P7" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q6" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q7" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R6" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S6" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -2130,70 +2266,159 @@
         <v>45536</v>
       </c>
       <c r="B7" s="4">
-        <v>0.41679832</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>0.48387926999999997</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>0.49029445999999999</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>0.50516430000000001</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0.49280544999999998</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4">
-        <v>0.36203491999999998</v>
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="N7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 1), $B7:$G7, 0))</f>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 2), $B7:$G7, 0))</f>
+        <f t="shared" si="2"/>
         <v>CB</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 3), $B7:$G7, 0))</f>
+        <f t="shared" si="3"/>
         <v>장기</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 4), $B7:$G7, 0))</f>
+        <f t="shared" si="4"/>
         <v>중기</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 5), $B7:$G7, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B7:$G7, 6), $B7:$G7, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
       <c r="T7" s="8">
-        <f ca="1">OFFSET($B7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
-        <v>0.50516430000000001</v>
+        <f t="shared" ref="T7" ca="1" si="14">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" ref="U7:Y7" ca="1" si="14">OFFSET($B7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
-        <v>0.49280544999999998</v>
+        <f t="shared" ref="U7" ca="1" si="15">OFFSET($H7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
+        <v>2.98E-2</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.49029445999999999</v>
+        <f t="shared" ref="V7" ca="1" si="16">OFFSET($H7, 0, MATCH(P7,$B$1:$G$1, 0)-1)</f>
+        <v>2.7E-2</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.48387926999999997</v>
+        <f t="shared" ref="W7" ca="1" si="17">OFFSET($H7, 0, MATCH(Q7,$B$1:$G$1, 0)-1)</f>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.41679832</v>
+        <f t="shared" ref="X7" ca="1" si="18">OFFSET($H7, 0, MATCH(R7,$B$1:$G$1, 0)-1)</f>
+        <v>1.04E-2</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.36203491999999998</v>
+        <f t="shared" ref="Y7" ca="1" si="19">OFFSET($H7, 0, MATCH(S7,$B$1:$G$1, 0)-1)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.43402815</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.44506522999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.46339446000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.47552726000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.47922157999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.39785966</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 1), $B8:$G8, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 2), $B8:$G8, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 3), $B8:$G8, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 4), $B8:$G8, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 5), $B8:$G8, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 6), $B8:$G8, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T8" s="8">
+        <f ca="1">OFFSET($B8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <v>0.47922157999999998</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" ref="U8" ca="1" si="20">OFFSET($B8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <v>0.47552726000000001</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8" ca="1" si="21">OFFSET($B8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
+        <v>0.46339446000000001</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" ref="W8" ca="1" si="22">OFFSET($B8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
+        <v>0.44506522999999998</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" ref="X8" ca="1" si="23">OFFSET($B8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
+        <v>0.43402815</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" ref="Y8" ca="1" si="24">OFFSET($B8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
+        <v>0.39785966</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2455,31 +2680,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P6" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P7" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q6" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q7" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R6" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R7" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S6" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S7" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T6" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T7" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U6" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U7" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V6" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V7" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -2825,81 +3050,184 @@
         <v>45536</v>
       </c>
       <c r="B7" s="4">
-        <v>0.57451490000000005</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0.51027935999999996</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>0.44822820000000002</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
-        <v>0.37309357999999998</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4">
-        <v>0.42091513000000003</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4">
-        <v>0.43167369999999999</v>
+        <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>0.50650083999999995</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.06E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.35E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 1), $B7:$H7, 0))</f>
+        <f t="shared" si="5"/>
         <v>초단기</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 2), $B7:$H7, 0))</f>
+        <f t="shared" si="6"/>
         <v>중단기</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 3), $B7:$H7, 0))</f>
+        <f t="shared" si="7"/>
         <v>TIPS</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 4), $B7:$H7, 0))</f>
+        <f t="shared" si="8"/>
         <v>중기</v>
       </c>
       <c r="T7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 5), $B7:$H7, 0))</f>
+        <f t="shared" si="9"/>
         <v>지방정부</v>
       </c>
       <c r="U7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 6), $B7:$H7, 0))</f>
+        <f t="shared" si="10"/>
         <v>초장기</v>
       </c>
       <c r="V7" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B7:$H7, 7), $B7:$H7, 0))</f>
+        <f t="shared" si="11"/>
         <v>장기</v>
       </c>
       <c r="W7" s="8">
-        <f ca="1">OFFSET($B7, 0, MATCH(P7,$B$1:$H$1, 0)-1)</f>
-        <v>0.57451490000000005</v>
+        <f t="shared" ref="W7" ca="1" si="20">OFFSET($I7, 0, MATCH(P7,$B$1:$H$1, 0)-1)</f>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" ref="X7:AC7" ca="1" si="20">OFFSET($B7, 0, MATCH(Q7,$B$1:$H$1, 0)-1)</f>
-        <v>0.51027935999999996</v>
+        <f t="shared" ref="X7" ca="1" si="21">OFFSET($I7, 0, MATCH(Q7,$B$1:$H$1, 0)-1)</f>
+        <v>1.06E-2</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.50650083999999995</v>
+        <f t="shared" ref="Y7" ca="1" si="22">OFFSET($I7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.44822820000000002</v>
+        <f t="shared" ref="Z7" ca="1" si="23">OFFSET($I7, 0, MATCH(S7,$B$1:$H$1, 0)-1)</f>
+        <v>1.35E-2</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.43167369999999999</v>
+        <f t="shared" ref="AA7" ca="1" si="24">OFFSET($I7, 0, MATCH(T7,$B$1:$H$1, 0)-1)</f>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.42091513000000003</v>
+        <f t="shared" ref="AB7" ca="1" si="25">OFFSET($I7, 0, MATCH(U7,$B$1:$H$1, 0)-1)</f>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.37309357999999998</v>
+        <f t="shared" ref="AC7" ca="1" si="26">OFFSET($I7, 0, MATCH(V7,$B$1:$H$1, 0)-1)</f>
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.65049199999999996</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.56910442999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.45712956999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.37281317000000003</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.43008395999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.49569996999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.5451606</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 1), $B8:$H8, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 2), $B8:$H8, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 3), $B8:$H8, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 4), $B8:$H8, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 5), $B8:$H8, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="U8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 6), $B8:$H8, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 7), $B8:$H8, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="W8" s="8">
+        <f ca="1">OFFSET($B8, 0, MATCH(P8,$B$1:$H$1, 0)-1)</f>
+        <v>0.65049199999999996</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" ref="X8" ca="1" si="27">OFFSET($B8, 0, MATCH(Q8,$B$1:$H$1, 0)-1)</f>
+        <v>0.56910442999999999</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" ref="Y8" ca="1" si="28">OFFSET($B8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
+        <v>0.5451606</v>
+      </c>
+      <c r="Z8" s="8">
+        <f t="shared" ref="Z8" ca="1" si="29">OFFSET($B8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
+        <v>0.49569996999999999</v>
+      </c>
+      <c r="AA8" s="8">
+        <f t="shared" ref="AA8" ca="1" si="30">OFFSET($B8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
+        <v>0.45712956999999999</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" ref="AB8" ca="1" si="31">OFFSET($B8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
+        <v>0.43008395999999999</v>
+      </c>
+      <c r="AC8" s="8">
+        <f t="shared" ref="AC8" ca="1" si="32">OFFSET($B8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
+        <v>0.37281317000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2910,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3188,35 +3516,35 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R7" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R8" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S7" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S8" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T7" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T8" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U7" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U8" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V7" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V8" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W7" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W8" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X7" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X8" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y6" si="8">I3</f>
+        <f t="shared" ref="Y3:Y7" si="8">I3</f>
         <v>1.8729909964657621E-2</v>
       </c>
       <c r="Z3" s="3">
@@ -3612,6 +3940,33 @@
       <c r="H7" s="1">
         <v>0.56211872696876519</v>
       </c>
+      <c r="I7" s="3">
+        <v>1.7729751783475134E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.61971832356127E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.8505971429233048E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.4521902164649214E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.939455382703259E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2.3436477787867505E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.5187671833356786E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.7793125454969028E-2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Ener</v>
@@ -3640,33 +3995,120 @@
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="8"/>
+        <v>1.7729751783475134E-2</v>
+      </c>
       <c r="Z7" s="3">
-        <f ca="1">OFFSET($B7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>
-        <v>0.5720584452152252</v>
+        <f t="shared" ref="Z7" ca="1" si="16">OFFSET($J7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>
+        <v>1.4521902164649214E-2</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" ref="AA7:AF7" ca="1" si="16">OFFSET($B7, 0, MATCH(S7,$B$1:$H$1, 0)-1)</f>
-        <v>0.56211872696876519</v>
+        <f t="shared" ref="AA7" ca="1" si="17">OFFSET($J7, 0, MATCH(S7,$B$1:$H$1, 0)-1)</f>
+        <v>1.7793125454969028E-2</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.52419025897979732</v>
+        <f t="shared" ref="AB7" ca="1" si="18">OFFSET($J7, 0, MATCH(T7,$B$1:$H$1, 0)-1)</f>
+        <v>1.5187671833356786E-2</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.49498879909515398</v>
+        <f t="shared" ref="AC7" ca="1" si="19">OFFSET($J7, 0, MATCH(U7,$B$1:$H$1, 0)-1)</f>
+        <v>2.3436477787867505E-2</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.44310544729232781</v>
+        <f t="shared" ref="AD7" ca="1" si="20">OFFSET($J7, 0, MATCH(V7,$B$1:$H$1, 0)-1)</f>
+        <v>1.61971832356127E-2</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.423749303817749</v>
+        <f t="shared" ref="AE7" ca="1" si="21">OFFSET($J7, 0, MATCH(W7,$B$1:$H$1, 0)-1)</f>
+        <v>1.939455382703259E-2</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.39746590256690978</v>
+        <f t="shared" ref="AF7" ca="1" si="22">OFFSET($J7, 0, MATCH(X7,$B$1:$H$1, 0)-1)</f>
+        <v>1.8505971429233048E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.45797642469406119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.39843764305114782</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.57311078906059265</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.37842682600021355</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.50561081767082228</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.50581070184707644</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.59231991767883296</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bank</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Util</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Def</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Infra</v>
+      </c>
+      <c r="Z8" s="3">
+        <f ca="1">OFFSET($B8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
+        <v>0.59231991767883296</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" ref="AA8" ca="1" si="23">OFFSET($B8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
+        <v>0.57311078906059265</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" ref="AB8" ca="1" si="24">OFFSET($B8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
+        <v>0.50581070184707644</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" ref="AC8" ca="1" si="25">OFFSET($B8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
+        <v>0.50561081767082228</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" ref="AD8" ca="1" si="26">OFFSET($B8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
+        <v>0.45797642469406119</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8" ca="1" si="27">OFFSET($B8, 0, MATCH(W8,$B$1:$H$1, 0)-1)</f>
+        <v>0.39843764305114782</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" ref="AF8" ca="1" si="28">OFFSET($B8, 0, MATCH(X8,$B$1:$H$1, 0)-1)</f>
+        <v>0.37842682600021355</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -863,27 +863,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N8" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O8" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P8" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q8" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R8" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S8" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -1272,70 +1272,159 @@
         <v>45566</v>
       </c>
       <c r="B8" s="4">
-        <v>0.39797833999999999</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>0.44801435000000001</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.55408449999999998</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>0.57956470000000004</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.44969730000000002</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
-        <v>0.44619593000000002</v>
+        <v>5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>-2.4798842000000001E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-8.1659679999999991E-3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-2.2272449E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.1940579999999996E-3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-6.0108700000000003E-5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>-1.5717404000000001E-2</v>
       </c>
       <c r="N8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 1), $B8:$G8, 0))</f>
+        <f t="shared" si="5"/>
         <v>China</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 2), $B8:$G8, 0))</f>
+        <f t="shared" si="6"/>
         <v>UK</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 3), $B8:$G8, 0))</f>
+        <f t="shared" si="7"/>
         <v>APAC</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 4), $B8:$G8, 0))</f>
+        <f t="shared" si="8"/>
         <v>EUR</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 5), $B8:$G8, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 6), $B8:$G8, 0))</f>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="T8" s="8">
-        <f ca="1">OFFSET($B8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
-        <v>0.57956470000000004</v>
+        <f ca="1">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <v>4.1940579999999996E-3</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" ref="U8:Y8" ca="1" si="18">OFFSET($B8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
-        <v>0.55408449999999998</v>
+        <f t="shared" ref="U8" ca="1" si="18">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <v>-2.2272449E-2</v>
       </c>
       <c r="V8" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.44969730000000002</v>
+        <f t="shared" ref="V8" ca="1" si="19">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
+        <v>-6.0108700000000003E-5</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.44801435000000001</v>
+        <f t="shared" ref="W8" ca="1" si="20">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
+        <v>-8.1659679999999991E-3</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.44619593000000002</v>
+        <f t="shared" ref="X8" ca="1" si="21">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
+        <v>-1.5717404000000001E-2</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.39797833999999999</v>
+        <f t="shared" ref="Y8" ca="1" si="22">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
+        <v>-2.4798842000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.49183359999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.49667230000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.53790150000000003</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.48230810000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.47331092000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.40821049999999998</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 1), $B9:$G9, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 2), $B9:$G9, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 3), $B9:$G9, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 4), $B9:$G9, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 5), $B9:$G9, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 6), $B9:$G9, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="T9" s="8">
+        <f ca="1">OFFSET($B9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <v>0.53790150000000003</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9:Y9" ca="1" si="23">OFFSET($B9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <v>0.49667230000000001</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.49183359999999998</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.48230810000000002</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.47331092000000002</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.40821049999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1469,15 +1558,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H7" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H8" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I7" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I8" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J7" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J8" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -1686,37 +1775,84 @@
         <v>45566</v>
       </c>
       <c r="B8" s="4">
-        <v>0.17074963000000001</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4328438</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>0.48811710000000003</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-2.3811135000000001E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-2.4271330000000001E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2.8309049999999999E-2</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 1), $B8:$D8, 0))</f>
+        <f t="shared" si="2"/>
         <v>MBS</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 2), $B8:$D8, 0))</f>
+        <f t="shared" si="3"/>
         <v>Corp</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B8:$D8, 3), $B8:$D8, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
       <c r="K8" s="8">
-        <f ca="1">OFFSET($B8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
-        <v>0.48811710000000003</v>
+        <f t="shared" ref="K8" ca="1" si="12">OFFSET($E8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.8309049999999999E-2</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" ref="L8" ca="1" si="12">OFFSET($B8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
-        <v>0.4328438</v>
+        <f t="shared" ref="L8" ca="1" si="13">OFFSET($E8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.4271330000000001E-2</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" ref="M8" ca="1" si="13">OFFSET($B8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
-        <v>0.17074963000000001</v>
+        <f t="shared" ref="M8" ca="1" si="14">OFFSET($E8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.3811135000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.24122921999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.64447295999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.36825612000000002</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 1), $B9:$D9, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 2), $B9:$D9, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 3), $B9:$D9, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K9" s="8">
+        <f ca="1">OFFSET($B9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
+        <v>0.64447295999999998</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9:M9" ca="1" si="15">OFFSET($B9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
+        <v>0.36825612000000002</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.24122921999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1946,27 +2082,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N7" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N8" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O7" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O8" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P8" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q8" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R8" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S8" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -2355,70 +2491,159 @@
         <v>45566</v>
       </c>
       <c r="B8" s="4">
-        <v>0.43402815</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>0.44506522999999998</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.46339446000000001</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>0.47552726000000001</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>0.47922157999999998</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0.39785966</v>
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-8.9353179999999994E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-2.3687716000000001E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-4.1607038999999998E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-5.4060920000000004E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5.585652E-3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>5.0430500000000003E-3</v>
       </c>
       <c r="N8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 1), $B8:$G8, 0))</f>
+        <f t="shared" si="1"/>
         <v>CB</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 2), $B8:$G8, 0))</f>
+        <f t="shared" si="2"/>
         <v>HY</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 3), $B8:$G8, 0))</f>
+        <f t="shared" si="3"/>
         <v>장기</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 4), $B8:$G8, 0))</f>
+        <f t="shared" si="4"/>
         <v>중기</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 5), $B8:$G8, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B8:$G8, 6), $B8:$G8, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
       <c r="T8" s="8">
-        <f ca="1">OFFSET($B8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
-        <v>0.47922157999999998</v>
+        <f t="shared" ref="T8" ca="1" si="20">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <v>5.585652E-3</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" ref="U8" ca="1" si="20">OFFSET($B8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
-        <v>0.47552726000000001</v>
+        <f t="shared" ref="U8" ca="1" si="21">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <v>-5.4060920000000004E-3</v>
       </c>
       <c r="V8" s="8">
-        <f t="shared" ref="V8" ca="1" si="21">OFFSET($B8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
-        <v>0.46339446000000001</v>
+        <f t="shared" ref="V8" ca="1" si="22">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
+        <v>-4.1607038999999998E-2</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" ref="W8" ca="1" si="22">OFFSET($B8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
-        <v>0.44506522999999998</v>
+        <f t="shared" ref="W8" ca="1" si="23">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
+        <v>-2.3687716000000001E-2</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8" ca="1" si="23">OFFSET($B8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
-        <v>0.43402815</v>
+        <f t="shared" ref="X8" ca="1" si="24">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
+        <v>-8.9353179999999994E-3</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" ref="Y8" ca="1" si="24">OFFSET($B8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
-        <v>0.39785966</v>
+        <f t="shared" ref="Y8" ca="1" si="25">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
+        <v>5.0430500000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.46214630000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.48331878</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.51844190000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.49971926</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.53536289999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.43079904000000002</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 1), $B9:$G9, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 2), $B9:$G9, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 3), $B9:$G9, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 4), $B9:$G9, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 5), $B9:$G9, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 6), $B9:$G9, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T9" s="8">
+        <f ca="1">OFFSET($B9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <v>0.53536289999999997</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9" ca="1" si="26">OFFSET($B9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <v>0.51844190000000001</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ref="V9" ca="1" si="27">OFFSET($B9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
+        <v>0.49971926</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" ref="W9" ca="1" si="28">OFFSET($B9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
+        <v>0.48331878</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" ref="X9" ca="1" si="29">OFFSET($B9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
+        <v>0.46214630000000001</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ref="Y9" ca="1" si="30">OFFSET($B9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
+        <v>0.43079904000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2680,31 +2905,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P7" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P8" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q7" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q8" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R7" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R8" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S7" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S8" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T7" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T8" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U7" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U8" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V7" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V8" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -3153,81 +3378,184 @@
         <v>45566</v>
       </c>
       <c r="B8" s="4">
-        <v>0.65049199999999996</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>0.56910442999999999</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>0.45712956999999999</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
-        <v>0.37281317000000003</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4">
-        <v>0.43008395999999999</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4">
-        <v>0.49569996999999999</v>
+        <v>4</v>
       </c>
       <c r="H8" s="4">
-        <v>0.5451606</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-6.0752499999999999E-3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-2.1345422999999999E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-3.3358012999999999E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-4.9273731000000001E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-5.414741E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-1.4581078000000001E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-1.7940283000000001E-2</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 1), $B8:$H8, 0))</f>
+        <f t="shared" si="5"/>
         <v>초단기</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 2), $B8:$H8, 0))</f>
+        <f t="shared" si="6"/>
         <v>중단기</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 3), $B8:$H8, 0))</f>
+        <f t="shared" si="7"/>
         <v>TIPS</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 4), $B8:$H8, 0))</f>
+        <f t="shared" si="8"/>
         <v>지방정부</v>
       </c>
       <c r="T8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 5), $B8:$H8, 0))</f>
+        <f t="shared" si="9"/>
         <v>중기</v>
       </c>
       <c r="U8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 6), $B8:$H8, 0))</f>
+        <f t="shared" si="10"/>
         <v>초장기</v>
       </c>
       <c r="V8" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B8:$H8, 7), $B8:$H8, 0))</f>
+        <f t="shared" si="11"/>
         <v>장기</v>
       </c>
       <c r="W8" s="8">
-        <f ca="1">OFFSET($B8, 0, MATCH(P8,$B$1:$H$1, 0)-1)</f>
-        <v>0.65049199999999996</v>
+        <f t="shared" ref="W8" ca="1" si="27">OFFSET($I8, 0, MATCH(P8,$B$1:$H$1, 0)-1)</f>
+        <v>-6.0752499999999999E-3</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8" ca="1" si="27">OFFSET($B8, 0, MATCH(Q8,$B$1:$H$1, 0)-1)</f>
-        <v>0.56910442999999999</v>
+        <f t="shared" ref="X8" ca="1" si="28">OFFSET($I8, 0, MATCH(Q8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.1345422999999999E-2</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" ref="Y8" ca="1" si="28">OFFSET($B8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
-        <v>0.5451606</v>
+        <f t="shared" ref="Y8" ca="1" si="29">OFFSET($I8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
+        <v>-1.7940283000000001E-2</v>
       </c>
       <c r="Z8" s="8">
-        <f t="shared" ref="Z8" ca="1" si="29">OFFSET($B8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
-        <v>0.49569996999999999</v>
+        <f t="shared" ref="Z8" ca="1" si="30">OFFSET($I8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
+        <v>-1.4581078000000001E-2</v>
       </c>
       <c r="AA8" s="8">
-        <f t="shared" ref="AA8" ca="1" si="30">OFFSET($B8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
-        <v>0.45712956999999999</v>
+        <f t="shared" ref="AA8" ca="1" si="31">OFFSET($I8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
+        <v>-3.3358012999999999E-2</v>
       </c>
       <c r="AB8" s="8">
-        <f t="shared" ref="AB8" ca="1" si="31">OFFSET($B8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
-        <v>0.43008395999999999</v>
+        <f t="shared" ref="AB8" ca="1" si="32">OFFSET($I8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
+        <v>-5.414741E-2</v>
       </c>
       <c r="AC8" s="8">
-        <f t="shared" ref="AC8" ca="1" si="32">OFFSET($B8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
-        <v>0.37281317000000003</v>
+        <f t="shared" ref="AC8" ca="1" si="33">OFFSET($I8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
+        <v>-4.9273731000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.31876093</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.31530111999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.40472332</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.56013732999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.63017199999999995</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.32509437000000002</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.40371763999999999</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 1), $B9:$H9, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 2), $B9:$H9, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 3), $B9:$H9, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 4), $B9:$H9, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 5), $B9:$H9, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 6), $B9:$H9, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 7), $B9:$H9, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="W9" s="8">
+        <f ca="1">OFFSET($B9, 0, MATCH(P9,$B$1:$H$1, 0)-1)</f>
+        <v>0.63017199999999995</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" ref="X9" ca="1" si="34">OFFSET($B9, 0, MATCH(Q9,$B$1:$H$1, 0)-1)</f>
+        <v>0.56013732999999999</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ref="Y9" ca="1" si="35">OFFSET($B9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
+        <v>0.40472332</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" ref="Z9" ca="1" si="36">OFFSET($B9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
+        <v>0.40371763999999999</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" ref="AA9" ca="1" si="37">OFFSET($B9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
+        <v>0.32509437000000002</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9" ca="1" si="38">OFFSET($B9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
+        <v>0.31876093</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" ref="AC9" ca="1" si="39">OFFSET($B9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
+        <v>0.31530111999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3238,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3516,31 +3844,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R8" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R9" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S8" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S9" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T8" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T9" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U8" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U9" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V8" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V9" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W8" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W9" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X8" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X9" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -4053,7 +4381,33 @@
       <c r="H8" s="1">
         <v>0.59231991767883296</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="I8" s="3">
+        <v>-2.427132952884048E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-2.2708628552407406E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-2.7225972966694045E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-2.4595947716810396E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-2.7707154335527839E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-2.7645128996164559E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1.7909648289155533E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-2.3083050153395734E-2</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -4082,33 +4436,119 @@
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
+      <c r="Y8" s="3">
+        <f t="shared" ref="Y8" si="23">I8</f>
+        <v>-2.427132952884048E-2</v>
+      </c>
       <c r="Z8" s="3">
-        <f ca="1">OFFSET($B8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
-        <v>0.59231991767883296</v>
+        <f t="shared" ref="Z8" ca="1" si="24">OFFSET($J8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.3083050153395734E-2</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" ref="AA8" ca="1" si="23">OFFSET($B8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
-        <v>0.57311078906059265</v>
+        <f t="shared" ref="AA8" ca="1" si="25">OFFSET($J8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.4595947716810396E-2</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" ref="AB8" ca="1" si="24">OFFSET($B8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
-        <v>0.50581070184707644</v>
+        <f t="shared" ref="AB8" ca="1" si="26">OFFSET($J8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
+        <v>-1.7909648289155533E-2</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" ref="AC8" ca="1" si="25">OFFSET($B8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
-        <v>0.50561081767082228</v>
+        <f t="shared" ref="AC8" ca="1" si="27">OFFSET($J8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.7645128996164559E-2</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" ref="AD8" ca="1" si="26">OFFSET($B8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
-        <v>0.45797642469406119</v>
+        <f t="shared" ref="AD8" ca="1" si="28">OFFSET($J8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.2708628552407406E-2</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" ref="AE8" ca="1" si="27">OFFSET($B8, 0, MATCH(W8,$B$1:$H$1, 0)-1)</f>
-        <v>0.39843764305114782</v>
+        <f t="shared" ref="AE8" ca="1" si="29">OFFSET($J8, 0, MATCH(W8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.7225972966694045E-2</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" ref="AF8" ca="1" si="28">OFFSET($B8, 0, MATCH(X8,$B$1:$H$1, 0)-1)</f>
-        <v>0.37842682600021355</v>
+        <f t="shared" ref="AF8" ca="1" si="30">OFFSET($J8, 0, MATCH(X8,$B$1:$H$1, 0)-1)</f>
+        <v>-2.7707154335527839E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.46176339387893661</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.40142018198967</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5549947261810303</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.42475991249084483</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.52630550265312226</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51494744420051564</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.61898368597030662</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Def</v>
+      </c>
+      <c r="Z9" s="3">
+        <f ca="1">OFFSET($B9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
+        <v>0.61898368597030662</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" ref="AA9" ca="1" si="31">OFFSET($B9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
+        <v>0.5549947261810303</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" ref="AB9" ca="1" si="32">OFFSET($B9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
+        <v>0.52630550265312226</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" ref="AC9" ca="1" si="33">OFFSET($B9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
+        <v>0.51494744420051564</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" ref="AD9" ca="1" si="34">OFFSET($B9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
+        <v>0.46176339387893661</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" ref="AE9" ca="1" si="35">OFFSET($B9, 0, MATCH(W9,$B$1:$H$1, 0)-1)</f>
+        <v>0.42475991249084483</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" ref="AF9" ca="1" si="36">OFFSET($B9, 0, MATCH(X9,$B$1:$H$1, 0)-1)</f>
+        <v>0.40142018198967</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -306,16 +306,369 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,16 +676,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,10 +1019,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="59" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="70">
+    <cellStyle name="20% - 강조색1 2" xfId="21"/>
+    <cellStyle name="20% - 강조색2 2" xfId="25"/>
+    <cellStyle name="20% - 강조색3 2" xfId="29"/>
+    <cellStyle name="20% - 강조색4 2" xfId="33"/>
+    <cellStyle name="20% - 강조색5 2" xfId="37"/>
+    <cellStyle name="20% - 강조색6 2" xfId="41"/>
+    <cellStyle name="40% - 강조색1 2" xfId="22"/>
+    <cellStyle name="40% - 강조색2 2" xfId="26"/>
+    <cellStyle name="40% - 강조색3 2" xfId="30"/>
+    <cellStyle name="40% - 강조색4 2" xfId="34"/>
+    <cellStyle name="40% - 강조색5 2" xfId="38"/>
+    <cellStyle name="40% - 강조색6 2" xfId="42"/>
+    <cellStyle name="60% - 강조색1 2" xfId="23"/>
+    <cellStyle name="60% - 강조색2 2" xfId="27"/>
+    <cellStyle name="60% - 강조색3 2" xfId="31"/>
+    <cellStyle name="60% - 강조색4 2" xfId="35"/>
+    <cellStyle name="60% - 강조색5 2" xfId="39"/>
+    <cellStyle name="60% - 강조색6 2" xfId="43"/>
+    <cellStyle name="blp_column_header" xfId="55"/>
+    <cellStyle name="강조색1 2" xfId="20"/>
+    <cellStyle name="강조색2 2" xfId="24"/>
+    <cellStyle name="강조색3 2" xfId="28"/>
+    <cellStyle name="강조색4 2" xfId="32"/>
+    <cellStyle name="강조색5 2" xfId="36"/>
+    <cellStyle name="강조색6 2" xfId="40"/>
+    <cellStyle name="경고문 2" xfId="16"/>
+    <cellStyle name="계산 2" xfId="13"/>
+    <cellStyle name="나쁨 2" xfId="9"/>
+    <cellStyle name="메모 2" xfId="17"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="백분율 2" xfId="58"/>
+    <cellStyle name="백분율 3" xfId="67"/>
+    <cellStyle name="백분율 4" xfId="56"/>
+    <cellStyle name="보통 2" xfId="10"/>
+    <cellStyle name="常规 2" xfId="45"/>
+    <cellStyle name="常规 2 2" xfId="63"/>
+    <cellStyle name="설명 텍스트 2" xfId="18"/>
+    <cellStyle name="셀 확인 2" xfId="15"/>
+    <cellStyle name="연결된 셀 2" xfId="14"/>
+    <cellStyle name="요약 2" xfId="19"/>
+    <cellStyle name="입력 2" xfId="11"/>
+    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1 2" xfId="4"/>
+    <cellStyle name="제목 2 2" xfId="5"/>
+    <cellStyle name="제목 3 2" xfId="6"/>
+    <cellStyle name="제목 4 2" xfId="7"/>
+    <cellStyle name="좋음 2" xfId="8"/>
+    <cellStyle name="출력 2" xfId="12"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 10" xfId="57"/>
+    <cellStyle name="표준 11" xfId="59"/>
+    <cellStyle name="표준 11 2" xfId="68"/>
+    <cellStyle name="표준 12" xfId="60"/>
+    <cellStyle name="표준 12 2" xfId="69"/>
+    <cellStyle name="표준 13" xfId="62"/>
+    <cellStyle name="표준 14" xfId="61"/>
+    <cellStyle name="표준 15" xfId="44"/>
+    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2 2" xfId="46"/>
+    <cellStyle name="표준 3" xfId="47"/>
+    <cellStyle name="표준 4" xfId="48"/>
+    <cellStyle name="표준 5" xfId="49"/>
+    <cellStyle name="표준 5 2" xfId="50"/>
+    <cellStyle name="표준 5 2 2" xfId="65"/>
+    <cellStyle name="표준 5 3" xfId="64"/>
+    <cellStyle name="표준 6" xfId="51"/>
+    <cellStyle name="표준 7" xfId="52"/>
+    <cellStyle name="표준 8" xfId="53"/>
+    <cellStyle name="표준 9" xfId="54"/>
+    <cellStyle name="표준 9 2" xfId="66"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -863,27 +1598,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N8" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N9" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O8" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O9" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P8" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P9" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q8" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q9" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R8" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R9" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S8" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S9" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -1361,71 +2096,175 @@
         <v>45597</v>
       </c>
       <c r="B9" s="4">
-        <v>0.49183359999999998</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.49667230000000001</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.53790150000000003</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0.48230810000000002</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>0.47331092000000002</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>0.40821049999999998</v>
+        <v>6</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.0571390946202852E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.947040498442365E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.661529570410325E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.1178452095784275E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5.7952449059965883E-3</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.585090513841414E-2</v>
       </c>
       <c r="N9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 1), $B9:$G9, 0))</f>
+        <f t="shared" si="5"/>
         <v>UK</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 2), $B9:$G9, 0))</f>
+        <f t="shared" si="6"/>
         <v>EUR</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 3), $B9:$G9, 0))</f>
+        <f t="shared" si="7"/>
         <v>US</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 4), $B9:$G9, 0))</f>
+        <f t="shared" si="8"/>
         <v>China</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 5), $B9:$G9, 0))</f>
+        <f t="shared" si="9"/>
         <v>APAC</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 6), $B9:$G9, 0))</f>
+        <f t="shared" si="10"/>
         <v>EM</v>
       </c>
       <c r="T9" s="8">
-        <f ca="1">OFFSET($B9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
-        <v>0.53790150000000003</v>
+        <f ca="1">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <v>1.661529570410325E-2</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" ref="U9:Y9" ca="1" si="23">OFFSET($B9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
-        <v>0.49667230000000001</v>
+        <f t="shared" ref="U9" ca="1" si="23">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <v>1.947040498442365E-2</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>0.49183359999999998</v>
+        <f t="shared" ref="V9" ca="1" si="24">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
+        <v>1.0571390946202852E-2</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>0.48230810000000002</v>
+        <f t="shared" ref="W9" ca="1" si="25">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
+        <v>1.1178452095784275E-2</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>0.47331092000000002</v>
+        <f t="shared" ref="X9" ca="1" si="26">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
+        <v>5.7952449059965883E-3</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>0.40821049999999998</v>
-      </c>
+        <f ca="1">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
+        <v>1.585090513841414E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.53247606999999997</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.51438070000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.49677463999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.49832865999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.44832422999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.45812696000000003</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 1), $B10:$G10, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 2), $B10:$G10, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 3), $B10:$G10, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 4), $B10:$G10, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 5), $B10:$G10, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 6), $B10:$G10, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="T10" s="8">
+        <f ca="1">OFFSET($B10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <v>0.53247606999999997</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" ref="U10" ca="1" si="27">OFFSET($B10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <v>0.51438070000000002</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" ref="V10" ca="1" si="28">OFFSET($B10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <v>0.49832865999999998</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" ref="W10" ca="1" si="29">OFFSET($B10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <v>0.49677463999999999</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" ref="X10" ca="1" si="30">OFFSET($B10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <v>0.45812696000000003</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10" ca="1" si="31">OFFSET($B10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <v>0.44832422999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1435,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1558,15 +2397,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H8" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H9" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I8" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I9" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J8" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J9" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -1822,37 +2661,84 @@
         <v>45597</v>
       </c>
       <c r="B9" s="4">
-        <v>0.24122921999999999</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.64447295999999998</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>0.36825612000000002</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7.7724921365256439E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.337707770668306E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.3330065933659485E-2</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 1), $B9:$D9, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 2), $B9:$D9, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B9:$D9, 3), $B9:$D9, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
       <c r="K9" s="8">
-        <f ca="1">OFFSET($B9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
-        <v>0.64447295999999998</v>
+        <f t="shared" ref="K9" ca="1" si="15">OFFSET($E9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
+        <v>1.337707770668306E-2</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" ref="L9:M9" ca="1" si="15">OFFSET($B9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
-        <v>0.36825612000000002</v>
+        <f t="shared" ref="L9" ca="1" si="16">OFFSET($E9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
+        <v>1.3330065933659485E-2</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.24122921999999999</v>
+        <f t="shared" ref="M9" ca="1" si="17">OFFSET($E9, 0, MATCH(J9,$B$1:$D$1, 0)-1)</f>
+        <v>7.7724921365256439E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.28167715999999998</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.6250462</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.42695484</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 1), $B10:$D10, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 2), $B10:$D10, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 3), $B10:$D10, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K10" s="8">
+        <f ca="1">OFFSET($B10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
+        <v>0.6250462</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" ca="1" si="18">OFFSET($B10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
+        <v>0.42695484</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10" ca="1" si="19">OFFSET($B10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
+        <v>0.28167715999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1863,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2082,27 +2968,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N8" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N9" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O8" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O9" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P8" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P9" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q8" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q9" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R8" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R9" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S8" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S9" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -2580,70 +3466,159 @@
         <v>45597</v>
       </c>
       <c r="B9" s="4">
-        <v>0.46214630000000001</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>0.48331878</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>0.51844190000000001</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.49971926</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>0.53536289999999997</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>0.43079904000000002</v>
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.286436594046263E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.2019362649438925E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.2672848980195726E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.1505341631693922E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6.2065634663099889E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4.4670175009180468E-3</v>
       </c>
       <c r="N9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 1), $B9:$G9, 0))</f>
+        <f t="shared" si="1"/>
         <v>CB</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 2), $B9:$G9, 0))</f>
+        <f t="shared" si="2"/>
         <v>장기</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 3), $B9:$G9, 0))</f>
+        <f t="shared" si="3"/>
         <v>HY</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 4), $B9:$G9, 0))</f>
+        <f t="shared" si="4"/>
         <v>중기</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 5), $B9:$G9, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B9:$G9, 6), $B9:$G9, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
       <c r="T9" s="8">
-        <f ca="1">OFFSET($B9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
-        <v>0.53536289999999997</v>
+        <f t="shared" ref="T9" ca="1" si="26">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <v>6.2065634663099889E-2</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" ref="U9" ca="1" si="26">OFFSET($B9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
-        <v>0.51844190000000001</v>
+        <f t="shared" ref="U9" ca="1" si="27">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <v>2.2672848980195726E-2</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" ref="V9" ca="1" si="27">OFFSET($B9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
-        <v>0.49971926</v>
+        <f t="shared" ref="V9" ca="1" si="28">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
+        <v>1.1505341631693922E-2</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" ref="W9" ca="1" si="28">OFFSET($B9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
-        <v>0.48331878</v>
+        <f t="shared" ref="W9" ca="1" si="29">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
+        <v>1.2019362649438925E-2</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" ref="X9" ca="1" si="29">OFFSET($B9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
-        <v>0.46214630000000001</v>
+        <f t="shared" ref="X9" ca="1" si="30">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
+        <v>6.286436594046263E-3</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" ref="Y9" ca="1" si="30">OFFSET($B9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
-        <v>0.43079904000000002</v>
+        <f t="shared" ref="Y9" ca="1" si="31">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
+        <v>4.4670175009180468E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.52926890000000004</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.56457186000000004</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.55779509999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.47783604000000002</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.50685537000000003</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.44940210000000003</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 1), $B10:$G10, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 2), $B10:$G10, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 3), $B10:$G10, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 4), $B10:$G10, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 5), $B10:$G10, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 6), $B10:$G10, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T10" s="8">
+        <f ca="1">OFFSET($B10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <v>0.56457186000000004</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" ref="U10" ca="1" si="32">OFFSET($B10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <v>0.55779509999999999</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" ref="V10" ca="1" si="33">OFFSET($B10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <v>0.52926890000000004</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" ref="W10" ca="1" si="34">OFFSET($B10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <v>0.50685537000000003</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" ref="X10" ca="1" si="35">OFFSET($B10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <v>0.47783604000000002</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10" ca="1" si="36">OFFSET($B10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <v>0.44940210000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2654,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3481,37 +4456,58 @@
         <v>45597</v>
       </c>
       <c r="B9" s="4">
-        <v>0.31876093</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>0.31530111999999999</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
-        <v>0.40472332</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>0.56013732999999999</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>0.63017199999999995</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>0.32509437000000002</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>0.40371763999999999</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2.8825449746474607E-3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.009916361997325E-3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>9.701714820645968E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1.7368679618316563E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.8732987302821691E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1.7274101980090162E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>4.8463036318160402E-3</v>
       </c>
       <c r="P9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 1), $B9:$H9, 0))</f>
-        <v>초장기</v>
+        <v>중단기</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 2), $B9:$H9, 0))</f>
-        <v>장기</v>
+        <v>초단기</v>
       </c>
       <c r="R9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 3), $B9:$H9, 0))</f>
-        <v>중기</v>
+        <v>지방정부</v>
       </c>
       <c r="S9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 4), $B9:$H9, 0))</f>
@@ -3519,43 +4515,125 @@
       </c>
       <c r="T9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 5), $B9:$H9, 0))</f>
-        <v>지방정부</v>
+        <v>중기</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 6), $B9:$H9, 0))</f>
-        <v>초단기</v>
+        <v>장기</v>
       </c>
       <c r="V9" s="4" t="str">
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 7), $B9:$H9, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" ref="W9" ca="1" si="34">OFFSET($I9, 0, MATCH(P9,$B$1:$H$1, 0)-1)</f>
+        <v>6.009916361997325E-3</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" ref="X9" ca="1" si="35">OFFSET($I9, 0, MATCH(Q9,$B$1:$H$1, 0)-1)</f>
+        <v>2.8825449746474607E-3</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ref="Y9" ca="1" si="36">OFFSET($I9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
+        <v>1.7274101980090162E-2</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" ref="Z9" ca="1" si="37">OFFSET($I9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
+        <v>4.8463036318160402E-3</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" ref="AA9" ca="1" si="38">OFFSET($I9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
+        <v>9.701714820645968E-3</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9" ca="1" si="39">OFFSET($I9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
+        <v>1.7368679618316563E-2</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" ref="AC9" ca="1" si="40">OFFSET($I9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
+        <v>1.8732987302821691E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.39167252000000002</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.40684882</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.39983162</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.43284452000000001</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.50072485</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.43637662999999999</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.42766389999999999</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 1), $B10:$H10, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 2), $B10:$H10, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 3), $B10:$H10, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 4), $B10:$H10, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 5), $B10:$H10, 0))</f>
         <v>중단기</v>
       </c>
-      <c r="W9" s="8">
-        <f ca="1">OFFSET($B9, 0, MATCH(P9,$B$1:$H$1, 0)-1)</f>
-        <v>0.63017199999999995</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" ref="X9" ca="1" si="34">OFFSET($B9, 0, MATCH(Q9,$B$1:$H$1, 0)-1)</f>
-        <v>0.56013732999999999</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" ref="Y9" ca="1" si="35">OFFSET($B9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
-        <v>0.40472332</v>
-      </c>
-      <c r="Z9" s="8">
-        <f t="shared" ref="Z9" ca="1" si="36">OFFSET($B9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
-        <v>0.40371763999999999</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" ref="AA9" ca="1" si="37">OFFSET($B9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
-        <v>0.32509437000000002</v>
-      </c>
-      <c r="AB9" s="8">
-        <f t="shared" ref="AB9" ca="1" si="38">OFFSET($B9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
-        <v>0.31876093</v>
-      </c>
-      <c r="AC9" s="8">
-        <f t="shared" ref="AC9" ca="1" si="39">OFFSET($B9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
-        <v>0.31530111999999999</v>
+      <c r="U10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 6), $B10:$H10, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 7), $B10:$H10, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="W10" s="8">
+        <f ca="1">OFFSET($B10, 0, MATCH(P10,$B$1:$H$1, 0)-1)</f>
+        <v>0.50072485</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" ref="X10" ca="1" si="41">OFFSET($B10, 0, MATCH(Q10,$B$1:$H$1, 0)-1)</f>
+        <v>0.43637662999999999</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10" ca="1" si="42">OFFSET($B10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
+        <v>0.43284452000000001</v>
+      </c>
+      <c r="Z10" s="8">
+        <f t="shared" ref="Z10" ca="1" si="43">OFFSET($B10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
+        <v>0.42766389999999999</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" ref="AA10" ca="1" si="44">OFFSET($B10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
+        <v>0.40684882</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" ref="AB10" ca="1" si="45">OFFSET($B10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
+        <v>0.39983162</v>
+      </c>
+      <c r="AC10" s="8">
+        <f t="shared" ref="AC10" ca="1" si="46">OFFSET($B10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
+        <v>0.39167252000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3566,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3844,31 +4922,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R9" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R10" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S9" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S10" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T9" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T10" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U9" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U10" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V9" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V10" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W9" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W10" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X9" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X10" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -4494,6 +5572,33 @@
       <c r="H9" s="1">
         <v>0.61898368597030662</v>
       </c>
+      <c r="I9" s="3">
+        <v>1.337707770668306E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.1767072859983907E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.3007975248745085E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.841262186089776E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.8386312564282692E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.6257429058003314E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>9.0671159623145758E-3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.4041591876150061E-2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -4522,33 +5627,119 @@
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
+      <c r="Y9" s="3">
+        <f t="shared" ref="Y9" si="31">I9</f>
+        <v>1.337707770668306E-2</v>
+      </c>
       <c r="Z9" s="3">
-        <f ca="1">OFFSET($B9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
-        <v>0.61898368597030662</v>
+        <f t="shared" ref="Z9" ca="1" si="32">OFFSET($J9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
+        <v>1.4041591876150061E-2</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" ref="AA9" ca="1" si="31">OFFSET($B9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
-        <v>0.5549947261810303</v>
+        <f t="shared" ref="AA9" ca="1" si="33">OFFSET($J9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
+        <v>1.841262186089776E-2</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" ref="AB9" ca="1" si="32">OFFSET($B9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
-        <v>0.52630550265312226</v>
+        <f t="shared" ref="AB9" ca="1" si="34">OFFSET($J9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
+        <v>1.6257429058003314E-2</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" ref="AC9" ca="1" si="33">OFFSET($B9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
-        <v>0.51494744420051564</v>
+        <f t="shared" ref="AC9" ca="1" si="35">OFFSET($J9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
+        <v>9.0671159623145758E-3</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" ref="AD9" ca="1" si="34">OFFSET($B9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
-        <v>0.46176339387893661</v>
+        <f t="shared" ref="AD9" ca="1" si="36">OFFSET($J9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
+        <v>1.1767072859983907E-2</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" ref="AE9" ca="1" si="35">OFFSET($B9, 0, MATCH(W9,$B$1:$H$1, 0)-1)</f>
-        <v>0.42475991249084483</v>
+        <f t="shared" ref="AE9" ca="1" si="37">OFFSET($J9, 0, MATCH(W9,$B$1:$H$1, 0)-1)</f>
+        <v>1.8386312564282692E-2</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" ref="AF9" ca="1" si="36">OFFSET($B9, 0, MATCH(X9,$B$1:$H$1, 0)-1)</f>
-        <v>0.40142018198967</v>
+        <f t="shared" ref="AF9" ca="1" si="38">OFFSET($J9, 0, MATCH(X9,$B$1:$H$1, 0)-1)</f>
+        <v>1.3007975248745085E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.43571300506591804</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.45708734989166261</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.58794211745262148</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.43930966258049009</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.51887794733047465</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.47512434720993041</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.63685737848281876</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Def</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Cycl</v>
+      </c>
+      <c r="Z10" s="3">
+        <f ca="1">OFFSET($B10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
+        <v>0.63685737848281876</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10" ca="1" si="39">OFFSET($B10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
+        <v>0.58794211745262148</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" ref="AB10" ca="1" si="40">OFFSET($B10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
+        <v>0.51887794733047465</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" ref="AC10" ca="1" si="41">OFFSET($B10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
+        <v>0.47512434720993041</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10" ca="1" si="42">OFFSET($B10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
+        <v>0.45708734989166261</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" ref="AE10" ca="1" si="43">OFFSET($B10, 0, MATCH(W10,$B$1:$H$1, 0)-1)</f>
+        <v>0.43930966258049009</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" ref="AF10" ca="1" si="44">OFFSET($B10, 0, MATCH(X10,$B$1:$H$1, 0)-1)</f>
+        <v>0.43571300506591804</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -3631,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3880,31 +3880,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P8" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P9" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q8" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q9" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R8" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R9" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S8" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S9" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T8" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T9" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U8" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U9" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V8" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V9" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -4498,44 +4498,44 @@
         <v>4.8463036318160402E-3</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 1), $B9:$H9, 0))</f>
+        <f t="shared" si="5"/>
+        <v>초장기</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>장기</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>중기</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>TIPS</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>지방정부</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>초단기</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>중단기</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 2), $B9:$H9, 0))</f>
-        <v>초단기</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 3), $B9:$H9, 0))</f>
-        <v>지방정부</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 4), $B9:$H9, 0))</f>
-        <v>TIPS</v>
-      </c>
-      <c r="T9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 5), $B9:$H9, 0))</f>
-        <v>중기</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 6), $B9:$H9, 0))</f>
-        <v>장기</v>
-      </c>
-      <c r="V9" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B9:$H9, 7), $B9:$H9, 0))</f>
-        <v>초장기</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" ref="W9" ca="1" si="34">OFFSET($I9, 0, MATCH(P9,$B$1:$H$1, 0)-1)</f>
-        <v>6.009916361997325E-3</v>
+        <v>1.8732987302821691E-2</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" ref="X9" ca="1" si="35">OFFSET($I9, 0, MATCH(Q9,$B$1:$H$1, 0)-1)</f>
-        <v>2.8825449746474607E-3</v>
+        <v>1.7368679618316563E-2</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9" ca="1" si="36">OFFSET($I9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
-        <v>1.7274101980090162E-2</v>
+        <v>9.701714820645968E-3</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9" ca="1" si="37">OFFSET($I9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
@@ -4543,15 +4543,15 @@
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9" ca="1" si="38">OFFSET($I9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
-        <v>9.701714820645968E-3</v>
+        <v>1.7274101980090162E-2</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9" ca="1" si="39">OFFSET($I9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
-        <v>1.7368679618316563E-2</v>
+        <v>2.8825449746474607E-3</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9" ca="1" si="40">OFFSET($I9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
-        <v>1.8732987302821691E-2</v>
+        <v>6.009916361997325E-3</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -4646,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,7 +1384,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1598,27 +1602,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N9" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N10" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O9" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O10" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P9" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P10" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q9" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q10" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R9" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R10" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S9" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S10" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2185,74 +2189,136 @@
         <v>45627</v>
       </c>
       <c r="B10" s="4">
-        <v>0.53247606999999997</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>0.51438070000000002</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>0.49677463999999999</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
-        <v>0.49832865999999998</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>0.44832422999999999</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4">
-        <v>0.45812696000000003</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>-1.6365229504145096E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-1.018589253883373E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-1.9612487564546033E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.8514043510549305E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.0607020484071583E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>-1.4597495614653178E-2</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 1), $B10:$G10, 0))</f>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 2), $B10:$G10, 0))</f>
+        <f t="shared" si="6"/>
         <v>EUR</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 3), $B10:$G10, 0))</f>
+        <f t="shared" si="7"/>
         <v>China</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 4), $B10:$G10, 0))</f>
+        <f t="shared" si="8"/>
         <v>UK</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 5), $B10:$G10, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 6), $B10:$G10, 0))</f>
+        <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
       <c r="T10" s="8">
-        <f ca="1">OFFSET($B10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
-        <v>0.53247606999999997</v>
+        <f ca="1">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.6365229504145096E-2</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" ref="U10" ca="1" si="27">OFFSET($B10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
-        <v>0.51438070000000002</v>
+        <f t="shared" ref="U10" ca="1" si="27">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.018589253883373E-2</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10" ca="1" si="28">OFFSET($B10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
-        <v>0.49832865999999998</v>
+        <f t="shared" ref="V10" ca="1" si="28">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <v>1.8514043510549305E-2</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" ref="W10" ca="1" si="29">OFFSET($B10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
-        <v>0.49677463999999999</v>
+        <f t="shared" ref="W10" ca="1" si="29">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.9612487564546033E-2</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="30">OFFSET($B10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
-        <v>0.45812696000000003</v>
+        <f t="shared" ref="X10" ca="1" si="30">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.4597495614653178E-2</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" ref="Y10" ca="1" si="31">OFFSET($B10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
-        <v>0.44832422999999999</v>
+        <f ca="1">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <v>1.0607020484071583E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.49760201999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.4469824</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.49730345999999997</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.53811200000000003</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.46849614000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.4528491</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 1), $B11:$G11, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 2), $B11:$G11, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 3), $B11:$G11, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 4), $B11:$G11, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 5), $B11:$G11, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
+        <v>EUR</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
@@ -2274,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2397,15 +2463,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H9" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H10" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I9" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I10" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J9" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J10" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -2708,37 +2774,72 @@
         <v>45627</v>
       </c>
       <c r="B10" s="11">
-        <v>0.28167715999999998</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>0.6250462</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11">
-        <v>0.42695484</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1.5407896546980382E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-1.9353569320478714E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1.6471908779390421E-2</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 1), $B10:$D10, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 2), $B10:$D10, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B10:$D10, 3), $B10:$D10, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
       <c r="K10" s="8">
-        <f ca="1">OFFSET($B10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
-        <v>0.6250462</v>
+        <f t="shared" ref="K10" ca="1" si="18">OFFSET($E10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.9353569320478714E-2</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" ref="L10" ca="1" si="18">OFFSET($B10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
-        <v>0.42695484</v>
+        <f t="shared" ref="L10" ca="1" si="19">OFFSET($E10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.6471908779390421E-2</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" ref="M10" ca="1" si="19">OFFSET($B10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
-        <v>0.28167715999999998</v>
+        <f t="shared" ref="M10" ca="1" si="20">OFFSET($E10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.5407896546980382E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.16193502000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.63626324999999995</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.56543679999999996</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 1), $B11:$D11, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 2), $B11:$D11, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 3), $B11:$D11, 0))</f>
+        <v>Tsy</v>
       </c>
     </row>
   </sheetData>
@@ -2749,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2968,27 +3069,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N9" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N10" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O9" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O10" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P9" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P10" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q9" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q10" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R9" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R10" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S9" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S10" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -3555,70 +3656,135 @@
         <v>45627</v>
       </c>
       <c r="B10" s="12">
-        <v>0.52926890000000004</v>
+        <v>3</v>
       </c>
       <c r="C10" s="12">
-        <v>0.56457186000000004</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12">
-        <v>0.55779509999999999</v>
+        <v>2</v>
       </c>
       <c r="E10" s="12">
-        <v>0.47783604000000002</v>
+        <v>5</v>
       </c>
       <c r="F10" s="12">
-        <v>0.50685537000000003</v>
+        <v>4</v>
       </c>
       <c r="G10" s="12">
-        <v>0.44940210000000003</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1.3004773742498754E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-1.5295531980034749E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-4.2966180801507825E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-4.2640362498748141E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-3.9307984538194951E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4.5080718854704216E-3</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 1), $B10:$G10, 0))</f>
+        <f t="shared" si="1"/>
         <v>중기</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 2), $B10:$G10, 0))</f>
+        <f t="shared" si="2"/>
         <v>장기</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 3), $B10:$G10, 0))</f>
+        <f t="shared" si="3"/>
         <v>단기</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 4), $B10:$G10, 0))</f>
+        <f t="shared" si="4"/>
         <v>CB</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 5), $B10:$G10, 0))</f>
+        <f t="shared" si="5"/>
         <v>HY</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B10:$G10, 6), $B10:$G10, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
       <c r="T10" s="8">
-        <f ca="1">OFFSET($B10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
-        <v>0.56457186000000004</v>
+        <f t="shared" ref="T10" ca="1" si="32">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.5295531980034749E-2</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" ref="U10" ca="1" si="32">OFFSET($B10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
-        <v>0.55779509999999999</v>
+        <f t="shared" ref="U10" ca="1" si="33">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <v>-4.2966180801507825E-2</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10" ca="1" si="33">OFFSET($B10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
-        <v>0.52926890000000004</v>
+        <f t="shared" ref="V10" ca="1" si="34">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.3004773742498754E-3</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" ref="W10" ca="1" si="34">OFFSET($B10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
-        <v>0.50685537000000003</v>
+        <f t="shared" ref="W10" ca="1" si="35">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <v>-3.9307984538194951E-2</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="35">OFFSET($B10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
-        <v>0.47783604000000002</v>
+        <f t="shared" ref="X10" ca="1" si="36">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <v>-4.2640362498748141E-3</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" ref="Y10" ca="1" si="36">OFFSET($B10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
-        <v>0.44940210000000003</v>
+        <f t="shared" ref="Y10" ca="1" si="37">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <v>4.5080718854704216E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.43970239999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.48900716999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.71817063999999997</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.49070203000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.52836810000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.43632270000000001</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 1), $B11:$G11, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 2), $B11:$G11, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 3), $B11:$G11, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 4), $B11:$G11, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 5), $B11:$G11, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
+        <v>FRN</v>
       </c>
     </row>
   </sheetData>
@@ -3629,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3880,31 +4046,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P9" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P10" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q9" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q10" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R9" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R10" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S9" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S10" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T9" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T10" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U9" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U10" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V9" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V10" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -4559,81 +4725,156 @@
         <v>45627</v>
       </c>
       <c r="B10" s="12">
-        <v>0.39167252000000002</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12">
-        <v>0.40684882</v>
+        <v>5</v>
       </c>
       <c r="D10" s="12">
-        <v>0.39983162</v>
+        <v>6</v>
       </c>
       <c r="E10" s="12">
-        <v>0.43284452000000001</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12">
-        <v>0.50072485</v>
+        <v>1</v>
       </c>
       <c r="G10" s="12">
-        <v>0.43637662999999999</v>
+        <v>2</v>
       </c>
       <c r="H10" s="12">
-        <v>0.42766389999999999</v>
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.2509263427643589E-3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-8.7369940757703324E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-2.2356610055206616E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-4.4492127677553395E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-5.9912040494564667E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>-1.4558848807074365E-2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-1.5812686785719454E-2</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 1), $B10:$H10, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 2), $B10:$H10, 0))</f>
+        <f t="shared" si="6"/>
         <v>지방정부</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 3), $B10:$H10, 0))</f>
+        <f t="shared" si="7"/>
         <v>장기</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 4), $B10:$H10, 0))</f>
+        <f t="shared" si="8"/>
         <v>TIPS</v>
       </c>
       <c r="T10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 5), $B10:$H10, 0))</f>
+        <f t="shared" si="9"/>
         <v>중단기</v>
       </c>
       <c r="U10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 6), $B10:$H10, 0))</f>
+        <f t="shared" si="10"/>
         <v>중기</v>
       </c>
       <c r="V10" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B10:$H10, 7), $B10:$H10, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
       <c r="W10" s="8">
-        <f ca="1">OFFSET($B10, 0, MATCH(P10,$B$1:$H$1, 0)-1)</f>
-        <v>0.50072485</v>
+        <f t="shared" ref="W10" ca="1" si="41">OFFSET($I10, 0, MATCH(P10,$B$1:$H$1, 0)-1)</f>
+        <v>-5.9912040494564667E-2</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="41">OFFSET($B10, 0, MATCH(Q10,$B$1:$H$1, 0)-1)</f>
-        <v>0.43637662999999999</v>
+        <f t="shared" ref="X10" ca="1" si="42">OFFSET($I10, 0, MATCH(Q10,$B$1:$H$1, 0)-1)</f>
+        <v>-1.4558848807074365E-2</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" ref="Y10" ca="1" si="42">OFFSET($B10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
-        <v>0.43284452000000001</v>
+        <f t="shared" ref="Y10" ca="1" si="43">OFFSET($I10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
+        <v>-4.4492127677553395E-2</v>
       </c>
       <c r="Z10" s="8">
-        <f t="shared" ref="Z10" ca="1" si="43">OFFSET($B10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
-        <v>0.42766389999999999</v>
+        <f t="shared" ref="Z10" ca="1" si="44">OFFSET($I10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
+        <v>-1.5812686785719454E-2</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" ref="AA10" ca="1" si="44">OFFSET($B10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
-        <v>0.40684882</v>
+        <f t="shared" ref="AA10" ca="1" si="45">OFFSET($I10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
+        <v>-8.7369940757703324E-3</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" ref="AB10" ca="1" si="45">OFFSET($B10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
-        <v>0.39983162</v>
+        <f t="shared" ref="AB10" ca="1" si="46">OFFSET($I10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
+        <v>-2.2356610055206616E-2</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" ref="AC10" ca="1" si="46">OFFSET($B10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
-        <v>0.39167252000000002</v>
+        <f t="shared" ref="AC10" ca="1" si="47">OFFSET($I10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
+        <v>2.2509263427643589E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.30765851999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.32029010000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.47498718000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.64303619999999995</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.67603690000000005</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.38124185999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.38102417999999999</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 1), $B11:$H11, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 2), $B11:$H11, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 3), $B11:$H11, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 4), $B11:$H11, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 5), $B11:$H11, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 6), $B11:$H11, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 7), $B11:$H11, 0))</f>
+        <v>초단기</v>
       </c>
     </row>
   </sheetData>
@@ -4644,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4922,31 +5163,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R10" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R11" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S10" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S11" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T10" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T11" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U10" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U11" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V10" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V11" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W10" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W11" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X10" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X11" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -5628,7 +5869,7 @@
         <v>Def</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ref="Y9" si="31">I9</f>
+        <f t="shared" ref="Y9:Y10" si="31">I9</f>
         <v>1.337707770668306E-2</v>
       </c>
       <c r="Z9" s="3">
@@ -5685,6 +5926,33 @@
       <c r="H10" s="1">
         <v>0.63685737848281876</v>
       </c>
+      <c r="I10" s="3">
+        <v>-1.9353569320478714E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-1.6909554384795134E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-2.1502395913002736E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-2.2950597865611044E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-2.6394040205496849E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-2.5206284442417237E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1.0838052716422797E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-1.7993121040295934E-2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -5713,33 +5981,119 @@
         <f t="shared" si="7"/>
         <v>Cycl</v>
       </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="31"/>
+        <v>-1.9353569320478714E-2</v>
+      </c>
       <c r="Z10" s="3">
-        <f ca="1">OFFSET($B10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
-        <v>0.63685737848281876</v>
+        <f t="shared" ref="Z10" ca="1" si="39">OFFSET($J10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
+        <v>-1.7993121040295934E-2</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10" ca="1" si="39">OFFSET($B10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
-        <v>0.58794211745262148</v>
+        <f t="shared" ref="AA10" ca="1" si="40">OFFSET($J10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
+        <v>-2.2950597865611044E-2</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" ref="AB10" ca="1" si="40">OFFSET($B10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
-        <v>0.51887794733047465</v>
+        <f t="shared" ref="AB10" ca="1" si="41">OFFSET($J10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
+        <v>-2.5206284442417237E-2</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" ref="AC10" ca="1" si="41">OFFSET($B10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
-        <v>0.47512434720993041</v>
+        <f t="shared" ref="AC10" ca="1" si="42">OFFSET($J10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
+        <v>-1.0838052716422797E-2</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ref="AD10" ca="1" si="42">OFFSET($B10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
-        <v>0.45708734989166261</v>
+        <f t="shared" ref="AD10" ca="1" si="43">OFFSET($J10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
+        <v>-2.1502395913002736E-2</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" ref="AE10" ca="1" si="43">OFFSET($B10, 0, MATCH(W10,$B$1:$H$1, 0)-1)</f>
-        <v>0.43930966258049009</v>
+        <f t="shared" ref="AE10" ca="1" si="44">OFFSET($J10, 0, MATCH(W10,$B$1:$H$1, 0)-1)</f>
+        <v>-2.6394040205496849E-2</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ref="AF10" ca="1" si="44">OFFSET($B10, 0, MATCH(X10,$B$1:$H$1, 0)-1)</f>
-        <v>0.43571300506591804</v>
+        <f t="shared" ref="AF10" ca="1" si="45">OFFSET($J10, 0, MATCH(X10,$B$1:$H$1, 0)-1)</f>
+        <v>-1.6909554384795134E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.42805680036544819</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.40169550776481622</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.61304944157600405</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.42465751767158499</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.51107915639877322</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.51318364739418043</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.48876715898513823</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Ener</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Bank</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Fin</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Def</v>
+      </c>
+      <c r="Z11" s="3">
+        <f ca="1">OFFSET($B11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
+        <v>0.61304944157600405</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11" ca="1" si="46">OFFSET($B11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
+        <v>0.51318364739418043</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" ref="AB11" ca="1" si="47">OFFSET($B11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
+        <v>0.51107915639877322</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" ref="AC11" ca="1" si="48">OFFSET($B11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
+        <v>0.48876715898513823</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" ref="AD11" ca="1" si="49">OFFSET($B11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
+        <v>0.42805680036544819</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11" ca="1" si="50">OFFSET($B11, 0, MATCH(W11,$B$1:$H$1, 0)-1)</f>
+        <v>0.42465751767158499</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" ref="AF11" ca="1" si="51">OFFSET($B11, 0, MATCH(X11,$B$1:$H$1, 0)-1)</f>
+        <v>0.40169550776481622</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2318,6 +2318,30 @@
       <c r="S11" s="4" t="str">
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
         <v>EUR</v>
+      </c>
+      <c r="T11" s="8">
+        <f ca="1">OFFSET($B11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <v>0.53811200000000003</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" ref="U11:Y11" ca="1" si="31">OFFSET($B11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <v>0.49760201999999998</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.49730345999999997</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.46849614000000001</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.4528491</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.4469824</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -2343,7 +2367,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2840,6 +2864,18 @@
       <c r="J11" s="4" t="str">
         <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 3), $B11:$D11, 0))</f>
         <v>Tsy</v>
+      </c>
+      <c r="K11" s="3">
+        <f ca="1">OFFSET($B11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
+        <v>0.63626324999999995</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" ref="L11:M11" ca="1" si="21">OFFSET($B11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
+        <v>0.56543679999999996</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.16193502000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2889,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3786,6 +3822,30 @@
         <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
         <v>FRN</v>
       </c>
+      <c r="T11" s="3">
+        <f ca="1">OFFSET($B11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <v>0.71817063999999997</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" ref="U11:Y11" ca="1" si="38">OFFSET($B11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <v>0.52836810000000001</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.49070203000000001</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.48900716999999999</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.43970239999999999</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.43632270000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3797,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4876,6 +4936,34 @@
         <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 7), $B11:$H11, 0))</f>
         <v>초단기</v>
       </c>
+      <c r="W11" s="3">
+        <f ca="1">OFFSET($B11, 0, MATCH(P11,$B$1:$H$1, 0)-1)</f>
+        <v>0.67603690000000005</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" ref="X11:AC11" ca="1" si="48">OFFSET($B11, 0, MATCH(Q11,$B$1:$H$1, 0)-1)</f>
+        <v>0.64303619999999995</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.47498718000000001</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.38124185999999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.38102417999999999</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.32029010000000002</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.30765851999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4887,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\FMVC\Monthly QIS\making_files\SC_2408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1030,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="59" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1602,27 +1614,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N10" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N11" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O10" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O11" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P10" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P11" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q10" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q11" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R10" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R11" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S10" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S11" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2278,83 +2290,166 @@
         <v>45658</v>
       </c>
       <c r="B11" s="10">
-        <v>0.49760201999999998</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.4469824</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>0.49730345999999997</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.53811200000000003</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.46849614000000001</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
-        <v>0.4528491</v>
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5.3E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.37E-2</v>
       </c>
       <c r="N11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 1), $B11:$G11, 0))</f>
+        <f t="shared" si="5"/>
         <v>China</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 2), $B11:$G11, 0))</f>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 3), $B11:$G11, 0))</f>
+        <f t="shared" si="7"/>
         <v>UK</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 4), $B11:$G11, 0))</f>
+        <f t="shared" si="8"/>
         <v>APAC</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 5), $B11:$G11, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
+        <f t="shared" si="10"/>
         <v>EUR</v>
       </c>
       <c r="T11" s="8">
-        <f ca="1">OFFSET($B11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
-        <v>0.53811200000000003</v>
+        <f ca="1">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" ref="U11:Y11" ca="1" si="31">OFFSET($B11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
-        <v>0.49760201999999998</v>
+        <f t="shared" ref="U11" ca="1" si="31">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <v>5.3E-3</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.49730345999999997</v>
+        <f t="shared" ref="V11" ca="1" si="32">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.46849614000000001</v>
+        <f t="shared" ref="W11" ca="1" si="33">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.4528491</v>
+        <f t="shared" ref="X11" ca="1" si="34">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
+        <v>1.37E-2</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.4469824</v>
+        <f ca="1">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.50723326000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.47423688000000003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.55037009999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.45428975999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.41561806000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.49606549999999999</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 1), $B12:$G12, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 2), $B12:$G12, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 3), $B12:$G12, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 4), $B12:$G12, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 5), $B12:$G12, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 6), $B12:$G12, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="T12" s="8">
+        <f ca="1">OFFSET($B12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <v>0.55037009999999997</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12" ca="1" si="35">OFFSET($B12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <v>0.50723326000000002</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" ref="V12" ca="1" si="36">OFFSET($B12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <v>0.49606549999999999</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" ref="W12" ca="1" si="37">OFFSET($B12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <v>0.47423688000000003</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" ref="X12" ca="1" si="38">OFFSET($B12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <v>0.45428975999999999</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" ref="Y12" ca="1" si="39">OFFSET($B12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <v>0.41561806000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2364,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2487,15 +2582,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H10" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H11" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I10" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I11" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J10" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J11" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -2845,37 +2940,84 @@
         <v>45658</v>
       </c>
       <c r="B11" s="4">
-        <v>0.16193502000000001</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>0.63626324999999995</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>0.56543679999999996</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 1), $B11:$D11, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 2), $B11:$D11, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B11:$D11, 3), $B11:$D11, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K11" s="3">
-        <f ca="1">OFFSET($B11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
-        <v>0.63626324999999995</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" ref="L11:M11" ca="1" si="21">OFFSET($B11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
-        <v>0.56543679999999996</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" ca="1" si="21"/>
-        <v>0.16193502000000001</v>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11" ca="1" si="21">OFFSET($E11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11" ca="1" si="22">OFFSET($E11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" ref="M11" ca="1" si="23">OFFSET($E11, 0, MATCH(J11,$B$1:$D$1, 0)-1)</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.22150517</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.56943549999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.41658714000000002</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 1), $B12:$D12, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 2), $B12:$D12, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 3), $B12:$D12, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K12" s="3">
+        <f ca="1">OFFSET($B12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
+        <v>0.56943549999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12" ca="1" si="24">OFFSET($B12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
+        <v>0.41658714000000002</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12" ca="1" si="25">OFFSET($B12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
+        <v>0.22150517</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3105,27 +3247,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N10" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N11" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O10" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O11" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P10" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P11" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q10" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q11" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R10" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R11" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S10" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S11" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -3781,70 +3923,159 @@
         <v>45658</v>
       </c>
       <c r="B11" s="4">
-        <v>0.43970239999999999</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>0.48900716999999999</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4">
-        <v>0.71817063999999997</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>0.49070203000000001</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>0.52836810000000001</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>0.43632270000000001</v>
+        <v>6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="N11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 1), $B11:$G11, 0))</f>
+        <f t="shared" si="1"/>
         <v>장기</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 2), $B11:$G11, 0))</f>
+        <f t="shared" si="2"/>
         <v>CB</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 3), $B11:$G11, 0))</f>
+        <f t="shared" si="3"/>
         <v>HY</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 4), $B11:$G11, 0))</f>
+        <f t="shared" si="4"/>
         <v>중기</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 5), $B11:$G11, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B11:$G11, 6), $B11:$G11, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T11" s="3">
-        <f ca="1">OFFSET($B11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
-        <v>0.71817063999999997</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" ref="U11:Y11" ca="1" si="38">OFFSET($B11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
-        <v>0.52836810000000001</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.49070203000000001</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.48900716999999999</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.43970239999999999</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.43632270000000001</v>
+      <c r="T11" s="8">
+        <f t="shared" ref="T11" ca="1" si="38">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" ref="U11" ca="1" si="39">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" ref="V11" ca="1" si="40">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
+        <v>1.37E-2</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" ref="W11" ca="1" si="41">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" ref="X11" ca="1" si="42">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" ref="Y11" ca="1" si="43">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.5205784</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.55025285000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.57903194000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.50856626000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.51191765</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.44891605000000001</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 1), $B12:$G12, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 2), $B12:$G12, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 3), $B12:$G12, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 4), $B12:$G12, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 5), $B12:$G12, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 6), $B12:$G12, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T12" s="3">
+        <f ca="1">OFFSET($B12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <v>0.57903194000000002</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12" ca="1" si="44">OFFSET($B12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <v>0.55025285000000002</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ref="V12" ca="1" si="45">OFFSET($B12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <v>0.5205784</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" ref="W12" ca="1" si="46">OFFSET($B12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <v>0.51191765</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" ref="X12" ca="1" si="47">OFFSET($B12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <v>0.50856626000000005</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" ref="Y12" ca="1" si="48">OFFSET($B12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <v>0.44891605000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3855,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4106,31 +4337,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P10" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P11" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q10" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q11" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R10" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R11" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S10" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S11" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T10" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T11" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U10" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U11" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V10" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V11" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -4888,81 +5119,184 @@
         <v>45658</v>
       </c>
       <c r="B11" s="4">
-        <v>0.30765851999999999</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
-        <v>0.32029010000000002</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>0.47498718000000001</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.64303619999999995</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>0.67603690000000005</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0.38124185999999999</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>0.38102417999999999</v>
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1.29E-2</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 1), $B11:$H11, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 2), $B11:$H11, 0))</f>
+        <f t="shared" si="6"/>
         <v>장기</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 3), $B11:$H11, 0))</f>
+        <f t="shared" si="7"/>
         <v>중기</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 4), $B11:$H11, 0))</f>
+        <f t="shared" si="8"/>
         <v>지방정부</v>
       </c>
       <c r="T11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 5), $B11:$H11, 0))</f>
+        <f t="shared" si="9"/>
         <v>TIPS</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 6), $B11:$H11, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V11" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B11:$H11, 7), $B11:$H11, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W11" s="3">
-        <f ca="1">OFFSET($B11, 0, MATCH(P11,$B$1:$H$1, 0)-1)</f>
-        <v>0.67603690000000005</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" ref="X11:AC11" ca="1" si="48">OFFSET($B11, 0, MATCH(Q11,$B$1:$H$1, 0)-1)</f>
-        <v>0.64303619999999995</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.47498718000000001</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.38124185999999999</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.38102417999999999</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.32029010000000002</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.30765851999999999</v>
+      <c r="W11" s="8">
+        <f t="shared" ref="W11" ca="1" si="48">OFFSET($I11, 0, MATCH(P11,$B$1:$H$1, 0)-1)</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" ref="X11" ca="1" si="49">OFFSET($I11, 0, MATCH(Q11,$B$1:$H$1, 0)-1)</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" ref="Y11" ca="1" si="50">OFFSET($I11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="Z11" s="8">
+        <f t="shared" ref="Z11" ca="1" si="51">OFFSET($I11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" ref="AA11" ca="1" si="52">OFFSET($I11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
+        <v>1.29E-2</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" ref="AB11" ca="1" si="53">OFFSET($I11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="AC11" s="8">
+        <f t="shared" ref="AC11" ca="1" si="54">OFFSET($I11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.44973463000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.41880753999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.43655529999999998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.52932860000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.64420909999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.44017145000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.39546930000000002</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 1), $B12:$H12, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 2), $B12:$H12, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 3), $B12:$H12, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 4), $B12:$H12, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 5), $B12:$H12, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 6), $B12:$H12, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 7), $B12:$H12, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="W12" s="3">
+        <f ca="1">OFFSET($B12, 0, MATCH(P12,$B$1:$H$1, 0)-1)</f>
+        <v>0.64420909999999998</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" ref="X12" ca="1" si="55">OFFSET($B12, 0, MATCH(Q12,$B$1:$H$1, 0)-1)</f>
+        <v>0.52932860000000004</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" ref="Y12" ca="1" si="56">OFFSET($B12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
+        <v>0.44973463000000002</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12" ca="1" si="57">OFFSET($B12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
+        <v>0.44017145000000002</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12" ca="1" si="58">OFFSET($B12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
+        <v>0.43655529999999998</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" ref="AB12" ca="1" si="59">OFFSET($B12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
+        <v>0.41880753999999998</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" ref="AC12" ca="1" si="60">OFFSET($B12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
+        <v>0.39546930000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4973,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5251,31 +5585,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R11" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R12" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S11" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S12" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T11" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T12" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U11" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U12" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V11" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V12" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W11" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W12" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X11" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X12" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -5957,7 +6291,7 @@
         <v>Def</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ref="Y9:Y10" si="31">I9</f>
+        <f t="shared" ref="Y9:Y11" si="31">I9</f>
         <v>1.337707770668306E-2</v>
       </c>
       <c r="Z9" s="3">
@@ -6127,62 +6461,194 @@
       <c r="H11" s="1">
         <v>0.48876715898513823</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="I11" s="14">
+        <v>5.5266757865937155E-3</v>
+      </c>
+      <c r="J11" s="14">
+        <v>5.7197314662524867E-3</v>
+      </c>
+      <c r="K11" s="14">
+        <v>6.0293414207548413E-3</v>
+      </c>
+      <c r="L11" s="14">
+        <v>5.0718365933881682E-3</v>
+      </c>
+      <c r="M11" s="14">
+        <v>5.2348267473854015E-3</v>
+      </c>
+      <c r="N11" s="14">
+        <v>-2.1653900463014519E-4</v>
+      </c>
+      <c r="O11" s="14">
+        <v>7.5429122790922065E-3</v>
+      </c>
+      <c r="P11" s="14">
+        <v>5.4004762009383089E-3</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Ener</v>
       </c>
-      <c r="S11" s="1" t="str">
+      <c r="S11" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Bank</v>
       </c>
-      <c r="T11" s="1" t="str">
+      <c r="T11" s="13" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U11" s="1" t="str">
+      <c r="U11" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Fin</v>
       </c>
-      <c r="V11" s="1" t="str">
+      <c r="V11" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W11" s="1" t="str">
+      <c r="W11" s="13" t="str">
         <f t="shared" si="6"/>
         <v>Infra</v>
       </c>
-      <c r="X11" s="1" t="str">
+      <c r="X11" s="13" t="str">
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
-      <c r="Z11" s="3">
-        <f ca="1">OFFSET($B11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
-        <v>0.61304944157600405</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" ref="AA11" ca="1" si="46">OFFSET($B11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
-        <v>0.51318364739418043</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" ref="AB11" ca="1" si="47">OFFSET($B11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
-        <v>0.51107915639877322</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" ref="AC11" ca="1" si="48">OFFSET($B11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
-        <v>0.48876715898513823</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" ref="AD11" ca="1" si="49">OFFSET($B11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
-        <v>0.42805680036544819</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" ref="AE11" ca="1" si="50">OFFSET($B11, 0, MATCH(W11,$B$1:$H$1, 0)-1)</f>
-        <v>0.42465751767158499</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" ref="AF11" ca="1" si="51">OFFSET($B11, 0, MATCH(X11,$B$1:$H$1, 0)-1)</f>
-        <v>0.40169550776481622</v>
-      </c>
+      <c r="Y11" s="15">
+        <f t="shared" ref="Y11" si="46">I11</f>
+        <v>5.5266757865937155E-3</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" ref="Z11" ca="1" si="47">OFFSET($J11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
+        <v>5.0718365933881682E-3</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" ref="AA11" ca="1" si="48">OFFSET($J11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
+        <v>7.5429122790922065E-3</v>
+      </c>
+      <c r="AB11" s="15">
+        <f t="shared" ref="AB11" ca="1" si="49">OFFSET($J11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
+        <v>-2.1653900463014519E-4</v>
+      </c>
+      <c r="AC11" s="15">
+        <f t="shared" ref="AC11" ca="1" si="50">OFFSET($J11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
+        <v>5.4004762009383089E-3</v>
+      </c>
+      <c r="AD11" s="15">
+        <f t="shared" ref="AD11" ca="1" si="51">OFFSET($J11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
+        <v>5.7197314662524867E-3</v>
+      </c>
+      <c r="AE11" s="15">
+        <f t="shared" ref="AE11" ca="1" si="52">OFFSET($J11, 0, MATCH(W11,$B$1:$H$1, 0)-1)</f>
+        <v>5.2348267473854015E-3</v>
+      </c>
+      <c r="AF11" s="15">
+        <f t="shared" ref="AF11" ca="1" si="53">OFFSET($J11, 0, MATCH(X11,$B$1:$H$1, 0)-1)</f>
+        <v>6.0293414207548413E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.43612858057022119</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.40607359409332283</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.55099822282791144</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.42816344499588049</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.51371376514434819</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.53347063064575173</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.59181003570556656</v>
+      </c>
+      <c r="R12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T12" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Bank</v>
+      </c>
+      <c r="U12" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Util</v>
+      </c>
+      <c r="V12" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W12" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X12" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Def</v>
+      </c>
+      <c r="Z12" s="15">
+        <f ca="1">OFFSET($B12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
+        <v>0.59181003570556656</v>
+      </c>
+      <c r="AA12" s="15">
+        <f t="shared" ref="AA12" ca="1" si="54">OFFSET($B12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
+        <v>0.55099822282791144</v>
+      </c>
+      <c r="AB12" s="15">
+        <f t="shared" ref="AB12" ca="1" si="55">OFFSET($B12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
+        <v>0.53347063064575173</v>
+      </c>
+      <c r="AC12" s="15">
+        <f t="shared" ref="AC12" ca="1" si="56">OFFSET($B12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
+        <v>0.51371376514434819</v>
+      </c>
+      <c r="AD12" s="15">
+        <f t="shared" ref="AD12" ca="1" si="57">OFFSET($B12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
+        <v>0.43612858057022119</v>
+      </c>
+      <c r="AE12" s="15">
+        <f t="shared" ref="AE12" ca="1" si="58">OFFSET($B12, 0, MATCH(W12,$B$1:$H$1, 0)-1)</f>
+        <v>0.42816344499588049</v>
+      </c>
+      <c r="AF12" s="15">
+        <f t="shared" ref="AF12" ca="1" si="59">OFFSET($B12, 0, MATCH(X12,$B$1:$H$1, 0)-1)</f>
+        <v>0.40607359409332283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1614,27 +1614,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N11" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N12" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O11" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O12" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P11" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P12" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q11" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q12" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R11" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R12" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S11" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S12" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2379,74 +2379,160 @@
         <v>45689</v>
       </c>
       <c r="B12" s="10">
-        <v>0.50723326000000002</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.47423688000000003</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>0.55037009999999997</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0.45428975999999999</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
-        <v>0.41561806000000001</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
-        <v>0.49606549999999999</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.2002689999999998E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7.70077E-3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>7.4265729999999997E-3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-5.3245419999999998E-3</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-1.9681199999999999E-3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.4900329E-2</v>
       </c>
       <c r="N12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 1), $B12:$G12, 0))</f>
+        <f t="shared" si="5"/>
         <v>UK</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 2), $B12:$G12, 0))</f>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 3), $B12:$G12, 0))</f>
+        <f t="shared" si="7"/>
         <v>EM</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 4), $B12:$G12, 0))</f>
+        <f t="shared" si="8"/>
         <v>EUR</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 5), $B12:$G12, 0))</f>
+        <f t="shared" si="9"/>
         <v>China</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 6), $B12:$G12, 0))</f>
+        <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
       <c r="T12" s="8">
-        <f ca="1">OFFSET($B12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
-        <v>0.55037009999999997</v>
+        <f ca="1">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <v>7.4265729999999997E-3</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" ref="U12" ca="1" si="35">OFFSET($B12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
-        <v>0.50723326000000002</v>
+        <f t="shared" ref="U12" ca="1" si="35">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <v>2.2002689999999998E-2</v>
       </c>
       <c r="V12" s="8">
-        <f t="shared" ref="V12" ca="1" si="36">OFFSET($B12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
-        <v>0.49606549999999999</v>
+        <f t="shared" ref="V12" ca="1" si="36">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <v>1.4900329E-2</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" ref="W12" ca="1" si="37">OFFSET($B12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
-        <v>0.47423688000000003</v>
+        <f t="shared" ref="W12" ca="1" si="37">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <v>7.70077E-3</v>
       </c>
       <c r="X12" s="8">
-        <f t="shared" ref="X12" ca="1" si="38">OFFSET($B12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
-        <v>0.45428975999999999</v>
+        <f t="shared" ref="X12" ca="1" si="38">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <v>-5.3245419999999998E-3</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" ref="Y12" ca="1" si="39">OFFSET($B12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
-        <v>0.41561806000000001</v>
+        <f ca="1">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <v>-1.9681199999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.49887690000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.49014627999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.54850449999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.43824917000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.42011678000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.43241010000000002</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 1), $B13:$G13, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 2), $B13:$G13, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 3), $B13:$G13, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 4), $B13:$G13, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 5), $B13:$G13, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 6), $B13:$G13, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="T13" s="8">
+        <f ca="1">OFFSET($B13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <v>0.54850449999999995</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" ref="U13" ca="1" si="39">OFFSET($B13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <v>0.49887690000000001</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" ref="V13" ca="1" si="40">OFFSET($B13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <v>0.49014627999999999</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13" ca="1" si="41">OFFSET($B13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <v>0.43824917000000002</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" ref="X13" ca="1" si="42">OFFSET($B13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <v>0.43241010000000002</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" ref="Y13" ca="1" si="43">OFFSET($B13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <v>0.42011678000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
@@ -2459,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2582,15 +2668,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H11" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H12" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I11" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I12" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J11" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J12" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -2987,37 +3073,84 @@
         <v>45689</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22150517</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.56943549999999998</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>0.41658714000000002</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.1558671000000001E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.038589E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.5497110999999999E-2</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 1), $B12:$D12, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 2), $B12:$D12, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B12:$D12, 3), $B12:$D12, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K12" s="3">
-        <f ca="1">OFFSET($B12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
-        <v>0.56943549999999998</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" ref="L12" ca="1" si="24">OFFSET($B12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
-        <v>0.41658714000000002</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ref="M12" ca="1" si="25">OFFSET($B12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
-        <v>0.22150517</v>
+      <c r="K12" s="8">
+        <f t="shared" ref="K12" ca="1" si="24">OFFSET($E12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
+        <v>2.038589E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12" ca="1" si="25">OFFSET($E12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
+        <v>2.5497110999999999E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12" ca="1" si="26">OFFSET($E12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
+        <v>2.1558671000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.25596215999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.75466290000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.53068817000000001</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 1), $B13:$D13, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 2), $B13:$D13, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 3), $B13:$D13, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K13" s="15">
+        <f ca="1">OFFSET($B13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
+        <v>0.75466290000000003</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" ref="L13" ca="1" si="27">OFFSET($B13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
+        <v>0.53068817000000001</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" ref="M13" ca="1" si="28">OFFSET($B13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
+        <v>0.25596215999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3028,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3247,27 +3380,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N11" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N12" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O11" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O12" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P11" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P12" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q11" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q12" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R11" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R12" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S11" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S12" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -4012,70 +4145,159 @@
         <v>45689</v>
       </c>
       <c r="B12" s="4">
-        <v>0.5205784</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.55025285000000002</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>0.57903194000000002</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0.50856626000000005</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
-        <v>0.51191765</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4">
-        <v>0.44891605000000001</v>
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9.4463670000000007E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.9336801000000001E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.4162163000000002E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>6.7137289999999999E-3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1.2547552E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4.2265430000000001E-3</v>
       </c>
       <c r="N12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 1), $B12:$G12, 0))</f>
+        <f t="shared" si="1"/>
         <v>장기</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 2), $B12:$G12, 0))</f>
+        <f t="shared" si="2"/>
         <v>중기</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 3), $B12:$G12, 0))</f>
+        <f t="shared" si="3"/>
         <v>단기</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 4), $B12:$G12, 0))</f>
+        <f t="shared" si="4"/>
         <v>CB</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 5), $B12:$G12, 0))</f>
+        <f t="shared" si="5"/>
         <v>HY</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B12:$G12, 6), $B12:$G12, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T12" s="3">
-        <f ca="1">OFFSET($B12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
-        <v>0.57903194000000002</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" ref="U12" ca="1" si="44">OFFSET($B12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
-        <v>0.55025285000000002</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" ref="V12" ca="1" si="45">OFFSET($B12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
-        <v>0.5205784</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" ref="W12" ca="1" si="46">OFFSET($B12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
-        <v>0.51191765</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" ref="X12" ca="1" si="47">OFFSET($B12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
-        <v>0.50856626000000005</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" ref="Y12" ca="1" si="48">OFFSET($B12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
-        <v>0.44891605000000001</v>
+      <c r="T12" s="8">
+        <f t="shared" ref="T12" ca="1" si="44">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <v>3.4162163000000002E-2</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12" ca="1" si="45">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <v>1.9336801000000001E-2</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" ref="V12" ca="1" si="46">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <v>9.4463670000000007E-3</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" ref="W12" ca="1" si="47">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <v>-1.2547552E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" ref="X12" ca="1" si="48">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <v>6.7137289999999999E-3</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" ref="Y12" ca="1" si="49">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <v>4.2265430000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.58046180000000003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.58071094999999995</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.60244560000000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.48191905000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.48229653</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.53710899999999995</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 1), $B13:$G13, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 2), $B13:$G13, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 3), $B13:$G13, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 4), $B13:$G13, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 5), $B13:$G13, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 6), $B13:$G13, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="T13" s="15">
+        <f ca="1">OFFSET($B13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <v>0.60244560000000003</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" ref="U13" ca="1" si="50">OFFSET($B13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <v>0.58071094999999995</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" ref="V13" ca="1" si="51">OFFSET($B13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <v>0.58046180000000003</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" ref="W13" ca="1" si="52">OFFSET($B13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <v>0.53710899999999995</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" ref="X13" ca="1" si="53">OFFSET($B13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <v>0.48229653</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" ref="Y13" ca="1" si="54">OFFSET($B13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <v>0.48191905000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4086,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4337,31 +4559,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P11" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P12" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q11" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q12" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R11" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R12" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S11" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S12" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T11" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T12" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U11" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U12" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V11" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V12" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -5222,81 +5444,184 @@
         <v>45689</v>
       </c>
       <c r="B12" s="4">
-        <v>0.44973463000000002</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.41880753999999998</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>0.43655529999999998</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>0.52932860000000004</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0.64420909999999998</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0.44017145000000002</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>0.39546930000000002</v>
+        <v>7</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7.0521860000000002E-3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.6947460000000001E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.8111417999999999E-2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4.6278207000000002E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>5.6064072999999999E-2</v>
+      </c>
+      <c r="N12" s="6">
+        <v>9.9151350000000003E-3</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2.1803375999999999E-2</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 1), $B12:$H12, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 2), $B12:$H12, 0))</f>
+        <f t="shared" si="6"/>
         <v>장기</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 3), $B12:$H12, 0))</f>
+        <f t="shared" si="7"/>
         <v>초단기</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 4), $B12:$H12, 0))</f>
+        <f t="shared" si="8"/>
         <v>지방정부</v>
       </c>
       <c r="T12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 5), $B12:$H12, 0))</f>
+        <f t="shared" si="9"/>
         <v>중기</v>
       </c>
       <c r="U12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 6), $B12:$H12, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V12" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B12:$H12, 7), $B12:$H12, 0))</f>
+        <f t="shared" si="11"/>
         <v>TIPS</v>
       </c>
-      <c r="W12" s="3">
-        <f ca="1">OFFSET($B12, 0, MATCH(P12,$B$1:$H$1, 0)-1)</f>
-        <v>0.64420909999999998</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" ref="X12" ca="1" si="55">OFFSET($B12, 0, MATCH(Q12,$B$1:$H$1, 0)-1)</f>
-        <v>0.52932860000000004</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" ref="Y12" ca="1" si="56">OFFSET($B12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
-        <v>0.44973463000000002</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12" ca="1" si="57">OFFSET($B12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
-        <v>0.44017145000000002</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" ref="AA12" ca="1" si="58">OFFSET($B12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
-        <v>0.43655529999999998</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" ref="AB12" ca="1" si="59">OFFSET($B12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
-        <v>0.41880753999999998</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" ref="AC12" ca="1" si="60">OFFSET($B12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
-        <v>0.39546930000000002</v>
+      <c r="W12" s="8">
+        <f t="shared" ref="W12" ca="1" si="55">OFFSET($I12, 0, MATCH(P12,$B$1:$H$1, 0)-1)</f>
+        <v>5.6064072999999999E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" ref="X12" ca="1" si="56">OFFSET($I12, 0, MATCH(Q12,$B$1:$H$1, 0)-1)</f>
+        <v>4.6278207000000002E-2</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" ref="Y12" ca="1" si="57">OFFSET($I12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
+        <v>7.0521860000000002E-3</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" ref="Z12" ca="1" si="58">OFFSET($I12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
+        <v>9.9151350000000003E-3</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" ref="AA12" ca="1" si="59">OFFSET($I12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
+        <v>2.8111417999999999E-2</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" ref="AB12" ca="1" si="60">OFFSET($I12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
+        <v>1.6947460000000001E-2</v>
+      </c>
+      <c r="AC12" s="8">
+        <f t="shared" ref="AC12" ca="1" si="61">OFFSET($I12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
+        <v>2.1803375999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.45405380000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.50051860000000004</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.46482026999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.42323812999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.53259665</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.51294439999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.49289549999999999</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 1), $B13:$H13, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 2), $B13:$H13, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 3), $B13:$H13, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 4), $B13:$H13, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 5), $B13:$H13, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 6), $B13:$H13, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 7), $B13:$H13, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="W13" s="15">
+        <f ca="1">OFFSET($B13, 0, MATCH(P13,$B$1:$H$1, 0)-1)</f>
+        <v>0.53259665</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" ref="X13" ca="1" si="62">OFFSET($B13, 0, MATCH(Q13,$B$1:$H$1, 0)-1)</f>
+        <v>0.51294439999999997</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" ref="Y13" ca="1" si="63">OFFSET($B13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
+        <v>0.50051860000000004</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" ref="Z13" ca="1" si="64">OFFSET($B13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
+        <v>0.49289549999999999</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" ref="AA13" ca="1" si="65">OFFSET($B13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
+        <v>0.46482026999999998</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" ref="AB13" ca="1" si="66">OFFSET($B13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
+        <v>0.45405380000000001</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" ref="AC13" ca="1" si="67">OFFSET($B13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
+        <v>0.42323812999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5309,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5585,31 +5910,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R12" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R13" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S12" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S13" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T12" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T13" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U12" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U13" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V12" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V13" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W12" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W13" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X12" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X13" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -6291,7 +6616,7 @@
         <v>Def</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ref="Y9:Y11" si="31">I9</f>
+        <f t="shared" ref="Y9:Y10" si="31">I9</f>
         <v>1.337707770668306E-2</v>
       </c>
       <c r="Z9" s="3">
@@ -6574,6 +6899,33 @@
       <c r="H12" s="1">
         <v>0.59181003570556656</v>
       </c>
+      <c r="I12" s="15">
+        <v>2.0385889807962077E-2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1.809830184823169E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2.2264729575390607E-2</v>
+      </c>
+      <c r="L12" s="15">
+        <v>2.2045020064412668E-2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>2.4370217708361785E-2</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2.4371437329546719E-2</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1.4747584632899713E-2</v>
+      </c>
+      <c r="P12" s="15">
+        <v>2.0211533216270006E-2</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="R12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -6602,36 +6954,64 @@
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
+      <c r="Y12" s="15">
+        <f t="shared" ref="Y12" si="54">I12</f>
+        <v>2.0385889807962077E-2</v>
+      </c>
       <c r="Z12" s="15">
-        <f ca="1">OFFSET($B12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
-        <v>0.59181003570556656</v>
+        <f t="shared" ref="Z12" ca="1" si="55">OFFSET($J12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
+        <v>2.0211533216270006E-2</v>
       </c>
       <c r="AA12" s="15">
-        <f t="shared" ref="AA12" ca="1" si="54">OFFSET($B12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
-        <v>0.55099822282791144</v>
+        <f t="shared" ref="AA12" ca="1" si="56">OFFSET($J12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
+        <v>2.2045020064412668E-2</v>
       </c>
       <c r="AB12" s="15">
-        <f t="shared" ref="AB12" ca="1" si="55">OFFSET($B12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
-        <v>0.53347063064575173</v>
+        <f t="shared" ref="AB12" ca="1" si="57">OFFSET($J12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
+        <v>1.4747584632899713E-2</v>
       </c>
       <c r="AC12" s="15">
-        <f t="shared" ref="AC12" ca="1" si="56">OFFSET($B12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
-        <v>0.51371376514434819</v>
+        <f t="shared" ref="AC12" ca="1" si="58">OFFSET($J12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
+        <v>2.4371437329546719E-2</v>
       </c>
       <c r="AD12" s="15">
-        <f t="shared" ref="AD12" ca="1" si="57">OFFSET($B12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
-        <v>0.43612858057022119</v>
+        <f t="shared" ref="AD12" ca="1" si="59">OFFSET($J12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
+        <v>1.809830184823169E-2</v>
       </c>
       <c r="AE12" s="15">
-        <f t="shared" ref="AE12" ca="1" si="58">OFFSET($B12, 0, MATCH(W12,$B$1:$H$1, 0)-1)</f>
-        <v>0.42816344499588049</v>
+        <f t="shared" ref="AE12" ca="1" si="60">OFFSET($J12, 0, MATCH(W12,$B$1:$H$1, 0)-1)</f>
+        <v>2.4370217708361785E-2</v>
       </c>
       <c r="AF12" s="15">
-        <f t="shared" ref="AF12" ca="1" si="59">OFFSET($B12, 0, MATCH(X12,$B$1:$H$1, 0)-1)</f>
-        <v>0.40607359409332283</v>
+        <f t="shared" ref="AF12" ca="1" si="61">OFFSET($J12, 0, MATCH(X12,$B$1:$H$1, 0)-1)</f>
+        <v>2.2264729575390607E-2</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.46314564943313596</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.41880424618721002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.59923285841941842</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.40454548001289375</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.51347044110298157</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.49908914566040086</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.68082481622695923</v>
+      </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -6640,6 +7020,63 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
+      <c r="R13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T13" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U13" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V13" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W13" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Def</v>
+      </c>
+      <c r="X13" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Infra</v>
+      </c>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="15">
+        <f ca="1">OFFSET($B13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
+        <v>0.68082481622695923</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" ref="AA13" ca="1" si="62">OFFSET($B13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
+        <v>0.59923285841941842</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" ref="AB13" ca="1" si="63">OFFSET($B13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
+        <v>0.51347044110298157</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" ref="AC13" ca="1" si="64">OFFSET($B13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
+        <v>0.49908914566040086</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" ref="AD13" ca="1" si="65">OFFSET($B13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
+        <v>0.46314564943313596</v>
+      </c>
+      <c r="AE13" s="15">
+        <f t="shared" ref="AE13" ca="1" si="66">OFFSET($B13, 0, MATCH(W13,$B$1:$H$1, 0)-1)</f>
+        <v>0.41880424618721002</v>
+      </c>
+      <c r="AF13" s="15">
+        <f t="shared" ref="AF13" ca="1" si="67">OFFSET($B13, 0, MATCH(X13,$B$1:$H$1, 0)-1)</f>
+        <v>0.40454548001289375</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1395,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1614,27 +1618,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N12" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N13" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O12" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O13" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P12" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P13" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q12" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q13" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R12" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R13" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S12" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S13" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -1994,7 +1998,7 @@
         <v>EUR</v>
       </c>
       <c r="T7" s="8">
-        <f ca="1">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="T7:T12" ca="1" si="18">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="U7" s="8">
@@ -2083,27 +2087,27 @@
         <v>US</v>
       </c>
       <c r="T8" s="8">
-        <f ca="1">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>4.1940579999999996E-3</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" ref="U8" ca="1" si="18">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U8" ca="1" si="19">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
         <v>-2.2272449E-2</v>
       </c>
       <c r="V8" s="8">
-        <f t="shared" ref="V8" ca="1" si="19">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V8" ca="1" si="20">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
         <v>-6.0108700000000003E-5</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" ref="W8" ca="1" si="20">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W8" ca="1" si="21">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
         <v>-8.1659679999999991E-3</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8" ca="1" si="21">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X8" ca="1" si="22">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
         <v>-1.5717404000000001E-2</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" ref="Y8" ca="1" si="22">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="Y8" ca="1" si="23">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
         <v>-2.4798842000000001E-2</v>
       </c>
     </row>
@@ -2172,23 +2176,23 @@
         <v>EM</v>
       </c>
       <c r="T9" s="8">
-        <f ca="1">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>1.661529570410325E-2</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" ref="U9" ca="1" si="23">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U9" ca="1" si="24">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
         <v>1.947040498442365E-2</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" ref="V9" ca="1" si="24">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V9" ca="1" si="25">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
         <v>1.0571390946202852E-2</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" ref="W9" ca="1" si="25">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W9" ca="1" si="26">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
         <v>1.1178452095784275E-2</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" ref="X9" ca="1" si="26">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X9" ca="1" si="27">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
         <v>5.7952449059965883E-3</v>
       </c>
       <c r="Y9" s="8">
@@ -2261,23 +2265,23 @@
         <v>APAC</v>
       </c>
       <c r="T10" s="8">
-        <f ca="1">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>-1.6365229504145096E-2</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" ref="U10" ca="1" si="27">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U10" ca="1" si="28">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
         <v>-1.018589253883373E-2</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10" ca="1" si="28">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V10" ca="1" si="29">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
         <v>1.8514043510549305E-2</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" ref="W10" ca="1" si="29">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W10" ca="1" si="30">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
         <v>-1.9612487564546033E-2</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="30">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X10" ca="1" si="31">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
         <v>-1.4597495614653178E-2</v>
       </c>
       <c r="Y10" s="8">
@@ -2350,23 +2354,23 @@
         <v>EUR</v>
       </c>
       <c r="T11" s="8">
-        <f ca="1">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" ref="U11" ca="1" si="31">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U11" ca="1" si="32">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
         <v>5.3E-3</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" ref="V11" ca="1" si="32">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V11" ca="1" si="33">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" ref="W11" ca="1" si="33">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W11" ca="1" si="34">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
         <v>1.5E-3</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" ref="X11" ca="1" si="34">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X11" ca="1" si="35">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
         <v>1.37E-2</v>
       </c>
       <c r="Y11" s="8">
@@ -2439,23 +2443,23 @@
         <v>APAC</v>
       </c>
       <c r="T12" s="8">
-        <f ca="1">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>7.4265729999999997E-3</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" ref="U12" ca="1" si="35">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U12" ca="1" si="36">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
         <v>2.2002689999999998E-2</v>
       </c>
       <c r="V12" s="8">
-        <f t="shared" ref="V12" ca="1" si="36">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V12" ca="1" si="37">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
         <v>1.4900329E-2</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" ref="W12" ca="1" si="37">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W12" ca="1" si="38">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
         <v>7.70077E-3</v>
       </c>
       <c r="X12" s="8">
-        <f t="shared" ref="X12" ca="1" si="38">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X12" ca="1" si="39">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
         <v>-5.3245419999999998E-3</v>
       </c>
       <c r="Y12" s="8">
@@ -2468,74 +2472,160 @@
         <v>45717</v>
       </c>
       <c r="B13" s="10">
-        <v>0.49887690000000001</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.49014627999999999</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>0.54850449999999995</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0.43824917000000002</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>0.42011678000000002</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4">
-        <v>0.43241010000000002</v>
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3.7793599999999999E-4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-1.3646287999999999E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>-1.174736E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-7.8675200000000005E-4</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-2.5285519999999999E-3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>-7.8077390000000002E-3</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 1), $B13:$G13, 0))</f>
+        <f t="shared" si="5"/>
         <v>UK</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 2), $B13:$G13, 0))</f>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 3), $B13:$G13, 0))</f>
+        <f t="shared" si="7"/>
         <v>EUR</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 4), $B13:$G13, 0))</f>
+        <f t="shared" si="8"/>
         <v>China</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 5), $B13:$G13, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 6), $B13:$G13, 0))</f>
+        <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
       <c r="T13" s="8">
-        <f ca="1">OFFSET($B13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
-        <v>0.54850449999999995</v>
+        <f t="shared" ref="T13" ca="1" si="40">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.174736E-2</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" ref="U13" ca="1" si="39">OFFSET($B13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
-        <v>0.49887690000000001</v>
+        <f t="shared" ref="U13" ca="1" si="41">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <v>3.7793599999999999E-4</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" ref="V13" ca="1" si="40">OFFSET($B13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
-        <v>0.49014627999999999</v>
+        <f t="shared" ref="V13" ca="1" si="42">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.3646287999999999E-2</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" ref="W13" ca="1" si="41">OFFSET($B13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
-        <v>0.43824917000000002</v>
+        <f t="shared" ref="W13" ca="1" si="43">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <v>-7.8675200000000005E-4</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13" ca="1" si="42">OFFSET($B13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
-        <v>0.43241010000000002</v>
+        <f t="shared" ref="X13" ca="1" si="44">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <v>-7.8077390000000002E-3</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" ref="Y13" ca="1" si="43">OFFSET($B13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
-        <v>0.42011678000000002</v>
+        <f ca="1">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <v>-2.5285519999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.55766349999999998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5678936</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.55739784000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.43243942000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.52288080000000003</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.48238979999999998</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 1), $B14:$G14, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 2), $B14:$G14, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 3), $B14:$G14, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 4), $B14:$G14, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 5), $B14:$G14, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 6), $B14:$G14, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="T14" s="8">
+        <f ca="1">OFFSET($B14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <v>0.5678936</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14" ca="1" si="45">OFFSET($B14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <v>0.55766349999999998</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" ref="V14" ca="1" si="46">OFFSET($B14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <v>0.55739784000000003</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" ref="W14" ca="1" si="47">OFFSET($B14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <v>0.52288080000000003</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" ref="X14" ca="1" si="48">OFFSET($B14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <v>0.48238979999999998</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" ref="Y14" ca="1" si="49">OFFSET($B14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <v>0.43243942000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2545,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2668,15 +2758,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H12" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H13" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I12" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I13" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J12" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J13" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -3120,37 +3210,84 @@
         <v>45717</v>
       </c>
       <c r="B13" s="4">
-        <v>0.25596215999999999</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>0.75466290000000003</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>0.53068817000000001</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.2961919999999999E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-2.8828690000000001E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-1.7103600000000001E-4</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 1), $B13:$D13, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 2), $B13:$D13, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B13:$D13, 3), $B13:$D13, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K13" s="15">
-        <f ca="1">OFFSET($B13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
-        <v>0.75466290000000003</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13" ca="1" si="27">OFFSET($B13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
-        <v>0.53068817000000001</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" ref="M13" ca="1" si="28">OFFSET($B13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
-        <v>0.25596215999999999</v>
+      <c r="K13" s="8">
+        <f t="shared" ref="K13" ca="1" si="27">OFFSET($E13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
+        <v>-2.8828690000000001E-3</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13" ca="1" si="28">OFFSET($E13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
+        <v>-1.7103600000000001E-4</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13" ca="1" si="29">OFFSET($E13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
+        <v>2.2961919999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.54263693000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.56415813999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.38844210000000001</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 1), $B14:$D14, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 2), $B14:$D14, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 3), $B14:$D14, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="K14" s="15">
+        <f ca="1">OFFSET($B14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
+        <v>0.56415813999999997</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14" ca="1" si="30">OFFSET($B14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
+        <v>0.54263693000000002</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" ref="M14" ca="1" si="31">OFFSET($B14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
+        <v>0.38844210000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3161,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3380,27 +3517,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N12" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N13" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O12" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O13" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P12" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P13" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q12" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q13" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R12" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R13" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S12" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S13" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -4234,70 +4371,159 @@
         <v>45717</v>
       </c>
       <c r="B13" s="4">
-        <v>0.58046180000000003</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>0.58071094999999995</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>0.60244560000000003</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0.48191905000000002</v>
+        <v>6</v>
       </c>
       <c r="F13" s="4">
-        <v>0.48229653</v>
+        <v>5</v>
       </c>
       <c r="G13" s="4">
-        <v>0.53710899999999995</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4.1811110000000004E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7.3968600000000003E-4</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-1.4091329999999999E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-1.0222566000000001E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-2.8187982E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3.7277539999999998E-3</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 1), $B13:$G13, 0))</f>
+        <f t="shared" si="1"/>
         <v>장기</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 2), $B13:$G13, 0))</f>
+        <f t="shared" si="2"/>
         <v>중기</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 3), $B13:$G13, 0))</f>
+        <f t="shared" si="3"/>
         <v>단기</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 4), $B13:$G13, 0))</f>
+        <f t="shared" si="4"/>
         <v>FRN</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 5), $B13:$G13, 0))</f>
+        <f t="shared" si="5"/>
         <v>CB</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B13:$G13, 6), $B13:$G13, 0))</f>
+        <f t="shared" si="6"/>
         <v>HY</v>
       </c>
-      <c r="T13" s="15">
-        <f ca="1">OFFSET($B13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
-        <v>0.60244560000000003</v>
-      </c>
-      <c r="U13" s="15">
-        <f t="shared" ref="U13" ca="1" si="50">OFFSET($B13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
-        <v>0.58071094999999995</v>
-      </c>
-      <c r="V13" s="15">
-        <f t="shared" ref="V13" ca="1" si="51">OFFSET($B13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
-        <v>0.58046180000000003</v>
-      </c>
-      <c r="W13" s="15">
-        <f t="shared" ref="W13" ca="1" si="52">OFFSET($B13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
-        <v>0.53710899999999995</v>
-      </c>
-      <c r="X13" s="15">
-        <f t="shared" ref="X13" ca="1" si="53">OFFSET($B13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
-        <v>0.48229653</v>
-      </c>
-      <c r="Y13" s="15">
-        <f t="shared" ref="Y13" ca="1" si="54">OFFSET($B13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
-        <v>0.48191905000000002</v>
+      <c r="T13" s="8">
+        <f t="shared" ref="T13" ca="1" si="50">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.4091329999999999E-2</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" ref="U13" ca="1" si="51">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <v>7.3968600000000003E-4</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" ref="V13" ca="1" si="52">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <v>4.1811110000000004E-3</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13" ca="1" si="53">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <v>3.7277539999999998E-3</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" ref="X13" ca="1" si="54">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <v>-2.8187982E-2</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" ref="Y13" ca="1" si="55">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.0222566000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.34665393999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.43103614000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.73965190000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.36501423</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.43152928000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.33291083999999999</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 1), $B14:$G14, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 2), $B14:$G14, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 3), $B14:$G14, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 4), $B14:$G14, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 5), $B14:$G14, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 6), $B14:$G14, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T14" s="15">
+        <f ca="1">OFFSET($B14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <v>0.73965190000000003</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" ref="U14" ca="1" si="56">OFFSET($B14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <v>0.43152928000000002</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" ref="V14" ca="1" si="57">OFFSET($B14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <v>0.43103614000000001</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" ref="W14" ca="1" si="58">OFFSET($B14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <v>0.36501423</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" ref="X14" ca="1" si="59">OFFSET($B14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <v>0.34665393999999999</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" ref="Y14" ca="1" si="60">OFFSET($B14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <v>0.33291083999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4308,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4559,31 +4785,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P12" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P13" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q12" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q13" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R12" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R13" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S12" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S13" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T12" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T13" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U12" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U13" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V12" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V13" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -5547,81 +5773,184 @@
         <v>45717</v>
       </c>
       <c r="B13" s="4">
-        <v>0.45405380000000001</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4">
-        <v>0.50051860000000004</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>0.46482026999999998</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
-        <v>0.42323812999999999</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
-        <v>0.53259665</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>0.51294439999999997</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>0.49289549999999999</v>
+        <v>4</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4.6799210000000001E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6.0131550000000001E-3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3.7484380000000002E-3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-4.447187E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1.2467706E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>-1.6947286999999998E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6.4113470000000004E-3</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 1), $B13:$H13, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 2), $B13:$H13, 0))</f>
+        <f t="shared" si="6"/>
         <v>지방정부</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 3), $B13:$H13, 0))</f>
+        <f t="shared" si="7"/>
         <v>중단기</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 4), $B13:$H13, 0))</f>
+        <f t="shared" si="8"/>
         <v>TIPS</v>
       </c>
       <c r="T13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 5), $B13:$H13, 0))</f>
+        <f t="shared" si="9"/>
         <v>중기</v>
       </c>
       <c r="U13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 6), $B13:$H13, 0))</f>
+        <f t="shared" si="10"/>
         <v>초단기</v>
       </c>
       <c r="V13" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B13:$H13, 7), $B13:$H13, 0))</f>
+        <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W13" s="15">
-        <f ca="1">OFFSET($B13, 0, MATCH(P13,$B$1:$H$1, 0)-1)</f>
-        <v>0.53259665</v>
-      </c>
-      <c r="X13" s="15">
-        <f t="shared" ref="X13" ca="1" si="62">OFFSET($B13, 0, MATCH(Q13,$B$1:$H$1, 0)-1)</f>
-        <v>0.51294439999999997</v>
-      </c>
-      <c r="Y13" s="15">
-        <f t="shared" ref="Y13" ca="1" si="63">OFFSET($B13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
-        <v>0.50051860000000004</v>
-      </c>
-      <c r="Z13" s="15">
-        <f t="shared" ref="Z13" ca="1" si="64">OFFSET($B13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
-        <v>0.49289549999999999</v>
-      </c>
-      <c r="AA13" s="15">
-        <f t="shared" ref="AA13" ca="1" si="65">OFFSET($B13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
-        <v>0.46482026999999998</v>
-      </c>
-      <c r="AB13" s="15">
-        <f t="shared" ref="AB13" ca="1" si="66">OFFSET($B13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
-        <v>0.45405380000000001</v>
-      </c>
-      <c r="AC13" s="15">
-        <f t="shared" ref="AC13" ca="1" si="67">OFFSET($B13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
-        <v>0.42323812999999999</v>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13" ca="1" si="62">OFFSET($I13, 0, MATCH(P13,$B$1:$H$1, 0)-1)</f>
+        <v>-1.2467706E-2</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" ref="X13" ca="1" si="63">OFFSET($I13, 0, MATCH(Q13,$B$1:$H$1, 0)-1)</f>
+        <v>-1.6947286999999998E-2</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" ref="Y13" ca="1" si="64">OFFSET($I13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
+        <v>6.0131550000000001E-3</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" ref="Z13" ca="1" si="65">OFFSET($I13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
+        <v>6.4113470000000004E-3</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" ref="AA13" ca="1" si="66">OFFSET($I13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
+        <v>3.7484380000000002E-3</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" ref="AB13" ca="1" si="67">OFFSET($I13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
+        <v>4.6799210000000001E-3</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" ref="AC13" ca="1" si="68">OFFSET($I13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
+        <v>-4.447187E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.37893660000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45399817999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.48057739999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.6001843</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.59200520000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.54061084999999998</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.46543573999999999</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 1), $B14:$H14, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 2), $B14:$H14, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 3), $B14:$H14, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 4), $B14:$H14, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 5), $B14:$H14, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 6), $B14:$H14, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V14" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 7), $B14:$H14, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="W14" s="15">
+        <f ca="1">OFFSET($B14, 0, MATCH(P14,$B$1:$H$1, 0)-1)</f>
+        <v>0.6001843</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" ref="X14" ca="1" si="69">OFFSET($B14, 0, MATCH(Q14,$B$1:$H$1, 0)-1)</f>
+        <v>0.59200520000000001</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" ref="Y14" ca="1" si="70">OFFSET($B14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
+        <v>0.54061084999999998</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" ref="Z14" ca="1" si="71">OFFSET($B14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
+        <v>0.48057739999999999</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" ref="AA14" ca="1" si="72">OFFSET($B14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
+        <v>0.46543573999999999</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" ref="AB14" ca="1" si="73">OFFSET($B14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
+        <v>0.45399817999999997</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" ref="AC14" ca="1" si="74">OFFSET($B14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
+        <v>0.37893660000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5964,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5910,31 +6239,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R13" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R14" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S13" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S14" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T13" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T14" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U13" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U14" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V13" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V14" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W13" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W14" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X13" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X14" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -7012,14 +7341,33 @@
       <c r="H13" s="1">
         <v>0.68082481622695923</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="I13" s="14">
+        <v>-2.8828690027875581E-3</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-3.9161399012650477E-3</v>
+      </c>
+      <c r="K13" s="14">
+        <v>-2.9719463554296333E-3</v>
+      </c>
+      <c r="L13" s="14">
+        <v>-4.4150110375276164E-3</v>
+      </c>
+      <c r="M13" s="14">
+        <v>-7.0583664605657903E-3</v>
+      </c>
+      <c r="N13" s="14">
+        <v>-4.3388049800360262E-3</v>
+      </c>
+      <c r="O13" s="14">
+        <v>7.213685033369277E-4</v>
+      </c>
+      <c r="P13" s="14">
+        <v>-2.6931321133880637E-3</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="R13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -7048,34 +7396,120 @@
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y13" s="13"/>
+      <c r="Y13" s="15">
+        <f t="shared" ref="Y13" si="62">I13</f>
+        <v>-2.8828690027875581E-3</v>
+      </c>
       <c r="Z13" s="15">
-        <f ca="1">OFFSET($B13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
-        <v>0.68082481622695923</v>
+        <f t="shared" ref="Z13" ca="1" si="63">OFFSET($J13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
+        <v>-2.6931321133880637E-3</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" ref="AA13" ca="1" si="62">OFFSET($B13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
-        <v>0.59923285841941842</v>
+        <f t="shared" ref="AA13" ca="1" si="64">OFFSET($J13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
+        <v>-4.4150110375276164E-3</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" ref="AB13" ca="1" si="63">OFFSET($B13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
-        <v>0.51347044110298157</v>
+        <f t="shared" ref="AB13" ca="1" si="65">OFFSET($J13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
+        <v>-4.3388049800360262E-3</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" ref="AC13" ca="1" si="64">OFFSET($B13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
-        <v>0.49908914566040086</v>
+        <f t="shared" ref="AC13" ca="1" si="66">OFFSET($J13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
+        <v>7.213685033369277E-4</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" ref="AD13" ca="1" si="65">OFFSET($B13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
-        <v>0.46314564943313596</v>
+        <f t="shared" ref="AD13" ca="1" si="67">OFFSET($J13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
+        <v>-3.9161399012650477E-3</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" ref="AE13" ca="1" si="66">OFFSET($B13, 0, MATCH(W13,$B$1:$H$1, 0)-1)</f>
-        <v>0.41880424618721002</v>
+        <f t="shared" ref="AE13" ca="1" si="68">OFFSET($J13, 0, MATCH(W13,$B$1:$H$1, 0)-1)</f>
+        <v>-2.9719463554296333E-3</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" ref="AF13" ca="1" si="67">OFFSET($B13, 0, MATCH(X13,$B$1:$H$1, 0)-1)</f>
-        <v>0.40454548001289375</v>
+        <f t="shared" ref="AF13" ca="1" si="69">OFFSET($J13, 0, MATCH(X13,$B$1:$H$1, 0)-1)</f>
+        <v>-7.0583664605657903E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.46436650159999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.39622947579999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.55700960779999997</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.34887559420000003</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5217219354</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.51688457139999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.53020034420000006</v>
+      </c>
+      <c r="R14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Ener</v>
+      </c>
+      <c r="S14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Fin</v>
+      </c>
+      <c r="T14" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U14" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V14" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W14" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Def</v>
+      </c>
+      <c r="X14" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Infra</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="15">
+        <f ca="1">OFFSET($B14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
+        <v>0.55700960779999997</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" ref="AA14" ca="1" si="70">OFFSET($B14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
+        <v>0.53020034420000006</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" ref="AB14" ca="1" si="71">OFFSET($B14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
+        <v>0.5217219354</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" ref="AC14" ca="1" si="72">OFFSET($B14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
+        <v>0.51688457139999999</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" ref="AD14" ca="1" si="73">OFFSET($B14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
+        <v>0.46436650159999998</v>
+      </c>
+      <c r="AE14" s="15">
+        <f t="shared" ref="AE14" ca="1" si="74">OFFSET($B14, 0, MATCH(W14,$B$1:$H$1, 0)-1)</f>
+        <v>0.39622947579999995</v>
+      </c>
+      <c r="AF14" s="15">
+        <f t="shared" ref="AF14" ca="1" si="75">OFFSET($B14, 0, MATCH(X14,$B$1:$H$1, 0)-1)</f>
+        <v>0.34887559420000003</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,7 +792,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +989,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1049,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="77">
     <cellStyle name="20% - 강조색1 2" xfId="21"/>
     <cellStyle name="20% - 강조색2 2" xfId="25"/>
     <cellStyle name="20% - 강조색3 2" xfId="29"/>
@@ -1086,6 +1105,7 @@
     <cellStyle name="보통 2" xfId="10"/>
     <cellStyle name="常规 2" xfId="45"/>
     <cellStyle name="常规 2 2" xfId="63"/>
+    <cellStyle name="常规 2 3" xfId="70"/>
     <cellStyle name="설명 텍스트 2" xfId="18"/>
     <cellStyle name="셀 확인 2" xfId="15"/>
     <cellStyle name="연결된 셀 2" xfId="14"/>
@@ -1107,9 +1127,15 @@
     <cellStyle name="표준 13" xfId="62"/>
     <cellStyle name="표준 14" xfId="61"/>
     <cellStyle name="표준 15" xfId="44"/>
+    <cellStyle name="표준 15 2" xfId="73"/>
+    <cellStyle name="표준 16" xfId="74"/>
+    <cellStyle name="표준 17" xfId="75"/>
+    <cellStyle name="표준 18" xfId="76"/>
     <cellStyle name="표준 2" xfId="3"/>
     <cellStyle name="표준 2 2" xfId="46"/>
+    <cellStyle name="표준 2 2 2" xfId="71"/>
     <cellStyle name="표준 3" xfId="47"/>
+    <cellStyle name="표준 3 2" xfId="72"/>
     <cellStyle name="표준 4" xfId="48"/>
     <cellStyle name="표준 5" xfId="49"/>
     <cellStyle name="표준 5 2" xfId="50"/>
@@ -1397,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1618,27 +1644,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N13" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N14" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O13" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O14" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P13" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P14" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q13" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q14" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R13" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R14" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S13" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S14" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2561,70 +2587,159 @@
         <v>45748</v>
       </c>
       <c r="B14" s="10">
-        <v>0.55766349999999998</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>0.5678936</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>0.55739784000000003</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
-        <v>0.43243942000000002</v>
+        <v>6</v>
       </c>
       <c r="F14" s="4">
-        <v>0.52288080000000003</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4">
-        <v>0.48238979999999998</v>
+        <v>5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3.9290460507310776E-3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.9037078029883636E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.7565811636748752E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.38862867862799E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.2531635886743553E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.6516098365224607E-3</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 1), $B14:$G14, 0))</f>
+        <f t="shared" si="5"/>
         <v>EUR</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 2), $B14:$G14, 0))</f>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 3), $B14:$G14, 0))</f>
+        <f t="shared" si="7"/>
         <v>UK</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 4), $B14:$G14, 0))</f>
+        <f t="shared" si="8"/>
         <v>APAC</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 5), $B14:$G14, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 6), $B14:$G14, 0))</f>
+        <f t="shared" si="10"/>
         <v>China</v>
       </c>
       <c r="T14" s="8">
-        <f ca="1">OFFSET($B14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
-        <v>0.5678936</v>
+        <f t="shared" ref="T14" ca="1" si="45">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <v>1.9037078029883636E-2</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14" ca="1" si="45">OFFSET($B14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
-        <v>0.55766349999999998</v>
+        <f t="shared" ref="U14" ca="1" si="46">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <v>3.9290460507310776E-3</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" ref="V14" ca="1" si="46">OFFSET($B14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
-        <v>0.55739784000000003</v>
+        <f t="shared" ref="V14" ca="1" si="47">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <v>1.7565811636748752E-2</v>
       </c>
       <c r="W14" s="8">
-        <f t="shared" ref="W14" ca="1" si="47">OFFSET($B14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
-        <v>0.52288080000000003</v>
+        <f t="shared" ref="W14" ca="1" si="48">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <v>1.2531635886743553E-2</v>
       </c>
       <c r="X14" s="8">
-        <f t="shared" ref="X14" ca="1" si="48">OFFSET($B14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
-        <v>0.48238979999999998</v>
+        <f t="shared" ref="X14" ca="1" si="49">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <v>1.6516098365224607E-3</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" ref="Y14" ca="1" si="49">OFFSET($B14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
-        <v>0.43243942000000002</v>
+        <f ca="1">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <v>1.38862867862799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.54124479999999997</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5480621</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.51816530000000005</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.40472245000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.49555476999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.49438503</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 1), $B15:$G15, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 2), $B15:$G15, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 3), $B15:$G15, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 4), $B15:$G15, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 5), $B15:$G15, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 6), $B15:$G15, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="T15" s="8">
+        <f ca="1">OFFSET($B15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
+        <v>0.5480621</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" ref="U15" ca="1" si="50">OFFSET($B15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
+        <v>0.54124479999999997</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15" ca="1" si="51">OFFSET($B15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
+        <v>0.51816530000000005</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15" ca="1" si="52">OFFSET($B15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
+        <v>0.49555476999999998</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15" ca="1" si="53">OFFSET($B15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
+        <v>0.49438503</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" ref="Y15" ca="1" si="54">OFFSET($B15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
+        <v>0.40472245000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2758,15 +2873,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H13" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H14" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I13" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I14" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J13" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J14" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -3257,37 +3372,84 @@
         <v>45748</v>
       </c>
       <c r="B14" s="4">
-        <v>0.54263693000000002</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>0.56415813999999997</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>0.38844210000000001</v>
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6.3340008145533755E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-3.268575911189453E-4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.8675868154028894E-3</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 1), $B14:$D14, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 2), $B14:$D14, 0))</f>
+        <f t="shared" si="3"/>
         <v>Tsy</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B14:$D14, 3), $B14:$D14, 0))</f>
+        <f t="shared" si="4"/>
         <v>MBS</v>
       </c>
-      <c r="K14" s="15">
-        <f ca="1">OFFSET($B14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
-        <v>0.56415813999999997</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" ref="L14" ca="1" si="30">OFFSET($B14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
-        <v>0.54263693000000002</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" ref="M14" ca="1" si="31">OFFSET($B14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
-        <v>0.38844210000000001</v>
+      <c r="K14" s="8">
+        <f t="shared" ref="K14" ca="1" si="30">OFFSET($E14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
+        <v>-3.268575911189453E-4</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" ref="L14" ca="1" si="31">OFFSET($E14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
+        <v>6.3340008145533755E-3</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14" ca="1" si="32">OFFSET($E14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
+        <v>2.8675868154028894E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.29467103</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.37652049999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.28819646999999998</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 1), $B15:$D15, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 2), $B15:$D15, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 3), $B15:$D15, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="K15" s="15">
+        <f ca="1">OFFSET($B15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
+        <v>0.37652049999999998</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" ref="L15" ca="1" si="33">OFFSET($B15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
+        <v>0.29467103</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" ref="M15" ca="1" si="34">OFFSET($B15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
+        <v>0.28819646999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3298,10 +3460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3517,27 +3679,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N13" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N14" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O13" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O14" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P13" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P14" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q13" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q14" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R13" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R14" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S13" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S14" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -4460,70 +4622,159 @@
         <v>45748</v>
       </c>
       <c r="B14" s="4">
-        <v>0.34665393999999999</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
-        <v>0.43103614000000001</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4">
-        <v>0.73965190000000003</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>0.36501423</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>0.43152928000000002</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
-        <v>0.33291083999999999</v>
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6.7556701265467645E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4.4331683209568595E-3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-1.2880991541082465E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>-2.0294678735244265E-4</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1.3883974929222109E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.5574457889060422E-3</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 1), $B14:$G14, 0))</f>
+        <f t="shared" si="1"/>
         <v>장기</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 2), $B14:$G14, 0))</f>
+        <f t="shared" si="2"/>
         <v>CB</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 3), $B14:$G14, 0))</f>
+        <f t="shared" si="3"/>
         <v>중기</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 4), $B14:$G14, 0))</f>
+        <f t="shared" si="4"/>
         <v>HY</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 5), $B14:$G14, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B14:$G14, 6), $B14:$G14, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T14" s="15">
-        <f ca="1">OFFSET($B14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
-        <v>0.73965190000000003</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" ref="U14" ca="1" si="56">OFFSET($B14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
-        <v>0.43152928000000002</v>
-      </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14" ca="1" si="57">OFFSET($B14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
-        <v>0.43103614000000001</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" ref="W14" ca="1" si="58">OFFSET($B14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
-        <v>0.36501423</v>
-      </c>
-      <c r="X14" s="15">
-        <f t="shared" ref="X14" ca="1" si="59">OFFSET($B14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
-        <v>0.34665393999999999</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" ref="Y14" ca="1" si="60">OFFSET($B14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
-        <v>0.33291083999999999</v>
+      <c r="T14" s="8">
+        <f t="shared" ref="T14" ca="1" si="56">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <v>-1.2880991541082465E-2</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14" ca="1" si="57">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <v>1.3883974929222109E-2</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" ref="V14" ca="1" si="58">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <v>4.4331683209568595E-3</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" ref="W14" ca="1" si="59">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <v>-2.0294678735244265E-4</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" ref="X14" ca="1" si="60">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <v>6.7556701265467645E-3</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" ref="Y14" ca="1" si="61">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <v>1.5574457889060422E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.50213456000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.51709366000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.73201769999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.48895326</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.49215657000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.47589803000000003</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 1), $B15:$G15, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 2), $B15:$G15, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 3), $B15:$G15, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 4), $B15:$G15, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 5), $B15:$G15, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 6), $B15:$G15, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T15" s="15">
+        <f ca="1">OFFSET($B15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
+        <v>0.73201769999999999</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" ref="U15" ca="1" si="62">OFFSET($B15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
+        <v>0.51709366000000001</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" ref="V15" ca="1" si="63">OFFSET($B15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
+        <v>0.50213456000000001</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" ref="W15" ca="1" si="64">OFFSET($B15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
+        <v>0.49215657000000002</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" ref="X15" ca="1" si="65">OFFSET($B15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
+        <v>0.48895326</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" ref="Y15" ca="1" si="66">OFFSET($B15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
+        <v>0.47589803000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4534,11 +4785,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4785,31 +5034,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P13" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P14" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q13" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q14" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R13" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R14" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S13" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S14" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T13" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T14" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U13" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U14" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V13" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V14" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -5876,81 +6125,184 @@
         <v>45748</v>
       </c>
       <c r="B14" s="4">
-        <v>0.37893660000000001</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4">
-        <v>0.45399817999999997</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4">
-        <v>0.48057739999999999</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>0.6001843</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0.59200520000000001</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
-        <v>0.54061084999999998</v>
+        <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>0.46543573999999999</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8.1602121655162119E-3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.3320647002854624E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.0228215767634774E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>-7.5179954035723418E-3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-1.3587185849072592E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>-8.056410630398525E-3</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1.1890062147081881E-3</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 1), $B14:$H14, 0))</f>
+        <f t="shared" si="5"/>
         <v>장기</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 2), $B14:$H14, 0))</f>
+        <f t="shared" si="6"/>
         <v>초장기</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 3), $B14:$H14, 0))</f>
+        <f t="shared" si="7"/>
         <v>지방정부</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 4), $B14:$H14, 0))</f>
+        <f t="shared" si="8"/>
         <v>중기</v>
       </c>
       <c r="T14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 5), $B14:$H14, 0))</f>
+        <f t="shared" si="9"/>
         <v>TIPS</v>
       </c>
       <c r="U14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 6), $B14:$H14, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V14" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B14:$H14, 7), $B14:$H14, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W14" s="15">
-        <f ca="1">OFFSET($B14, 0, MATCH(P14,$B$1:$H$1, 0)-1)</f>
-        <v>0.6001843</v>
-      </c>
-      <c r="X14" s="15">
-        <f t="shared" ref="X14" ca="1" si="69">OFFSET($B14, 0, MATCH(Q14,$B$1:$H$1, 0)-1)</f>
-        <v>0.59200520000000001</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" ref="Y14" ca="1" si="70">OFFSET($B14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
-        <v>0.54061084999999998</v>
-      </c>
-      <c r="Z14" s="15">
-        <f t="shared" ref="Z14" ca="1" si="71">OFFSET($B14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
-        <v>0.48057739999999999</v>
-      </c>
-      <c r="AA14" s="15">
-        <f t="shared" ref="AA14" ca="1" si="72">OFFSET($B14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
-        <v>0.46543573999999999</v>
-      </c>
-      <c r="AB14" s="15">
-        <f t="shared" ref="AB14" ca="1" si="73">OFFSET($B14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
-        <v>0.45399817999999997</v>
-      </c>
-      <c r="AC14" s="15">
-        <f t="shared" ref="AC14" ca="1" si="74">OFFSET($B14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
-        <v>0.37893660000000001</v>
+      <c r="W14" s="8">
+        <f t="shared" ref="W14" ca="1" si="69">OFFSET($I14, 0, MATCH(P14,$B$1:$H$1, 0)-1)</f>
+        <v>-7.5179954035723418E-3</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" ref="X14" ca="1" si="70">OFFSET($I14, 0, MATCH(Q14,$B$1:$H$1, 0)-1)</f>
+        <v>-1.3587185849072592E-2</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" ref="Y14" ca="1" si="71">OFFSET($I14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
+        <v>-8.056410630398525E-3</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" ref="Z14" ca="1" si="72">OFFSET($I14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
+        <v>1.0228215767634774E-2</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" ref="AA14" ca="1" si="73">OFFSET($I14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
+        <v>1.1890062147081881E-3</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" ref="AB14" ca="1" si="74">OFFSET($I14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
+        <v>1.3320647002854624E-2</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" ref="AC14" ca="1" si="75">OFFSET($I14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
+        <v>8.1602121655162119E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.33671839999999997</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.35473195000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.4333806</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.55568890000000004</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.61629149999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.4413282</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.41817564000000002</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 1), $B15:$H15, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 2), $B15:$H15, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 3), $B15:$H15, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 4), $B15:$H15, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 5), $B15:$H15, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 6), $B15:$H15, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V15" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 7), $B15:$H15, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="W15" s="15">
+        <f ca="1">OFFSET($B15, 0, MATCH(P15,$B$1:$H$1, 0)-1)</f>
+        <v>0.61629149999999999</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" ref="X15" ca="1" si="76">OFFSET($B15, 0, MATCH(Q15,$B$1:$H$1, 0)-1)</f>
+        <v>0.55568890000000004</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" ref="Y15" ca="1" si="77">OFFSET($B15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
+        <v>0.4413282</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" ref="Z15" ca="1" si="78">OFFSET($B15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
+        <v>0.4333806</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" ref="AA15" ca="1" si="79">OFFSET($B15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
+        <v>0.41817564000000002</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" ref="AB15" ca="1" si="80">OFFSET($B15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
+        <v>0.35473195000000002</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" ref="AC15" ca="1" si="81">OFFSET($B15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
+        <v>0.33671839999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5964,7 +6316,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6239,31 +6591,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R14" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R15" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S14" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S15" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T14" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T15" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U14" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U15" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V14" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V15" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W14" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W15" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X14" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X15" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -7397,7 +7749,7 @@
         <v>Infra</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" ref="Y13" si="62">I13</f>
+        <f t="shared" ref="Y13:Y14" si="62">I13</f>
         <v>-2.8828690027875581E-3</v>
       </c>
       <c r="Z13" s="15">
@@ -7454,6 +7806,33 @@
       <c r="H14" s="1">
         <v>0.53020034420000006</v>
       </c>
+      <c r="I14" s="14">
+        <v>-3.2685759111883428E-4</v>
+      </c>
+      <c r="J14" s="14">
+        <v>-8.6831820633370693E-4</v>
+      </c>
+      <c r="K14" s="14">
+        <v>-1.0731367119853896E-4</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-1.1492696467561125E-2</v>
+      </c>
+      <c r="M14" s="14">
+        <v>-2.0929367960389467E-3</v>
+      </c>
+      <c r="N14" s="14">
+        <v>-1.6187667086412505E-3</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4.2919066382174353E-3</v>
+      </c>
+      <c r="P14" s="14">
+        <v>2.1917313043950948E-4</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="R14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Ener</v>
@@ -7482,34 +7861,129 @@
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y14" s="13"/>
+      <c r="Y14" s="15">
+        <f t="shared" si="62"/>
+        <v>-3.2685759111883428E-4</v>
+      </c>
       <c r="Z14" s="15">
-        <f ca="1">OFFSET($B14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
-        <v>0.55700960779999997</v>
+        <f t="shared" ref="Z14" ca="1" si="70">OFFSET($J14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
+        <v>-1.1492696467561125E-2</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" ref="AA14" ca="1" si="70">OFFSET($B14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
-        <v>0.53020034420000006</v>
+        <f t="shared" ref="AA14" ca="1" si="71">OFFSET($J14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
+        <v>2.1917313043950948E-4</v>
       </c>
       <c r="AB14" s="15">
-        <f t="shared" ref="AB14" ca="1" si="71">OFFSET($B14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
-        <v>0.5217219354</v>
+        <f t="shared" ref="AB14" ca="1" si="72">OFFSET($J14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
+        <v>-1.6187667086412505E-3</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" ref="AC14" ca="1" si="72">OFFSET($B14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
-        <v>0.51688457139999999</v>
+        <f t="shared" ref="AC14" ca="1" si="73">OFFSET($J14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
+        <v>4.2919066382174353E-3</v>
       </c>
       <c r="AD14" s="15">
-        <f t="shared" ref="AD14" ca="1" si="73">OFFSET($B14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
-        <v>0.46436650159999998</v>
+        <f t="shared" ref="AD14" ca="1" si="74">OFFSET($J14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
+        <v>-8.6831820633370693E-4</v>
       </c>
       <c r="AE14" s="15">
-        <f t="shared" ref="AE14" ca="1" si="74">OFFSET($B14, 0, MATCH(W14,$B$1:$H$1, 0)-1)</f>
-        <v>0.39622947579999995</v>
+        <f t="shared" ref="AE14" ca="1" si="75">OFFSET($J14, 0, MATCH(W14,$B$1:$H$1, 0)-1)</f>
+        <v>-1.0731367119853896E-4</v>
       </c>
       <c r="AF14" s="15">
-        <f t="shared" ref="AF14" ca="1" si="75">OFFSET($B14, 0, MATCH(X14,$B$1:$H$1, 0)-1)</f>
-        <v>0.34887559420000003</v>
+        <f t="shared" ref="AF14" ca="1" si="76">OFFSET($J14, 0, MATCH(X14,$B$1:$H$1, 0)-1)</f>
+        <v>-2.0929367960389467E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.46071658134460441</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.41400521993637085</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.57813013195991525</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.37744467854499797</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.52648820877075175</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.49849324226379377</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.63569018840789793</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T15" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U15" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V15" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Cycl</v>
+      </c>
+      <c r="W15" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Def</v>
+      </c>
+      <c r="X15" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Infra</v>
+      </c>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="15">
+        <f ca="1">OFFSET($B15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
+        <v>0.63569018840789793</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" ref="AA15" ca="1" si="77">OFFSET($B15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
+        <v>0.57813013195991525</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" ref="AB15" ca="1" si="78">OFFSET($B15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
+        <v>0.52648820877075175</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" ref="AC15" ca="1" si="79">OFFSET($B15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
+        <v>0.49849324226379377</v>
+      </c>
+      <c r="AD15" s="15">
+        <f t="shared" ref="AD15" ca="1" si="80">OFFSET($B15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
+        <v>0.46071658134460441</v>
+      </c>
+      <c r="AE15" s="15">
+        <f t="shared" ref="AE15" ca="1" si="81">OFFSET($B15, 0, MATCH(W15,$B$1:$H$1, 0)-1)</f>
+        <v>0.41400521993637085</v>
+      </c>
+      <c r="AF15" s="15">
+        <f t="shared" ref="AF15" ca="1" si="82">OFFSET($B15, 0, MATCH(X15,$B$1:$H$1, 0)-1)</f>
+        <v>0.37744467854499797</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1423,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1644,27 +1644,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N14" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N15" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O14" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O15" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P14" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P15" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q14" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q15" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R14" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R15" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S14" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S15" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2222,7 +2222,7 @@
         <v>5.7952449059965883E-3</v>
       </c>
       <c r="Y9" s="8">
-        <f ca="1">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="Y9:Y14" ca="1" si="28">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
         <v>1.585090513841414E-2</v>
       </c>
     </row>
@@ -2295,23 +2295,23 @@
         <v>-1.6365229504145096E-2</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" ref="U10" ca="1" si="28">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U10" ca="1" si="29">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
         <v>-1.018589253883373E-2</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10" ca="1" si="29">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V10" ca="1" si="30">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
         <v>1.8514043510549305E-2</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" ref="W10" ca="1" si="30">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W10" ca="1" si="31">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
         <v>-1.9612487564546033E-2</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="31">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X10" ca="1" si="32">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
         <v>-1.4597495614653178E-2</v>
       </c>
       <c r="Y10" s="8">
-        <f ca="1">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>1.0607020484071583E-2</v>
       </c>
     </row>
@@ -2384,23 +2384,23 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" ref="U11" ca="1" si="32">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U11" ca="1" si="33">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
         <v>5.3E-3</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" ref="V11" ca="1" si="33">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V11" ca="1" si="34">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" ref="W11" ca="1" si="34">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W11" ca="1" si="35">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
         <v>1.5E-3</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" ref="X11" ca="1" si="35">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X11" ca="1" si="36">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
         <v>1.37E-2</v>
       </c>
       <c r="Y11" s="8">
-        <f ca="1">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -2473,23 +2473,23 @@
         <v>7.4265729999999997E-3</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" ref="U12" ca="1" si="36">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U12" ca="1" si="37">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
         <v>2.2002689999999998E-2</v>
       </c>
       <c r="V12" s="8">
-        <f t="shared" ref="V12" ca="1" si="37">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V12" ca="1" si="38">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
         <v>1.4900329E-2</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" ref="W12" ca="1" si="38">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W12" ca="1" si="39">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
         <v>7.70077E-3</v>
       </c>
       <c r="X12" s="8">
-        <f t="shared" ref="X12" ca="1" si="39">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X12" ca="1" si="40">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
         <v>-5.3245419999999998E-3</v>
       </c>
       <c r="Y12" s="8">
-        <f ca="1">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>-1.9681199999999999E-3</v>
       </c>
     </row>
@@ -2558,27 +2558,27 @@
         <v>APAC</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" ref="T13" ca="1" si="40">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="T13" ca="1" si="41">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
         <v>-1.174736E-2</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" ref="U13" ca="1" si="41">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U13" ca="1" si="42">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
         <v>3.7793599999999999E-4</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" ref="V13" ca="1" si="42">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V13" ca="1" si="43">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
         <v>-1.3646287999999999E-2</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" ref="W13" ca="1" si="43">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W13" ca="1" si="44">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
         <v>-7.8675200000000005E-4</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13" ca="1" si="44">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X13" ca="1" si="45">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
         <v>-7.8077390000000002E-3</v>
       </c>
       <c r="Y13" s="8">
-        <f ca="1">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>-2.5285519999999999E-3</v>
       </c>
     </row>
@@ -2647,27 +2647,27 @@
         <v>China</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" ref="T14" ca="1" si="45">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="T14" ca="1" si="46">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
         <v>1.9037078029883636E-2</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14" ca="1" si="46">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="U14" ca="1" si="47">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
         <v>3.9290460507310776E-3</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" ref="V14" ca="1" si="47">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="V14" ca="1" si="48">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
         <v>1.7565811636748752E-2</v>
       </c>
       <c r="W14" s="8">
-        <f t="shared" ref="W14" ca="1" si="48">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="W14" ca="1" si="49">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
         <v>1.2531635886743553E-2</v>
       </c>
       <c r="X14" s="8">
-        <f t="shared" ref="X14" ca="1" si="49">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ref="X14" ca="1" si="50">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
         <v>1.6516098365224607E-3</v>
       </c>
       <c r="Y14" s="8">
-        <f ca="1">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>1.38862867862799E-2</v>
       </c>
     </row>
@@ -2676,70 +2676,159 @@
         <v>45778</v>
       </c>
       <c r="B15" s="10">
-        <v>0.54124479999999997</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.5480621</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>0.51816530000000005</v>
+        <v>3</v>
       </c>
       <c r="E15" s="4">
-        <v>0.40472245000000001</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4">
-        <v>0.49555476999999998</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4">
-        <v>0.49438503</v>
+        <v>5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-7.1588267847261244E-3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.4481734911844235E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <v>-1.0594021944759779E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>6.3250334567399591E-4</v>
+      </c>
+      <c r="L15" s="8">
+        <v>-3.6048913078609024E-3</v>
+      </c>
+      <c r="M15" s="8">
+        <v>8.7604631832673974E-3</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 1), $B15:$G15, 0))</f>
+        <f t="shared" si="5"/>
         <v>EUR</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 2), $B15:$G15, 0))</f>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 3), $B15:$G15, 0))</f>
+        <f t="shared" si="7"/>
         <v>UK</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 4), $B15:$G15, 0))</f>
+        <f t="shared" si="8"/>
         <v>APAC</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 5), $B15:$G15, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 6), $B15:$G15, 0))</f>
+        <f t="shared" si="10"/>
         <v>China</v>
       </c>
       <c r="T15" s="8">
-        <f ca="1">OFFSET($B15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
-        <v>0.5480621</v>
+        <f t="shared" ref="T15" ca="1" si="51">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
+        <v>1.4481734911844235E-3</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" ref="U15" ca="1" si="50">OFFSET($B15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
-        <v>0.54124479999999997</v>
+        <f t="shared" ref="U15" ca="1" si="52">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
+        <v>-7.1588267847261244E-3</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" ref="V15" ca="1" si="51">OFFSET($B15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
-        <v>0.51816530000000005</v>
+        <f t="shared" ref="V15" ca="1" si="53">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
+        <v>-1.0594021944759779E-2</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" ref="W15" ca="1" si="52">OFFSET($B15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
-        <v>0.49555476999999998</v>
+        <f t="shared" ref="W15" ca="1" si="54">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
+        <v>-3.6048913078609024E-3</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" ref="X15" ca="1" si="53">OFFSET($B15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
-        <v>0.49438503</v>
+        <f t="shared" ref="X15" ca="1" si="55">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
+        <v>8.7604631832673974E-3</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" ref="Y15" ca="1" si="54">OFFSET($B15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
-        <v>0.40472245000000001</v>
+        <f t="shared" ref="Y15" ca="1" si="56">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
+        <v>6.3250334567399591E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.53686149999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.56037170000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.50998973999999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.48110272999999998</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.54071789999999997</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.50597499999999995</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 1), $B16:$G16, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 2), $B16:$G16, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 3), $B16:$G16, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 4), $B16:$G16, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 5), $B16:$G16, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 6), $B16:$G16, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="T16" s="8">
+        <f ca="1">OFFSET($B16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
+        <v>0.56037170000000003</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16:Y16" ca="1" si="57">OFFSET($B16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
+        <v>0.54071789999999997</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.53686149999999999</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.50998973999999997</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.50597499999999995</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.48110272999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2750,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2873,15 +2962,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H14" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H15" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I14" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I15" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J14" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J15" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="8">
@@ -3419,37 +3508,84 @@
         <v>45778</v>
       </c>
       <c r="B15" s="4">
-        <v>0.29467103</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.37652049999999998</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>0.28819646999999998</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-1.0282245315233807E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-1.1295135957767322E-4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-9.1302884075862289E-3</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 1), $B15:$D15, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 2), $B15:$D15, 0))</f>
+        <f t="shared" si="3"/>
         <v>Tsy</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B15:$D15, 3), $B15:$D15, 0))</f>
+        <f t="shared" si="4"/>
         <v>MBS</v>
       </c>
-      <c r="K15" s="15">
-        <f ca="1">OFFSET($B15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
-        <v>0.37652049999999998</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" ref="L15" ca="1" si="33">OFFSET($B15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
-        <v>0.29467103</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" ref="M15" ca="1" si="34">OFFSET($B15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
-        <v>0.28819646999999998</v>
+      <c r="K15" s="8">
+        <f t="shared" ref="K15" ca="1" si="33">OFFSET($E15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
+        <v>-1.1295135957767322E-4</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15" ca="1" si="34">OFFSET($E15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
+        <v>-1.0282245315233807E-2</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15" ca="1" si="35">OFFSET($E15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
+        <v>-9.1302884075862289E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.21555561000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.55809439999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.23400860000000001</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 1), $B16:$D16, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 2), $B16:$D16, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 3), $B16:$D16, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K16" s="15">
+        <f ca="1">OFFSET($B16, 0, MATCH(H16,$B$1:$D$1, 0)-1)</f>
+        <v>0.55809439999999999</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" ref="L16" ca="1" si="36">OFFSET($B16, 0, MATCH(I16,$B$1:$D$1, 0)-1)</f>
+        <v>0.23400860000000001</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" ref="M16" ca="1" si="37">OFFSET($B16, 0, MATCH(J16,$B$1:$D$1, 0)-1)</f>
+        <v>0.21555561000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3460,10 +3596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3679,27 +3815,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N14" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N15" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O14" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O15" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P14" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P15" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q14" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q15" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R14" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R15" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S14" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S15" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="8">
@@ -4711,70 +4847,159 @@
         <v>45778</v>
       </c>
       <c r="B15" s="4">
-        <v>0.50213456000000001</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>0.51709366000000001</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>0.73201769999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>0.48895326</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4">
-        <v>0.49215657000000002</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4">
-        <v>0.47589803000000003</v>
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.7895012033255497E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.2460699307043086E-3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>-4.5732526646148353E-3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.679633292981797E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.9356355361525699E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5.5622009569378239E-3</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 1), $B15:$G15, 0))</f>
+        <f t="shared" si="1"/>
         <v>장기</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 2), $B15:$G15, 0))</f>
+        <f t="shared" si="2"/>
         <v>중기</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 3), $B15:$G15, 0))</f>
+        <f t="shared" si="3"/>
         <v>단기</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 4), $B15:$G15, 0))</f>
+        <f t="shared" si="4"/>
         <v>CB</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 5), $B15:$G15, 0))</f>
+        <f t="shared" si="5"/>
         <v>HY</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B15:$G15, 6), $B15:$G15, 0))</f>
+        <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T15" s="15">
-        <f ca="1">OFFSET($B15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
-        <v>0.73201769999999999</v>
-      </c>
-      <c r="U15" s="15">
-        <f t="shared" ref="U15" ca="1" si="62">OFFSET($B15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
-        <v>0.51709366000000001</v>
-      </c>
-      <c r="V15" s="15">
-        <f t="shared" ref="V15" ca="1" si="63">OFFSET($B15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
-        <v>0.50213456000000001</v>
-      </c>
-      <c r="W15" s="15">
-        <f t="shared" ref="W15" ca="1" si="64">OFFSET($B15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
-        <v>0.49215657000000002</v>
-      </c>
-      <c r="X15" s="15">
-        <f t="shared" ref="X15" ca="1" si="65">OFFSET($B15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
-        <v>0.48895326</v>
-      </c>
-      <c r="Y15" s="15">
-        <f t="shared" ref="Y15" ca="1" si="66">OFFSET($B15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
-        <v>0.47589803000000003</v>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15" ca="1" si="62">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
+        <v>-4.5732526646148353E-3</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" ref="U15" ca="1" si="63">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
+        <v>2.2460699307043086E-3</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15" ca="1" si="64">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
+        <v>1.7895012033255497E-3</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15" ca="1" si="65">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
+        <v>2.9356355361525699E-2</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15" ca="1" si="66">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
+        <v>1.679633292981797E-2</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" ref="Y15" ca="1" si="67">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
+        <v>5.5622009569378239E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.47136158</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.44811677999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.59905929999999996</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.49822596000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.49918964999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.43264055000000001</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 1), $B16:$G16, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 2), $B16:$G16, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 3), $B16:$G16, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 4), $B16:$G16, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 5), $B16:$G16, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 6), $B16:$G16, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="T16" s="15">
+        <f ca="1">OFFSET($B16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
+        <v>0.59905929999999996</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" ref="U16" ca="1" si="68">OFFSET($B16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
+        <v>0.49918964999999998</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" ref="V16" ca="1" si="69">OFFSET($B16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
+        <v>0.49822596000000002</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" ref="W16" ca="1" si="70">OFFSET($B16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
+        <v>0.47136158</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" ref="X16" ca="1" si="71">OFFSET($B16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
+        <v>0.44811677999999999</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" ref="Y16" ca="1" si="72">OFFSET($B16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
+        <v>0.43264055000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4785,9 +5010,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5034,31 +5261,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P14" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P15" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q14" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q15" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R14" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R15" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S14" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S15" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T14" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T15" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U14" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U15" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V14" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V15" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -6228,81 +6455,184 @@
         <v>45778</v>
       </c>
       <c r="B15" s="4">
-        <v>0.33671839999999997</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4">
-        <v>0.35473195000000002</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4">
-        <v>0.4333806</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4">
-        <v>0.55568890000000004</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>0.61629149999999999</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0.4413282</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>0.41817564000000002</v>
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>-2.2933459242521215E-3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>-7.0783676417479624E-3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>-1.1788142032735704E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>-2.5166031009275058E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-3.1569761472913238E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <v>6.4201426681553819E-4</v>
+      </c>
+      <c r="O15" s="6">
+        <v>-5.8765530024483814E-3</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 1), $B15:$H15, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 2), $B15:$H15, 0))</f>
+        <f t="shared" si="6"/>
         <v>장기</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 3), $B15:$H15, 0))</f>
+        <f t="shared" si="7"/>
         <v>지방정부</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 4), $B15:$H15, 0))</f>
+        <f t="shared" si="8"/>
         <v>중기</v>
       </c>
       <c r="T15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 5), $B15:$H15, 0))</f>
+        <f t="shared" si="9"/>
         <v>TIPS</v>
       </c>
       <c r="U15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 6), $B15:$H15, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V15" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B15:$H15, 7), $B15:$H15, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W15" s="15">
-        <f ca="1">OFFSET($B15, 0, MATCH(P15,$B$1:$H$1, 0)-1)</f>
-        <v>0.61629149999999999</v>
-      </c>
-      <c r="X15" s="15">
-        <f t="shared" ref="X15" ca="1" si="76">OFFSET($B15, 0, MATCH(Q15,$B$1:$H$1, 0)-1)</f>
-        <v>0.55568890000000004</v>
-      </c>
-      <c r="Y15" s="15">
-        <f t="shared" ref="Y15" ca="1" si="77">OFFSET($B15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
-        <v>0.4413282</v>
-      </c>
-      <c r="Z15" s="15">
-        <f t="shared" ref="Z15" ca="1" si="78">OFFSET($B15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
-        <v>0.4333806</v>
-      </c>
-      <c r="AA15" s="15">
-        <f t="shared" ref="AA15" ca="1" si="79">OFFSET($B15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
-        <v>0.41817564000000002</v>
-      </c>
-      <c r="AB15" s="15">
-        <f t="shared" ref="AB15" ca="1" si="80">OFFSET($B15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
-        <v>0.35473195000000002</v>
-      </c>
-      <c r="AC15" s="15">
-        <f t="shared" ref="AC15" ca="1" si="81">OFFSET($B15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
-        <v>0.33671839999999997</v>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15" ca="1" si="76">OFFSET($I15, 0, MATCH(P15,$B$1:$H$1, 0)-1)</f>
+        <v>-3.1569761472913238E-2</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15" ca="1" si="77">OFFSET($I15, 0, MATCH(Q15,$B$1:$H$1, 0)-1)</f>
+        <v>-2.5166031009275058E-2</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" ref="Y15" ca="1" si="78">OFFSET($I15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
+        <v>6.4201426681553819E-4</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" ref="Z15" ca="1" si="79">OFFSET($I15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
+        <v>-1.1788142032735704E-2</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" ref="AA15" ca="1" si="80">OFFSET($I15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
+        <v>-5.8765530024483814E-3</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" ref="AB15" ca="1" si="81">OFFSET($I15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
+        <v>-7.0783676417479624E-3</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" ref="AC15" ca="1" si="82">OFFSET($I15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
+        <v>-2.2933459242521215E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.38496920000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.46073234000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.49168460000000003</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.67603690000000005</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.62123054</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.57180969999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.50309409999999999</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 1), $B16:$H16, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 2), $B16:$H16, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 3), $B16:$H16, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 4), $B16:$H16, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 5), $B16:$H16, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 6), $B16:$H16, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 7), $B16:$H16, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="W16" s="15">
+        <f ca="1">OFFSET($B16, 0, MATCH(P16,$B$1:$H$1, 0)-1)</f>
+        <v>0.67603690000000005</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" ref="X16" ca="1" si="83">OFFSET($B16, 0, MATCH(Q16,$B$1:$H$1, 0)-1)</f>
+        <v>0.62123054</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" ref="Y16" ca="1" si="84">OFFSET($B16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
+        <v>0.57180969999999998</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" ref="Z16" ca="1" si="85">OFFSET($B16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
+        <v>0.50309409999999999</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" ref="AA16" ca="1" si="86">OFFSET($B16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
+        <v>0.49168460000000003</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" ref="AB16" ca="1" si="87">OFFSET($B16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
+        <v>0.46073234000000002</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" ref="AC16" ca="1" si="88">OFFSET($B16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
+        <v>0.38496920000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -6591,31 +6921,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R15" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R16" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S15" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S16" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T15" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T16" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U15" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U16" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V15" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V16" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W15" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W16" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X15" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X16" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -7919,15 +8249,33 @@
       <c r="H15" s="13">
         <v>0.63569018840789793</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="13"/>
+      <c r="I15" s="14">
+        <v>-1.1295135957833935E-4</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1.1490521056534142E-3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>-1.3891402311477785E-3</v>
+      </c>
+      <c r="L15" s="14">
+        <v>3.8012396835729323E-3</v>
+      </c>
+      <c r="M15" s="14">
+        <v>-7.8988257287460062E-4</v>
+      </c>
+      <c r="N15" s="14">
+        <v>-3.7518647453533838E-3</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1.8707983156931451E-3</v>
+      </c>
+      <c r="P15" s="14">
+        <v>3.604018792180419E-5</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="R15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -7956,34 +8304,121 @@
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y15" s="13"/>
+      <c r="Y15" s="15">
+        <f t="shared" ref="Y15:Y16" si="77">I15</f>
+        <v>-1.1295135957833935E-4</v>
+      </c>
       <c r="Z15" s="15">
-        <f ca="1">OFFSET($B15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
-        <v>0.63569018840789793</v>
+        <f t="shared" ref="Z15" ca="1" si="78">OFFSET($J15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
+        <v>3.604018792180419E-5</v>
       </c>
       <c r="AA15" s="15">
-        <f t="shared" ref="AA15" ca="1" si="77">OFFSET($B15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
-        <v>0.57813013195991525</v>
+        <f t="shared" ref="AA15" ca="1" si="79">OFFSET($J15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
+        <v>3.8012396835729323E-3</v>
       </c>
       <c r="AB15" s="15">
-        <f t="shared" ref="AB15" ca="1" si="78">OFFSET($B15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
-        <v>0.52648820877075175</v>
+        <f t="shared" ref="AB15" ca="1" si="80">OFFSET($J15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
+        <v>-3.7518647453533838E-3</v>
       </c>
       <c r="AC15" s="15">
-        <f t="shared" ref="AC15" ca="1" si="79">OFFSET($B15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
-        <v>0.49849324226379377</v>
+        <f t="shared" ref="AC15" ca="1" si="81">OFFSET($J15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
+        <v>1.8707983156931451E-3</v>
       </c>
       <c r="AD15" s="15">
-        <f t="shared" ref="AD15" ca="1" si="80">OFFSET($B15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
-        <v>0.46071658134460441</v>
+        <f t="shared" ref="AD15" ca="1" si="82">OFFSET($J15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
+        <v>1.1490521056534142E-3</v>
       </c>
       <c r="AE15" s="15">
-        <f t="shared" ref="AE15" ca="1" si="81">OFFSET($B15, 0, MATCH(W15,$B$1:$H$1, 0)-1)</f>
-        <v>0.41400521993637085</v>
+        <f t="shared" ref="AE15" ca="1" si="83">OFFSET($J15, 0, MATCH(W15,$B$1:$H$1, 0)-1)</f>
+        <v>-1.3891402311477785E-3</v>
       </c>
       <c r="AF15" s="15">
-        <f t="shared" ref="AF15" ca="1" si="82">OFFSET($B15, 0, MATCH(X15,$B$1:$H$1, 0)-1)</f>
-        <v>0.37744467854499797</v>
+        <f t="shared" ref="AF15" ca="1" si="84">OFFSET($J15, 0, MATCH(X15,$B$1:$H$1, 0)-1)</f>
+        <v>-7.8988257287460062E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.43844069242477401</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.39885711073875418</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.65557721853256223</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.45452868342399599</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.51073849201202381</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.49949944019317644</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.74071384668350204</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fin</v>
+      </c>
+      <c r="S16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T16" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U16" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Bank</v>
+      </c>
+      <c r="V16" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Infra</v>
+      </c>
+      <c r="W16" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Cycl</v>
+      </c>
+      <c r="X16" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Def</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="15">
+        <f ca="1">OFFSET($B16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
+        <v>0.74071384668350204</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" ref="AA16" ca="1" si="85">OFFSET($B16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
+        <v>0.65557721853256223</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" ref="AB16" ca="1" si="86">OFFSET($B16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
+        <v>0.51073849201202381</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" ref="AC16" ca="1" si="87">OFFSET($B16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
+        <v>0.49949944019317644</v>
+      </c>
+      <c r="AD16" s="15">
+        <f t="shared" ref="AD16" ca="1" si="88">OFFSET($B16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
+        <v>0.45452868342399599</v>
+      </c>
+      <c r="AE16" s="15">
+        <f t="shared" ref="AE16" ca="1" si="89">OFFSET($B16, 0, MATCH(W16,$B$1:$H$1, 0)-1)</f>
+        <v>0.43844069242477401</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" ref="AF16" ca="1" si="90">OFFSET($B16, 0, MATCH(X16,$B$1:$H$1, 0)-1)</f>
+        <v>0.39885711073875418</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -792,7 +796,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,8 +1020,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,11 +1071,14 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="78">
     <cellStyle name="20% - 강조색1 2" xfId="21"/>
     <cellStyle name="20% - 강조색2 2" xfId="25"/>
     <cellStyle name="20% - 강조색3 2" xfId="29"/>
@@ -1131,6 +1141,7 @@
     <cellStyle name="표준 16" xfId="74"/>
     <cellStyle name="표준 17" xfId="75"/>
     <cellStyle name="표준 18" xfId="76"/>
+    <cellStyle name="표준 19" xfId="77"/>
     <cellStyle name="표준 2" xfId="3"/>
     <cellStyle name="표준 2 2" xfId="46"/>
     <cellStyle name="표준 2 2 2" xfId="71"/>
@@ -1423,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1644,27 +1655,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N15" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N16" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O15" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O16" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P15" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P16" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q15" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q16" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R15" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R16" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S15" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S16" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="8">
@@ -2765,70 +2776,159 @@
         <v>45809</v>
       </c>
       <c r="B16" s="4">
-        <v>0.53686149999999999</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>0.56037170000000003</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>0.50998973999999997</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>0.48110272999999998</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4">
-        <v>0.54071789999999997</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>0.50597499999999995</v>
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.5375148266728589E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2.9283106178374929E-3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.6061185468451367E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>6.879922292754248E-3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>7.7726982453649729E-3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2.2199322030008739E-2</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 1), $B16:$G16, 0))</f>
+        <f t="shared" si="5"/>
         <v>EUR</v>
       </c>
       <c r="O16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 2), $B16:$G16, 0))</f>
+        <f t="shared" si="6"/>
         <v>APAC</v>
       </c>
       <c r="P16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 3), $B16:$G16, 0))</f>
+        <f t="shared" si="7"/>
         <v>US</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 4), $B16:$G16, 0))</f>
+        <f t="shared" si="8"/>
         <v>UK</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 5), $B16:$G16, 0))</f>
+        <f t="shared" si="9"/>
         <v>EM</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 6), $B16:$G16, 0))</f>
+        <f t="shared" si="10"/>
         <v>China</v>
       </c>
       <c r="T16" s="8">
-        <f ca="1">OFFSET($B16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
-        <v>0.56037170000000003</v>
+        <f t="shared" ref="T16" ca="1" si="57">OFFSET($H16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
+        <v>2.9283106178374929E-3</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" ref="U16:Y16" ca="1" si="57">OFFSET($B16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
-        <v>0.54071789999999997</v>
+        <f t="shared" ref="U16" ca="1" si="58">OFFSET($H16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
+        <v>7.7726982453649729E-3</v>
       </c>
       <c r="V16" s="8">
-        <f t="shared" ca="1" si="57"/>
-        <v>0.53686149999999999</v>
+        <f t="shared" ref="V16" ca="1" si="59">OFFSET($H16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
+        <v>1.5375148266728589E-2</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" ca="1" si="57"/>
-        <v>0.50998973999999997</v>
+        <f t="shared" ref="W16" ca="1" si="60">OFFSET($H16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
+        <v>1.6061185468451367E-2</v>
       </c>
       <c r="X16" s="8">
-        <f t="shared" ca="1" si="57"/>
-        <v>0.50597499999999995</v>
+        <f t="shared" ref="X16" ca="1" si="61">OFFSET($H16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
+        <v>2.2199322030008739E-2</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" ca="1" si="57"/>
-        <v>0.48110272999999998</v>
+        <f t="shared" ref="Y16" ca="1" si="62">OFFSET($H16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
+        <v>6.879922292754248E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45839</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.4112982</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.57515000000000005</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.4346776</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.6566978</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.61057539999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.48619568000000002</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 1), $B17:$G17, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 2), $B17:$G17, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 3), $B17:$G17, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 4), $B17:$G17, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 5), $B17:$G17, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 6), $B17:$G17, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="T17" s="8">
+        <f ca="1">OFFSET($B17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
+        <v>0.6566978</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" ref="U17" ca="1" si="63">OFFSET($B17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
+        <v>0.61057539999999999</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" ref="V17" ca="1" si="64">OFFSET($B17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
+        <v>0.57515000000000005</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" ref="W17" ca="1" si="65">OFFSET($B17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
+        <v>0.48619568000000002</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" ref="X17" ca="1" si="66">OFFSET($B17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
+        <v>0.4346776</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" ref="Y17" ca="1" si="67">OFFSET($B17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
+        <v>0.4112982</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2939,2341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-2.3273962337771681E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-2.5447370635779065E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-3.0255585445815636E-2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 1), $B2:$D2, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 2), $B2:$D2, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 3), $B2:$D2, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="K2" s="8">
+        <f ca="1">OFFSET($E2, 0, MATCH(H2,$B$1:$D$1, 0)-1)</f>
+        <v>-2.5447370635779065E-2</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L5" ca="1" si="0">OFFSET($E2, 0, MATCH(I2,$B$1:$D$1, 0)-1)</f>
+        <v>-2.3273962337771681E-2</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M5" ca="1" si="1">OFFSET($E2, 0, MATCH(J2,$B$1:$D$1, 0)-1)</f>
+        <v>-3.0255585445815636E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.4567690505806086E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.8729909964657621E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.9981017055295203E-2</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H16" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I16" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J16" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K5" ca="1" si="5">OFFSET($E3, 0, MATCH(H3,$B$1:$D$1, 0)-1)</f>
+        <v>1.8729909964657621E-2</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9981017055295203E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4567690505806086E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Tsy</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MBS</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.64E-2</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>MBS</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Corp</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" ref="K6" ca="1" si="6">OFFSET($E6, 0, MATCH(H6,$B$1:$D$1, 0)-1)</f>
+        <v>1.61E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6" ca="1" si="7">OFFSET($E6, 0, MATCH(I6,$B$1:$D$1, 0)-1)</f>
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6" ca="1" si="8">OFFSET($E6, 0, MATCH(J6,$B$1:$D$1, 0)-1)</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.77E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7" ca="1" si="9">OFFSET($E7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
+        <v>1.77E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7" ca="1" si="10">OFFSET($E7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7" ca="1" si="11">OFFSET($E7, 0, MATCH(J7,$B$1:$D$1, 0)-1)</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-2.3811135000000001E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-2.4271330000000001E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2.8309049999999999E-2</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>MBS</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Corp</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" ref="K8" ca="1" si="12">OFFSET($E8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.8309049999999999E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" ref="L8" ca="1" si="13">OFFSET($E8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.4271330000000001E-2</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8" ca="1" si="14">OFFSET($E8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
+        <v>-2.3811135000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7.7724921365256439E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.337707770668306E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.3330065933659485E-2</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9" ca="1" si="15">OFFSET($E9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
+        <v>1.337707770668306E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9" ca="1" si="16">OFFSET($E9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
+        <v>1.3330065933659485E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9" ca="1" si="17">OFFSET($E9, 0, MATCH(J9,$B$1:$D$1, 0)-1)</f>
+        <v>7.7724921365256439E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1.5407896546980382E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-1.9353569320478714E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1.6471908779390421E-2</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10" ca="1" si="18">OFFSET($E10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.9353569320478714E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" ca="1" si="19">OFFSET($E10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.6471908779390421E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10" ca="1" si="20">OFFSET($E10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
+        <v>-1.5407896546980382E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11" ca="1" si="21">OFFSET($E11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11" ca="1" si="22">OFFSET($E11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" ref="M11" ca="1" si="23">OFFSET($E11, 0, MATCH(J11,$B$1:$D$1, 0)-1)</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.1558671000000001E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.038589E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.5497110999999999E-2</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" ref="K12" ca="1" si="24">OFFSET($E12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
+        <v>2.038589E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12" ca="1" si="25">OFFSET($E12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
+        <v>2.5497110999999999E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12" ca="1" si="26">OFFSET($E12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
+        <v>2.1558671000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.2961919999999999E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-2.8828690000000001E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-1.7103600000000001E-4</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" ref="K13" ca="1" si="27">OFFSET($E13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
+        <v>-2.8828690000000001E-3</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13" ca="1" si="28">OFFSET($E13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
+        <v>-1.7103600000000001E-4</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13" ca="1" si="29">OFFSET($E13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
+        <v>2.2961919999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6.3340008145533755E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-3.268575911189453E-4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.8675868154028894E-3</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Tsy</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MBS</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" ref="K14" ca="1" si="30">OFFSET($E14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
+        <v>-3.268575911189453E-4</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" ref="L14" ca="1" si="31">OFFSET($E14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
+        <v>6.3340008145533755E-3</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14" ca="1" si="32">OFFSET($E14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
+        <v>2.8675868154028894E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-1.0282245315233807E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-1.1295135957767322E-4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-9.1302884075862289E-3</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Tsy</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>MBS</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" ref="K15" ca="1" si="33">OFFSET($E15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
+        <v>-1.1295135957767322E-4</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15" ca="1" si="34">OFFSET($E15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
+        <v>-1.0282245315233807E-2</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15" ca="1" si="35">OFFSET($E15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
+        <v>-9.1302884075862289E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.2544405919085566E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.868664347929494E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.777648918868735E-2</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Corp</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>MBS</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" ref="K16" ca="1" si="36">OFFSET($E16, 0, MATCH(H16,$B$1:$D$1, 0)-1)</f>
+        <v>1.868664347929494E-2</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" ref="L16" ca="1" si="37">OFFSET($E16, 0, MATCH(I16,$B$1:$D$1, 0)-1)</f>
+        <v>1.777648918868735E-2</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" ref="M16" ca="1" si="38">OFFSET($E16, 0, MATCH(J16,$B$1:$D$1, 0)-1)</f>
+        <v>1.2544405919085566E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45839</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.24201636000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.47116639999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.44660810000000001</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 1), $B17:$D17, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 2), $B17:$D17, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 3), $B17:$D17, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K17" s="15">
+        <f ca="1">OFFSET($B17, 0, MATCH(H17,$B$1:$D$1, 0)-1)</f>
+        <v>0.47116639999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" ref="L17" ca="1" si="39">OFFSET($B17, 0, MATCH(I17,$B$1:$D$1, 0)-1)</f>
+        <v>0.44660810000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" ref="M17" ca="1" si="40">OFFSET($B17, 0, MATCH(J17,$B$1:$D$1, 0)-1)</f>
+        <v>0.24201636000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-6.5253018160699172E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-2.3162929869394056E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-4.9381116698660965E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-9.4018724270023002E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-3.5280728513869541E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5.3238686779060185E-3</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 1), $B2:$G2, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 2), $B2:$G2, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 3), $B2:$G2, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 4), $B2:$G2, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 5), $B2:$G2, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T2" s="8">
+        <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
+        <v>-9.4018724270023002E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:Y5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
+        <v>-3.5280728513869541E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3238686779060185E-3</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.3162929869394056E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9381116698660965E-2</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.5253018160699172E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.0355772590442403E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.9399303693745873E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.8248965534329429E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.0987379957157595E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.0013131127499362E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5.5478502080443803E-3</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N16" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O16" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P16" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q16" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R16" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S16" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T5" ca="1" si="7">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
+        <v>1.0987379957157595E-2</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5478502080443803E-3</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0013131127499362E-2</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8248965534329429E-2</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9399303693745873E-2</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0355772590442403E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.3E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>중기</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>단기</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>HY</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="X4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.58E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>HY</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>중기</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.58E-2</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.55E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.12E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HY</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>중기</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>CB</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>장기</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6" ca="1" si="8">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" ref="U6" ca="1" si="9">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
+        <v>1.55E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" ca="1" si="10">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6" ca="1" si="11">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
+        <v>2.12E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" ca="1" si="12">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" ref="Y6" ca="1" si="13">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.98E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HY</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CB</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>장기</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>중기</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" ref="T7" ca="1" si="14">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" ref="U7" ca="1" si="15">OFFSET($H7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
+        <v>2.98E-2</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" ref="V7" ca="1" si="16">OFFSET($H7, 0, MATCH(P7,$B$1:$G$1, 0)-1)</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" ref="W7" ca="1" si="17">OFFSET($H7, 0, MATCH(Q7,$B$1:$G$1, 0)-1)</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" ref="X7" ca="1" si="18">OFFSET($H7, 0, MATCH(R7,$B$1:$G$1, 0)-1)</f>
+        <v>1.04E-2</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ref="Y7" ca="1" si="19">OFFSET($H7, 0, MATCH(S7,$B$1:$G$1, 0)-1)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-8.9353179999999994E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-2.3687716000000001E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-4.1607038999999998E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-5.4060920000000004E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5.585652E-3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>5.0430500000000003E-3</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>CB</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>HY</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>장기</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>중기</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" ref="T8" ca="1" si="20">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
+        <v>5.585652E-3</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" ref="U8" ca="1" si="21">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
+        <v>-5.4060920000000004E-3</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8" ca="1" si="22">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
+        <v>-4.1607038999999998E-2</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" ref="W8" ca="1" si="23">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
+        <v>-2.3687716000000001E-2</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" ref="X8" ca="1" si="24">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
+        <v>-8.9353179999999994E-3</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" ref="Y8" ca="1" si="25">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
+        <v>5.0430500000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.286436594046263E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.2019362649438925E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.2672848980195726E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.1505341631693922E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6.2065634663099889E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4.4670175009180468E-3</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>CB</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>장기</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>HY</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>중기</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" ref="T9" ca="1" si="26">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
+        <v>6.2065634663099889E-2</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9" ca="1" si="27">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
+        <v>2.2672848980195726E-2</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ref="V9" ca="1" si="28">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
+        <v>1.1505341631693922E-2</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" ref="W9" ca="1" si="29">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
+        <v>1.2019362649438925E-2</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" ref="X9" ca="1" si="30">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
+        <v>6.286436594046263E-3</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ref="Y9" ca="1" si="31">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
+        <v>4.4670175009180468E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1.3004773742498754E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-1.5295531980034749E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-4.2966180801507825E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-4.2640362498748141E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-3.9307984538194951E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4.5080718854704216E-3</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>중기</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>장기</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>단기</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CB</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>HY</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" ref="T10" ca="1" si="32">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.5295531980034749E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" ref="U10" ca="1" si="33">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
+        <v>-4.2966180801507825E-2</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" ref="V10" ca="1" si="34">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
+        <v>-1.3004773742498754E-3</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" ref="W10" ca="1" si="35">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
+        <v>-3.9307984538194951E-2</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" ref="X10" ca="1" si="36">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
+        <v>-4.2640362498748141E-3</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10" ca="1" si="37">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
+        <v>4.5080718854704216E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CB</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>HY</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>중기</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" ref="T11" ca="1" si="38">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" ref="U11" ca="1" si="39">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" ref="V11" ca="1" si="40">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
+        <v>1.37E-2</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" ref="W11" ca="1" si="41">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" ref="X11" ca="1" si="42">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" ref="Y11" ca="1" si="43">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9.4463670000000007E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.9336801000000001E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.4162163000000002E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>6.7137289999999999E-3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1.2547552E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4.2265430000000001E-3</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>중기</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>단기</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CB</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>HY</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" ref="T12" ca="1" si="44">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
+        <v>3.4162163000000002E-2</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12" ca="1" si="45">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
+        <v>1.9336801000000001E-2</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" ref="V12" ca="1" si="46">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
+        <v>9.4463670000000007E-3</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" ref="W12" ca="1" si="47">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
+        <v>-1.2547552E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" ref="X12" ca="1" si="48">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
+        <v>6.7137289999999999E-3</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" ref="Y12" ca="1" si="49">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
+        <v>4.2265430000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4.1811110000000004E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7.3968600000000003E-4</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-1.4091329999999999E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-1.0222566000000001E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-2.8187982E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3.7277539999999998E-3</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>중기</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>단기</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>FRN</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>CB</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>HY</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" ref="T13" ca="1" si="50">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.4091329999999999E-2</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" ref="U13" ca="1" si="51">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
+        <v>7.3968600000000003E-4</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" ref="V13" ca="1" si="52">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
+        <v>4.1811110000000004E-3</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13" ca="1" si="53">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
+        <v>3.7277539999999998E-3</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" ref="X13" ca="1" si="54">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
+        <v>-2.8187982E-2</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" ref="Y13" ca="1" si="55">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
+        <v>-1.0222566000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6.7556701265467645E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4.4331683209568595E-3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-1.2880991541082465E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>-2.0294678735244265E-4</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1.3883974929222109E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.5574457889060422E-3</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CB</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>중기</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>HY</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>단기</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" ref="T14" ca="1" si="56">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
+        <v>-1.2880991541082465E-2</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14" ca="1" si="57">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
+        <v>1.3883974929222109E-2</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" ref="V14" ca="1" si="58">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
+        <v>4.4331683209568595E-3</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" ref="W14" ca="1" si="59">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
+        <v>-2.0294678735244265E-4</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" ref="X14" ca="1" si="60">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
+        <v>6.7556701265467645E-3</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" ref="Y14" ca="1" si="61">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
+        <v>1.5574457889060422E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.7895012033255497E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.2460699307043086E-3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>-4.5732526646148353E-3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.679633292981797E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.9356355361525699E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5.5622009569378239E-3</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>중기</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>단기</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CB</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>HY</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15" ca="1" si="62">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
+        <v>-4.5732526646148353E-3</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" ref="U15" ca="1" si="63">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
+        <v>2.2460699307043086E-3</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15" ca="1" si="64">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
+        <v>1.7895012033255497E-3</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15" ca="1" si="65">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
+        <v>2.9356355361525699E-2</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15" ca="1" si="66">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
+        <v>1.679633292981797E-2</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" ref="Y15" ca="1" si="67">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
+        <v>5.5622009569378239E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>9.4095044006174966E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.9058742635648551E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3.0199593394778068E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.8391814245216853E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>3.8350210275769792E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>4.8177005888301316E-3</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>장기</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CB</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>HY</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>단기</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>중기</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>FRN</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" ref="T16" ca="1" si="68">OFFSET($H16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
+        <v>3.0199593394778068E-2</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16" ca="1" si="69">OFFSET($H16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
+        <v>3.8350210275769792E-2</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16" ca="1" si="70">OFFSET($H16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
+        <v>1.8391814245216853E-2</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" ref="W16" ca="1" si="71">OFFSET($H16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
+        <v>9.4095044006174966E-3</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16" ca="1" si="72">OFFSET($H16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
+        <v>1.9058742635648551E-2</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" ref="Y16" ca="1" si="73">OFFSET($H16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
+        <v>4.8177005888301316E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45839</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.38314733000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.50588469999999996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.56944983999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.57517620000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.67638900000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.41445056000000002</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 1), $B17:$G17, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 2), $B17:$G17, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 3), $B17:$G17, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 4), $B17:$G17, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 5), $B17:$G17, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 6), $B17:$G17, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T17" s="15">
+        <f ca="1">OFFSET($B17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
+        <v>0.67638900000000002</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" ref="U17" ca="1" si="74">OFFSET($B17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
+        <v>0.57517620000000003</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" ref="V17" ca="1" si="75">OFFSET($B17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
+        <v>0.56944983999999998</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" ref="W17" ca="1" si="76">OFFSET($B17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
+        <v>0.50588469999999996</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" ref="X17" ca="1" si="77">OFFSET($B17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
+        <v>0.41445056000000002</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" ref="Y17" ca="1" si="78">OFFSET($B17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
+        <v>0.38314733000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -2851,2177 +5285,6 @@
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>45383</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-2.3273962337771681E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>-2.5447370635779065E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>-3.0255585445815636E-2</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 1), $B2:$D2, 0))</f>
-        <v>Corp</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 2), $B2:$D2, 0))</f>
-        <v>Tsy</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 3), $B2:$D2, 0))</f>
-        <v>MBS</v>
-      </c>
-      <c r="K2" s="8">
-        <f ca="1">OFFSET($E2, 0, MATCH(H2,$B$1:$D$1, 0)-1)</f>
-        <v>-2.5447370635779065E-2</v>
-      </c>
-      <c r="L2" s="8">
-        <f t="shared" ref="L2:L5" ca="1" si="0">OFFSET($E2, 0, MATCH(I2,$B$1:$D$1, 0)-1)</f>
-        <v>-2.3273962337771681E-2</v>
-      </c>
-      <c r="M2" s="8">
-        <f t="shared" ref="M2:M5" ca="1" si="1">OFFSET($E2, 0, MATCH(J2,$B$1:$D$1, 0)-1)</f>
-        <v>-3.0255585445815636E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>45413</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.4567690505806086E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.8729909964657621E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1.9981017055295203E-2</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H15" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
-        <v>Corp</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I15" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
-        <v>MBS</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J15" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
-        <v>Tsy</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K5" ca="1" si="5">OFFSET($E3, 0, MATCH(H3,$B$1:$D$1, 0)-1)</f>
-        <v>1.8729909964657621E-2</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9981017055295203E-2</v>
-      </c>
-      <c r="M3" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4567690505806086E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>45444</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.17E-2</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Tsy</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>MBS</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.01E-2</v>
-      </c>
-      <c r="M4" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>45474</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2.64E-2</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.64E-2</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>45505</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.61E-2</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>MBS</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Corp</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" ref="K6" ca="1" si="6">OFFSET($E6, 0, MATCH(H6,$B$1:$D$1, 0)-1)</f>
-        <v>1.61E-2</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6" ca="1" si="7">OFFSET($E6, 0, MATCH(I6,$B$1:$D$1, 0)-1)</f>
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" ref="M6" ca="1" si="8">OFFSET($E6, 0, MATCH(J6,$B$1:$D$1, 0)-1)</f>
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>45536</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.77E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" ref="K7" ca="1" si="9">OFFSET($E7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
-        <v>1.77E-2</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" ref="L7" ca="1" si="10">OFFSET($E7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" ref="M7" ca="1" si="11">OFFSET($E7, 0, MATCH(J7,$B$1:$D$1, 0)-1)</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>45566</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-2.3811135000000001E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-2.4271330000000001E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-2.8309049999999999E-2</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>MBS</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Corp</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" ref="K8" ca="1" si="12">OFFSET($E8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
-        <v>-2.8309049999999999E-2</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" ref="L8" ca="1" si="13">OFFSET($E8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
-        <v>-2.4271330000000001E-2</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" ref="M8" ca="1" si="14">OFFSET($E8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
-        <v>-2.3811135000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7.7724921365256439E-3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.337707770668306E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.3330065933659485E-2</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" ref="K9" ca="1" si="15">OFFSET($E9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
-        <v>1.337707770668306E-2</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" ref="L9" ca="1" si="16">OFFSET($E9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
-        <v>1.3330065933659485E-2</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" ref="M9" ca="1" si="17">OFFSET($E9, 0, MATCH(J9,$B$1:$D$1, 0)-1)</f>
-        <v>7.7724921365256439E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>45627</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-1.5407896546980382E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-1.9353569320478714E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-1.6471908779390421E-2</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" ref="K10" ca="1" si="18">OFFSET($E10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
-        <v>-1.9353569320478714E-2</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" ref="L10" ca="1" si="19">OFFSET($E10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
-        <v>-1.6471908779390421E-2</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" ref="M10" ca="1" si="20">OFFSET($E10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
-        <v>-1.5407896546980382E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>45658</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" ref="K11" ca="1" si="21">OFFSET($E11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" ref="L11" ca="1" si="22">OFFSET($E11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" ref="M11" ca="1" si="23">OFFSET($E11, 0, MATCH(J11,$B$1:$D$1, 0)-1)</f>
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>45689</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2.1558671000000001E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2.038589E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2.5497110999999999E-2</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" ref="K12" ca="1" si="24">OFFSET($E12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
-        <v>2.038589E-2</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" ref="L12" ca="1" si="25">OFFSET($E12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
-        <v>2.5497110999999999E-2</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" ref="M12" ca="1" si="26">OFFSET($E12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
-        <v>2.1558671000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>45717</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.2961919999999999E-3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-2.8828690000000001E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-1.7103600000000001E-4</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MBS</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsy</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13" ca="1" si="27">OFFSET($E13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
-        <v>-2.8828690000000001E-3</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13" ca="1" si="28">OFFSET($E13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
-        <v>-1.7103600000000001E-4</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" ref="M13" ca="1" si="29">OFFSET($E13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
-        <v>2.2961919999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>45748</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6.3340008145533755E-3</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-3.268575911189453E-4</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2.8675868154028894E-3</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Tsy</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>MBS</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" ref="K14" ca="1" si="30">OFFSET($E14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
-        <v>-3.268575911189453E-4</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" ref="L14" ca="1" si="31">OFFSET($E14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
-        <v>6.3340008145533755E-3</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" ref="M14" ca="1" si="32">OFFSET($E14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
-        <v>2.8675868154028894E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>45778</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-1.0282245315233807E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-1.1295135957767322E-4</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-9.1302884075862289E-3</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Corp</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Tsy</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>MBS</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" ref="K15" ca="1" si="33">OFFSET($E15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
-        <v>-1.1295135957767322E-4</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" ref="L15" ca="1" si="34">OFFSET($E15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
-        <v>-1.0282245315233807E-2</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" ref="M15" ca="1" si="35">OFFSET($E15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
-        <v>-9.1302884075862289E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>45809</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.21555561000000001</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.55809439999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.23400860000000001</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 1), $B16:$D16, 0))</f>
-        <v>Corp</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 2), $B16:$D16, 0))</f>
-        <v>MBS</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B16:$D16, 3), $B16:$D16, 0))</f>
-        <v>Tsy</v>
-      </c>
-      <c r="K16" s="15">
-        <f ca="1">OFFSET($B16, 0, MATCH(H16,$B$1:$D$1, 0)-1)</f>
-        <v>0.55809439999999999</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" ref="L16" ca="1" si="36">OFFSET($B16, 0, MATCH(I16,$B$1:$D$1, 0)-1)</f>
-        <v>0.23400860000000001</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" ref="M16" ca="1" si="37">OFFSET($B16, 0, MATCH(J16,$B$1:$D$1, 0)-1)</f>
-        <v>0.21555561000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>45383</v>
-      </c>
-      <c r="B2" s="4">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6">
-        <v>-6.5253018160699172E-3</v>
-      </c>
-      <c r="I2" s="6">
-        <v>-2.3162929869394056E-2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>-4.9381116698660965E-2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>-9.4018724270023002E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <v>-3.5280728513869541E-2</v>
-      </c>
-      <c r="M2" s="6">
-        <v>5.3238686779060185E-3</v>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 1), $B2:$G2, 0))</f>
-        <v>HY</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 2), $B2:$G2, 0))</f>
-        <v>CB</v>
-      </c>
-      <c r="P2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 3), $B2:$G2, 0))</f>
-        <v>FRN</v>
-      </c>
-      <c r="Q2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 4), $B2:$G2, 0))</f>
-        <v>중기</v>
-      </c>
-      <c r="R2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 5), $B2:$G2, 0))</f>
-        <v>장기</v>
-      </c>
-      <c r="S2" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
-        <v>단기</v>
-      </c>
-      <c r="T2" s="8">
-        <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
-        <v>-9.4018724270023002E-3</v>
-      </c>
-      <c r="U2" s="8">
-        <f t="shared" ref="U2:Y5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
-        <v>-3.5280728513869541E-2</v>
-      </c>
-      <c r="V2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3238686779060185E-3</v>
-      </c>
-      <c r="W2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.3162929869394056E-2</v>
-      </c>
-      <c r="X2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.9381116698660965E-2</v>
-      </c>
-      <c r="Y2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6.5253018160699172E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>45413</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.0355772590442403E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1.9399303693745873E-2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2.8248965534329429E-2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1.0987379957157595E-2</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2.0013131127499362E-2</v>
-      </c>
-      <c r="M3" s="6">
-        <v>5.5478502080443803E-3</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N15" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
-        <v>HY</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O15" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
-        <v>FRN</v>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P15" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
-        <v>CB</v>
-      </c>
-      <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q15" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
-        <v>장기</v>
-      </c>
-      <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R15" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
-        <v>중기</v>
-      </c>
-      <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S15" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
-        <v>단기</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" ref="T3:T5" ca="1" si="7">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
-        <v>1.0987379957157595E-2</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5478502080443803E-3</v>
-      </c>
-      <c r="V3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0013131127499362E-2</v>
-      </c>
-      <c r="W3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8248965534329429E-2</v>
-      </c>
-      <c r="X3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9399303693745873E-2</v>
-      </c>
-      <c r="Y3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0355772590442403E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>45444</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>5.3E-3</v>
-      </c>
-      <c r="K4" s="6">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="M4" s="6">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>중기</v>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CB</v>
-      </c>
-      <c r="Q4" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>단기</v>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>HY</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3E-3</v>
-      </c>
-      <c r="U4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="V4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="W4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="X4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="Y4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>45474</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2.58E-2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="M5" s="6">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>HY</v>
-      </c>
-      <c r="P5" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CB</v>
-      </c>
-      <c r="Q5" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>중기</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S5" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T5" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="U5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="V5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="W5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.58E-2</v>
-      </c>
-      <c r="X5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="Y5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>45505</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1.11E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1.55E-2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2.12E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>HY</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>중기</v>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CB</v>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>장기</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6" ca="1" si="8">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="U6" s="8">
-        <f t="shared" ref="U6" ca="1" si="9">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
-        <v>1.55E-2</v>
-      </c>
-      <c r="V6" s="8">
-        <f t="shared" ref="V6" ca="1" si="10">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="W6" s="8">
-        <f t="shared" ref="W6" ca="1" si="11">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
-        <v>2.12E-2</v>
-      </c>
-      <c r="X6" s="8">
-        <f t="shared" ref="X6" ca="1" si="12">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
-        <v>1.11E-2</v>
-      </c>
-      <c r="Y6" s="8">
-        <f t="shared" ref="Y6" ca="1" si="13">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>45536</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.04E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2.98E-2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>HY</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>CB</v>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>장기</v>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>중기</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T7" s="8">
-        <f t="shared" ref="T7" ca="1" si="14">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="U7" s="8">
-        <f t="shared" ref="U7" ca="1" si="15">OFFSET($H7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
-        <v>2.98E-2</v>
-      </c>
-      <c r="V7" s="8">
-        <f t="shared" ref="V7" ca="1" si="16">OFFSET($H7, 0, MATCH(P7,$B$1:$G$1, 0)-1)</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="W7" s="8">
-        <f t="shared" ref="W7" ca="1" si="17">OFFSET($H7, 0, MATCH(Q7,$B$1:$G$1, 0)-1)</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="X7" s="8">
-        <f t="shared" ref="X7" ca="1" si="18">OFFSET($H7, 0, MATCH(R7,$B$1:$G$1, 0)-1)</f>
-        <v>1.04E-2</v>
-      </c>
-      <c r="Y7" s="8">
-        <f t="shared" ref="Y7" ca="1" si="19">OFFSET($H7, 0, MATCH(S7,$B$1:$G$1, 0)-1)</f>
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>45566</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-8.9353179999999994E-3</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-2.3687716000000001E-2</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-4.1607038999999998E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-5.4060920000000004E-3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>5.585652E-3</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5.0430500000000003E-3</v>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>CB</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>HY</v>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>장기</v>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>중기</v>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S8" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" ref="T8" ca="1" si="20">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
-        <v>5.585652E-3</v>
-      </c>
-      <c r="U8" s="8">
-        <f t="shared" ref="U8" ca="1" si="21">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
-        <v>-5.4060920000000004E-3</v>
-      </c>
-      <c r="V8" s="8">
-        <f t="shared" ref="V8" ca="1" si="22">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
-        <v>-4.1607038999999998E-2</v>
-      </c>
-      <c r="W8" s="8">
-        <f t="shared" ref="W8" ca="1" si="23">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
-        <v>-2.3687716000000001E-2</v>
-      </c>
-      <c r="X8" s="8">
-        <f t="shared" ref="X8" ca="1" si="24">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
-        <v>-8.9353179999999994E-3</v>
-      </c>
-      <c r="Y8" s="8">
-        <f t="shared" ref="Y8" ca="1" si="25">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
-        <v>5.0430500000000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6.286436594046263E-3</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.2019362649438925E-2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2.2672848980195726E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.1505341631693922E-2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>6.2065634663099889E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>4.4670175009180468E-3</v>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>CB</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>장기</v>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>HY</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>중기</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" ref="T9" ca="1" si="26">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
-        <v>6.2065634663099889E-2</v>
-      </c>
-      <c r="U9" s="8">
-        <f t="shared" ref="U9" ca="1" si="27">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
-        <v>2.2672848980195726E-2</v>
-      </c>
-      <c r="V9" s="8">
-        <f t="shared" ref="V9" ca="1" si="28">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
-        <v>1.1505341631693922E-2</v>
-      </c>
-      <c r="W9" s="8">
-        <f t="shared" ref="W9" ca="1" si="29">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
-        <v>1.2019362649438925E-2</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" ref="X9" ca="1" si="30">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
-        <v>6.286436594046263E-3</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" ref="Y9" ca="1" si="31">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
-        <v>4.4670175009180468E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>45627</v>
-      </c>
-      <c r="B10" s="12">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="12">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6">
-        <v>-1.3004773742498754E-3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>-1.5295531980034749E-2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>-4.2966180801507825E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>-4.2640362498748141E-3</v>
-      </c>
-      <c r="L10" s="6">
-        <v>-3.9307984538194951E-2</v>
-      </c>
-      <c r="M10" s="6">
-        <v>4.5080718854704216E-3</v>
-      </c>
-      <c r="N10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>중기</v>
-      </c>
-      <c r="O10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>장기</v>
-      </c>
-      <c r="P10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>단기</v>
-      </c>
-      <c r="Q10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>CB</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>HY</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" ref="T10" ca="1" si="32">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
-        <v>-1.5295531980034749E-2</v>
-      </c>
-      <c r="U10" s="8">
-        <f t="shared" ref="U10" ca="1" si="33">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
-        <v>-4.2966180801507825E-2</v>
-      </c>
-      <c r="V10" s="8">
-        <f t="shared" ref="V10" ca="1" si="34">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
-        <v>-1.3004773742498754E-3</v>
-      </c>
-      <c r="W10" s="8">
-        <f t="shared" ref="W10" ca="1" si="35">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
-        <v>-3.9307984538194951E-2</v>
-      </c>
-      <c r="X10" s="8">
-        <f t="shared" ref="X10" ca="1" si="36">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
-        <v>-4.2640362498748141E-3</v>
-      </c>
-      <c r="Y10" s="8">
-        <f t="shared" ref="Y10" ca="1" si="37">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
-        <v>4.5080718854704216E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>45658</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6</v>
-      </c>
-      <c r="H11" s="6">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="I11" s="6">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1.37E-2</v>
-      </c>
-      <c r="L11" s="6">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>CB</v>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>HY</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>중기</v>
-      </c>
-      <c r="R11" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T11" s="8">
-        <f t="shared" ref="T11" ca="1" si="38">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="U11" s="8">
-        <f t="shared" ref="U11" ca="1" si="39">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="V11" s="8">
-        <f t="shared" ref="V11" ca="1" si="40">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
-        <v>1.37E-2</v>
-      </c>
-      <c r="W11" s="8">
-        <f t="shared" ref="W11" ca="1" si="41">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="X11" s="8">
-        <f t="shared" ref="X11" ca="1" si="42">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="Y11" s="8">
-        <f t="shared" ref="Y11" ca="1" si="43">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>45689</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6</v>
-      </c>
-      <c r="H12" s="6">
-        <v>9.4463670000000007E-3</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1.9336801000000001E-2</v>
-      </c>
-      <c r="J12" s="6">
-        <v>3.4162163000000002E-2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>6.7137289999999999E-3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-1.2547552E-2</v>
-      </c>
-      <c r="M12" s="6">
-        <v>4.2265430000000001E-3</v>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>중기</v>
-      </c>
-      <c r="P12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>단기</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>CB</v>
-      </c>
-      <c r="R12" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>HY</v>
-      </c>
-      <c r="S12" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" ref="T12" ca="1" si="44">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
-        <v>3.4162163000000002E-2</v>
-      </c>
-      <c r="U12" s="8">
-        <f t="shared" ref="U12" ca="1" si="45">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
-        <v>1.9336801000000001E-2</v>
-      </c>
-      <c r="V12" s="8">
-        <f t="shared" ref="V12" ca="1" si="46">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
-        <v>9.4463670000000007E-3</v>
-      </c>
-      <c r="W12" s="8">
-        <f t="shared" ref="W12" ca="1" si="47">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
-        <v>-1.2547552E-2</v>
-      </c>
-      <c r="X12" s="8">
-        <f t="shared" ref="X12" ca="1" si="48">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
-        <v>6.7137289999999999E-3</v>
-      </c>
-      <c r="Y12" s="8">
-        <f t="shared" ref="Y12" ca="1" si="49">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
-        <v>4.2265430000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>45717</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6">
-        <v>4.1811110000000004E-3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>7.3968600000000003E-4</v>
-      </c>
-      <c r="J13" s="6">
-        <v>-1.4091329999999999E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>-1.0222566000000001E-2</v>
-      </c>
-      <c r="L13" s="6">
-        <v>-2.8187982E-2</v>
-      </c>
-      <c r="M13" s="6">
-        <v>3.7277539999999998E-3</v>
-      </c>
-      <c r="N13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>중기</v>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>단기</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>FRN</v>
-      </c>
-      <c r="R13" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>CB</v>
-      </c>
-      <c r="S13" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>HY</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" ref="T13" ca="1" si="50">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
-        <v>-1.4091329999999999E-2</v>
-      </c>
-      <c r="U13" s="8">
-        <f t="shared" ref="U13" ca="1" si="51">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
-        <v>7.3968600000000003E-4</v>
-      </c>
-      <c r="V13" s="8">
-        <f t="shared" ref="V13" ca="1" si="52">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
-        <v>4.1811110000000004E-3</v>
-      </c>
-      <c r="W13" s="8">
-        <f t="shared" ref="W13" ca="1" si="53">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
-        <v>3.7277539999999998E-3</v>
-      </c>
-      <c r="X13" s="8">
-        <f t="shared" ref="X13" ca="1" si="54">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
-        <v>-2.8187982E-2</v>
-      </c>
-      <c r="Y13" s="8">
-        <f t="shared" ref="Y13" ca="1" si="55">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
-        <v>-1.0222566000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>45748</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6.7556701265467645E-3</v>
-      </c>
-      <c r="I14" s="6">
-        <v>4.4331683209568595E-3</v>
-      </c>
-      <c r="J14" s="6">
-        <v>-1.2880991541082465E-2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>-2.0294678735244265E-4</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1.3883974929222109E-2</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1.5574457889060422E-3</v>
-      </c>
-      <c r="N14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>CB</v>
-      </c>
-      <c r="P14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>중기</v>
-      </c>
-      <c r="Q14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>HY</v>
-      </c>
-      <c r="R14" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>단기</v>
-      </c>
-      <c r="S14" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" ref="T14" ca="1" si="56">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
-        <v>-1.2880991541082465E-2</v>
-      </c>
-      <c r="U14" s="8">
-        <f t="shared" ref="U14" ca="1" si="57">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
-        <v>1.3883974929222109E-2</v>
-      </c>
-      <c r="V14" s="8">
-        <f t="shared" ref="V14" ca="1" si="58">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
-        <v>4.4331683209568595E-3</v>
-      </c>
-      <c r="W14" s="8">
-        <f t="shared" ref="W14" ca="1" si="59">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
-        <v>-2.0294678735244265E-4</v>
-      </c>
-      <c r="X14" s="8">
-        <f t="shared" ref="X14" ca="1" si="60">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
-        <v>6.7556701265467645E-3</v>
-      </c>
-      <c r="Y14" s="8">
-        <f t="shared" ref="Y14" ca="1" si="61">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
-        <v>1.5574457889060422E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>45778</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>6</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1.7895012033255497E-3</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2.2460699307043086E-3</v>
-      </c>
-      <c r="J15" s="6">
-        <v>-4.5732526646148353E-3</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1.679633292981797E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <v>2.9356355361525699E-2</v>
-      </c>
-      <c r="M15" s="6">
-        <v>5.5622009569378239E-3</v>
-      </c>
-      <c r="N15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>장기</v>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>중기</v>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>단기</v>
-      </c>
-      <c r="Q15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>CB</v>
-      </c>
-      <c r="R15" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>HY</v>
-      </c>
-      <c r="S15" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>FRN</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" ref="T15" ca="1" si="62">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
-        <v>-4.5732526646148353E-3</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" ref="U15" ca="1" si="63">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
-        <v>2.2460699307043086E-3</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" ref="V15" ca="1" si="64">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
-        <v>1.7895012033255497E-3</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" ref="W15" ca="1" si="65">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
-        <v>2.9356355361525699E-2</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" ref="X15" ca="1" si="66">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
-        <v>1.679633292981797E-2</v>
-      </c>
-      <c r="Y15" s="8">
-        <f t="shared" ref="Y15" ca="1" si="67">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
-        <v>5.5622009569378239E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>45809</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.47136158</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.44811677999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.59905929999999996</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.49822596000000002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.49918964999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.43264055000000001</v>
-      </c>
-      <c r="N16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 1), $B16:$G16, 0))</f>
-        <v>장기</v>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 2), $B16:$G16, 0))</f>
-        <v>CB</v>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 3), $B16:$G16, 0))</f>
-        <v>HY</v>
-      </c>
-      <c r="Q16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 4), $B16:$G16, 0))</f>
-        <v>단기</v>
-      </c>
-      <c r="R16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 5), $B16:$G16, 0))</f>
-        <v>중기</v>
-      </c>
-      <c r="S16" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B16:$G16, 6), $B16:$G16, 0))</f>
-        <v>FRN</v>
-      </c>
-      <c r="T16" s="15">
-        <f ca="1">OFFSET($B16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
-        <v>0.59905929999999996</v>
-      </c>
-      <c r="U16" s="15">
-        <f t="shared" ref="U16" ca="1" si="68">OFFSET($B16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
-        <v>0.49918964999999998</v>
-      </c>
-      <c r="V16" s="15">
-        <f t="shared" ref="V16" ca="1" si="69">OFFSET($B16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
-        <v>0.49822596000000002</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" ref="W16" ca="1" si="70">OFFSET($B16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
-        <v>0.47136158</v>
-      </c>
-      <c r="X16" s="15">
-        <f t="shared" ref="X16" ca="1" si="71">OFFSET($B16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
-        <v>0.44811677999999999</v>
-      </c>
-      <c r="Y16" s="15">
-        <f t="shared" ref="Y16" ca="1" si="72">OFFSET($B16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
-        <v>0.43264055000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
@@ -5261,31 +5524,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P15" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P16" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q15" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q16" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R15" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R16" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S15" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S16" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T15" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T16" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U15" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U16" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V15" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V16" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="8">
@@ -6558,81 +6821,184 @@
         <v>45809</v>
       </c>
       <c r="B16" s="4">
-        <v>0.38496920000000001</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4">
-        <v>0.46073234000000002</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4">
-        <v>0.49168460000000003</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
-        <v>0.67603690000000005</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0.62123054</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>0.57180969999999998</v>
+        <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>0.50309409999999999</v>
+        <v>4</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6.0845756008518492E-3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.1032710167066639E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.5752613312828512E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.2892484964772919E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2.6732865699595321E-2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>6.2256895222134734E-3</v>
+      </c>
+      <c r="O16" s="6">
+        <v>9.5444479936876991E-3</v>
       </c>
       <c r="P16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 1), $B16:$H16, 0))</f>
+        <f t="shared" si="5"/>
         <v>장기</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 2), $B16:$H16, 0))</f>
+        <f t="shared" si="6"/>
         <v>초장기</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 3), $B16:$H16, 0))</f>
+        <f t="shared" si="7"/>
         <v>지방정부</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 4), $B16:$H16, 0))</f>
+        <f t="shared" si="8"/>
         <v>TIPS</v>
       </c>
       <c r="T16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 5), $B16:$H16, 0))</f>
+        <f t="shared" si="9"/>
         <v>중기</v>
       </c>
       <c r="U16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 6), $B16:$H16, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V16" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B16:$H16, 7), $B16:$H16, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W16" s="15">
-        <f ca="1">OFFSET($B16, 0, MATCH(P16,$B$1:$H$1, 0)-1)</f>
-        <v>0.67603690000000005</v>
-      </c>
-      <c r="X16" s="15">
-        <f t="shared" ref="X16" ca="1" si="83">OFFSET($B16, 0, MATCH(Q16,$B$1:$H$1, 0)-1)</f>
-        <v>0.62123054</v>
-      </c>
-      <c r="Y16" s="15">
-        <f t="shared" ref="Y16" ca="1" si="84">OFFSET($B16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
-        <v>0.57180969999999998</v>
-      </c>
-      <c r="Z16" s="15">
-        <f t="shared" ref="Z16" ca="1" si="85">OFFSET($B16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
-        <v>0.50309409999999999</v>
-      </c>
-      <c r="AA16" s="15">
-        <f t="shared" ref="AA16" ca="1" si="86">OFFSET($B16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
-        <v>0.49168460000000003</v>
-      </c>
-      <c r="AB16" s="15">
-        <f t="shared" ref="AB16" ca="1" si="87">OFFSET($B16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
-        <v>0.46073234000000002</v>
-      </c>
-      <c r="AC16" s="15">
-        <f t="shared" ref="AC16" ca="1" si="88">OFFSET($B16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
-        <v>0.38496920000000001</v>
+      <c r="W16" s="8">
+        <f t="shared" ref="W16" ca="1" si="83">OFFSET($I16, 0, MATCH(P16,$B$1:$H$1, 0)-1)</f>
+        <v>2.2892484964772919E-2</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16" ca="1" si="84">OFFSET($I16, 0, MATCH(Q16,$B$1:$H$1, 0)-1)</f>
+        <v>2.6732865699595321E-2</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" ref="Y16" ca="1" si="85">OFFSET($I16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
+        <v>6.2256895222134734E-3</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" ref="Z16" ca="1" si="86">OFFSET($I16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
+        <v>9.5444479936876991E-3</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" ref="AA16" ca="1" si="87">OFFSET($I16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
+        <v>1.5752613312828512E-2</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" ref="AB16" ca="1" si="88">OFFSET($I16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
+        <v>1.1032710167066639E-2</v>
+      </c>
+      <c r="AC16" s="8">
+        <f t="shared" ref="AC16" ca="1" si="89">OFFSET($I16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
+        <v>6.0845756008518492E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45839</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.26500973</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.2581427</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.29268715000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.32505857999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.29800581999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.37007522999999998</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.2800282</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 1), $B17:$H17, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 2), $B17:$H17, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 3), $B17:$H17, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 4), $B17:$H17, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 5), $B17:$H17, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 6), $B17:$H17, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="V17" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 7), $B17:$H17, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="W17" s="15">
+        <f ca="1">OFFSET($B17, 0, MATCH(P17,$B$1:$H$1, 0)-1)</f>
+        <v>0.37007522999999998</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" ref="X17" ca="1" si="90">OFFSET($B17, 0, MATCH(Q17,$B$1:$H$1, 0)-1)</f>
+        <v>0.32505857999999999</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" ref="Y17" ca="1" si="91">OFFSET($B17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
+        <v>0.29800581999999998</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" ref="Z17" ca="1" si="92">OFFSET($B17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
+        <v>0.29268715000000001</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" ref="AA17" ca="1" si="93">OFFSET($B17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
+        <v>0.2800282</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" ref="AB17" ca="1" si="94">OFFSET($B17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
+        <v>0.26500973</v>
+      </c>
+      <c r="AC17" s="15">
+        <f t="shared" ref="AC17" ca="1" si="95">OFFSET($B17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
+        <v>0.2581427</v>
       </c>
     </row>
   </sheetData>
@@ -6645,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6921,31 +7287,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R16" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R17" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S16" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S17" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T16" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T17" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U16" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U17" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V16" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V17" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W16" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W17" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X16" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X17" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -8362,7 +8728,33 @@
       <c r="H16" s="1">
         <v>0.74071384668350204</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="I16" s="15">
+        <v>1.8686643479295162E-2</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1.8576178551019451E-2</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1.9218216746560879E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <v>2.4000409388646116E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1.6096832177379783E-2</v>
+      </c>
+      <c r="N16" s="15">
+        <v>2.2413576868145935E-2</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1.535873010829869E-2</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1.963036199009971E-2</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="R16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
@@ -8391,44 +8783,120 @@
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
-      <c r="Y16" s="13"/>
+      <c r="Y16" s="15">
+        <f t="shared" si="77"/>
+        <v>1.8686643479295162E-2</v>
+      </c>
       <c r="Z16" s="15">
-        <f ca="1">OFFSET($B16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
-        <v>0.74071384668350204</v>
+        <f t="shared" ref="Z16" ca="1" si="85">OFFSET($J16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
+        <v>1.963036199009971E-2</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" ref="AA16" ca="1" si="85">OFFSET($B16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
-        <v>0.65557721853256223</v>
+        <f t="shared" ref="AA16" ca="1" si="86">OFFSET($J16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
+        <v>2.4000409388646116E-2</v>
       </c>
       <c r="AB16" s="15">
-        <f t="shared" ref="AB16" ca="1" si="86">OFFSET($B16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
-        <v>0.51073849201202381</v>
+        <f t="shared" ref="AB16" ca="1" si="87">OFFSET($J16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
+        <v>2.2413576868145935E-2</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" ref="AC16" ca="1" si="87">OFFSET($B16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
-        <v>0.49949944019317644</v>
+        <f t="shared" ref="AC16" ca="1" si="88">OFFSET($J16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
+        <v>1.535873010829869E-2</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" ref="AD16" ca="1" si="88">OFFSET($B16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
-        <v>0.45452868342399599</v>
+        <f t="shared" ref="AD16" ca="1" si="89">OFFSET($J16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
+        <v>1.6096832177379783E-2</v>
       </c>
       <c r="AE16" s="15">
-        <f t="shared" ref="AE16" ca="1" si="89">OFFSET($B16, 0, MATCH(W16,$B$1:$H$1, 0)-1)</f>
-        <v>0.43844069242477401</v>
+        <f t="shared" ref="AE16" ca="1" si="90">OFFSET($J16, 0, MATCH(W16,$B$1:$H$1, 0)-1)</f>
+        <v>1.8576178551019451E-2</v>
       </c>
       <c r="AF16" s="15">
-        <f t="shared" ref="AF16" ca="1" si="90">OFFSET($B16, 0, MATCH(X16,$B$1:$H$1, 0)-1)</f>
-        <v>0.39885711073875418</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+        <f t="shared" ref="AF16" ca="1" si="91">OFFSET($J16, 0, MATCH(X16,$B$1:$H$1, 0)-1)</f>
+        <v>1.9218216746560879E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.58606310685475671</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.43363453944524127</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.56613545616467797</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.42621360222498567</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.32932185133298231</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.49795239170392369</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.46973918875058535</v>
+      </c>
+      <c r="R17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cycl</v>
+      </c>
+      <c r="S17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T17" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Bank</v>
+      </c>
+      <c r="U17" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Fin</v>
+      </c>
+      <c r="V17" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>Def</v>
+      </c>
+      <c r="W17" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X17" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Util</v>
+      </c>
+      <c r="Z17" s="15">
+        <f ca="1">OFFSET($B17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
+        <v>0.58606310685475671</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" ref="AA17" ca="1" si="92">OFFSET($B17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
+        <v>0.56613545616467797</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" ref="AB17" ca="1" si="93">OFFSET($B17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
+        <v>0.49795239170392369</v>
+      </c>
+      <c r="AC17" s="15">
+        <f t="shared" ref="AC17" ca="1" si="94">OFFSET($B17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
+        <v>0.46973918875058535</v>
+      </c>
+      <c r="AD17" s="15">
+        <f t="shared" ref="AD17" ca="1" si="95">OFFSET($B17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
+        <v>0.43363453944524127</v>
+      </c>
+      <c r="AE17" s="15">
+        <f t="shared" ref="AE17" ca="1" si="96">OFFSET($B17, 0, MATCH(W17,$B$1:$H$1, 0)-1)</f>
+        <v>0.42621360222498567</v>
+      </c>
+      <c r="AF17" s="15">
+        <f t="shared" ref="AF17" ca="1" si="97">OFFSET($B17, 0, MATCH(X17,$B$1:$H$1, 0)-1)</f>
+        <v>0.32932185133298231</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C698B662-9641-4502-A7DD-5BF876EFA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="11565" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -38,17 +39,28 @@
     <definedName name="TreeMap">"TreeMap"</definedName>
     <definedName name="Waterfall">"Waterfall"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -491,6 +503,14 @@
       <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -796,7 +816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1043,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1046,9 +1090,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,13 +1103,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="59" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
@@ -1078,85 +1122,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="78">
-    <cellStyle name="20% - 강조색1 2" xfId="21"/>
-    <cellStyle name="20% - 강조색2 2" xfId="25"/>
-    <cellStyle name="20% - 강조색3 2" xfId="29"/>
-    <cellStyle name="20% - 강조색4 2" xfId="33"/>
-    <cellStyle name="20% - 강조색5 2" xfId="37"/>
-    <cellStyle name="20% - 강조색6 2" xfId="41"/>
-    <cellStyle name="40% - 강조색1 2" xfId="22"/>
-    <cellStyle name="40% - 강조색2 2" xfId="26"/>
-    <cellStyle name="40% - 강조색3 2" xfId="30"/>
-    <cellStyle name="40% - 강조색4 2" xfId="34"/>
-    <cellStyle name="40% - 강조색5 2" xfId="38"/>
-    <cellStyle name="40% - 강조색6 2" xfId="42"/>
-    <cellStyle name="60% - 강조색1 2" xfId="23"/>
-    <cellStyle name="60% - 강조색2 2" xfId="27"/>
-    <cellStyle name="60% - 강조색3 2" xfId="31"/>
-    <cellStyle name="60% - 강조색4 2" xfId="35"/>
-    <cellStyle name="60% - 강조색5 2" xfId="39"/>
-    <cellStyle name="60% - 강조색6 2" xfId="43"/>
-    <cellStyle name="blp_column_header" xfId="55"/>
-    <cellStyle name="강조색1 2" xfId="20"/>
-    <cellStyle name="강조색2 2" xfId="24"/>
-    <cellStyle name="강조색3 2" xfId="28"/>
-    <cellStyle name="강조색4 2" xfId="32"/>
-    <cellStyle name="강조색5 2" xfId="36"/>
-    <cellStyle name="강조색6 2" xfId="40"/>
-    <cellStyle name="경고문 2" xfId="16"/>
-    <cellStyle name="계산 2" xfId="13"/>
-    <cellStyle name="나쁨 2" xfId="9"/>
-    <cellStyle name="메모 2" xfId="17"/>
+  <cellStyles count="86">
+    <cellStyle name="20% - 강조색1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 강조색1 3" xfId="80" xr:uid="{AEAC62B1-9445-4428-B65A-C59B511D90EA}"/>
+    <cellStyle name="60% - 강조색2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 강조색2 3" xfId="81" xr:uid="{463DCB90-F96E-4666-BF97-8AB2361F7BC8}"/>
+    <cellStyle name="60% - 강조색3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 강조색3 3" xfId="82" xr:uid="{7165558C-4A55-4EC5-802E-76AE855A3102}"/>
+    <cellStyle name="60% - 강조색4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 강조색4 3" xfId="83" xr:uid="{691985E6-5DA6-4743-9E71-9EF0DC48B1E0}"/>
+    <cellStyle name="60% - 강조색5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 강조색5 3" xfId="84" xr:uid="{21D458C8-397D-4A0A-B809-3517F1F799DC}"/>
+    <cellStyle name="60% - 강조색6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - 강조색6 3" xfId="85" xr:uid="{80D046E7-89A3-460C-80AF-36FC5B2749A2}"/>
+    <cellStyle name="blp_column_header" xfId="55" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="강조색1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="강조색6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="경고문 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="계산 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="나쁨 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="메모 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="58"/>
-    <cellStyle name="백분율 3" xfId="67"/>
-    <cellStyle name="백분율 4" xfId="56"/>
-    <cellStyle name="보통 2" xfId="10"/>
-    <cellStyle name="常规 2" xfId="45"/>
-    <cellStyle name="常规 2 2" xfId="63"/>
-    <cellStyle name="常规 2 3" xfId="70"/>
-    <cellStyle name="설명 텍스트 2" xfId="18"/>
-    <cellStyle name="셀 확인 2" xfId="15"/>
-    <cellStyle name="연결된 셀 2" xfId="14"/>
-    <cellStyle name="요약 2" xfId="19"/>
-    <cellStyle name="입력 2" xfId="11"/>
+    <cellStyle name="백분율 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="백분율 3" xfId="67" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="백분율 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="보통 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="보통 3" xfId="78" xr:uid="{29224A82-804E-477D-B6CD-A0AE70607B71}"/>
+    <cellStyle name="常规 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="설명 텍스트 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="셀 확인 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="연결된 셀 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="요약 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="입력 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1 2" xfId="4"/>
-    <cellStyle name="제목 2 2" xfId="5"/>
-    <cellStyle name="제목 3 2" xfId="6"/>
-    <cellStyle name="제목 4 2" xfId="7"/>
-    <cellStyle name="좋음 2" xfId="8"/>
-    <cellStyle name="출력 2" xfId="12"/>
+    <cellStyle name="제목 1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="제목 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="제목 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="제목 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="좋음 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="출력 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="57"/>
-    <cellStyle name="표준 11" xfId="59"/>
-    <cellStyle name="표준 11 2" xfId="68"/>
-    <cellStyle name="표준 12" xfId="60"/>
-    <cellStyle name="표준 12 2" xfId="69"/>
-    <cellStyle name="표준 13" xfId="62"/>
-    <cellStyle name="표준 14" xfId="61"/>
-    <cellStyle name="표준 15" xfId="44"/>
-    <cellStyle name="표준 15 2" xfId="73"/>
-    <cellStyle name="표준 16" xfId="74"/>
-    <cellStyle name="표준 17" xfId="75"/>
-    <cellStyle name="표준 18" xfId="76"/>
-    <cellStyle name="표준 19" xfId="77"/>
-    <cellStyle name="표준 2" xfId="3"/>
-    <cellStyle name="표준 2 2" xfId="46"/>
-    <cellStyle name="표준 2 2 2" xfId="71"/>
-    <cellStyle name="표준 3" xfId="47"/>
-    <cellStyle name="표준 3 2" xfId="72"/>
-    <cellStyle name="표준 4" xfId="48"/>
-    <cellStyle name="표준 5" xfId="49"/>
-    <cellStyle name="표준 5 2" xfId="50"/>
-    <cellStyle name="표준 5 2 2" xfId="65"/>
-    <cellStyle name="표준 5 3" xfId="64"/>
-    <cellStyle name="표준 6" xfId="51"/>
-    <cellStyle name="표준 7" xfId="52"/>
-    <cellStyle name="표준 8" xfId="53"/>
-    <cellStyle name="표준 9" xfId="54"/>
-    <cellStyle name="표준 9 2" xfId="66"/>
+    <cellStyle name="표준 10" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="표준 11" xfId="59" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="표준 11 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="표준 12" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="표준 12 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="표준 13" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="표준 14" xfId="61" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="표준 15" xfId="44" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="표준 15 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="표준 16" xfId="74" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="표준 17" xfId="75" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="표준 18" xfId="76" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="표준 19" xfId="77" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="표준 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="표준 2 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="표준 20" xfId="79" xr:uid="{F882CA49-7EAC-4C5B-9F93-B008A5EA8DB9}"/>
+    <cellStyle name="표준 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="표준 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="표준 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="표준 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="표준 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="표준 5 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="표준 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="표준 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="표준 7" xfId="52" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="표준 8" xfId="53" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="표준 9" xfId="54" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="표준 9 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,55 +1273,112 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg1!$N$16:$S$16</c:f>
+              <c:f>GAgg1!$N$17:$S$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>EUR</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>APAC</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>US</c:v>
+                  <c:v>EUR</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>EM</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>UK</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>EM</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>China</c:v>
+                  <c:v>US</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg1!$T$16:$Y$16</c:f>
+              <c:f>GAgg1!$T$17:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.9283106178374929E-3</c:v>
+                  <c:v>6.3465208461588318E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7726982453649729E-3</c:v>
+                  <c:v>-1.1977493416803764E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5375148266728589E-2</c:v>
+                  <c:v>1.8383678177491536E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6061185468451367E-2</c:v>
+                  <c:v>9.4176214191956653E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2199322030008739E-2</c:v>
+                  <c:v>-1.599548362815173E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.879922292754248E-3</c:v>
+                  <c:v>-2.6393683082570618E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1412,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1348,6 +1457,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5000000000000003E-2"/>
+          <c:min val="-1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1513,7 +1624,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1810,9 +1920,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E798-4583-A8A1-6838E50770A0}"/>
                 </c:ext>
@@ -1833,9 +1941,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E798-4583-A8A1-6838E50770A0}"/>
                 </c:ext>
@@ -1856,9 +1962,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E798-4583-A8A1-6838E50770A0}"/>
                 </c:ext>
@@ -1902,7 +2006,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2207,7 +2310,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2228,17 +2330,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg4!$P$14:$V$14</c:f>
+              <c:f>GAgg4!$P$17:$V$17</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>지방정부</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>장기</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>초장기</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>지방정부</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>중기</c:v>
@@ -2247,40 +2349,40 @@
                   <c:v>TIPS</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>중단기</c:v>
+                  <c:v>초단기</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>초단기</c:v>
+                  <c:v>중단기</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg4!$W$14:$AC$14</c:f>
+              <c:f>GAgg4!$W$17:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-7.5179954035723418E-3</c:v>
+                  <c:v>-2.0200214246973713E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3587185849072592E-2</c:v>
+                  <c:v>-6.7880723296871448E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.056410630398525E-3</c:v>
+                  <c:v>-1.0824298743762006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0228215767634774E-2</c:v>
+                  <c:v>-5.8718824805122916E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1890062147081881E-3</c:v>
+                  <c:v>1.2217397222380466E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3320647002854624E-2</c:v>
+                  <c:v>-6.3837650774445365E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1602121655162119E-3</c:v>
+                  <c:v>-3.6694167306215997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,8 +2461,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.0000000000000006E-2"/>
-          <c:min val="-2.0000000000000004E-2"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="-1.5000000000000003E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2547,7 +2649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2850,8 +2951,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8C51-468F-973D-A17D8787B30C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2870,8 +2972,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8C51-468F-973D-A17D8787B30C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2890,8 +2993,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8C51-468F-973D-A17D8787B30C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2910,9 +3014,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-DDE6-4955-AE95-0DC1212E98E1}"/>
                 </c:ext>
@@ -2957,7 +3059,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3229,31 +3330,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0D2D4F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-B611-4DCD-B07B-D2BDA44FD489}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.2206720525915839E-3"/>
-                  <c:y val="0.11136958772303764"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7B7C-47BD-B8DA-F924EBA79A2F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3292,7 +3388,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3313,65 +3408,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>USIGSector!$Q$14:$X$14</c:f>
+              <c:f>USIGSector!$Q$17:$X$17</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>BM</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cycl</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Ener</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Bank</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Fin</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Util</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bank</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Cycl</c:v>
+                  <c:v>Def</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Def</c:v>
+                  <c:v>Infra</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Infra</c:v>
+                  <c:v>Util</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>USIGSector!$Y$14:$AF$14</c:f>
+              <c:f>USIGSector!$Y$17:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-3.2685759111883428E-4</c:v>
+                  <c:v>6.5367869357602082E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1492696467561125E-2</c:v>
+                  <c:v>1.3899421925791522E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1917313043950948E-4</c:v>
+                  <c:v>1.5325415202147585E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6187667086412505E-3</c:v>
+                  <c:v>2.4120009931671849E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2919066382174353E-3</c:v>
+                  <c:v>-6.5062269436810816E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.6831820633370693E-4</c:v>
+                  <c:v>-9.1668839196867857E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0731367119853896E-4</c:v>
+                  <c:v>-9.0066714893288768E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0929367960389467E-3</c:v>
+                  <c:v>2.4721693147857771E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,8 +3545,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2000000000000002E-2"/>
-          <c:min val="-2.0000000000000004E-2"/>
+          <c:max val="5.000000000000001E-3"/>
+          <c:min val="-2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3489,7 +3584,7 @@
         <c:crossAx val="1379896111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-3"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3579,22 +3674,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg1!$N$15:$S$15</c:f>
+              <c:f>GAgg1!$N$16:$S$16</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>EUR</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>APAC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>US</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>APAC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>EM</c:v>
@@ -3607,27 +3759,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg1!$T$15:$Y$15</c:f>
+              <c:f>GAgg1!$T$16:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4481734911844235E-3</c:v>
+                  <c:v>2.9283106178374929E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.1588267847261244E-3</c:v>
+                  <c:v>7.7726982453649729E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0594021944759779E-2</c:v>
+                  <c:v>1.5375148266728589E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.6048913078609024E-3</c:v>
+                  <c:v>1.6061185468451367E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7604631832673974E-3</c:v>
+                  <c:v>2.2199322030008739E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3250334567399591E-4</c:v>
+                  <c:v>6.879922292754248E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,6 +3858,7 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3832,6 +3985,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>GAgg1!$N$15:$S$15</c:f>
@@ -3959,6 +4169,7 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5000000000000003E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4124,7 +4335,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4145,7 +4355,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg2!$H$16:$J$16</c:f>
+              <c:f>GAgg2!$H$17:$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4162,18 +4372,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg2!$K$16:$M$16</c:f>
+              <c:f>GAgg2!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.868664347929494E-2</c:v>
+                  <c:v>6.5367869357646491E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.777648918868735E-2</c:v>
+                  <c:v>-4.0504751518928295E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2544405919085566E-2</c:v>
+                  <c:v>-3.9207272696678563E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,7 +4417,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4252,8 +4462,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.2000000000000006E-2"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="3.0000000000000009E-3"/>
+          <c:min val="-5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4420,7 +4630,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4441,35 +4650,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg2!$H$15:$J$15</c:f>
+              <c:f>GAgg2!$H$16:$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Corp</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tsy</c:v>
+                  <c:v>MBS</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MBS</c:v>
+                  <c:v>Tsy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg2!$K$15:$M$15</c:f>
+              <c:f>GAgg2!$K$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1295135957767322E-4</c:v>
+                  <c:v>1.868664347929494E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0282245315233807E-2</c:v>
+                  <c:v>1.777648918868735E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.1302884075862289E-3</c:v>
+                  <c:v>1.2544405919085566E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,8 +4757,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000005E-3"/>
-          <c:min val="-1.4000000000000002E-2"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4587,6 +4796,7 @@
         <c:crossAx val="1379896111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4715,7 +4925,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4736,7 +4945,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg2!$H$14:$J$14</c:f>
+              <c:f>GAgg2!$H$15:$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4753,18 +4962,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg2!$K$14:$M$14</c:f>
+              <c:f>GAgg2!$K$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3.268575911189453E-4</c:v>
+                  <c:v>-1.1295135957767322E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3340008145533755E-3</c:v>
+                  <c:v>-1.0282245315233807E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8675868154028894E-3</c:v>
+                  <c:v>-9.1302884075862289E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,7 +5052,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
+          <c:max val="5.000000000000001E-3"/>
+          <c:min val="-1.5000000000000003E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5009,7 +5219,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5323,7 +5532,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5636,7 +5844,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5657,53 +5864,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg3!$N$14:$S$14</c:f>
+              <c:f>GAgg3!$N$17:$S$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>CB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HY</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>장기</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>CB</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>중기</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>HY</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>단기</c:v>
+                  <c:v>FRN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FRN</c:v>
+                  <c:v>단기</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg3!$T$14:$Y$14</c:f>
+              <c:f>GAgg3!$T$17:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.2880991541082465E-2</c:v>
+                  <c:v>2.8841683494337467E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3883974929222109E-2</c:v>
+                  <c:v>4.5086787610935097E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4331683209568595E-3</c:v>
+                  <c:v>-6.7224209830685222E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0294678735244265E-4</c:v>
+                  <c:v>1.6857603074116323E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7556701265467645E-3</c:v>
+                  <c:v>5.1497573102876615E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5574457889060422E-3</c:v>
+                  <c:v>9.8442489550865098E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5782,8 +5989,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.0000000000000006E-2"/>
-          <c:min val="-2.0000000000000004E-2"/>
+          <c:max val="3.5000000000000003E-2"/>
+          <c:min val="-5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14029,20 +14236,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8105775" y="3905250"/>
-          <a:ext cx="7258050" cy="2095500"/>
+          <a:ext cx="7258050" cy="2438400"/>
           <a:chOff x="6010275" y="3648075"/>
           <a:chExt cx="7258050" cy="2095500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="2" name="차트 1"/>
+          <xdr:cNvPr id="2" name="차트 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
@@ -14057,7 +14276,13 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="차트 2"/>
+          <xdr:cNvPr id="3" name="차트 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -14074,7 +14299,13 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="차트 3"/>
+          <xdr:cNvPr id="4" name="차트 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -14521,7 +14752,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(4</a:t>
+            <a:t>(7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -14569,77 +14800,111 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9248775" y="3743325"/>
-          <a:ext cx="7239000" cy="2105025"/>
-          <a:chOff x="5019675" y="3705225"/>
-          <a:chExt cx="7239000" cy="2105025"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="차트 2"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="5019675" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="차트 3"/>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="7439025" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="차트 4"/>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="9839325" y="3705225"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15071,7 +15336,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(4</a:t>
+            <a:t>(7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -15119,80 +15384,111 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>18855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209585</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10557013" y="3289438"/>
-          <a:ext cx="7278757" cy="2061955"/>
-          <a:chOff x="5019675" y="3705225"/>
-          <a:chExt cx="7239000" cy="2105025"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="0D2D4F"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="차트 2"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="5019675" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="차트 3"/>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="7439025" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="차트 4"/>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="9839325" y="3705225"/>
-          <a:ext cx="2419350" cy="2095500"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-    </xdr:grpSp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209585</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190570</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243510</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140586</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15560,7 +15856,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -15737,7 +16033,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(4</a:t>
+            <a:t>(7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -15914,7 +16210,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(6</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16091,7 +16387,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(4</a:t>
+            <a:t>(5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16149,12 +16445,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="그룹 8"/>
+        <xdr:cNvPr id="9" name="그룹 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="4191000"/>
+          <a:off x="3067050" y="4248150"/>
           <a:ext cx="7239000" cy="2105025"/>
           <a:chOff x="5019675" y="3705225"/>
           <a:chExt cx="7239000" cy="2105025"/>
@@ -16162,7 +16464,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="차트 4"/>
+          <xdr:cNvPr id="5" name="차트 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
@@ -16177,7 +16485,13 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="6" name="차트 5"/>
+          <xdr:cNvPr id="6" name="차트 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -16194,7 +16508,13 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="8" name="차트 7"/>
+          <xdr:cNvPr id="8" name="차트 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -16287,7 +16607,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16464,7 +16784,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(6</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16641,7 +16961,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(4</a:t>
+            <a:t>(5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16686,38 +17006,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvPr id="6" name="그룹 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361A3A0C-A96E-E9B4-FCAF-BBA655785D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7172325" y="3400425"/>
-          <a:ext cx="7239000" cy="2105025"/>
-          <a:chOff x="5019675" y="3705225"/>
-          <a:chExt cx="7239000" cy="2105025"/>
+          <a:off x="4762500" y="3409950"/>
+          <a:ext cx="7248525" cy="2266950"/>
+          <a:chOff x="4762500" y="3409950"/>
+          <a:chExt cx="7248525" cy="2266950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="차트 2"/>
+          <xdr:cNvPr id="3" name="차트 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="5019675" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
+          <a:off x="7172325" y="3410726"/>
+          <a:ext cx="2419350" cy="2266174"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16727,14 +17059,20 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="차트 3"/>
+          <xdr:cNvPr id="4" name="차트 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7439025" y="3714750"/>
-          <a:ext cx="2419350" cy="2095500"/>
+          <a:off x="9591675" y="3410726"/>
+          <a:ext cx="2419350" cy="2266174"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16744,14 +17082,20 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="차트 4"/>
+          <xdr:cNvPr id="5" name="차트 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="9839325" y="3705225"/>
-          <a:ext cx="2419350" cy="2095500"/>
+          <a:off x="4762500" y="3409950"/>
+          <a:ext cx="2419350" cy="2266174"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17027,18 +17371,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="4"/>
-    <col min="8" max="13" width="9.140625" style="8"/>
+    <col min="8" max="13" width="9.140625" style="7"/>
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -17064,22 +17408,22 @@
       <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -17123,40 +17467,40 @@
       <c r="A2" s="5">
         <v>45383</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>-2.526069465744929E-2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>-1.3207978075517768E-2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>-2.7779108194836866E-2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>6.7929517631355463E-3</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>-2.7675818875235736E-3</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>-1.9623721527057825E-2</v>
       </c>
       <c r="N2" s="4" t="str">
@@ -17183,27 +17527,27 @@
         <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
         <v>EM</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
         <v>6.7929517631355463E-3</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <f t="shared" ref="U2:U5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
         <v>-2.526069465744929E-2</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <f t="shared" ref="V2:V5" ca="1" si="1">OFFSET($H2, 0, MATCH(P2,$B$1:$G$1, 0)-1)</f>
         <v>-2.7779108194836866E-2</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <f t="shared" ref="W2:W5" ca="1" si="2">OFFSET($H2, 0, MATCH(Q2,$B$1:$G$1, 0)-1)</f>
         <v>-2.7675818875235736E-3</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <f t="shared" ref="X2:X5" ca="1" si="3">OFFSET($H2, 0, MATCH(R2,$B$1:$G$1, 0)-1)</f>
         <v>-1.3207978075517768E-2</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <f t="shared" ref="Y2:Y5" ca="1" si="4">OFFSET($H2, 0, MATCH(S2,$B$1:$G$1, 0)-1)</f>
         <v>-1.9623721527057825E-2</v>
       </c>
@@ -17212,87 +17556,87 @@
       <c r="A3" s="5">
         <v>45413</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1.695328640293825E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>2.7000964320154086E-3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>8.9166954037145363E-3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>7.6064343975659199E-3</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>-2.6582646005601784E-4</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N16" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N17" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O16" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O17" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P16" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P17" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q16" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q17" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R16" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R17" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S16" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S17" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" ref="T3:T5" ca="1" si="11">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
         <v>8.9166954037145363E-3</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.7000964320154086E-3</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>1.6999291993815335E-2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>7.6064343975659199E-3</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>-2.6582646005601784E-4</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>1.695328640293825E-2</v>
       </c>
@@ -17301,40 +17645,40 @@
       <c r="A4" s="5">
         <v>45444</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>1.21E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N4" s="4" t="str">
@@ -17361,27 +17705,27 @@
         <f t="shared" si="10"/>
         <v>EM</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>1.21E-2</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17390,40 +17734,40 @@
       <c r="A5" s="5">
         <v>45474</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>2.12E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>1.11E-2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="N5" s="4" t="str">
@@ -17450,27 +17794,27 @@
         <f t="shared" si="10"/>
         <v>US</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>1.11E-2</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>2.12E-2</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>2.1899999999999999E-2</v>
       </c>
@@ -17479,40 +17823,40 @@
       <c r="A6" s="5">
         <v>45505</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1.44E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="N6" s="4" t="str">
@@ -17539,27 +17883,27 @@
         <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" ref="T6" ca="1" si="12">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" ref="U6:U7" ca="1" si="13">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
         <v>1.44E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <f t="shared" ref="V6:V7" ca="1" si="14">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <f t="shared" ref="W6:W7" ca="1" si="15">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <f t="shared" ref="X6:X7" ca="1" si="16">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <f t="shared" ref="Y6:Y7" ca="1" si="17">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
         <v>1.0699999999999999E-2</v>
       </c>
@@ -17568,40 +17912,40 @@
       <c r="A7" s="5">
         <v>45536</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1.34E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1.18E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="N7" s="4" t="str">
@@ -17628,27 +17972,27 @@
         <f t="shared" si="10"/>
         <v>EUR</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" ref="T7:T12" ca="1" si="18">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <f t="shared" ca="1" si="14"/>
         <v>1.5E-3</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <f t="shared" ca="1" si="15"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <f t="shared" ca="1" si="16"/>
         <v>1.34E-2</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <f t="shared" ca="1" si="17"/>
         <v>1.18E-2</v>
       </c>
@@ -17675,22 +18019,22 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>-2.4798842000000001E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>-8.1659679999999991E-3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>-2.2272449E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>4.1940579999999996E-3</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>-6.0108700000000003E-5</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>-1.5717404000000001E-2</v>
       </c>
       <c r="N8" s="4" t="str">
@@ -17717,27 +18061,27 @@
         <f t="shared" si="10"/>
         <v>US</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" ca="1" si="18"/>
         <v>4.1940579999999996E-3</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f t="shared" ref="U8" ca="1" si="19">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
         <v>-2.2272449E-2</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <f t="shared" ref="V8" ca="1" si="20">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
         <v>-6.0108700000000003E-5</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <f t="shared" ref="W8" ca="1" si="21">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
         <v>-8.1659679999999991E-3</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <f t="shared" ref="X8" ca="1" si="22">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
         <v>-1.5717404000000001E-2</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="7">
         <f t="shared" ref="Y8" ca="1" si="23">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
         <v>-2.4798842000000001E-2</v>
       </c>
@@ -17764,22 +18108,22 @@
       <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>1.0571390946202852E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>1.947040498442365E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>1.661529570410325E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>1.1178452095784275E-2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>5.7952449059965883E-3</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>1.585090513841414E-2</v>
       </c>
       <c r="N9" s="4" t="str">
@@ -17806,27 +18150,27 @@
         <f t="shared" si="10"/>
         <v>EM</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" ca="1" si="18"/>
         <v>1.661529570410325E-2</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f t="shared" ref="U9" ca="1" si="24">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
         <v>1.947040498442365E-2</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <f t="shared" ref="V9" ca="1" si="25">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
         <v>1.0571390946202852E-2</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <f t="shared" ref="W9" ca="1" si="26">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
         <v>1.1178452095784275E-2</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <f t="shared" ref="X9" ca="1" si="27">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
         <v>5.7952449059965883E-3</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <f t="shared" ref="Y9:Y14" ca="1" si="28">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
         <v>1.585090513841414E-2</v>
       </c>
@@ -17853,22 +18197,22 @@
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>-1.6365229504145096E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>-1.018589253883373E-2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>-1.9612487564546033E-2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>1.8514043510549305E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>1.0607020484071583E-2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>-1.4597495614653178E-2</v>
       </c>
       <c r="N10" s="4" t="str">
@@ -17895,27 +18239,27 @@
         <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" ca="1" si="18"/>
         <v>-1.6365229504145096E-2</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" ref="U10" ca="1" si="29">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
         <v>-1.018589253883373E-2</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <f t="shared" ref="V10" ca="1" si="30">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
         <v>1.8514043510549305E-2</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <f t="shared" ref="W10" ca="1" si="31">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
         <v>-1.9612487564546033E-2</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <f t="shared" ref="X10" ca="1" si="32">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
         <v>-1.4597495614653178E-2</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <f t="shared" ca="1" si="28"/>
         <v>1.0607020484071583E-2</v>
       </c>
@@ -17924,7 +18268,7 @@
       <c r="A11" s="5">
         <v>45658</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="4">
@@ -17942,22 +18286,22 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>5.3E-3</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>1.37E-2</v>
       </c>
       <c r="N11" s="4" t="str">
@@ -17984,27 +18328,27 @@
         <f t="shared" si="10"/>
         <v>EUR</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <f t="shared" ca="1" si="18"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" ref="U11" ca="1" si="33">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
         <v>5.3E-3</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <f t="shared" ref="V11" ca="1" si="34">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <f t="shared" ref="W11" ca="1" si="35">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
         <v>1.5E-3</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <f t="shared" ref="X11" ca="1" si="36">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
         <v>1.37E-2</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="7">
         <f t="shared" ca="1" si="28"/>
         <v>2.2000000000000001E-3</v>
       </c>
@@ -18013,7 +18357,7 @@
       <c r="A12" s="5">
         <v>45689</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="4">
@@ -18031,22 +18375,22 @@
       <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>2.2002689999999998E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>7.70077E-3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>7.4265729999999997E-3</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>-5.3245419999999998E-3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>-1.9681199999999999E-3</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>1.4900329E-2</v>
       </c>
       <c r="N12" s="4" t="str">
@@ -18073,27 +18417,27 @@
         <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <f t="shared" ca="1" si="18"/>
         <v>7.4265729999999997E-3</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <f t="shared" ref="U12" ca="1" si="37">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
         <v>2.2002689999999998E-2</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <f t="shared" ref="V12" ca="1" si="38">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
         <v>1.4900329E-2</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <f t="shared" ref="W12" ca="1" si="39">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
         <v>7.70077E-3</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <f t="shared" ref="X12" ca="1" si="40">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
         <v>-5.3245419999999998E-3</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <f t="shared" ca="1" si="28"/>
         <v>-1.9681199999999999E-3</v>
       </c>
@@ -18102,7 +18446,7 @@
       <c r="A13" s="5">
         <v>45717</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="4">
@@ -18120,22 +18464,22 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>3.7793599999999999E-4</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>-1.3646287999999999E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>-1.174736E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>-7.8675200000000005E-4</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>-2.5285519999999999E-3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>-7.8077390000000002E-3</v>
       </c>
       <c r="N13" s="4" t="str">
@@ -18162,27 +18506,27 @@
         <f t="shared" si="10"/>
         <v>APAC</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <f t="shared" ref="T13" ca="1" si="41">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
         <v>-1.174736E-2</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="7">
         <f t="shared" ref="U13" ca="1" si="42">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
         <v>3.7793599999999999E-4</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="7">
         <f t="shared" ref="V13" ca="1" si="43">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
         <v>-1.3646287999999999E-2</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="7">
         <f t="shared" ref="W13" ca="1" si="44">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
         <v>-7.8675200000000005E-4</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="7">
         <f t="shared" ref="X13" ca="1" si="45">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
         <v>-7.8077390000000002E-3</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="7">
         <f t="shared" ca="1" si="28"/>
         <v>-2.5285519999999999E-3</v>
       </c>
@@ -18191,7 +18535,7 @@
       <c r="A14" s="5">
         <v>45748</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="4">
@@ -18209,22 +18553,22 @@
       <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>3.9290460507310776E-3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>1.9037078029883636E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>1.7565811636748752E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>1.38862867862799E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>1.2531635886743553E-2</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>1.6516098365224607E-3</v>
       </c>
       <c r="N14" s="4" t="str">
@@ -18251,27 +18595,27 @@
         <f t="shared" si="10"/>
         <v>China</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <f t="shared" ref="T14" ca="1" si="46">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
         <v>1.9037078029883636E-2</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="7">
         <f t="shared" ref="U14" ca="1" si="47">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
         <v>3.9290460507310776E-3</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <f t="shared" ref="V14" ca="1" si="48">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
         <v>1.7565811636748752E-2</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="7">
         <f t="shared" ref="W14" ca="1" si="49">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
         <v>1.2531635886743553E-2</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="7">
         <f t="shared" ref="X14" ca="1" si="50">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
         <v>1.6516098365224607E-3</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="7">
         <f t="shared" ca="1" si="28"/>
         <v>1.38862867862799E-2</v>
       </c>
@@ -18280,7 +18624,7 @@
       <c r="A15" s="5">
         <v>45778</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
       <c r="C15" s="4">
@@ -18298,22 +18642,22 @@
       <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>-7.1588267847261244E-3</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>1.4481734911844235E-3</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>-1.0594021944759779E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>6.3250334567399591E-4</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>-3.6048913078609024E-3</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>8.7604631832673974E-3</v>
       </c>
       <c r="N15" s="4" t="str">
@@ -18340,27 +18684,27 @@
         <f t="shared" si="10"/>
         <v>China</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <f t="shared" ref="T15" ca="1" si="51">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
         <v>1.4481734911844235E-3</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <f t="shared" ref="U15" ca="1" si="52">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
         <v>-7.1588267847261244E-3</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="7">
         <f t="shared" ref="V15" ca="1" si="53">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
         <v>-1.0594021944759779E-2</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="7">
         <f t="shared" ref="W15" ca="1" si="54">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
         <v>-3.6048913078609024E-3</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="7">
         <f t="shared" ref="X15" ca="1" si="55">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
         <v>8.7604631832673974E-3</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="7">
         <f t="shared" ref="Y15" ca="1" si="56">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
         <v>6.3250334567399591E-4</v>
       </c>
@@ -18387,22 +18731,22 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>1.5375148266728589E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>2.9283106178374929E-3</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>1.6061185468451367E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>6.879922292754248E-3</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>7.7726982453649729E-3</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>2.2199322030008739E-2</v>
       </c>
       <c r="N16" s="4" t="str">
@@ -18429,27 +18773,27 @@
         <f t="shared" si="10"/>
         <v>China</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <f t="shared" ref="T16" ca="1" si="57">OFFSET($H16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
         <v>2.9283106178374929E-3</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <f t="shared" ref="U16" ca="1" si="58">OFFSET($H16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
         <v>7.7726982453649729E-3</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <f t="shared" ref="V16" ca="1" si="59">OFFSET($H16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
         <v>1.5375148266728589E-2</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="7">
         <f t="shared" ref="W16" ca="1" si="60">OFFSET($H16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
         <v>1.6061185468451367E-2</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <f t="shared" ref="X16" ca="1" si="61">OFFSET($H16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
         <v>2.2199322030008739E-2</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="7">
         <f t="shared" ref="Y16" ca="1" si="62">OFFSET($H16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
         <v>6.879922292754248E-3</v>
       </c>
@@ -18459,71 +18803,154 @@
         <v>45839</v>
       </c>
       <c r="B17" s="4">
-        <v>0.4112982</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>0.57515000000000005</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>0.4346776</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
-        <v>0.6566978</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>0.61057539999999999</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>0.48619568000000002</v>
+        <v>4</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-2.6393683082570618E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.8383678177491536E-3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-1.599548362815173E-3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.3465208461588318E-4</v>
+      </c>
+      <c r="L17" s="7">
+        <v>-1.1977493416803764E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9.4176214191956653E-3</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 1), $B17:$G17, 0))</f>
+        <f t="shared" si="5"/>
         <v>China</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 2), $B17:$G17, 0))</f>
+        <f t="shared" si="6"/>
         <v>APAC</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 3), $B17:$G17, 0))</f>
+        <f t="shared" si="7"/>
         <v>EUR</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 4), $B17:$G17, 0))</f>
+        <f t="shared" si="8"/>
         <v>EM</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 5), $B17:$G17, 0))</f>
+        <f t="shared" si="9"/>
         <v>UK</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 6), $B17:$G17, 0))</f>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
-      <c r="T17" s="8">
-        <f ca="1">OFFSET($B17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
-        <v>0.6566978</v>
-      </c>
-      <c r="U17" s="8">
-        <f t="shared" ref="U17" ca="1" si="63">OFFSET($B17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
-        <v>0.61057539999999999</v>
-      </c>
-      <c r="V17" s="8">
-        <f t="shared" ref="V17" ca="1" si="64">OFFSET($B17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
-        <v>0.57515000000000005</v>
-      </c>
-      <c r="W17" s="8">
-        <f t="shared" ref="W17" ca="1" si="65">OFFSET($B17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
-        <v>0.48619568000000002</v>
-      </c>
-      <c r="X17" s="8">
-        <f t="shared" ref="X17" ca="1" si="66">OFFSET($B17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
-        <v>0.4346776</v>
-      </c>
-      <c r="Y17" s="8">
-        <f t="shared" ref="Y17" ca="1" si="67">OFFSET($B17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
-        <v>0.4112982</v>
-      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17" ca="1" si="63">OFFSET($H17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
+        <v>6.3465208461588318E-4</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" ref="U17" ca="1" si="64">OFFSET($H17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
+        <v>-1.1977493416803764E-3</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" ref="V17" ca="1" si="65">OFFSET($H17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
+        <v>1.8383678177491536E-3</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17" ca="1" si="66">OFFSET($H17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
+        <v>9.4176214191956653E-3</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" ref="X17" ca="1" si="67">OFFSET($H17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
+        <v>-1.599548362815173E-3</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" ref="Y17" ca="1" si="68">OFFSET($H17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
+        <v>-2.6393683082570618E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45870</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.46776116000000001</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.4917647</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.45314798000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.52491133999999995</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.49534896</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.48444187999999999</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 1), $B18:$G18, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 2), $B18:$G18, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 3), $B18:$G18, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 4), $B18:$G18, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 5), $B18:$G18, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 6), $B18:$G18, 0))</f>
+        <v>UK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18533,11 +18960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18550,22 +18977,22 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -18621,15 +19048,15 @@
         <f>INDEX($B$1:$D$1, MATCH(SMALL($B2:$D2, 3), $B2:$D2, 0))</f>
         <v>MBS</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f ca="1">OFFSET($E2, 0, MATCH(H2,$B$1:$D$1, 0)-1)</f>
         <v>-2.5447370635779065E-2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f t="shared" ref="L2:L5" ca="1" si="0">OFFSET($E2, 0, MATCH(I2,$B$1:$D$1, 0)-1)</f>
         <v>-2.3273962337771681E-2</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f t="shared" ref="M2:M5" ca="1" si="1">OFFSET($E2, 0, MATCH(J2,$B$1:$D$1, 0)-1)</f>
         <v>-3.0255585445815636E-2</v>
       </c>
@@ -18657,26 +19084,26 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H16" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H17" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I16" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I17" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J16" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J17" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K5" ca="1" si="5">OFFSET($E3, 0, MATCH(H3,$B$1:$D$1, 0)-1)</f>
         <v>1.8729909964657621E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.9981017055295203E-2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>1.4567690505806086E-2</v>
       </c>
@@ -18715,15 +19142,15 @@
         <f t="shared" si="4"/>
         <v>MBS</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ca="1" si="5"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.01E-2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>1.17E-2</v>
       </c>
@@ -18762,15 +19189,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" ca="1" si="5"/>
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.64E-2</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>2.1899999999999999E-2</v>
       </c>
@@ -18809,15 +19236,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" ref="K6" ca="1" si="6">OFFSET($E6, 0, MATCH(H6,$B$1:$D$1, 0)-1)</f>
         <v>1.61E-2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" ref="L6" ca="1" si="7">OFFSET($E6, 0, MATCH(I6,$B$1:$D$1, 0)-1)</f>
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f t="shared" ref="M6" ca="1" si="8">OFFSET($E6, 0, MATCH(J6,$B$1:$D$1, 0)-1)</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -18856,15 +19283,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" ref="K7" ca="1" si="9">OFFSET($E7, 0, MATCH(H7,$B$1:$D$1, 0)-1)</f>
         <v>1.77E-2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" ref="L7" ca="1" si="10">OFFSET($E7, 0, MATCH(I7,$B$1:$D$1, 0)-1)</f>
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" ref="M7" ca="1" si="11">OFFSET($E7, 0, MATCH(J7,$B$1:$D$1, 0)-1)</f>
         <v>1.2E-2</v>
       </c>
@@ -18903,15 +19330,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" ref="K8" ca="1" si="12">OFFSET($E8, 0, MATCH(H8,$B$1:$D$1, 0)-1)</f>
         <v>-2.8309049999999999E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" ref="L8" ca="1" si="13">OFFSET($E8, 0, MATCH(I8,$B$1:$D$1, 0)-1)</f>
         <v>-2.4271330000000001E-2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" ref="M8" ca="1" si="14">OFFSET($E8, 0, MATCH(J8,$B$1:$D$1, 0)-1)</f>
         <v>-2.3811135000000001E-2</v>
       </c>
@@ -18950,15 +19377,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" ref="K9" ca="1" si="15">OFFSET($E9, 0, MATCH(H9,$B$1:$D$1, 0)-1)</f>
         <v>1.337707770668306E-2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" ref="L9" ca="1" si="16">OFFSET($E9, 0, MATCH(I9,$B$1:$D$1, 0)-1)</f>
         <v>1.3330065933659485E-2</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" ref="M9" ca="1" si="17">OFFSET($E9, 0, MATCH(J9,$B$1:$D$1, 0)-1)</f>
         <v>7.7724921365256439E-3</v>
       </c>
@@ -18967,13 +19394,13 @@
       <c r="A10" s="5">
         <v>45627</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
       <c r="E10" s="6">
@@ -18997,15 +19424,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" ref="K10" ca="1" si="18">OFFSET($E10, 0, MATCH(H10,$B$1:$D$1, 0)-1)</f>
         <v>-1.9353569320478714E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" ref="L10" ca="1" si="19">OFFSET($E10, 0, MATCH(I10,$B$1:$D$1, 0)-1)</f>
         <v>-1.6471908779390421E-2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" ref="M10" ca="1" si="20">OFFSET($E10, 0, MATCH(J10,$B$1:$D$1, 0)-1)</f>
         <v>-1.5407896546980382E-2</v>
       </c>
@@ -19044,15 +19471,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" ref="K11" ca="1" si="21">OFFSET($E11, 0, MATCH(H11,$B$1:$D$1, 0)-1)</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" ref="L11" ca="1" si="22">OFFSET($E11, 0, MATCH(I11,$B$1:$D$1, 0)-1)</f>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" ref="M11" ca="1" si="23">OFFSET($E11, 0, MATCH(J11,$B$1:$D$1, 0)-1)</f>
         <v>5.1999999999999998E-3</v>
       </c>
@@ -19091,15 +19518,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" ref="K12" ca="1" si="24">OFFSET($E12, 0, MATCH(H12,$B$1:$D$1, 0)-1)</f>
         <v>2.038589E-2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" ref="L12" ca="1" si="25">OFFSET($E12, 0, MATCH(I12,$B$1:$D$1, 0)-1)</f>
         <v>2.5497110999999999E-2</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" ref="M12" ca="1" si="26">OFFSET($E12, 0, MATCH(J12,$B$1:$D$1, 0)-1)</f>
         <v>2.1558671000000001E-2</v>
       </c>
@@ -19138,15 +19565,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" ref="K13" ca="1" si="27">OFFSET($E13, 0, MATCH(H13,$B$1:$D$1, 0)-1)</f>
         <v>-2.8828690000000001E-3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" ref="L13" ca="1" si="28">OFFSET($E13, 0, MATCH(I13,$B$1:$D$1, 0)-1)</f>
         <v>-1.7103600000000001E-4</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" ref="M13" ca="1" si="29">OFFSET($E13, 0, MATCH(J13,$B$1:$D$1, 0)-1)</f>
         <v>2.2961919999999999E-3</v>
       </c>
@@ -19185,15 +19612,15 @@
         <f t="shared" si="4"/>
         <v>MBS</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" ref="K14" ca="1" si="30">OFFSET($E14, 0, MATCH(H14,$B$1:$D$1, 0)-1)</f>
         <v>-3.268575911189453E-4</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" ref="L14" ca="1" si="31">OFFSET($E14, 0, MATCH(I14,$B$1:$D$1, 0)-1)</f>
         <v>6.3340008145533755E-3</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" ref="M14" ca="1" si="32">OFFSET($E14, 0, MATCH(J14,$B$1:$D$1, 0)-1)</f>
         <v>2.8675868154028894E-3</v>
       </c>
@@ -19232,15 +19659,15 @@
         <f t="shared" si="4"/>
         <v>MBS</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" ref="K15" ca="1" si="33">OFFSET($E15, 0, MATCH(H15,$B$1:$D$1, 0)-1)</f>
         <v>-1.1295135957767322E-4</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" ref="L15" ca="1" si="34">OFFSET($E15, 0, MATCH(I15,$B$1:$D$1, 0)-1)</f>
         <v>-1.0282245315233807E-2</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" ref="M15" ca="1" si="35">OFFSET($E15, 0, MATCH(J15,$B$1:$D$1, 0)-1)</f>
         <v>-9.1302884075862289E-3</v>
       </c>
@@ -19279,15 +19706,15 @@
         <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" ref="K16" ca="1" si="36">OFFSET($E16, 0, MATCH(H16,$B$1:$D$1, 0)-1)</f>
         <v>1.868664347929494E-2</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" ref="L16" ca="1" si="37">OFFSET($E16, 0, MATCH(I16,$B$1:$D$1, 0)-1)</f>
         <v>1.777648918868735E-2</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" ref="M16" ca="1" si="38">OFFSET($E16, 0, MATCH(J16,$B$1:$D$1, 0)-1)</f>
         <v>1.2544405919085566E-2</v>
       </c>
@@ -19297,47 +19724,99 @@
         <v>45839</v>
       </c>
       <c r="B17" s="4">
-        <v>0.24201636000000001</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
-        <v>0.47116639999999999</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>0.44660810000000001</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-3.9207272696678563E-3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6.5367869357646491E-4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-4.0504751518928295E-3</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 1), $B17:$D17, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 2), $B17:$D17, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B17:$D17, 3), $B17:$D17, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K17" s="15">
-        <f ca="1">OFFSET($B17, 0, MATCH(H17,$B$1:$D$1, 0)-1)</f>
-        <v>0.47116639999999999</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" ref="L17" ca="1" si="39">OFFSET($B17, 0, MATCH(I17,$B$1:$D$1, 0)-1)</f>
-        <v>0.44660810000000001</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" ref="M17" ca="1" si="40">OFFSET($B17, 0, MATCH(J17,$B$1:$D$1, 0)-1)</f>
-        <v>0.24201636000000001</v>
-      </c>
+      <c r="K17" s="7">
+        <f t="shared" ref="K17" ca="1" si="39">OFFSET($E17, 0, MATCH(H17,$B$1:$D$1, 0)-1)</f>
+        <v>6.5367869357646491E-4</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17" ca="1" si="40">OFFSET($E17, 0, MATCH(I17,$B$1:$D$1, 0)-1)</f>
+        <v>-4.0504751518928295E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" ref="M17" ca="1" si="41">OFFSET($E17, 0, MATCH(J17,$B$1:$D$1, 0)-1)</f>
+        <v>-3.9207272696678563E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45870</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.28656456000000002</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.32584679999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.3324435</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 1), $B18:$D18, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 2), $B18:$D18, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 3), $B18:$D18, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K18" s="3">
+        <f ca="1">OFFSET($B18, 0, MATCH(H18,$B$1:$D$1, 0)-1)</f>
+        <v>0.3324435</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" ref="L18" ca="1" si="42">OFFSET($B18, 0, MATCH(I18,$B$1:$D$1, 0)-1)</f>
+        <v>0.32584679999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" ref="M18" ca="1" si="43">OFFSET($B18, 0, MATCH(J18,$B$1:$D$1, 0)-1)</f>
+        <v>0.28656456000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F26" s="16"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19347,11 +19826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19501,27 +19980,27 @@
         <f>INDEX($B$1:$G$1, MATCH(SMALL($B2:$G2, 6), $B2:$G2, 0))</f>
         <v>단기</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <f ca="1">OFFSET($H2, 0, MATCH(N2,$B$1:$G$1, 0)-1)</f>
         <v>-9.4018724270023002E-3</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <f t="shared" ref="U2:Y5" ca="1" si="0">OFFSET($H2, 0, MATCH(O2,$B$1:$G$1, 0)-1)</f>
         <v>-3.5280728513869541E-2</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.3238686779060185E-3</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>-2.3162929869394056E-2</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>-4.9381116698660965E-2</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>-6.5253018160699172E-3</v>
       </c>
@@ -19567,50 +20046,50 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N16" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N17" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O16" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O17" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P16" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P17" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q16" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q17" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R16" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R17" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S16" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S17" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" ref="T3:T5" ca="1" si="7">OFFSET($H3, 0, MATCH(N3,$B$1:$G$1, 0)-1)</f>
         <v>1.0987379957157595E-2</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.5478502080443803E-3</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.0013131127499362E-2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.8248965534329429E-2</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.9399303693745873E-2</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.0355772590442403E-2</v>
       </c>
@@ -19679,27 +20158,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>5.3E-3</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>4.5999999999999999E-3</v>
       </c>
@@ -19768,27 +20247,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.58E-2</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.1999999999999998E-3</v>
       </c>
@@ -19857,27 +20336,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" ref="T6" ca="1" si="8">OFFSET($H6, 0, MATCH(N6,$B$1:$G$1, 0)-1)</f>
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" ref="U6" ca="1" si="9">OFFSET($H6, 0, MATCH(O6,$B$1:$G$1, 0)-1)</f>
         <v>1.55E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <f t="shared" ref="V6" ca="1" si="10">OFFSET($H6, 0, MATCH(P6,$B$1:$G$1, 0)-1)</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <f t="shared" ref="W6" ca="1" si="11">OFFSET($H6, 0, MATCH(Q6,$B$1:$G$1, 0)-1)</f>
         <v>2.12E-2</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <f t="shared" ref="X6" ca="1" si="12">OFFSET($H6, 0, MATCH(R6,$B$1:$G$1, 0)-1)</f>
         <v>1.11E-2</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <f t="shared" ref="Y6" ca="1" si="13">OFFSET($H6, 0, MATCH(S6,$B$1:$G$1, 0)-1)</f>
         <v>4.5999999999999999E-3</v>
       </c>
@@ -19946,27 +20425,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" ref="T7" ca="1" si="14">OFFSET($H7, 0, MATCH(N7,$B$1:$G$1, 0)-1)</f>
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" ref="U7" ca="1" si="15">OFFSET($H7, 0, MATCH(O7,$B$1:$G$1, 0)-1)</f>
         <v>2.98E-2</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <f t="shared" ref="V7" ca="1" si="16">OFFSET($H7, 0, MATCH(P7,$B$1:$G$1, 0)-1)</f>
         <v>2.7E-2</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <f t="shared" ref="W7" ca="1" si="17">OFFSET($H7, 0, MATCH(Q7,$B$1:$G$1, 0)-1)</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <f t="shared" ref="X7" ca="1" si="18">OFFSET($H7, 0, MATCH(R7,$B$1:$G$1, 0)-1)</f>
         <v>1.04E-2</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <f t="shared" ref="Y7" ca="1" si="19">OFFSET($H7, 0, MATCH(S7,$B$1:$G$1, 0)-1)</f>
         <v>4.8999999999999998E-3</v>
       </c>
@@ -20035,27 +20514,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" ref="T8" ca="1" si="20">OFFSET($H8, 0, MATCH(N8,$B$1:$G$1, 0)-1)</f>
         <v>5.585652E-3</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f t="shared" ref="U8" ca="1" si="21">OFFSET($H8, 0, MATCH(O8,$B$1:$G$1, 0)-1)</f>
         <v>-5.4060920000000004E-3</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <f t="shared" ref="V8" ca="1" si="22">OFFSET($H8, 0, MATCH(P8,$B$1:$G$1, 0)-1)</f>
         <v>-4.1607038999999998E-2</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <f t="shared" ref="W8" ca="1" si="23">OFFSET($H8, 0, MATCH(Q8,$B$1:$G$1, 0)-1)</f>
         <v>-2.3687716000000001E-2</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <f t="shared" ref="X8" ca="1" si="24">OFFSET($H8, 0, MATCH(R8,$B$1:$G$1, 0)-1)</f>
         <v>-8.9353179999999994E-3</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="7">
         <f t="shared" ref="Y8" ca="1" si="25">OFFSET($H8, 0, MATCH(S8,$B$1:$G$1, 0)-1)</f>
         <v>5.0430500000000003E-3</v>
       </c>
@@ -20124,27 +20603,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" ref="T9" ca="1" si="26">OFFSET($H9, 0, MATCH(N9,$B$1:$G$1, 0)-1)</f>
         <v>6.2065634663099889E-2</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f t="shared" ref="U9" ca="1" si="27">OFFSET($H9, 0, MATCH(O9,$B$1:$G$1, 0)-1)</f>
         <v>2.2672848980195726E-2</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <f t="shared" ref="V9" ca="1" si="28">OFFSET($H9, 0, MATCH(P9,$B$1:$G$1, 0)-1)</f>
         <v>1.1505341631693922E-2</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <f t="shared" ref="W9" ca="1" si="29">OFFSET($H9, 0, MATCH(Q9,$B$1:$G$1, 0)-1)</f>
         <v>1.2019362649438925E-2</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <f t="shared" ref="X9" ca="1" si="30">OFFSET($H9, 0, MATCH(R9,$B$1:$G$1, 0)-1)</f>
         <v>6.286436594046263E-3</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <f t="shared" ref="Y9" ca="1" si="31">OFFSET($H9, 0, MATCH(S9,$B$1:$G$1, 0)-1)</f>
         <v>4.4670175009180468E-3</v>
       </c>
@@ -20153,22 +20632,22 @@
       <c r="A10" s="5">
         <v>45627</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>4</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>6</v>
       </c>
       <c r="H10" s="6">
@@ -20213,27 +20692,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" ref="T10" ca="1" si="32">OFFSET($H10, 0, MATCH(N10,$B$1:$G$1, 0)-1)</f>
         <v>-1.5295531980034749E-2</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" ref="U10" ca="1" si="33">OFFSET($H10, 0, MATCH(O10,$B$1:$G$1, 0)-1)</f>
         <v>-4.2966180801507825E-2</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <f t="shared" ref="V10" ca="1" si="34">OFFSET($H10, 0, MATCH(P10,$B$1:$G$1, 0)-1)</f>
         <v>-1.3004773742498754E-3</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <f t="shared" ref="W10" ca="1" si="35">OFFSET($H10, 0, MATCH(Q10,$B$1:$G$1, 0)-1)</f>
         <v>-3.9307984538194951E-2</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <f t="shared" ref="X10" ca="1" si="36">OFFSET($H10, 0, MATCH(R10,$B$1:$G$1, 0)-1)</f>
         <v>-4.2640362498748141E-3</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <f t="shared" ref="Y10" ca="1" si="37">OFFSET($H10, 0, MATCH(S10,$B$1:$G$1, 0)-1)</f>
         <v>4.5080718854704216E-3</v>
       </c>
@@ -20302,27 +20781,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <f t="shared" ref="T11" ca="1" si="38">OFFSET($H11, 0, MATCH(N11,$B$1:$G$1, 0)-1)</f>
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" ref="U11" ca="1" si="39">OFFSET($H11, 0, MATCH(O11,$B$1:$G$1, 0)-1)</f>
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <f t="shared" ref="V11" ca="1" si="40">OFFSET($H11, 0, MATCH(P11,$B$1:$G$1, 0)-1)</f>
         <v>1.37E-2</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <f t="shared" ref="W11" ca="1" si="41">OFFSET($H11, 0, MATCH(Q11,$B$1:$G$1, 0)-1)</f>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <f t="shared" ref="X11" ca="1" si="42">OFFSET($H11, 0, MATCH(R11,$B$1:$G$1, 0)-1)</f>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="7">
         <f t="shared" ref="Y11" ca="1" si="43">OFFSET($H11, 0, MATCH(S11,$B$1:$G$1, 0)-1)</f>
         <v>4.4000000000000003E-3</v>
       </c>
@@ -20391,27 +20870,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <f t="shared" ref="T12" ca="1" si="44">OFFSET($H12, 0, MATCH(N12,$B$1:$G$1, 0)-1)</f>
         <v>3.4162163000000002E-2</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <f t="shared" ref="U12" ca="1" si="45">OFFSET($H12, 0, MATCH(O12,$B$1:$G$1, 0)-1)</f>
         <v>1.9336801000000001E-2</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <f t="shared" ref="V12" ca="1" si="46">OFFSET($H12, 0, MATCH(P12,$B$1:$G$1, 0)-1)</f>
         <v>9.4463670000000007E-3</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <f t="shared" ref="W12" ca="1" si="47">OFFSET($H12, 0, MATCH(Q12,$B$1:$G$1, 0)-1)</f>
         <v>-1.2547552E-2</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <f t="shared" ref="X12" ca="1" si="48">OFFSET($H12, 0, MATCH(R12,$B$1:$G$1, 0)-1)</f>
         <v>6.7137289999999999E-3</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <f t="shared" ref="Y12" ca="1" si="49">OFFSET($H12, 0, MATCH(S12,$B$1:$G$1, 0)-1)</f>
         <v>4.2265430000000001E-3</v>
       </c>
@@ -20480,27 +20959,27 @@
         <f t="shared" si="6"/>
         <v>HY</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <f t="shared" ref="T13" ca="1" si="50">OFFSET($H13, 0, MATCH(N13,$B$1:$G$1, 0)-1)</f>
         <v>-1.4091329999999999E-2</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="7">
         <f t="shared" ref="U13" ca="1" si="51">OFFSET($H13, 0, MATCH(O13,$B$1:$G$1, 0)-1)</f>
         <v>7.3968600000000003E-4</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="7">
         <f t="shared" ref="V13" ca="1" si="52">OFFSET($H13, 0, MATCH(P13,$B$1:$G$1, 0)-1)</f>
         <v>4.1811110000000004E-3</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="7">
         <f t="shared" ref="W13" ca="1" si="53">OFFSET($H13, 0, MATCH(Q13,$B$1:$G$1, 0)-1)</f>
         <v>3.7277539999999998E-3</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="7">
         <f t="shared" ref="X13" ca="1" si="54">OFFSET($H13, 0, MATCH(R13,$B$1:$G$1, 0)-1)</f>
         <v>-2.8187982E-2</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="7">
         <f t="shared" ref="Y13" ca="1" si="55">OFFSET($H13, 0, MATCH(S13,$B$1:$G$1, 0)-1)</f>
         <v>-1.0222566000000001E-2</v>
       </c>
@@ -20569,27 +21048,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <f t="shared" ref="T14" ca="1" si="56">OFFSET($H14, 0, MATCH(N14,$B$1:$G$1, 0)-1)</f>
         <v>-1.2880991541082465E-2</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="7">
         <f t="shared" ref="U14" ca="1" si="57">OFFSET($H14, 0, MATCH(O14,$B$1:$G$1, 0)-1)</f>
         <v>1.3883974929222109E-2</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <f t="shared" ref="V14" ca="1" si="58">OFFSET($H14, 0, MATCH(P14,$B$1:$G$1, 0)-1)</f>
         <v>4.4331683209568595E-3</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="7">
         <f t="shared" ref="W14" ca="1" si="59">OFFSET($H14, 0, MATCH(Q14,$B$1:$G$1, 0)-1)</f>
         <v>-2.0294678735244265E-4</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="7">
         <f t="shared" ref="X14" ca="1" si="60">OFFSET($H14, 0, MATCH(R14,$B$1:$G$1, 0)-1)</f>
         <v>6.7556701265467645E-3</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="7">
         <f t="shared" ref="Y14" ca="1" si="61">OFFSET($H14, 0, MATCH(S14,$B$1:$G$1, 0)-1)</f>
         <v>1.5574457889060422E-3</v>
       </c>
@@ -20658,27 +21137,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <f t="shared" ref="T15" ca="1" si="62">OFFSET($H15, 0, MATCH(N15,$B$1:$G$1, 0)-1)</f>
         <v>-4.5732526646148353E-3</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <f t="shared" ref="U15" ca="1" si="63">OFFSET($H15, 0, MATCH(O15,$B$1:$G$1, 0)-1)</f>
         <v>2.2460699307043086E-3</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="7">
         <f t="shared" ref="V15" ca="1" si="64">OFFSET($H15, 0, MATCH(P15,$B$1:$G$1, 0)-1)</f>
         <v>1.7895012033255497E-3</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="7">
         <f t="shared" ref="W15" ca="1" si="65">OFFSET($H15, 0, MATCH(Q15,$B$1:$G$1, 0)-1)</f>
         <v>2.9356355361525699E-2</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="7">
         <f t="shared" ref="X15" ca="1" si="66">OFFSET($H15, 0, MATCH(R15,$B$1:$G$1, 0)-1)</f>
         <v>1.679633292981797E-2</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="7">
         <f t="shared" ref="Y15" ca="1" si="67">OFFSET($H15, 0, MATCH(S15,$B$1:$G$1, 0)-1)</f>
         <v>5.5622009569378239E-3</v>
       </c>
@@ -20747,27 +21226,27 @@
         <f t="shared" si="6"/>
         <v>FRN</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <f t="shared" ref="T16" ca="1" si="68">OFFSET($H16, 0, MATCH(N16,$B$1:$G$1, 0)-1)</f>
         <v>3.0199593394778068E-2</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <f t="shared" ref="U16" ca="1" si="69">OFFSET($H16, 0, MATCH(O16,$B$1:$G$1, 0)-1)</f>
         <v>3.8350210275769792E-2</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <f t="shared" ref="V16" ca="1" si="70">OFFSET($H16, 0, MATCH(P16,$B$1:$G$1, 0)-1)</f>
         <v>1.8391814245216853E-2</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="7">
         <f t="shared" ref="W16" ca="1" si="71">OFFSET($H16, 0, MATCH(Q16,$B$1:$G$1, 0)-1)</f>
         <v>9.4095044006174966E-3</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <f t="shared" ref="X16" ca="1" si="72">OFFSET($H16, 0, MATCH(R16,$B$1:$G$1, 0)-1)</f>
         <v>1.9058742635648551E-2</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="7">
         <f t="shared" ref="Y16" ca="1" si="73">OFFSET($H16, 0, MATCH(S16,$B$1:$G$1, 0)-1)</f>
         <v>4.8177005888301316E-3</v>
       </c>
@@ -20777,89 +21256,190 @@
         <v>45839</v>
       </c>
       <c r="B17" s="4">
-        <v>0.38314733000000001</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>0.50588469999999996</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4">
-        <v>0.56944983999999998</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>0.57517620000000003</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>0.67638900000000002</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0.41445056000000002</v>
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>9.8442489550865098E-4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.6857603074116323E-3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>-6.7224209830685222E-4</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.5086787610935097E-3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2.8841683494337467E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5.1497573102876615E-3</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 1), $B17:$G17, 0))</f>
+        <f t="shared" si="1"/>
         <v>CB</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 2), $B17:$G17, 0))</f>
+        <f t="shared" si="2"/>
         <v>HY</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 3), $B17:$G17, 0))</f>
+        <f t="shared" si="3"/>
         <v>장기</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 4), $B17:$G17, 0))</f>
+        <f t="shared" si="4"/>
         <v>중기</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 5), $B17:$G17, 0))</f>
+        <f t="shared" si="5"/>
         <v>FRN</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B17:$G17, 6), $B17:$G17, 0))</f>
+        <f t="shared" si="6"/>
         <v>단기</v>
       </c>
-      <c r="T17" s="15">
-        <f ca="1">OFFSET($B17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
-        <v>0.67638900000000002</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" ref="U17" ca="1" si="74">OFFSET($B17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
-        <v>0.57517620000000003</v>
-      </c>
-      <c r="V17" s="15">
-        <f t="shared" ref="V17" ca="1" si="75">OFFSET($B17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
-        <v>0.56944983999999998</v>
-      </c>
-      <c r="W17" s="15">
-        <f t="shared" ref="W17" ca="1" si="76">OFFSET($B17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
-        <v>0.50588469999999996</v>
-      </c>
-      <c r="X17" s="15">
-        <f t="shared" ref="X17" ca="1" si="77">OFFSET($B17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
-        <v>0.41445056000000002</v>
-      </c>
-      <c r="Y17" s="15">
-        <f t="shared" ref="Y17" ca="1" si="78">OFFSET($B17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
-        <v>0.38314733000000001</v>
-      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17" ca="1" si="74">OFFSET($H17, 0, MATCH(N17,$B$1:$G$1, 0)-1)</f>
+        <v>2.8841683494337467E-2</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" ref="U17" ca="1" si="75">OFFSET($H17, 0, MATCH(O17,$B$1:$G$1, 0)-1)</f>
+        <v>4.5086787610935097E-3</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" ref="V17" ca="1" si="76">OFFSET($H17, 0, MATCH(P17,$B$1:$G$1, 0)-1)</f>
+        <v>-6.7224209830685222E-4</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17" ca="1" si="77">OFFSET($H17, 0, MATCH(Q17,$B$1:$G$1, 0)-1)</f>
+        <v>1.6857603074116323E-3</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" ref="X17" ca="1" si="78">OFFSET($H17, 0, MATCH(R17,$B$1:$G$1, 0)-1)</f>
+        <v>5.1497573102876615E-3</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" ref="Y17" ca="1" si="79">OFFSET($H17, 0, MATCH(S17,$B$1:$G$1, 0)-1)</f>
+        <v>9.8442489550865098E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45870</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.47753337000000001</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.46759114000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.52337429999999996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.54637486000000002</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.53573113999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.47799142999999999</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 1), $B18:$G18, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 2), $B18:$G18, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 3), $B18:$G18, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 4), $B18:$G18, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 5), $B18:$G18, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 6), $B18:$G18, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T18" s="3">
+        <f ca="1">OFFSET($B18, 0, MATCH(N18,$B$1:$G$1, 0)-1)</f>
+        <v>0.54637486000000002</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" ref="U18" ca="1" si="80">OFFSET($B18, 0, MATCH(O18,$B$1:$G$1, 0)-1)</f>
+        <v>0.53573113999999999</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" ref="V18" ca="1" si="81">OFFSET($B18, 0, MATCH(P18,$B$1:$G$1, 0)-1)</f>
+        <v>0.52337429999999996</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" ref="W18" ca="1" si="82">OFFSET($B18, 0, MATCH(Q18,$B$1:$G$1, 0)-1)</f>
+        <v>0.47799142999999999</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" ref="X18" ca="1" si="83">OFFSET($B18, 0, MATCH(R18,$B$1:$G$1, 0)-1)</f>
+        <v>0.47753337000000001</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" ref="Y18" ca="1" si="84">OFFSET($B18, 0, MATCH(S18,$B$1:$G$1, 0)-1)</f>
+        <v>0.46759114000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J33" s="17"/>
+    <row r="33" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E33" s="16"/>
+      <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J34" s="17"/>
+    <row r="34" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J35" s="17"/>
+    <row r="35" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="10:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J36" s="17"/>
+    <row r="36" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20869,11 +21449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20907,22 +21487,22 @@
       <c r="H1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -21045,31 +21625,31 @@
         <f>INDEX($B$1:$H$1, MATCH(SMALL($B2:$H2, 7), $B2:$H2, 0))</f>
         <v>장기</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <f ca="1">OFFSET($I2, 0, MATCH(P2,$B$1:$H$1, 0)-1)</f>
         <v>-1.6861953532216201E-2</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <f t="shared" ref="X2:X5" ca="1" si="0">OFFSET($I2, 0, MATCH(Q2,$B$1:$H$1, 0)-1)</f>
         <v>-3.7994193340262772E-3</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <f t="shared" ref="Y2:Y5" ca="1" si="1">OFFSET($I2, 0, MATCH(R2,$B$1:$H$1, 0)-1)</f>
         <v>-1.7880113197838887E-2</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <f t="shared" ref="Z2:Z5" ca="1" si="2">OFFSET($I2, 0, MATCH(S2,$B$1:$H$1, 0)-1)</f>
         <v>-3.1547864602557651E-2</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA5" ca="1" si="3">OFFSET($I2, 0, MATCH(T2,$B$1:$H$1, 0)-1)</f>
         <v>-6.6060841511409896E-2</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <f t="shared" ref="AB2:AC5" ca="1" si="4">OFFSET($I2, 0, MATCH(U2,$B$1:$H$1, 0)-1)</f>
         <v>-1.2384860214661786E-2</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <f ca="1">OFFSET($I2, 0, MATCH(V2,$B$1:$H$1, 0)-1)</f>
         <v>-5.3671208255656411E-2</v>
       </c>
@@ -21121,58 +21701,58 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P16" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P17" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q16" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q17" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R16" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R17" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S16" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S17" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T16" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T17" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U16" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U17" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V16" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V17" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <f t="shared" ref="W3:W5" ca="1" si="12">OFFSET($I3, 0, MATCH(P3,$B$1:$H$1, 0)-1)</f>
         <v>7.0521354297843342E-3</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>-2.9335750937552474E-3</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>2.9298994429574066E-2</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>2.7548121349840526E-2</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>1.7178252433660113E-2</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>1.8092547753564725E-2</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>1.3123772102161091E-2</v>
       </c>
@@ -21251,31 +21831,31 @@
         <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.78E-2</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>1.4800000000000001E-2</v>
       </c>
@@ -21354,31 +21934,31 @@
         <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1.17E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>2.18E-2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" ca="1" si="2"/>
         <v>1.78E-2</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" ca="1" si="4"/>
         <v>3.5499999999999997E-2</v>
       </c>
@@ -21457,31 +22037,31 @@
         <f t="shared" si="11"/>
         <v>중단기</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <f t="shared" ref="W6" ca="1" si="13">OFFSET($I6, 0, MATCH(P6,$B$1:$H$1, 0)-1)</f>
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <f t="shared" ref="X6" ca="1" si="14">OFFSET($I6, 0, MATCH(Q6,$B$1:$H$1, 0)-1)</f>
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <f t="shared" ref="Y6" ca="1" si="15">OFFSET($I6, 0, MATCH(R6,$B$1:$H$1, 0)-1)</f>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <f t="shared" ref="Z6" ca="1" si="16">OFFSET($I6, 0, MATCH(S6,$B$1:$H$1, 0)-1)</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="7">
         <f t="shared" ref="AA6" ca="1" si="17">OFFSET($I6, 0, MATCH(T6,$B$1:$H$1, 0)-1)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f t="shared" ref="AB6" ca="1" si="18">OFFSET($I6, 0, MATCH(U6,$B$1:$H$1, 0)-1)</f>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f t="shared" ref="AC6" ca="1" si="19">OFFSET($I6, 0, MATCH(V6,$B$1:$H$1, 0)-1)</f>
         <v>1.17E-2</v>
       </c>
@@ -21560,31 +22140,31 @@
         <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <f t="shared" ref="W7" ca="1" si="20">OFFSET($I7, 0, MATCH(P7,$B$1:$H$1, 0)-1)</f>
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <f t="shared" ref="X7" ca="1" si="21">OFFSET($I7, 0, MATCH(Q7,$B$1:$H$1, 0)-1)</f>
         <v>1.06E-2</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <f t="shared" ref="Y7" ca="1" si="22">OFFSET($I7, 0, MATCH(R7,$B$1:$H$1, 0)-1)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <f t="shared" ref="Z7" ca="1" si="23">OFFSET($I7, 0, MATCH(S7,$B$1:$H$1, 0)-1)</f>
         <v>1.35E-2</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="7">
         <f t="shared" ref="AA7" ca="1" si="24">OFFSET($I7, 0, MATCH(T7,$B$1:$H$1, 0)-1)</f>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="7">
         <f t="shared" ref="AB7" ca="1" si="25">OFFSET($I7, 0, MATCH(U7,$B$1:$H$1, 0)-1)</f>
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <f t="shared" ref="AC7" ca="1" si="26">OFFSET($I7, 0, MATCH(V7,$B$1:$H$1, 0)-1)</f>
         <v>2.1700000000000001E-2</v>
       </c>
@@ -21663,31 +22243,31 @@
         <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <f t="shared" ref="W8" ca="1" si="27">OFFSET($I8, 0, MATCH(P8,$B$1:$H$1, 0)-1)</f>
         <v>-6.0752499999999999E-3</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <f t="shared" ref="X8" ca="1" si="28">OFFSET($I8, 0, MATCH(Q8,$B$1:$H$1, 0)-1)</f>
         <v>-2.1345422999999999E-2</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="7">
         <f t="shared" ref="Y8" ca="1" si="29">OFFSET($I8, 0, MATCH(R8,$B$1:$H$1, 0)-1)</f>
         <v>-1.7940283000000001E-2</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="7">
         <f t="shared" ref="Z8" ca="1" si="30">OFFSET($I8, 0, MATCH(S8,$B$1:$H$1, 0)-1)</f>
         <v>-1.4581078000000001E-2</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="7">
         <f t="shared" ref="AA8" ca="1" si="31">OFFSET($I8, 0, MATCH(T8,$B$1:$H$1, 0)-1)</f>
         <v>-3.3358012999999999E-2</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="7">
         <f t="shared" ref="AB8" ca="1" si="32">OFFSET($I8, 0, MATCH(U8,$B$1:$H$1, 0)-1)</f>
         <v>-5.414741E-2</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="7">
         <f t="shared" ref="AC8" ca="1" si="33">OFFSET($I8, 0, MATCH(V8,$B$1:$H$1, 0)-1)</f>
         <v>-4.9273731000000001E-2</v>
       </c>
@@ -21766,31 +22346,31 @@
         <f t="shared" si="11"/>
         <v>중단기</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <f t="shared" ref="W9" ca="1" si="34">OFFSET($I9, 0, MATCH(P9,$B$1:$H$1, 0)-1)</f>
         <v>1.8732987302821691E-2</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <f t="shared" ref="X9" ca="1" si="35">OFFSET($I9, 0, MATCH(Q9,$B$1:$H$1, 0)-1)</f>
         <v>1.7368679618316563E-2</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <f t="shared" ref="Y9" ca="1" si="36">OFFSET($I9, 0, MATCH(R9,$B$1:$H$1, 0)-1)</f>
         <v>9.701714820645968E-3</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="7">
         <f t="shared" ref="Z9" ca="1" si="37">OFFSET($I9, 0, MATCH(S9,$B$1:$H$1, 0)-1)</f>
         <v>4.8463036318160402E-3</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="7">
         <f t="shared" ref="AA9" ca="1" si="38">OFFSET($I9, 0, MATCH(T9,$B$1:$H$1, 0)-1)</f>
         <v>1.7274101980090162E-2</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="7">
         <f t="shared" ref="AB9" ca="1" si="39">OFFSET($I9, 0, MATCH(U9,$B$1:$H$1, 0)-1)</f>
         <v>2.8825449746474607E-3</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="7">
         <f t="shared" ref="AC9" ca="1" si="40">OFFSET($I9, 0, MATCH(V9,$B$1:$H$1, 0)-1)</f>
         <v>6.009916361997325E-3</v>
       </c>
@@ -21799,25 +22379,25 @@
       <c r="A10" s="5">
         <v>45627</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>4</v>
       </c>
       <c r="I10" s="6">
@@ -21869,31 +22449,31 @@
         <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <f t="shared" ref="W10" ca="1" si="41">OFFSET($I10, 0, MATCH(P10,$B$1:$H$1, 0)-1)</f>
         <v>-5.9912040494564667E-2</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <f t="shared" ref="X10" ca="1" si="42">OFFSET($I10, 0, MATCH(Q10,$B$1:$H$1, 0)-1)</f>
         <v>-1.4558848807074365E-2</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <f t="shared" ref="Y10" ca="1" si="43">OFFSET($I10, 0, MATCH(R10,$B$1:$H$1, 0)-1)</f>
         <v>-4.4492127677553395E-2</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="7">
         <f t="shared" ref="Z10" ca="1" si="44">OFFSET($I10, 0, MATCH(S10,$B$1:$H$1, 0)-1)</f>
         <v>-1.5812686785719454E-2</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="7">
         <f t="shared" ref="AA10" ca="1" si="45">OFFSET($I10, 0, MATCH(T10,$B$1:$H$1, 0)-1)</f>
         <v>-8.7369940757703324E-3</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="7">
         <f t="shared" ref="AB10" ca="1" si="46">OFFSET($I10, 0, MATCH(U10,$B$1:$H$1, 0)-1)</f>
         <v>-2.2356610055206616E-2</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="7">
         <f t="shared" ref="AC10" ca="1" si="47">OFFSET($I10, 0, MATCH(V10,$B$1:$H$1, 0)-1)</f>
         <v>2.2509263427643589E-3</v>
       </c>
@@ -21972,31 +22552,31 @@
         <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <f t="shared" ref="W11" ca="1" si="48">OFFSET($I11, 0, MATCH(P11,$B$1:$H$1, 0)-1)</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <f t="shared" ref="X11" ca="1" si="49">OFFSET($I11, 0, MATCH(Q11,$B$1:$H$1, 0)-1)</f>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="7">
         <f t="shared" ref="Y11" ca="1" si="50">OFFSET($I11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="7">
         <f t="shared" ref="Z11" ca="1" si="51">OFFSET($I11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="7">
         <f t="shared" ref="AA11" ca="1" si="52">OFFSET($I11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
         <v>1.29E-2</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="7">
         <f t="shared" ref="AB11" ca="1" si="53">OFFSET($I11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="7">
         <f t="shared" ref="AC11" ca="1" si="54">OFFSET($I11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
         <v>4.4000000000000003E-3</v>
       </c>
@@ -22075,31 +22655,31 @@
         <f t="shared" si="11"/>
         <v>TIPS</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <f t="shared" ref="W12" ca="1" si="55">OFFSET($I12, 0, MATCH(P12,$B$1:$H$1, 0)-1)</f>
         <v>5.6064072999999999E-2</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <f t="shared" ref="X12" ca="1" si="56">OFFSET($I12, 0, MATCH(Q12,$B$1:$H$1, 0)-1)</f>
         <v>4.6278207000000002E-2</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <f t="shared" ref="Y12" ca="1" si="57">OFFSET($I12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
         <v>7.0521860000000002E-3</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <f t="shared" ref="Z12" ca="1" si="58">OFFSET($I12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
         <v>9.9151350000000003E-3</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="7">
         <f t="shared" ref="AA12" ca="1" si="59">OFFSET($I12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
         <v>2.8111417999999999E-2</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="7">
         <f t="shared" ref="AB12" ca="1" si="60">OFFSET($I12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
         <v>1.6947460000000001E-2</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="7">
         <f t="shared" ref="AC12" ca="1" si="61">OFFSET($I12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
         <v>2.1803375999999999E-2</v>
       </c>
@@ -22178,31 +22758,31 @@
         <f t="shared" si="11"/>
         <v>장기</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="7">
         <f t="shared" ref="W13" ca="1" si="62">OFFSET($I13, 0, MATCH(P13,$B$1:$H$1, 0)-1)</f>
         <v>-1.2467706E-2</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="7">
         <f t="shared" ref="X13" ca="1" si="63">OFFSET($I13, 0, MATCH(Q13,$B$1:$H$1, 0)-1)</f>
         <v>-1.6947286999999998E-2</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="7">
         <f t="shared" ref="Y13" ca="1" si="64">OFFSET($I13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
         <v>6.0131550000000001E-3</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="7">
         <f t="shared" ref="Z13" ca="1" si="65">OFFSET($I13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
         <v>6.4113470000000004E-3</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="7">
         <f t="shared" ref="AA13" ca="1" si="66">OFFSET($I13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
         <v>3.7484380000000002E-3</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="7">
         <f t="shared" ref="AB13" ca="1" si="67">OFFSET($I13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
         <v>4.6799210000000001E-3</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="7">
         <f t="shared" ref="AC13" ca="1" si="68">OFFSET($I13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
         <v>-4.447187E-3</v>
       </c>
@@ -22281,31 +22861,31 @@
         <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="7">
         <f t="shared" ref="W14" ca="1" si="69">OFFSET($I14, 0, MATCH(P14,$B$1:$H$1, 0)-1)</f>
         <v>-7.5179954035723418E-3</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="7">
         <f t="shared" ref="X14" ca="1" si="70">OFFSET($I14, 0, MATCH(Q14,$B$1:$H$1, 0)-1)</f>
         <v>-1.3587185849072592E-2</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="7">
         <f t="shared" ref="Y14" ca="1" si="71">OFFSET($I14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
         <v>-8.056410630398525E-3</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="7">
         <f t="shared" ref="Z14" ca="1" si="72">OFFSET($I14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
         <v>1.0228215767634774E-2</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14" s="7">
         <f t="shared" ref="AA14" ca="1" si="73">OFFSET($I14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
         <v>1.1890062147081881E-3</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="7">
         <f t="shared" ref="AB14" ca="1" si="74">OFFSET($I14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
         <v>1.3320647002854624E-2</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="7">
         <f t="shared" ref="AC14" ca="1" si="75">OFFSET($I14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
         <v>8.1602121655162119E-3</v>
       </c>
@@ -22384,31 +22964,31 @@
         <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="7">
         <f t="shared" ref="W15" ca="1" si="76">OFFSET($I15, 0, MATCH(P15,$B$1:$H$1, 0)-1)</f>
         <v>-3.1569761472913238E-2</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="7">
         <f t="shared" ref="X15" ca="1" si="77">OFFSET($I15, 0, MATCH(Q15,$B$1:$H$1, 0)-1)</f>
         <v>-2.5166031009275058E-2</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="7">
         <f t="shared" ref="Y15" ca="1" si="78">OFFSET($I15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
         <v>6.4201426681553819E-4</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="7">
         <f t="shared" ref="Z15" ca="1" si="79">OFFSET($I15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
         <v>-1.1788142032735704E-2</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="7">
         <f t="shared" ref="AA15" ca="1" si="80">OFFSET($I15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
         <v>-5.8765530024483814E-3</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="7">
         <f t="shared" ref="AB15" ca="1" si="81">OFFSET($I15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
         <v>-7.0783676417479624E-3</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="7">
         <f t="shared" ref="AC15" ca="1" si="82">OFFSET($I15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
         <v>-2.2933459242521215E-3</v>
       </c>
@@ -22487,31 +23067,31 @@
         <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="7">
         <f t="shared" ref="W16" ca="1" si="83">OFFSET($I16, 0, MATCH(P16,$B$1:$H$1, 0)-1)</f>
         <v>2.2892484964772919E-2</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <f t="shared" ref="X16" ca="1" si="84">OFFSET($I16, 0, MATCH(Q16,$B$1:$H$1, 0)-1)</f>
         <v>2.6732865699595321E-2</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="7">
         <f t="shared" ref="Y16" ca="1" si="85">OFFSET($I16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
         <v>6.2256895222134734E-3</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="7">
         <f t="shared" ref="Z16" ca="1" si="86">OFFSET($I16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
         <v>9.5444479936876991E-3</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="7">
         <f t="shared" ref="AA16" ca="1" si="87">OFFSET($I16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
         <v>1.5752613312828512E-2</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="7">
         <f t="shared" ref="AB16" ca="1" si="88">OFFSET($I16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
         <v>1.1032710167066639E-2</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="7">
         <f t="shared" ref="AC16" ca="1" si="89">OFFSET($I16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
         <v>6.0845756008518492E-3</v>
       </c>
@@ -22521,82 +23101,206 @@
         <v>45839</v>
       </c>
       <c r="B17" s="4">
-        <v>0.26500973</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>0.2581427</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
-        <v>0.29268715000000001</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
-        <v>0.32505857999999999</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>0.29800581999999998</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>0.37007522999999998</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>0.2800282</v>
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-6.3837650774445365E-4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>-3.6694167306215997E-3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>-5.8718824805122916E-3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>-6.7880723296871448E-3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-1.0824298743762006E-2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-2.0200214246973713E-3</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.2217397222380466E-3</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 1), $B17:$H17, 0))</f>
+        <f t="shared" si="5"/>
         <v>지방정부</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 2), $B17:$H17, 0))</f>
+        <f t="shared" si="6"/>
         <v>장기</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 3), $B17:$H17, 0))</f>
+        <f t="shared" si="7"/>
         <v>초장기</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 4), $B17:$H17, 0))</f>
+        <f t="shared" si="8"/>
         <v>중기</v>
       </c>
       <c r="T17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 5), $B17:$H17, 0))</f>
+        <f t="shared" si="9"/>
         <v>TIPS</v>
       </c>
       <c r="U17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 6), $B17:$H17, 0))</f>
+        <f t="shared" si="10"/>
         <v>초단기</v>
       </c>
       <c r="V17" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B17:$H17, 7), $B17:$H17, 0))</f>
+        <f t="shared" si="11"/>
         <v>중단기</v>
       </c>
-      <c r="W17" s="15">
-        <f ca="1">OFFSET($B17, 0, MATCH(P17,$B$1:$H$1, 0)-1)</f>
-        <v>0.37007522999999998</v>
-      </c>
-      <c r="X17" s="15">
-        <f t="shared" ref="X17" ca="1" si="90">OFFSET($B17, 0, MATCH(Q17,$B$1:$H$1, 0)-1)</f>
-        <v>0.32505857999999999</v>
-      </c>
-      <c r="Y17" s="15">
-        <f t="shared" ref="Y17" ca="1" si="91">OFFSET($B17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
-        <v>0.29800581999999998</v>
-      </c>
-      <c r="Z17" s="15">
-        <f t="shared" ref="Z17" ca="1" si="92">OFFSET($B17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
-        <v>0.29268715000000001</v>
-      </c>
-      <c r="AA17" s="15">
-        <f t="shared" ref="AA17" ca="1" si="93">OFFSET($B17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
-        <v>0.2800282</v>
-      </c>
-      <c r="AB17" s="15">
-        <f t="shared" ref="AB17" ca="1" si="94">OFFSET($B17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
-        <v>0.26500973</v>
-      </c>
-      <c r="AC17" s="15">
-        <f t="shared" ref="AC17" ca="1" si="95">OFFSET($B17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
-        <v>0.2581427</v>
-      </c>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17" ca="1" si="90">OFFSET($I17, 0, MATCH(P17,$B$1:$H$1, 0)-1)</f>
+        <v>-2.0200214246973713E-3</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" ref="X17" ca="1" si="91">OFFSET($I17, 0, MATCH(Q17,$B$1:$H$1, 0)-1)</f>
+        <v>-6.7880723296871448E-3</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" ref="Y17" ca="1" si="92">OFFSET($I17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
+        <v>-1.0824298743762006E-2</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" ref="Z17" ca="1" si="93">OFFSET($I17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
+        <v>-5.8718824805122916E-3</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" ref="AA17" ca="1" si="94">OFFSET($I17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
+        <v>1.2217397222380466E-3</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" ref="AB17" ca="1" si="95">OFFSET($I17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
+        <v>-6.3837650774445365E-4</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" ref="AC17" ca="1" si="96">OFFSET($I17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
+        <v>-3.6694167306215997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45870</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.2753274</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.33447369999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.40085229999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.59344759999999996</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.73422354000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.51676816000000003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.36831686000000002</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 1), $B18:$H18, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 2), $B18:$H18, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 3), $B18:$H18, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 4), $B18:$H18, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 5), $B18:$H18, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 6), $B18:$H18, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 7), $B18:$H18, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="W18" s="3">
+        <f ca="1">OFFSET($B18, 0, MATCH(P18,$B$1:$H$1, 0)-1)</f>
+        <v>0.73422354000000001</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" ref="X18" ca="1" si="97">OFFSET($B18, 0, MATCH(Q18,$B$1:$H$1, 0)-1)</f>
+        <v>0.59344759999999996</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" ref="Y18" ca="1" si="98">OFFSET($B18, 0, MATCH(R18,$B$1:$H$1, 0)-1)</f>
+        <v>0.51676816000000003</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" ref="Z18" ca="1" si="99">OFFSET($B18, 0, MATCH(S18,$B$1:$H$1, 0)-1)</f>
+        <v>0.40085229999999999</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" ref="AA18" ca="1" si="100">OFFSET($B18, 0, MATCH(T18,$B$1:$H$1, 0)-1)</f>
+        <v>0.36831686000000002</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" ref="AB18" ca="1" si="101">OFFSET($B18, 0, MATCH(U18,$B$1:$H$1, 0)-1)</f>
+        <v>0.33447369999999998</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" ref="AC18" ca="1" si="102">OFFSET($B18, 0, MATCH(V18,$B$1:$H$1, 0)-1)</f>
+        <v>0.2753274</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K49" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22606,11 +23310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22885,31 +23589,31 @@
         <v>8</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R17" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R18" si="1">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>Cycl</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S17" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S18" si="2">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>Fin</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T17" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T18" si="3">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>Ener</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U17" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U18" si="4">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>Util</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V17" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V18" si="5">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>Bank</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W17" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="W3:W18" si="6">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>Def</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="X3:X18" si="7">INDEX($B$1:$H$1, MATCH(LARGE($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>Infra</v>
       </c>
       <c r="Y3" s="3">
@@ -23761,90 +24465,90 @@
       <c r="H11" s="1">
         <v>0.48876715898513823</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>5.5266757865937155E-3</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>5.7197314662524867E-3</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>6.0293414207548413E-3</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>5.0718365933881682E-3</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>5.2348267473854015E-3</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>-2.1653900463014519E-4</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="12">
         <v>7.5429122790922065E-3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="12">
         <v>5.4004762009383089E-3</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="R11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Ener</v>
       </c>
-      <c r="S11" s="13" t="str">
+      <c r="S11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Bank</v>
       </c>
-      <c r="T11" s="13" t="str">
+      <c r="T11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U11" s="13" t="str">
+      <c r="U11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fin</v>
       </c>
-      <c r="V11" s="13" t="str">
+      <c r="V11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W11" s="13" t="str">
+      <c r="W11" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Infra</v>
       </c>
-      <c r="X11" s="13" t="str">
+      <c r="X11" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="3">
         <f t="shared" ref="Y11" si="46">I11</f>
         <v>5.5266757865937155E-3</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="3">
         <f t="shared" ref="Z11" ca="1" si="47">OFFSET($J11, 0, MATCH(R11,$B$1:$H$1, 0)-1)</f>
         <v>5.0718365933881682E-3</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="3">
         <f t="shared" ref="AA11" ca="1" si="48">OFFSET($J11, 0, MATCH(S11,$B$1:$H$1, 0)-1)</f>
         <v>7.5429122790922065E-3</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="3">
         <f t="shared" ref="AB11" ca="1" si="49">OFFSET($J11, 0, MATCH(T11,$B$1:$H$1, 0)-1)</f>
         <v>-2.1653900463014519E-4</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="3">
         <f t="shared" ref="AC11" ca="1" si="50">OFFSET($J11, 0, MATCH(U11,$B$1:$H$1, 0)-1)</f>
         <v>5.4004762009383089E-3</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11" s="3">
         <f t="shared" ref="AD11" ca="1" si="51">OFFSET($J11, 0, MATCH(V11,$B$1:$H$1, 0)-1)</f>
         <v>5.7197314662524867E-3</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11" s="3">
         <f t="shared" ref="AE11" ca="1" si="52">OFFSET($J11, 0, MATCH(W11,$B$1:$H$1, 0)-1)</f>
         <v>5.2348267473854015E-3</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="3">
         <f t="shared" ref="AF11" ca="1" si="53">OFFSET($J11, 0, MATCH(X11,$B$1:$H$1, 0)-1)</f>
         <v>6.0293414207548413E-3</v>
       </c>
@@ -23874,90 +24578,90 @@
       <c r="H12" s="1">
         <v>0.59181003570556656</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="3">
         <v>2.0385889807962077E-2</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="3">
         <v>1.809830184823169E-2</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="3">
         <v>2.2264729575390607E-2</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="3">
         <v>2.2045020064412668E-2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="3">
         <v>2.4370217708361785E-2</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="3">
         <v>2.4371437329546719E-2</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="3">
         <v>1.4747584632899713E-2</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="3">
         <v>2.0211533216270006E-2</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="13" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ener</v>
       </c>
-      <c r="T12" s="13" t="str">
+      <c r="T12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Bank</v>
       </c>
-      <c r="U12" s="13" t="str">
+      <c r="U12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Util</v>
       </c>
-      <c r="V12" s="13" t="str">
+      <c r="V12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W12" s="13" t="str">
+      <c r="W12" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Infra</v>
       </c>
-      <c r="X12" s="13" t="str">
+      <c r="X12" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="3">
         <f t="shared" ref="Y12" si="54">I12</f>
         <v>2.0385889807962077E-2</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="3">
         <f t="shared" ref="Z12" ca="1" si="55">OFFSET($J12, 0, MATCH(R12,$B$1:$H$1, 0)-1)</f>
         <v>2.0211533216270006E-2</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="3">
         <f t="shared" ref="AA12" ca="1" si="56">OFFSET($J12, 0, MATCH(S12,$B$1:$H$1, 0)-1)</f>
         <v>2.2045020064412668E-2</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="3">
         <f t="shared" ref="AB12" ca="1" si="57">OFFSET($J12, 0, MATCH(T12,$B$1:$H$1, 0)-1)</f>
         <v>1.4747584632899713E-2</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="3">
         <f t="shared" ref="AC12" ca="1" si="58">OFFSET($J12, 0, MATCH(U12,$B$1:$H$1, 0)-1)</f>
         <v>2.4371437329546719E-2</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="3">
         <f t="shared" ref="AD12" ca="1" si="59">OFFSET($J12, 0, MATCH(V12,$B$1:$H$1, 0)-1)</f>
         <v>1.809830184823169E-2</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="3">
         <f t="shared" ref="AE12" ca="1" si="60">OFFSET($J12, 0, MATCH(W12,$B$1:$H$1, 0)-1)</f>
         <v>2.4370217708361785E-2</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="3">
         <f t="shared" ref="AF12" ca="1" si="61">OFFSET($J12, 0, MATCH(X12,$B$1:$H$1, 0)-1)</f>
         <v>2.2264729575390607E-2</v>
       </c>
@@ -23987,90 +24691,90 @@
       <c r="H13" s="1">
         <v>0.68082481622695923</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>-2.8828690027875581E-3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>-3.9161399012650477E-3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>-2.9719463554296333E-3</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <v>-4.4150110375276164E-3</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>-7.0583664605657903E-3</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>-4.3388049800360262E-3</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <v>7.213685033369277E-4</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <v>-2.6931321133880637E-3</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="13" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
       </c>
-      <c r="S13" s="13" t="str">
+      <c r="S13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ener</v>
       </c>
-      <c r="T13" s="13" t="str">
+      <c r="T13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U13" s="13" t="str">
+      <c r="U13" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Bank</v>
       </c>
-      <c r="V13" s="13" t="str">
+      <c r="V13" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W13" s="13" t="str">
+      <c r="W13" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Def</v>
       </c>
-      <c r="X13" s="13" t="str">
+      <c r="X13" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="3">
         <f t="shared" ref="Y13:Y14" si="62">I13</f>
         <v>-2.8828690027875581E-3</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="3">
         <f t="shared" ref="Z13" ca="1" si="63">OFFSET($J13, 0, MATCH(R13,$B$1:$H$1, 0)-1)</f>
         <v>-2.6931321133880637E-3</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="3">
         <f t="shared" ref="AA13" ca="1" si="64">OFFSET($J13, 0, MATCH(S13,$B$1:$H$1, 0)-1)</f>
         <v>-4.4150110375276164E-3</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="3">
         <f t="shared" ref="AB13" ca="1" si="65">OFFSET($J13, 0, MATCH(T13,$B$1:$H$1, 0)-1)</f>
         <v>-4.3388049800360262E-3</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="3">
         <f t="shared" ref="AC13" ca="1" si="66">OFFSET($J13, 0, MATCH(U13,$B$1:$H$1, 0)-1)</f>
         <v>7.213685033369277E-4</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AD13" s="3">
         <f t="shared" ref="AD13" ca="1" si="67">OFFSET($J13, 0, MATCH(V13,$B$1:$H$1, 0)-1)</f>
         <v>-3.9161399012650477E-3</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13" s="3">
         <f t="shared" ref="AE13" ca="1" si="68">OFFSET($J13, 0, MATCH(W13,$B$1:$H$1, 0)-1)</f>
         <v>-2.9719463554296333E-3</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="3">
         <f t="shared" ref="AF13" ca="1" si="69">OFFSET($J13, 0, MATCH(X13,$B$1:$H$1, 0)-1)</f>
         <v>-7.0583664605657903E-3</v>
       </c>
@@ -24100,90 +24804,90 @@
       <c r="H14" s="1">
         <v>0.53020034420000006</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>-3.2685759111883428E-4</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>-8.6831820633370693E-4</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <v>-1.0731367119853896E-4</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <v>-1.1492696467561125E-2</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>-2.0929367960389467E-3</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <v>-1.6187667086412505E-3</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <v>4.2919066382174353E-3</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <v>2.1917313043950948E-4</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="13" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Ener</v>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fin</v>
       </c>
-      <c r="T14" s="13" t="str">
+      <c r="T14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U14" s="13" t="str">
+      <c r="U14" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Bank</v>
       </c>
-      <c r="V14" s="13" t="str">
+      <c r="V14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W14" s="13" t="str">
+      <c r="W14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Def</v>
       </c>
-      <c r="X14" s="13" t="str">
+      <c r="X14" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="3">
         <f t="shared" si="62"/>
         <v>-3.2685759111883428E-4</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="3">
         <f t="shared" ref="Z14" ca="1" si="70">OFFSET($J14, 0, MATCH(R14,$B$1:$H$1, 0)-1)</f>
         <v>-1.1492696467561125E-2</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="3">
         <f t="shared" ref="AA14" ca="1" si="71">OFFSET($J14, 0, MATCH(S14,$B$1:$H$1, 0)-1)</f>
         <v>2.1917313043950948E-4</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="3">
         <f t="shared" ref="AB14" ca="1" si="72">OFFSET($J14, 0, MATCH(T14,$B$1:$H$1, 0)-1)</f>
         <v>-1.6187667086412505E-3</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="3">
         <f t="shared" ref="AC14" ca="1" si="73">OFFSET($J14, 0, MATCH(U14,$B$1:$H$1, 0)-1)</f>
         <v>4.2919066382174353E-3</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="3">
         <f t="shared" ref="AD14" ca="1" si="74">OFFSET($J14, 0, MATCH(V14,$B$1:$H$1, 0)-1)</f>
         <v>-8.6831820633370693E-4</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="3">
         <f t="shared" ref="AE14" ca="1" si="75">OFFSET($J14, 0, MATCH(W14,$B$1:$H$1, 0)-1)</f>
         <v>-1.0731367119853896E-4</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF14" s="3">
         <f t="shared" ref="AF14" ca="1" si="76">OFFSET($J14, 0, MATCH(X14,$B$1:$H$1, 0)-1)</f>
         <v>-2.0929367960389467E-3</v>
       </c>
@@ -24192,111 +24896,111 @@
       <c r="A15" s="2">
         <v>45778</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>0.46071658134460441</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="1">
         <v>0.41400521993637085</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="1">
         <v>0.57813013195991525</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="1">
         <v>0.37744467854499797</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="1">
         <v>0.52648820877075175</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="1">
         <v>0.49849324226379377</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="1">
         <v>0.63569018840789793</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>-1.1295135957833935E-4</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>1.1490521056534142E-3</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="12">
         <v>-1.3891402311477785E-3</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <v>3.8012396835729323E-3</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <v>-7.8988257287460062E-4</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <v>-3.7518647453533838E-3</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="12">
         <v>1.8707983156931451E-3</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="12">
         <v>3.604018792180419E-5</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="13" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="S15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ener</v>
       </c>
-      <c r="T15" s="13" t="str">
+      <c r="T15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U15" s="13" t="str">
+      <c r="U15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Bank</v>
       </c>
-      <c r="V15" s="13" t="str">
+      <c r="V15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cycl</v>
       </c>
-      <c r="W15" s="13" t="str">
+      <c r="W15" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Def</v>
       </c>
-      <c r="X15" s="13" t="str">
+      <c r="X15" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Infra</v>
       </c>
-      <c r="Y15" s="15">
-        <f t="shared" ref="Y15:Y16" si="77">I15</f>
+      <c r="Y15" s="3">
+        <f t="shared" ref="Y15:Y17" si="77">I15</f>
         <v>-1.1295135957833935E-4</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="Z15" s="3">
         <f t="shared" ref="Z15" ca="1" si="78">OFFSET($J15, 0, MATCH(R15,$B$1:$H$1, 0)-1)</f>
         <v>3.604018792180419E-5</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="3">
         <f t="shared" ref="AA15" ca="1" si="79">OFFSET($J15, 0, MATCH(S15,$B$1:$H$1, 0)-1)</f>
         <v>3.8012396835729323E-3</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="3">
         <f t="shared" ref="AB15" ca="1" si="80">OFFSET($J15, 0, MATCH(T15,$B$1:$H$1, 0)-1)</f>
         <v>-3.7518647453533838E-3</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AC15" s="3">
         <f t="shared" ref="AC15" ca="1" si="81">OFFSET($J15, 0, MATCH(U15,$B$1:$H$1, 0)-1)</f>
         <v>1.8707983156931451E-3</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AD15" s="3">
         <f t="shared" ref="AD15" ca="1" si="82">OFFSET($J15, 0, MATCH(V15,$B$1:$H$1, 0)-1)</f>
         <v>1.1490521056534142E-3</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AE15" s="3">
         <f t="shared" ref="AE15" ca="1" si="83">OFFSET($J15, 0, MATCH(W15,$B$1:$H$1, 0)-1)</f>
         <v>-1.3891402311477785E-3</v>
       </c>
-      <c r="AF15" s="15">
+      <c r="AF15" s="3">
         <f t="shared" ref="AF15" ca="1" si="84">OFFSET($J15, 0, MATCH(X15,$B$1:$H$1, 0)-1)</f>
         <v>-7.8988257287460062E-4</v>
       </c>
@@ -24326,90 +25030,90 @@
       <c r="H16" s="1">
         <v>0.74071384668350204</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="3">
         <v>1.8686643479295162E-2</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="3">
         <v>1.8576178551019451E-2</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="3">
         <v>1.9218216746560879E-2</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="3">
         <v>2.4000409388646116E-2</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="3">
         <v>1.6096832177379783E-2</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="3">
         <v>2.2413576868145935E-2</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="3">
         <v>1.535873010829869E-2</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="3">
         <v>1.963036199009971E-2</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="13" t="str">
+      <c r="R16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Fin</v>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ener</v>
       </c>
-      <c r="T16" s="13" t="str">
+      <c r="T16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Util</v>
       </c>
-      <c r="U16" s="13" t="str">
+      <c r="U16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Bank</v>
       </c>
-      <c r="V16" s="13" t="str">
+      <c r="V16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Infra</v>
       </c>
-      <c r="W16" s="13" t="str">
+      <c r="W16" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Cycl</v>
       </c>
-      <c r="X16" s="13" t="str">
+      <c r="X16" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Def</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="3">
         <f t="shared" si="77"/>
         <v>1.8686643479295162E-2</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="Z16" s="3">
         <f t="shared" ref="Z16" ca="1" si="85">OFFSET($J16, 0, MATCH(R16,$B$1:$H$1, 0)-1)</f>
         <v>1.963036199009971E-2</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="3">
         <f t="shared" ref="AA16" ca="1" si="86">OFFSET($J16, 0, MATCH(S16,$B$1:$H$1, 0)-1)</f>
         <v>2.4000409388646116E-2</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="3">
         <f t="shared" ref="AB16" ca="1" si="87">OFFSET($J16, 0, MATCH(T16,$B$1:$H$1, 0)-1)</f>
         <v>2.2413576868145935E-2</v>
       </c>
-      <c r="AC16" s="15">
+      <c r="AC16" s="3">
         <f t="shared" ref="AC16" ca="1" si="88">OFFSET($J16, 0, MATCH(U16,$B$1:$H$1, 0)-1)</f>
         <v>1.535873010829869E-2</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AD16" s="3">
         <f t="shared" ref="AD16" ca="1" si="89">OFFSET($J16, 0, MATCH(V16,$B$1:$H$1, 0)-1)</f>
         <v>1.6096832177379783E-2</v>
       </c>
-      <c r="AE16" s="15">
+      <c r="AE16" s="3">
         <f t="shared" ref="AE16" ca="1" si="90">OFFSET($J16, 0, MATCH(W16,$B$1:$H$1, 0)-1)</f>
         <v>1.8576178551019451E-2</v>
       </c>
-      <c r="AF16" s="15">
+      <c r="AF16" s="3">
         <f t="shared" ref="AF16" ca="1" si="91">OFFSET($J16, 0, MATCH(X16,$B$1:$H$1, 0)-1)</f>
         <v>1.9218216746560879E-2</v>
       </c>
@@ -24418,82 +25122,195 @@
       <c r="A17" s="2">
         <v>45839</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>0.58606310685475671</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="1">
         <v>0.43363453944524127</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="1">
         <v>0.56613545616467797</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="1">
         <v>0.42621360222498567</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="1">
         <v>0.32932185133298231</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="1">
         <v>0.49795239170392369</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="1">
         <v>0.46973918875058535</v>
       </c>
-      <c r="R17" s="13" t="str">
+      <c r="I17" s="3">
+        <v>6.5367869357602082E-4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.3899421925791522E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-9.1668839196867857E-4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.5325415202147585E-3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-9.0066714893288768E-4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2.4721693147857771E-3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.4120009931671849E-3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-6.5062269436810816E-5</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Cycl</v>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="S17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Ener</v>
       </c>
-      <c r="T17" s="13" t="str">
+      <c r="T17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Bank</v>
       </c>
-      <c r="U17" s="13" t="str">
+      <c r="U17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fin</v>
       </c>
-      <c r="V17" s="13" t="str">
+      <c r="V17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Def</v>
       </c>
-      <c r="W17" s="13" t="str">
+      <c r="W17" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Infra</v>
       </c>
-      <c r="X17" s="13" t="str">
+      <c r="X17" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Util</v>
       </c>
-      <c r="Z17" s="15">
-        <f ca="1">OFFSET($B17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
-        <v>0.58606310685475671</v>
-      </c>
-      <c r="AA17" s="15">
-        <f t="shared" ref="AA17" ca="1" si="92">OFFSET($B17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
-        <v>0.56613545616467797</v>
-      </c>
-      <c r="AB17" s="15">
-        <f t="shared" ref="AB17" ca="1" si="93">OFFSET($B17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
-        <v>0.49795239170392369</v>
-      </c>
-      <c r="AC17" s="15">
-        <f t="shared" ref="AC17" ca="1" si="94">OFFSET($B17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
-        <v>0.46973918875058535</v>
-      </c>
-      <c r="AD17" s="15">
-        <f t="shared" ref="AD17" ca="1" si="95">OFFSET($B17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
-        <v>0.43363453944524127</v>
-      </c>
-      <c r="AE17" s="15">
-        <f t="shared" ref="AE17" ca="1" si="96">OFFSET($B17, 0, MATCH(W17,$B$1:$H$1, 0)-1)</f>
-        <v>0.42621360222498567</v>
-      </c>
-      <c r="AF17" s="15">
-        <f t="shared" ref="AF17" ca="1" si="97">OFFSET($B17, 0, MATCH(X17,$B$1:$H$1, 0)-1)</f>
-        <v>0.32932185133298231</v>
+      <c r="Y17" s="3">
+        <f t="shared" si="77"/>
+        <v>6.5367869357602082E-4</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" ref="Z17" ca="1" si="92">OFFSET($J17, 0, MATCH(R17,$B$1:$H$1, 0)-1)</f>
+        <v>1.3899421925791522E-3</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" ref="AA17" ca="1" si="93">OFFSET($J17, 0, MATCH(S17,$B$1:$H$1, 0)-1)</f>
+        <v>1.5325415202147585E-3</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" ref="AB17" ca="1" si="94">OFFSET($J17, 0, MATCH(T17,$B$1:$H$1, 0)-1)</f>
+        <v>2.4120009931671849E-3</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" ref="AC17" ca="1" si="95">OFFSET($J17, 0, MATCH(U17,$B$1:$H$1, 0)-1)</f>
+        <v>-6.5062269436810816E-5</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" ref="AD17" ca="1" si="96">OFFSET($J17, 0, MATCH(V17,$B$1:$H$1, 0)-1)</f>
+        <v>-9.1668839196867857E-4</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" ref="AE17" ca="1" si="97">OFFSET($J17, 0, MATCH(W17,$B$1:$H$1, 0)-1)</f>
+        <v>-9.0066714893288768E-4</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" ref="AF17" ca="1" si="98">OFFSET($J17, 0, MATCH(X17,$B$1:$H$1, 0)-1)</f>
+        <v>2.4721693147857771E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.561986744403839</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.49760672450065596</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.53443155686060595</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.49090042710304277</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.52392949660619104</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.49288754661877965</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.47308971484502171</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Cycl</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ener</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Util</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Def</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bank</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Infra</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Fin</v>
+      </c>
+      <c r="Z18" s="3">
+        <f ca="1">OFFSET($B18, 0, MATCH(R18,$B$1:$H$1, 0)-1)</f>
+        <v>0.561986744403839</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" ref="AA18" ca="1" si="99">OFFSET($B18, 0, MATCH(S18,$B$1:$H$1, 0)-1)</f>
+        <v>0.53443155686060595</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" ref="AB18" ca="1" si="100">OFFSET($B18, 0, MATCH(T18,$B$1:$H$1, 0)-1)</f>
+        <v>0.52392949660619104</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" ref="AC18" ca="1" si="101">OFFSET($B18, 0, MATCH(U18,$B$1:$H$1, 0)-1)</f>
+        <v>0.49760672450065596</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" ref="AD18" ca="1" si="102">OFFSET($B18, 0, MATCH(V18,$B$1:$H$1, 0)-1)</f>
+        <v>0.49288754661877965</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" ref="AE18" ca="1" si="103">OFFSET($B18, 0, MATCH(W18,$B$1:$H$1, 0)-1)</f>
+        <v>0.49090042710304277</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" ref="AF18" ca="1" si="104">OFFSET($B18, 0, MATCH(X18,$B$1:$H$1, 0)-1)</f>
+        <v>0.47308971484502171</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C698B662-9641-4502-A7DD-5BF876EFA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272322B-8A0B-430E-B1E8-FDAA9D36933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,12 +1104,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
@@ -1214,8 +1208,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF58220"/>
       <color rgb="FF0D2D4F"/>
-      <color rgb="FFF58220"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1905,69 +1899,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0498687664041946E-2"/>
-                  <c:y val="6.0606060606060606E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E798-4583-A8A1-6838E50770A0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.6745406824146981E-2"/>
-                  <c:y val="4.7721307569382741E-7"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-E798-4583-A8A1-6838E50770A0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.6236858517316476E-17"/>
-                  <c:y val="0.15151515151515152"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-E798-4583-A8A1-6838E50770A0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2006,13 +1937,27 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg4!$P$15:$V$15</c:f>
+              <c:f>GAgg4!$P$18:$V$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2041,30 +1986,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg4!$W$15:$AC$15</c:f>
+              <c:f>GAgg4!$W$18:$AC$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-3.1569761472913238E-2</c:v>
+                  <c:v>-3.1314695290607375E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.5166031009275058E-2</c:v>
+                  <c:v>7.5643651337096163E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4201426681553819E-4</c:v>
+                  <c:v>8.6916286308647006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1788142032735704E-2</c:v>
+                  <c:v>1.6731837826713392E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.8765530024483814E-3</c:v>
+                  <c:v>1.5381385338813613E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.0783676417479624E-3</c:v>
+                  <c:v>1.4707652312062169E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.2933459242521215E-3</c:v>
+                  <c:v>8.7748789671866501E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,8 +2088,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5000000000000003E-2"/>
-          <c:min val="-4.0000000000000008E-2"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="-5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4044,53 +3989,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg1!$N$15:$S$15</c:f>
+              <c:f>GAgg1!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>APAC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>EUR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>EM</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>US</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>APAC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg1!$T$15:$Y$15</c:f>
+              <c:f>GAgg1!$T$18:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4481734911844235E-3</c:v>
+                  <c:v>-1.2135927229653953E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.1588267847261244E-3</c:v>
+                  <c:v>7.2184773685424197E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0594021944759779E-2</c:v>
+                  <c:v>-1.0074479185407936E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.6048913078609024E-3</c:v>
+                  <c:v>1.3445813065227963E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7604631832673974E-3</c:v>
+                  <c:v>1.1963629158318723E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3250334567399591E-4</c:v>
+                  <c:v>-8.8116105927811272E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,7 +4114,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5000000000000003E-2"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="-2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4207,6 +4153,7 @@
         <c:crossAx val="1379896111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4945,35 +4892,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg2!$H$15:$J$15</c:f>
+              <c:f>GAgg2!$H$18:$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>MBS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Corp</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Tsy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MBS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg2!$K$15:$M$15</c:f>
+              <c:f>GAgg2!$K$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1295135957767322E-4</c:v>
+                  <c:v>1.6097964291300837E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0282245315233807E-2</c:v>
+                  <c:v>1.0131233595800371E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.1302884075862289E-3</c:v>
+                  <c:v>1.0554145426748152E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,8 +4999,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.000000000000001E-3"/>
-          <c:min val="-1.5000000000000003E-2"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="-5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5552,53 +5499,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg3!$N$15:$S$15</c:f>
+              <c:f>GAgg3!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>HY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CB</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>장기</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>중기</c:v>
+                <c:pt idx="3">
+                  <c:v>FRN</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>단기</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>CB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HY</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>FRN</c:v>
+                  <c:v>중기</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg3!$T$15:$Y$15</c:f>
+              <c:f>GAgg3!$T$18:$Y$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-4.5732526646148353E-3</c:v>
+                  <c:v>1.2496673585608686E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2460699307043086E-3</c:v>
+                  <c:v>1.8687104725178427E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7895012033255497E-3</c:v>
+                  <c:v>6.6722154446052784E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9356355361525699E-2</c:v>
+                  <c:v>4.35781167186855E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.679633292981797E-2</c:v>
+                  <c:v>1.0825722609766997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5622009569378239E-3</c:v>
+                  <c:v>1.3083066293825052E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,8 +5624,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0000000000000008E-2"/>
-          <c:min val="-1.0000000000000002E-2"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="-5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14224,15 +14171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14247,10 +14194,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="3905250"/>
-          <a:ext cx="7258050" cy="2438400"/>
-          <a:chOff x="6010275" y="3648075"/>
-          <a:chExt cx="7258050" cy="2095500"/>
+          <a:off x="8524875" y="3400425"/>
+          <a:ext cx="7248525" cy="2438400"/>
+          <a:chOff x="3600450" y="3648075"/>
+          <a:chExt cx="7248525" cy="2095500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -14311,7 +14258,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="10848975" y="3648075"/>
+          <a:off x="3600450" y="3648075"/>
           <a:ext cx="2419350" cy="2095500"/>
         </xdr:xfrm>
         <a:graphic>
@@ -14575,7 +14522,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -14797,114 +14744,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F674C0-2474-56EF-8AD6-7D4C06FA7215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5753100" y="3295650"/>
+          <a:ext cx="7239000" cy="2095500"/>
+          <a:chOff x="4429125" y="3752850"/>
+          <a:chExt cx="7239000" cy="2095500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="차트 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="9248775" y="3752850"/>
+          <a:ext cx="2419350" cy="2095500"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="차트 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4429125" y="3752850"/>
+          <a:ext cx="2419350" cy="2095500"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="차트 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6829425" y="3752850"/>
+          <a:ext cx="2419350" cy="2095500"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15159,7 +15096,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16387,7 +16324,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16432,16 +16369,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16456,10 +16393,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="4248150"/>
-          <a:ext cx="7239000" cy="2105025"/>
-          <a:chOff x="5019675" y="3705225"/>
-          <a:chExt cx="7239000" cy="2105025"/>
+          <a:off x="5238750" y="3362325"/>
+          <a:ext cx="7258050" cy="2095500"/>
+          <a:chOff x="2600325" y="3714750"/>
+          <a:chExt cx="7258050" cy="2095500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -16520,7 +16457,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="9839325" y="3705225"/>
+          <a:off x="2600325" y="3714750"/>
           <a:ext cx="2419350" cy="2095500"/>
         </xdr:xfrm>
         <a:graphic>
@@ -16961,7 +16898,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(5</a:t>
+            <a:t>(8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -17006,16 +16943,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17030,10 +16967,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4762500" y="3409950"/>
-          <a:ext cx="7248525" cy="2266950"/>
-          <a:chOff x="4762500" y="3409950"/>
-          <a:chExt cx="7248525" cy="2266950"/>
+          <a:off x="6143625" y="3276600"/>
+          <a:ext cx="7258050" cy="2295525"/>
+          <a:chOff x="2333625" y="3409950"/>
+          <a:chExt cx="7258050" cy="2295525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -17071,7 +17008,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="9591675" y="3410726"/>
+          <a:off x="2333625" y="3439301"/>
           <a:ext cx="2419350" cy="2266174"/>
         </xdr:xfrm>
         <a:graphic>
@@ -17374,8 +17311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -17593,27 +17530,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N17" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N18" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O17" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O18" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P17" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P18" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q17" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q18" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R17" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R18" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S17" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S18" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="7">
@@ -18892,65 +18829,160 @@
         <v>45870</v>
       </c>
       <c r="B18" s="4">
-        <v>0.46776116000000001</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4">
-        <v>0.4917647</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4">
-        <v>0.45314798000000001</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
-        <v>0.52491133999999995</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0.49534896</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>0.48444187999999999</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.1963629158318723E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-1.0074479185407936E-3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-8.8116105927811272E-3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-1.2135927229653953E-3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7.2184773685424197E-4</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.3445813065227963E-2</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 1), $B18:$G18, 0))</f>
+        <f t="shared" si="5"/>
         <v>China</v>
       </c>
       <c r="O18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 2), $B18:$G18, 0))</f>
+        <f t="shared" si="6"/>
         <v>APAC</v>
       </c>
       <c r="P18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 3), $B18:$G18, 0))</f>
+        <f t="shared" si="7"/>
         <v>EUR</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 4), $B18:$G18, 0))</f>
+        <f t="shared" si="8"/>
         <v>EM</v>
       </c>
       <c r="R18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 5), $B18:$G18, 0))</f>
+        <f t="shared" si="9"/>
         <v>US</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 6), $B18:$G18, 0))</f>
+        <f t="shared" si="10"/>
         <v>UK</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" ref="T18" ca="1" si="69">OFFSET($H18, 0, MATCH(N18,$B$1:$G$1, 0)-1)</f>
+        <v>-1.2135927229653953E-3</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" ref="U18" ca="1" si="70">OFFSET($H18, 0, MATCH(O18,$B$1:$G$1, 0)-1)</f>
+        <v>7.2184773685424197E-4</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" ref="V18" ca="1" si="71">OFFSET($H18, 0, MATCH(P18,$B$1:$G$1, 0)-1)</f>
+        <v>-1.0074479185407936E-3</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" ref="W18" ca="1" si="72">OFFSET($H18, 0, MATCH(Q18,$B$1:$G$1, 0)-1)</f>
+        <v>1.3445813065227963E-2</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" ref="X18" ca="1" si="73">OFFSET($H18, 0, MATCH(R18,$B$1:$G$1, 0)-1)</f>
+        <v>1.1963629158318723E-2</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" ref="Y18" ca="1" si="74">OFFSET($H18, 0, MATCH(S18,$B$1:$G$1, 0)-1)</f>
+        <v>-8.8116105927811272E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45901</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.43634295000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.48846610000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.48670639999999998</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.42798433000000002</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.45691981999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.46057300000000001</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 1), $B19:$G19, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 2), $B19:$G19, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 3), $B19:$G19, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 4), $B19:$G19, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 5), $B19:$G19, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 6), $B19:$G19, 0))</f>
+        <v>China</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E33" s="14"/>
+    <row r="33" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E34" s="14"/>
+    <row r="34" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E35" s="14"/>
+    <row r="35" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E36" s="14"/>
+    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="5:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
+    <row r="37" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18964,7 +18996,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19084,15 +19116,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H17" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H18" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I17" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I18" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J17" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J18" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="7">
@@ -19771,51 +19803,101 @@
         <v>45870</v>
       </c>
       <c r="B18" s="4">
-        <v>0.28656456000000002</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
-        <v>0.32584679999999999</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>0.3324435</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.0554145426748152E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.0131233595800371E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.6097964291300837E-2</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 1), $B18:$D18, 0))</f>
+        <f t="shared" si="2"/>
         <v>MBS</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 2), $B18:$D18, 0))</f>
+        <f t="shared" si="3"/>
         <v>Corp</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B18:$D18, 3), $B18:$D18, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K18" s="3">
-        <f ca="1">OFFSET($B18, 0, MATCH(H18,$B$1:$D$1, 0)-1)</f>
-        <v>0.3324435</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" ref="L18" ca="1" si="42">OFFSET($B18, 0, MATCH(I18,$B$1:$D$1, 0)-1)</f>
-        <v>0.32584679999999999</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" ref="M18" ca="1" si="43">OFFSET($B18, 0, MATCH(J18,$B$1:$D$1, 0)-1)</f>
-        <v>0.28656456000000002</v>
+      <c r="K18" s="7">
+        <f t="shared" ref="K18" ca="1" si="42">OFFSET($E18, 0, MATCH(H18,$B$1:$D$1, 0)-1)</f>
+        <v>1.6097964291300837E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" ref="L18" ca="1" si="43">OFFSET($E18, 0, MATCH(I18,$B$1:$D$1, 0)-1)</f>
+        <v>1.0131233595800371E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" ref="M18" ca="1" si="44">OFFSET($E18, 0, MATCH(J18,$B$1:$D$1, 0)-1)</f>
+        <v>1.0554145426748152E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45901</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.19724758000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.42471920000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.33872344999999998</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 1), $B19:$D19, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 2), $B19:$D19, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 3), $B19:$D19, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K19" s="3">
+        <f ca="1">OFFSET($B19, 0, MATCH(H19,$B$1:$D$1, 0)-1)</f>
+        <v>0.42471920000000002</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" ref="L19" ca="1" si="45">OFFSET($B19, 0, MATCH(I19,$B$1:$D$1, 0)-1)</f>
+        <v>0.33872344999999998</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19" ca="1" si="46">OFFSET($B19, 0, MATCH(J19,$B$1:$D$1, 0)-1)</f>
+        <v>0.19724758000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
       <c r="F26" s="13"/>
     </row>
   </sheetData>
@@ -19830,7 +19912,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20046,27 +20128,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N17" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N18" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O17" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O18" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P17" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P18" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q17" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q18" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R17" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R18" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S17" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S18" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="7">
@@ -21345,91 +21427,180 @@
         <v>45870</v>
       </c>
       <c r="B18" s="4">
-        <v>0.47753337000000001</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4">
-        <v>0.46759114000000002</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4">
-        <v>0.52337429999999996</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>0.54637486000000002</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0.53573113999999999</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>0.47799142999999999</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.0825722609766997E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.3083066293825052E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6.6722154446052784E-3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.2496673585608686E-2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1.8687104725178427E-2</v>
+      </c>
+      <c r="M18" s="6">
+        <v>4.35781167186855E-3</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 1), $B18:$G18, 0))</f>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="O18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 2), $B18:$G18, 0))</f>
+        <f t="shared" si="2"/>
         <v>CB</v>
       </c>
       <c r="P18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 3), $B18:$G18, 0))</f>
+        <f t="shared" si="3"/>
         <v>장기</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 4), $B18:$G18, 0))</f>
+        <f t="shared" si="4"/>
         <v>FRN</v>
       </c>
       <c r="R18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 5), $B18:$G18, 0))</f>
+        <f t="shared" si="5"/>
         <v>단기</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B18:$G18, 6), $B18:$G18, 0))</f>
+        <f t="shared" si="6"/>
         <v>중기</v>
       </c>
-      <c r="T18" s="3">
-        <f ca="1">OFFSET($B18, 0, MATCH(N18,$B$1:$G$1, 0)-1)</f>
-        <v>0.54637486000000002</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" ref="U18" ca="1" si="80">OFFSET($B18, 0, MATCH(O18,$B$1:$G$1, 0)-1)</f>
-        <v>0.53573113999999999</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" ref="V18" ca="1" si="81">OFFSET($B18, 0, MATCH(P18,$B$1:$G$1, 0)-1)</f>
-        <v>0.52337429999999996</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" ref="W18" ca="1" si="82">OFFSET($B18, 0, MATCH(Q18,$B$1:$G$1, 0)-1)</f>
-        <v>0.47799142999999999</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" ref="X18" ca="1" si="83">OFFSET($B18, 0, MATCH(R18,$B$1:$G$1, 0)-1)</f>
-        <v>0.47753337000000001</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" ref="Y18" ca="1" si="84">OFFSET($B18, 0, MATCH(S18,$B$1:$G$1, 0)-1)</f>
-        <v>0.46759114000000002</v>
+      <c r="T18" s="7">
+        <f t="shared" ref="T18" ca="1" si="80">OFFSET($H18, 0, MATCH(N18,$B$1:$G$1, 0)-1)</f>
+        <v>1.2496673585608686E-2</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" ref="U18" ca="1" si="81">OFFSET($H18, 0, MATCH(O18,$B$1:$G$1, 0)-1)</f>
+        <v>1.8687104725178427E-2</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" ref="V18" ca="1" si="82">OFFSET($H18, 0, MATCH(P18,$B$1:$G$1, 0)-1)</f>
+        <v>6.6722154446052784E-3</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" ref="W18" ca="1" si="83">OFFSET($H18, 0, MATCH(Q18,$B$1:$G$1, 0)-1)</f>
+        <v>4.35781167186855E-3</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" ref="X18" ca="1" si="84">OFFSET($H18, 0, MATCH(R18,$B$1:$G$1, 0)-1)</f>
+        <v>1.0825722609766997E-2</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" ref="Y18" ca="1" si="85">OFFSET($H18, 0, MATCH(S18,$B$1:$G$1, 0)-1)</f>
+        <v>1.3083066293825052E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45901</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.37074915000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.44289705000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.53596619999999995</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.51049739999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.58346410000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.46056414000000001</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 1), $B19:$G19, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 2), $B19:$G19, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 3), $B19:$G19, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 4), $B19:$G19, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 5), $B19:$G19, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 6), $B19:$G19, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T19" s="3">
+        <f ca="1">OFFSET($B19, 0, MATCH(N19,$B$1:$G$1, 0)-1)</f>
+        <v>0.58346410000000004</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" ref="U19" ca="1" si="86">OFFSET($B19, 0, MATCH(O19,$B$1:$G$1, 0)-1)</f>
+        <v>0.53596619999999995</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" ref="V19" ca="1" si="87">OFFSET($B19, 0, MATCH(P19,$B$1:$G$1, 0)-1)</f>
+        <v>0.51049739999999999</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" ref="W19" ca="1" si="88">OFFSET($B19, 0, MATCH(Q19,$B$1:$G$1, 0)-1)</f>
+        <v>0.46056414000000001</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" ref="X19" ca="1" si="89">OFFSET($B19, 0, MATCH(R19,$B$1:$G$1, 0)-1)</f>
+        <v>0.44289705000000001</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" ref="Y19" ca="1" si="90">OFFSET($B19, 0, MATCH(S19,$B$1:$G$1, 0)-1)</f>
+        <v>0.37074915000000003</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E28" s="16"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E29" s="16"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E30" s="16"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E31" s="16"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E32" s="16"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E33" s="16"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -21452,8 +21623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -21701,31 +21872,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P17" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P18" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q17" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q18" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R17" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R18" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S17" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S18" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T17" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T18" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U17" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U18" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V17" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V18" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="7">
@@ -23204,103 +23375,206 @@
         <v>45870</v>
       </c>
       <c r="B18" s="4">
-        <v>0.2753274</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4">
-        <v>0.33447369999999998</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4">
-        <v>0.40085229999999999</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
-        <v>0.59344759999999996</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
-        <v>0.73422354000000001</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>0.51676816000000003</v>
+        <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>0.36831686000000002</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8.7748789671866501E-3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.4707652312062169E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.6731837826713392E-2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>7.5643651337096163E-3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-3.1314695290607375E-4</v>
+      </c>
+      <c r="N18" s="6">
+        <v>8.6916286308647006E-3</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1.5381385338813613E-2</v>
       </c>
       <c r="P18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 1), $B18:$H18, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 2), $B18:$H18, 0))</f>
+        <f t="shared" si="6"/>
         <v>장기</v>
       </c>
       <c r="R18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 3), $B18:$H18, 0))</f>
+        <f t="shared" si="7"/>
         <v>지방정부</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 4), $B18:$H18, 0))</f>
+        <f t="shared" si="8"/>
         <v>중기</v>
       </c>
       <c r="T18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 5), $B18:$H18, 0))</f>
+        <f t="shared" si="9"/>
         <v>TIPS</v>
       </c>
       <c r="U18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 6), $B18:$H18, 0))</f>
+        <f t="shared" si="10"/>
         <v>중단기</v>
       </c>
       <c r="V18" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B18:$H18, 7), $B18:$H18, 0))</f>
+        <f t="shared" si="11"/>
         <v>초단기</v>
       </c>
-      <c r="W18" s="3">
-        <f ca="1">OFFSET($B18, 0, MATCH(P18,$B$1:$H$1, 0)-1)</f>
-        <v>0.73422354000000001</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" ref="X18" ca="1" si="97">OFFSET($B18, 0, MATCH(Q18,$B$1:$H$1, 0)-1)</f>
-        <v>0.59344759999999996</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" ref="Y18" ca="1" si="98">OFFSET($B18, 0, MATCH(R18,$B$1:$H$1, 0)-1)</f>
-        <v>0.51676816000000003</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" ref="Z18" ca="1" si="99">OFFSET($B18, 0, MATCH(S18,$B$1:$H$1, 0)-1)</f>
-        <v>0.40085229999999999</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" ref="AA18" ca="1" si="100">OFFSET($B18, 0, MATCH(T18,$B$1:$H$1, 0)-1)</f>
-        <v>0.36831686000000002</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" ref="AB18" ca="1" si="101">OFFSET($B18, 0, MATCH(U18,$B$1:$H$1, 0)-1)</f>
-        <v>0.33447369999999998</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" ref="AC18" ca="1" si="102">OFFSET($B18, 0, MATCH(V18,$B$1:$H$1, 0)-1)</f>
-        <v>0.2753274</v>
+      <c r="W18" s="7">
+        <f t="shared" ref="W18" ca="1" si="97">OFFSET($I18, 0, MATCH(P18,$B$1:$H$1, 0)-1)</f>
+        <v>-3.1314695290607375E-4</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" ref="X18" ca="1" si="98">OFFSET($I18, 0, MATCH(Q18,$B$1:$H$1, 0)-1)</f>
+        <v>7.5643651337096163E-3</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" ref="Y18" ca="1" si="99">OFFSET($I18, 0, MATCH(R18,$B$1:$H$1, 0)-1)</f>
+        <v>8.6916286308647006E-3</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" ref="Z18" ca="1" si="100">OFFSET($I18, 0, MATCH(S18,$B$1:$H$1, 0)-1)</f>
+        <v>1.6731837826713392E-2</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" ref="AA18" ca="1" si="101">OFFSET($I18, 0, MATCH(T18,$B$1:$H$1, 0)-1)</f>
+        <v>1.5381385338813613E-2</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" ref="AB18" ca="1" si="102">OFFSET($I18, 0, MATCH(U18,$B$1:$H$1, 0)-1)</f>
+        <v>1.4707652312062169E-2</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" ref="AC18" ca="1" si="103">OFFSET($I18, 0, MATCH(V18,$B$1:$H$1, 0)-1)</f>
+        <v>8.7748789671866501E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45901</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.4089469</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.34728740000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.32025668000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.35799586999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.50929659999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.36271282999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.33438727000000001</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 1), $B19:$H19, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 2), $B19:$H19, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 3), $B19:$H19, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 4), $B19:$H19, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 5), $B19:$H19, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 6), $B19:$H19, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 7), $B19:$H19, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="W19" s="3">
+        <f ca="1">OFFSET($B19, 0, MATCH(P19,$B$1:$H$1, 0)-1)</f>
+        <v>0.50929659999999999</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" ref="X19" ca="1" si="104">OFFSET($B19, 0, MATCH(Q19,$B$1:$H$1, 0)-1)</f>
+        <v>0.4089469</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" ref="Y19" ca="1" si="105">OFFSET($B19, 0, MATCH(R19,$B$1:$H$1, 0)-1)</f>
+        <v>0.36271282999999999</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" ref="Z19" ca="1" si="106">OFFSET($B19, 0, MATCH(S19,$B$1:$H$1, 0)-1)</f>
+        <v>0.35799586999999999</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" ref="AA19" ca="1" si="107">OFFSET($B19, 0, MATCH(T19,$B$1:$H$1, 0)-1)</f>
+        <v>0.34728740000000002</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" ref="AB19" ca="1" si="108">OFFSET($B19, 0, MATCH(U19,$B$1:$H$1, 0)-1)</f>
+        <v>0.33438727000000001</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" ref="AC19" ca="1" si="109">OFFSET($B19, 0, MATCH(V19,$B$1:$H$1, 0)-1)</f>
+        <v>0.32025668000000002</v>
       </c>
     </row>
     <row r="43" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K43" s="17"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K44" s="17"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K45" s="17"/>
+      <c r="K45" s="13"/>
     </row>
     <row r="46" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K46" s="17"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K47" s="17"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K48" s="17"/>
+      <c r="K48" s="13"/>
     </row>
     <row r="49" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="K49" s="17"/>
+      <c r="K49" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23313,8 +23587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -25319,4 +25593,10 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3466d8de-a423-4c2e-b2dc-846f22c52444}" enabled="1" method="Standard" siteId="{60ed981f-ef6e-4603-9f81-ed6b34713134}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272322B-8A0B-430E-B1E8-FDAA9D36933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C544657-8EA0-441C-AFC6-108628A149D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -286,7 +286,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="192" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="193" formatCode="##0"/>
+    <numFmt numFmtId="194" formatCode="#,##0.##"/>
+    <numFmt numFmtId="195" formatCode="#,##0.###"/>
+    <numFmt numFmtId="196" formatCode="mmm\ d\,\ yyyy"/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -512,8 +519,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4C4C4D"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF4C4C4D"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4C4C4D"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Expert Sans Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Expert Sans Regular"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +752,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C3B3B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -816,7 +874,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,8 +1125,114 @@
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,14 +1273,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="130">
     <cellStyle name="20% - 강조색1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - 강조색2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - 강조색3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1142,6 +1300,34 @@
     <cellStyle name="60% - 강조색6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="60% - 강조색6 3" xfId="85" xr:uid="{80D046E7-89A3-460C-80AF-36FC5B2749A2}"/>
     <cellStyle name="blp_column_header" xfId="55" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="bolddate" xfId="126" xr:uid="{E36FA6A0-7326-429F-B5B0-CEF4EE5F5EA5}"/>
+    <cellStyle name="boldleftdate" xfId="128" xr:uid="{E15040D4-E597-40C6-A704-3B8A8DD60F3B}"/>
+    <cellStyle name="boldnoDecimalDigits" xfId="112" xr:uid="{A154E1F5-F14C-4A11-872D-AEE27FE2BBF3}"/>
+    <cellStyle name="boldpercentage" xfId="108" xr:uid="{C84E65C3-793D-40D6-91B4-D746985009DC}"/>
+    <cellStyle name="boldrightdate" xfId="127" xr:uid="{F08814CD-E129-4879-85FA-11CD121E8429}"/>
+    <cellStyle name="boldthreeDecimalDigits" xfId="114" xr:uid="{CFE78F68-7D5A-4E60-B222-24E000ED51C9}"/>
+    <cellStyle name="boldtwoDecimalDigits" xfId="113" xr:uid="{D5BC7885-95DE-4BB9-94A5-6D9D0EC0503F}"/>
+    <cellStyle name="date" xfId="123" xr:uid="{512BD3F9-29F1-44A9-97ED-4E7E54A72008}"/>
+    <cellStyle name="defaultsheetstyle" xfId="98" xr:uid="{FE569FB3-1F59-42D8-9FA3-AF0B872BD92D}"/>
+    <cellStyle name="disclaimer" xfId="102" xr:uid="{6617DE9F-E1FA-4366-822B-D366A1FD1982}"/>
+    <cellStyle name="leftdate" xfId="125" xr:uid="{EB43FF07-A90F-49B2-8606-20FE1ECF9B74}"/>
+    <cellStyle name="leftplainBoldText" xfId="121" xr:uid="{4B564325-F8D5-4943-B08A-27CF810C7823}"/>
+    <cellStyle name="leftplainText" xfId="119" xr:uid="{9B6C7EB3-2C15-4266-BF36-286E3D17AB25}"/>
+    <cellStyle name="noDecimalDigits" xfId="109" xr:uid="{20D70E14-9DF8-44D7-AB70-9D3F33BE742B}"/>
+    <cellStyle name="percentage" xfId="107" xr:uid="{CD9112C0-984D-4901-B3C2-0921EBF42B68}"/>
+    <cellStyle name="plainBoldText" xfId="116" xr:uid="{F34825CC-AB66-4D6D-BA0A-1814BB08C2EF}"/>
+    <cellStyle name="plainBoldValues" xfId="118" xr:uid="{FFCD1B5F-F881-411C-8A7B-780E5CFE25F1}"/>
+    <cellStyle name="plainText" xfId="115" xr:uid="{08EC1CC9-55E7-4023-B313-CA25547B77AE}"/>
+    <cellStyle name="plainValues" xfId="117" xr:uid="{3C107482-AF2A-4FEE-8E38-DCCA58DCADB5}"/>
+    <cellStyle name="rightdate" xfId="124" xr:uid="{6927B746-8CA7-482B-8D84-14E3A460449A}"/>
+    <cellStyle name="rightplainBoldText" xfId="122" xr:uid="{DA33655A-E008-4328-A0F9-D06472D96F2F}"/>
+    <cellStyle name="rightplainText" xfId="120" xr:uid="{A3BAB998-51E7-456C-9E8F-B6B67716AE77}"/>
+    <cellStyle name="sheetReportTitle" xfId="101" xr:uid="{93E305BA-3643-4DFA-81C6-CDCD2CAB1B72}"/>
+    <cellStyle name="sheetTitle" xfId="105" xr:uid="{B9AE8360-4264-431C-AD04-7B32DEEE85D0}"/>
+    <cellStyle name="tableHeader" xfId="106" xr:uid="{63D7AD80-0B0C-42EC-83F1-218D5FFB96AC}"/>
+    <cellStyle name="tablesubHeader" xfId="99" xr:uid="{A2110104-502C-4702-9FC3-76AF7F3FB2A1}"/>
+    <cellStyle name="threeDecimalDigits" xfId="111" xr:uid="{270F30D1-503F-4200-B209-3087B71BED2E}"/>
+    <cellStyle name="twoDecimalDigits" xfId="110" xr:uid="{ED02EAE9-DA90-4204-9146-7CBC52094AE6}"/>
     <cellStyle name="강조색1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="강조색2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="강조색3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
@@ -1175,34 +1361,50 @@
     <cellStyle name="출력 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 10" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="표준 10 2" xfId="97" xr:uid="{B9A596A3-857D-417C-AF3C-74E5C3BE6DDD}"/>
     <cellStyle name="표준 11" xfId="59" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="표준 11 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="표준 11 3" xfId="100" xr:uid="{9453B06B-15DE-4ED8-805D-0EAD1C7F6597}"/>
     <cellStyle name="표준 12" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="표준 12 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="표준 12 3" xfId="92" xr:uid="{E7281335-C1B2-4FE6-B2F7-11D4F6BDF45D}"/>
     <cellStyle name="표준 13" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="표준 13 2" xfId="103" xr:uid="{3EC4B03F-2F2E-4416-A3D2-EE65109A63B9}"/>
     <cellStyle name="표준 14" xfId="61" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="표준 14 2" xfId="104" xr:uid="{08A94590-F051-4381-B0B7-0C28B7E10D19}"/>
     <cellStyle name="표준 15" xfId="44" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="표준 15 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="표준 15 2 2" xfId="91" xr:uid="{FE17B1DB-E3AC-423D-A07E-9BACF4C78039}"/>
     <cellStyle name="표준 16" xfId="74" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="표준 16 2" xfId="129" xr:uid="{3311EE68-2A01-4CA5-B9E8-11B278B88118}"/>
     <cellStyle name="표준 17" xfId="75" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="표준 18" xfId="76" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="표준 19" xfId="77" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="표준 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="표준 2 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="표준 2 3" xfId="87" xr:uid="{3EFDB289-D2E2-44C6-8AA7-C216F1663B18}"/>
     <cellStyle name="표준 20" xfId="79" xr:uid="{F882CA49-7EAC-4C5B-9F93-B008A5EA8DB9}"/>
+    <cellStyle name="표준 21" xfId="86" xr:uid="{3DD8A9B9-0771-4A58-9F82-70A223F28FF9}"/>
     <cellStyle name="표준 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="표준 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="표준 3 3" xfId="88" xr:uid="{D3140F65-398A-4339-BC5C-09255B6446EC}"/>
     <cellStyle name="표준 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="표준 4 2" xfId="89" xr:uid="{E03C0F16-3246-4B8D-BE17-4EA12877C3D7}"/>
     <cellStyle name="표준 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="표준 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="표준 5 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="표준 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="표준 5 4" xfId="90" xr:uid="{74009500-2E95-4D79-88DA-949AA43878C9}"/>
     <cellStyle name="표준 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="표준 6 2" xfId="93" xr:uid="{A9548D10-2FF4-4650-9E0B-02D9A2B05145}"/>
     <cellStyle name="표준 7" xfId="52" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="표준 7 2" xfId="94" xr:uid="{43A15C86-DB38-44D5-B8A1-9AB5D93FA026}"/>
     <cellStyle name="표준 8" xfId="53" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="표준 8 2" xfId="95" xr:uid="{B49771DC-DE2D-4202-A6AC-C496C0999DC9}"/>
     <cellStyle name="표준 9" xfId="54" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
     <cellStyle name="표준 9 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="표준 9 3" xfId="96" xr:uid="{2F5BB5C6-4E01-413C-98B8-06F66C6ADBEB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,118 +1781,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg4!$P$16:$V$16</c:f>
+              <c:f>GAgg4!$P$19:$V$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>장기</c:v>
+                  <c:v>초장기</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>초장기</c:v>
+                  <c:v>초단기</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>지방정부</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>장기</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>중단기</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>TIPS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>중기</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>중단기</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>초단기</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg4!$W$16:$AC$16</c:f>
+              <c:f>GAgg4!$W$19:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2892484964772919E-2</c:v>
+                  <c:v>3.5988375128343408E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6732865699595321E-2</c:v>
+                  <c:v>3.0328278620228577E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2256895222134734E-3</c:v>
+                  <c:v>2.3158105415251651E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5444479936876991E-3</c:v>
+                  <c:v>2.4745021143606882E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5752613312828512E-2</c:v>
+                  <c:v>1.6605778811025207E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1032710167066639E-2</c:v>
+                  <c:v>4.3381740420034287E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0845756008518492E-3</c:v>
+                  <c:v>6.7404813472866643E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,82 +3764,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg1!$N$16:$S$16</c:f>
+              <c:f>GAgg1!$N$19:$S$19</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>EUR</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EM</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>APAC</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>US</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EM</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>China</c:v>
@@ -3704,27 +3792,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg1!$T$16:$Y$16</c:f>
+              <c:f>GAgg1!$T$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.9283106178374929E-3</c:v>
+                  <c:v>5.762650819377102E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7726982453649729E-3</c:v>
+                  <c:v>7.3211314475873923E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5375148266728589E-2</c:v>
+                  <c:v>1.2445622978363602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6061185468451367E-2</c:v>
+                  <c:v>8.8314260297628344E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2199322030008739E-2</c:v>
+                  <c:v>1.0908442185691536E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.879922292754248E-3</c:v>
+                  <c:v>-5.58623764469246E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3891,7 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.0000000000000006E-2"/>
+          <c:max val="2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4538,73 +4626,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg2!$H$16:$J$16</c:f>
+              <c:f>GAgg2!$H$19:$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Corp</c:v>
+                  <c:v>MBS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MBS</c:v>
+                  <c:v>Corp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Tsy</c:v>
@@ -4614,18 +4645,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg2!$K$16:$M$16</c:f>
+              <c:f>GAgg2!$K$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.868664347929494E-2</c:v>
+                  <c:v>1.2157092150230531E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.777648918868735E-2</c:v>
+                  <c:v>1.5009787108732242E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2544405919085566E-2</c:v>
+                  <c:v>8.4713178812929613E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4704,8 +4735,8 @@
         <c:axId val="1379888623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.5000000000000005E-2"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5127,112 +5158,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAgg3!$N$16:$S$16</c:f>
+              <c:f>GAgg3!$N$19:$S$19</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>장기</c:v>
+                  <c:v>CB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CB</c:v>
+                  <c:v>장기</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HY</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>단기</c:v>
+                  <c:v>FRN</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>중기</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FRN</c:v>
+                  <c:v>단기</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAgg3!$T$16:$Y$16</c:f>
+              <c:f>GAgg3!$T$19:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.0199593394778068E-2</c:v>
+                  <c:v>4.8107689558639644E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8350210275769792E-2</c:v>
+                  <c:v>3.168116775887353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8391814245216853E-2</c:v>
+                  <c:v>8.158201831390155E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4095044006174966E-3</c:v>
+                  <c:v>4.3389035473466731E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9058742635648551E-2</c:v>
+                  <c:v>1.141541059084572E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8177005888301316E-3</c:v>
+                  <c:v>4.3105680506176913E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14170,16 +14144,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14194,10 +14168,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8524875" y="3400425"/>
-          <a:ext cx="7248525" cy="2438400"/>
-          <a:chOff x="3600450" y="3648075"/>
-          <a:chExt cx="7248525" cy="2095500"/>
+          <a:off x="2924175" y="3829050"/>
+          <a:ext cx="7219950" cy="2457450"/>
+          <a:chOff x="1209675" y="3648075"/>
+          <a:chExt cx="7219950" cy="2111871"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -14235,7 +14209,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="8429625" y="3648075"/>
+          <a:off x="1209675" y="3664446"/>
           <a:ext cx="2419350" cy="2095500"/>
         </xdr:xfrm>
         <a:graphic>
@@ -14345,7 +14319,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(9</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -14744,16 +14718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14768,10 +14742,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5753100" y="3295650"/>
-          <a:ext cx="7239000" cy="2095500"/>
-          <a:chOff x="4429125" y="3752850"/>
-          <a:chExt cx="7239000" cy="2095500"/>
+          <a:off x="4733925" y="3667125"/>
+          <a:ext cx="7229475" cy="2105025"/>
+          <a:chOff x="2019300" y="3752850"/>
+          <a:chExt cx="7229475" cy="2105025"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -14786,7 +14760,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="9248775" y="3752850"/>
+          <a:off x="2019300" y="3762375"/>
           <a:ext cx="2419350" cy="2095500"/>
         </xdr:xfrm>
         <a:graphic>
@@ -14919,7 +14893,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(9</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16147,7 +16121,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(9</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16369,16 +16343,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16393,10 +16367,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5238750" y="3362325"/>
-          <a:ext cx="7258050" cy="2095500"/>
-          <a:chOff x="2600325" y="3714750"/>
-          <a:chExt cx="7258050" cy="2095500"/>
+          <a:off x="4781550" y="3305175"/>
+          <a:ext cx="7267575" cy="2095500"/>
+          <a:chOff x="171450" y="3714750"/>
+          <a:chExt cx="7267575" cy="2095500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -16434,7 +16408,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7439025" y="3714750"/>
+          <a:off x="171450" y="3714750"/>
           <a:ext cx="2419350" cy="2095500"/>
         </xdr:xfrm>
         <a:graphic>
@@ -16721,7 +16695,7 @@
               <a:latin typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
               <a:ea typeface="KoPub돋움체_Pro Light" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
             </a:rPr>
-            <a:t>(6</a:t>
+            <a:t>(9</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900">
@@ -16943,16 +16917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16967,10 +16941,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6143625" y="3276600"/>
-          <a:ext cx="7258050" cy="2295525"/>
-          <a:chOff x="2333625" y="3409950"/>
-          <a:chExt cx="7258050" cy="2295525"/>
+          <a:off x="3733800" y="3276600"/>
+          <a:ext cx="7258050" cy="2305050"/>
+          <a:chOff x="-76200" y="3409950"/>
+          <a:chExt cx="7258050" cy="2305050"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -16985,7 +16959,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7172325" y="3410726"/>
+          <a:off x="-76200" y="3448826"/>
           <a:ext cx="2419350" cy="2266174"/>
         </xdr:xfrm>
         <a:graphic>
@@ -17312,10 +17286,10 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="4"/>
@@ -17323,7 +17297,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17400,7 +17374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -17489,7 +17463,7 @@
         <v>-1.9623721527057825E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="5">
         <v>45413</v>
       </c>
@@ -17530,27 +17504,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N18" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N19" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O18" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O19" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P18" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P19" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q18" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q19" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R18" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R19" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S18" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S19" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="7">
@@ -17578,7 +17552,7 @@
         <v>1.695328640293825E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="5">
         <v>45444</v>
       </c>
@@ -17667,7 +17641,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="5">
         <v>45474</v>
       </c>
@@ -17756,7 +17730,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="5">
         <v>45505</v>
       </c>
@@ -17845,7 +17819,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="5">
         <v>45536</v>
       </c>
@@ -17934,7 +17908,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="5">
         <v>45566</v>
       </c>
@@ -18023,7 +17997,7 @@
         <v>-2.4798842000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="5">
         <v>45597</v>
       </c>
@@ -18112,7 +18086,7 @@
         <v>1.585090513841414E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="5">
         <v>45627</v>
       </c>
@@ -18201,7 +18175,7 @@
         <v>1.0607020484071583E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="5">
         <v>45658</v>
       </c>
@@ -18290,7 +18264,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="5">
         <v>45689</v>
       </c>
@@ -18379,7 +18353,7 @@
         <v>-1.9681199999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="5">
         <v>45717</v>
       </c>
@@ -18468,7 +18442,7 @@
         <v>-2.5285519999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="5">
         <v>45748</v>
       </c>
@@ -18557,7 +18531,7 @@
         <v>1.38862867862799E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="5">
         <v>45778</v>
       </c>
@@ -18646,7 +18620,7 @@
         <v>6.3250334567399591E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="5">
         <v>45809</v>
       </c>
@@ -18735,7 +18709,7 @@
         <v>6.879922292754248E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="5">
         <v>45839</v>
       </c>
@@ -18824,7 +18798,7 @@
         <v>-2.6393683082570618E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="5">
         <v>45870</v>
       </c>
@@ -18913,75 +18887,188 @@
         <v>-8.8116105927811272E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="5">
         <v>45901</v>
       </c>
       <c r="B19" s="4">
-        <v>0.43634295000000001</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
-        <v>0.48846610000000001</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>0.48670639999999998</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.42798433000000002</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>0.45691981999999998</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
-        <v>0.46057300000000001</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.0908442185691536E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5.762650819377102E-3</v>
+      </c>
+      <c r="J19" s="7">
+        <v>7.3211314475873923E-3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-5.58623764469246E-4</v>
+      </c>
+      <c r="L19" s="7">
+        <v>8.8314260297628344E-4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.2445622978363602E-2</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 1), $B19:$G19, 0))</f>
+        <f t="shared" si="5"/>
         <v>EUR</v>
       </c>
       <c r="O19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 2), $B19:$G19, 0))</f>
+        <f t="shared" si="6"/>
         <v>UK</v>
       </c>
       <c r="P19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 3), $B19:$G19, 0))</f>
+        <f t="shared" si="7"/>
         <v>EM</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 4), $B19:$G19, 0))</f>
+        <f t="shared" si="8"/>
         <v>APAC</v>
       </c>
       <c r="R19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 5), $B19:$G19, 0))</f>
+        <f t="shared" si="9"/>
         <v>US</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 6), $B19:$G19, 0))</f>
+        <f t="shared" si="10"/>
         <v>China</v>
       </c>
+      <c r="T19" s="7">
+        <f t="shared" ref="T19" ca="1" si="75">OFFSET($H19, 0, MATCH(N19,$B$1:$G$1, 0)-1)</f>
+        <v>5.762650819377102E-3</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" ref="U19" ca="1" si="76">OFFSET($H19, 0, MATCH(O19,$B$1:$G$1, 0)-1)</f>
+        <v>7.3211314475873923E-3</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" ref="V19" ca="1" si="77">OFFSET($H19, 0, MATCH(P19,$B$1:$G$1, 0)-1)</f>
+        <v>1.2445622978363602E-2</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" ref="W19" ca="1" si="78">OFFSET($H19, 0, MATCH(Q19,$B$1:$G$1, 0)-1)</f>
+        <v>8.8314260297628344E-4</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" ref="X19" ca="1" si="79">OFFSET($H19, 0, MATCH(R19,$B$1:$G$1, 0)-1)</f>
+        <v>1.0908442185691536E-2</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" ref="Y19" ca="1" si="80">OFFSET($H19, 0, MATCH(S19,$B$1:$G$1, 0)-1)</f>
+        <v>-5.58623764469246E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
+    <row r="20" spans="1:25">
+      <c r="A20" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.52971829999999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.3962309</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.39088115000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.32350846999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.37187369999999997</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.50544816000000004</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 1), $B20:$G20, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 2), $B20:$G20, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 3), $B20:$G20, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 4), $B20:$G20, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 5), $B20:$G20, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 6), $B20:$G20, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="T20" s="3">
+        <f ca="1">OFFSET($B20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
+        <v>0.52971829999999998</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" ref="U20:Y20" ca="1" si="81">OFFSET($B20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
+        <v>0.50544816000000004</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ca="1" si="81"/>
+        <v>0.3962309</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ca="1" si="81"/>
+        <v>0.39088115000000001</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" ca="1" si="81"/>
+        <v>0.37187369999999997</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" ca="1" si="81"/>
+        <v>0.32350846999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5">
+      <c r="B32" s="13"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
+    <row r="33" spans="2:5" ht="16.5">
+      <c r="B33" s="13"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
+    <row r="34" spans="2:5" ht="16.5">
+      <c r="B34" s="13"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
+    <row r="35" spans="2:5" ht="16.5">
+      <c r="B35" s="13"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
+    <row r="36" spans="2:5" ht="16.5">
+      <c r="B36" s="13"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
+    <row r="37" spans="2:5" ht="16.5">
+      <c r="B37" s="13"/>
       <c r="E37" s="13"/>
     </row>
   </sheetData>
@@ -18996,16 +19083,16 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19046,7 +19133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -19093,7 +19180,7 @@
         <v>-3.0255585445815636E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>45413</v>
       </c>
@@ -19116,15 +19203,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H18" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H19" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I18" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I19" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J18" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J19" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="7">
@@ -19140,7 +19227,7 @@
         <v>1.4567690505806086E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>45444</v>
       </c>
@@ -19187,7 +19274,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>45474</v>
       </c>
@@ -19234,7 +19321,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>45505</v>
       </c>
@@ -19281,7 +19368,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>45536</v>
       </c>
@@ -19328,7 +19415,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>45566</v>
       </c>
@@ -19375,7 +19462,7 @@
         <v>-2.3811135000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>45597</v>
       </c>
@@ -19422,7 +19509,7 @@
         <v>7.7724921365256439E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>45627</v>
       </c>
@@ -19469,7 +19556,7 @@
         <v>-1.5407896546980382E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>45658</v>
       </c>
@@ -19516,7 +19603,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="5">
         <v>45689</v>
       </c>
@@ -19563,7 +19650,7 @@
         <v>2.1558671000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="5">
         <v>45717</v>
       </c>
@@ -19610,7 +19697,7 @@
         <v>2.2961919999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="5">
         <v>45748</v>
       </c>
@@ -19657,7 +19744,7 @@
         <v>2.8675868154028894E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>45778</v>
       </c>
@@ -19704,7 +19791,7 @@
         <v>-9.1302884075862289E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="5">
         <v>45809</v>
       </c>
@@ -19751,7 +19838,7 @@
         <v>1.2544405919085566E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="5">
         <v>45839</v>
       </c>
@@ -19798,7 +19885,7 @@
         <v>-3.9207272696678563E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="5">
         <v>45870</v>
       </c>
@@ -19845,59 +19932,106 @@
         <v>1.0554145426748152E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="5">
         <v>45901</v>
       </c>
       <c r="B19" s="4">
-        <v>0.19724758000000001</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4">
-        <v>0.42471920000000002</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
-        <v>0.33872344999999998</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8.4713178812929613E-3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.5009787108732242E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.2157092150230531E-2</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 1), $B19:$D19, 0))</f>
+        <f t="shared" si="2"/>
+        <v>MBS</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>Corp</v>
       </c>
-      <c r="I19" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 2), $B19:$D19, 0))</f>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsy</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" ref="K19" ca="1" si="45">OFFSET($E19, 0, MATCH(H19,$B$1:$D$1, 0)-1)</f>
+        <v>1.2157092150230531E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" ref="L19" ca="1" si="46">OFFSET($E19, 0, MATCH(I19,$B$1:$D$1, 0)-1)</f>
+        <v>1.5009787108732242E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19" ca="1" si="47">OFFSET($E19, 0, MATCH(J19,$B$1:$D$1, 0)-1)</f>
+        <v>8.4713178812929613E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.2061624</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.50467340000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.37844097999999998</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 1), $B20:$D20, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 2), $B20:$D20, 0))</f>
         <v>MBS</v>
       </c>
-      <c r="J19" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B19:$D19, 3), $B19:$D19, 0))</f>
+      <c r="J20" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 3), $B20:$D20, 0))</f>
         <v>Tsy</v>
       </c>
-      <c r="K19" s="3">
-        <f ca="1">OFFSET($B19, 0, MATCH(H19,$B$1:$D$1, 0)-1)</f>
-        <v>0.42471920000000002</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" ref="L19" ca="1" si="45">OFFSET($B19, 0, MATCH(I19,$B$1:$D$1, 0)-1)</f>
-        <v>0.33872344999999998</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" ref="M19" ca="1" si="46">OFFSET($B19, 0, MATCH(J19,$B$1:$D$1, 0)-1)</f>
-        <v>0.19724758000000001</v>
+      <c r="K20" s="3">
+        <f ca="1">OFFSET($B20, 0, MATCH(H20,$B$1:$D$1, 0)-1)</f>
+        <v>0.50467340000000005</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:M20" ca="1" si="48">OFFSET($B20, 0, MATCH(I20,$B$1:$D$1, 0)-1)</f>
+        <v>0.37844097999999998</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" ca="1" si="48"/>
+        <v>0.2061624</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="16.5">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:13" ht="16.5">
+      <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:13" ht="16.5">
+      <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:13" ht="16.5">
+      <c r="A26" s="13"/>
       <c r="F26" s="13"/>
     </row>
   </sheetData>
@@ -19912,16 +20046,16 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19998,7 +20132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -20087,7 +20221,7 @@
         <v>-6.5253018160699172E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="5">
         <v>45413</v>
       </c>
@@ -20128,27 +20262,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N18" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N19" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O18" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O19" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P18" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P19" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q18" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q19" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R18" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R19" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S18" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S19" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="7">
@@ -20176,7 +20310,7 @@
         <v>1.0355772590442403E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="5">
         <v>45444</v>
       </c>
@@ -20265,7 +20399,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="5">
         <v>45474</v>
       </c>
@@ -20354,7 +20488,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="5">
         <v>45505</v>
       </c>
@@ -20443,7 +20577,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="5">
         <v>45536</v>
       </c>
@@ -20532,7 +20666,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="5">
         <v>45566</v>
       </c>
@@ -20621,7 +20755,7 @@
         <v>5.0430500000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="5">
         <v>45597</v>
       </c>
@@ -20710,7 +20844,7 @@
         <v>4.4670175009180468E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="5">
         <v>45627</v>
       </c>
@@ -20799,7 +20933,7 @@
         <v>4.5080718854704216E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="5">
         <v>45658</v>
       </c>
@@ -20888,7 +21022,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="5">
         <v>45689</v>
       </c>
@@ -20977,7 +21111,7 @@
         <v>4.2265430000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="5">
         <v>45717</v>
       </c>
@@ -21066,7 +21200,7 @@
         <v>-1.0222566000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="5">
         <v>45748</v>
       </c>
@@ -21155,7 +21289,7 @@
         <v>1.5574457889060422E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="5">
         <v>45778</v>
       </c>
@@ -21244,7 +21378,7 @@
         <v>5.5622009569378239E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="5">
         <v>45809</v>
       </c>
@@ -21333,7 +21467,7 @@
         <v>4.8177005888301316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="5">
         <v>45839</v>
       </c>
@@ -21422,7 +21556,7 @@
         <v>9.8442489550865098E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="5">
         <v>45870</v>
       </c>
@@ -21511,105 +21645,194 @@
         <v>1.3083066293825052E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="5">
         <v>45901</v>
       </c>
       <c r="B19" s="4">
-        <v>0.37074915000000003</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4">
-        <v>0.44289705000000001</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>0.53596619999999995</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.51049739999999999</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4">
-        <v>0.58346410000000004</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>0.46056414000000001</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4.3105680506176913E-3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.141541059084572E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.168116775887353E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>8.158201831390155E-3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4.8107689558639644E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>4.3389035473466731E-3</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 1), $B19:$G19, 0))</f>
+        <f t="shared" si="1"/>
         <v>CB</v>
       </c>
       <c r="O19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 2), $B19:$G19, 0))</f>
+        <f t="shared" si="2"/>
         <v>장기</v>
       </c>
       <c r="P19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 3), $B19:$G19, 0))</f>
+        <f t="shared" si="3"/>
         <v>HY</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 4), $B19:$G19, 0))</f>
+        <f t="shared" si="4"/>
         <v>FRN</v>
       </c>
       <c r="R19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 5), $B19:$G19, 0))</f>
+        <f t="shared" si="5"/>
         <v>중기</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B19:$G19, 6), $B19:$G19, 0))</f>
+        <f t="shared" si="6"/>
         <v>단기</v>
       </c>
-      <c r="T19" s="3">
-        <f ca="1">OFFSET($B19, 0, MATCH(N19,$B$1:$G$1, 0)-1)</f>
-        <v>0.58346410000000004</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" ref="U19" ca="1" si="86">OFFSET($B19, 0, MATCH(O19,$B$1:$G$1, 0)-1)</f>
-        <v>0.53596619999999995</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" ref="V19" ca="1" si="87">OFFSET($B19, 0, MATCH(P19,$B$1:$G$1, 0)-1)</f>
-        <v>0.51049739999999999</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" ref="W19" ca="1" si="88">OFFSET($B19, 0, MATCH(Q19,$B$1:$G$1, 0)-1)</f>
-        <v>0.46056414000000001</v>
-      </c>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19" ca="1" si="89">OFFSET($B19, 0, MATCH(R19,$B$1:$G$1, 0)-1)</f>
-        <v>0.44289705000000001</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" ref="Y19" ca="1" si="90">OFFSET($B19, 0, MATCH(S19,$B$1:$G$1, 0)-1)</f>
-        <v>0.37074915000000003</v>
+      <c r="T19" s="7">
+        <f t="shared" ref="T19" ca="1" si="86">OFFSET($H19, 0, MATCH(N19,$B$1:$G$1, 0)-1)</f>
+        <v>4.8107689558639644E-2</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" ref="U19" ca="1" si="87">OFFSET($H19, 0, MATCH(O19,$B$1:$G$1, 0)-1)</f>
+        <v>3.168116775887353E-2</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" ref="V19" ca="1" si="88">OFFSET($H19, 0, MATCH(P19,$B$1:$G$1, 0)-1)</f>
+        <v>8.158201831390155E-3</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" ref="W19" ca="1" si="89">OFFSET($H19, 0, MATCH(Q19,$B$1:$G$1, 0)-1)</f>
+        <v>4.3389035473466731E-3</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" ref="X19" ca="1" si="90">OFFSET($H19, 0, MATCH(R19,$B$1:$G$1, 0)-1)</f>
+        <v>1.141541059084572E-2</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" ref="Y19" ca="1" si="91">OFFSET($H19, 0, MATCH(S19,$B$1:$G$1, 0)-1)</f>
+        <v>4.3105680506176913E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
+      <c r="A20" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.37622187000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.48419784999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.45061435999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.54921660000000005</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.48890063</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.40873090000000001</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 1), $B20:$G20, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 2), $B20:$G20, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 3), $B20:$G20, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 4), $B20:$G20, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 5), $B20:$G20, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 6), $B20:$G20, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T20" s="3">
+        <f ca="1">OFFSET($B20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
+        <v>0.54921660000000005</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" ref="U20" ca="1" si="92">OFFSET($B20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
+        <v>0.48890063</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ref="V20" ca="1" si="93">OFFSET($B20, 0, MATCH(P20,$B$1:$G$1, 0)-1)</f>
+        <v>0.48419784999999999</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ref="W20" ca="1" si="94">OFFSET($B20, 0, MATCH(Q20,$B$1:$G$1, 0)-1)</f>
+        <v>0.45061435999999999</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" ref="X20" ca="1" si="95">OFFSET($B20, 0, MATCH(R20,$B$1:$G$1, 0)-1)</f>
+        <v>0.40873090000000001</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" ref="Y20" ca="1" si="96">OFFSET($B20, 0, MATCH(S20,$B$1:$G$1, 0)-1)</f>
+        <v>0.37622187000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5">
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="16.5">
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="16.5">
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="16.5">
       <c r="E31" s="13"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="16.5">
       <c r="E32" s="13"/>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:10" ht="16.5">
       <c r="E33" s="13"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:10" ht="16.5">
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:10" ht="16.5">
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="5:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:10" ht="16.5">
       <c r="J36" s="13"/>
     </row>
   </sheetData>
@@ -21624,16 +21847,16 @@
   <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -21722,7 +21945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -21825,7 +22048,7 @@
         <v>-5.3671208255656411E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="5">
         <v>45413</v>
       </c>
@@ -21872,31 +22095,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P18" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P19" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q18" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q19" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R18" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R19" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S18" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S19" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T18" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T19" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U18" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U19" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V18" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V19" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="7">
@@ -21928,7 +22151,7 @@
         <v>1.3123772102161091E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" s="5">
         <v>45444</v>
       </c>
@@ -22031,7 +22254,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="5">
         <v>45474</v>
       </c>
@@ -22134,7 +22357,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" s="5">
         <v>45505</v>
       </c>
@@ -22237,7 +22460,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" s="5">
         <v>45536</v>
       </c>
@@ -22340,7 +22563,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" s="5">
         <v>45566</v>
       </c>
@@ -22443,7 +22666,7 @@
         <v>-4.9273731000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" s="5">
         <v>45597</v>
       </c>
@@ -22546,7 +22769,7 @@
         <v>6.009916361997325E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" s="5">
         <v>45627</v>
       </c>
@@ -22649,7 +22872,7 @@
         <v>2.2509263427643589E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" s="5">
         <v>45658</v>
       </c>
@@ -22752,7 +22975,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" s="5">
         <v>45689</v>
       </c>
@@ -22855,7 +23078,7 @@
         <v>2.1803375999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" s="5">
         <v>45717</v>
       </c>
@@ -22958,7 +23181,7 @@
         <v>-4.447187E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" s="5">
         <v>45748</v>
       </c>
@@ -23061,7 +23284,7 @@
         <v>8.1602121655162119E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" s="5">
         <v>45778</v>
       </c>
@@ -23164,7 +23387,7 @@
         <v>-2.2933459242521215E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" s="5">
         <v>45809</v>
       </c>
@@ -23267,7 +23490,7 @@
         <v>6.0845756008518492E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17" s="5">
         <v>45839</v>
       </c>
@@ -23370,7 +23593,7 @@
         <v>-3.6694167306215997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="A18" s="5">
         <v>45870</v>
       </c>
@@ -23473,107 +23696,210 @@
         <v>8.7748789671866501E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" s="5">
         <v>45901</v>
       </c>
       <c r="B19" s="4">
-        <v>0.4089469</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
-        <v>0.34728740000000002</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>0.32025668000000002</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4">
-        <v>0.35799586999999999</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>0.50929659999999999</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>0.36271282999999999</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4">
-        <v>0.33438727000000001</v>
+        <v>6</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3.0328278620228577E-3</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.6605778811025207E-3</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6.7404813472866643E-3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2.4745021143606882E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>3.5988375128343408E-2</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2.3158105415251651E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>4.3381740420034287E-3</v>
       </c>
       <c r="P19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 1), $B19:$H19, 0))</f>
+        <f t="shared" si="5"/>
         <v>초장기</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 2), $B19:$H19, 0))</f>
+        <f t="shared" si="6"/>
         <v>초단기</v>
       </c>
       <c r="R19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 3), $B19:$H19, 0))</f>
+        <f t="shared" si="7"/>
         <v>지방정부</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 4), $B19:$H19, 0))</f>
+        <f t="shared" si="8"/>
         <v>장기</v>
       </c>
       <c r="T19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 5), $B19:$H19, 0))</f>
+        <f t="shared" si="9"/>
         <v>중단기</v>
       </c>
       <c r="U19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 6), $B19:$H19, 0))</f>
+        <f t="shared" si="10"/>
         <v>TIPS</v>
       </c>
       <c r="V19" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B19:$H19, 7), $B19:$H19, 0))</f>
+        <f t="shared" si="11"/>
         <v>중기</v>
       </c>
-      <c r="W19" s="3">
-        <f ca="1">OFFSET($B19, 0, MATCH(P19,$B$1:$H$1, 0)-1)</f>
-        <v>0.50929659999999999</v>
-      </c>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19" ca="1" si="104">OFFSET($B19, 0, MATCH(Q19,$B$1:$H$1, 0)-1)</f>
-        <v>0.4089469</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" ref="Y19" ca="1" si="105">OFFSET($B19, 0, MATCH(R19,$B$1:$H$1, 0)-1)</f>
-        <v>0.36271282999999999</v>
-      </c>
-      <c r="Z19" s="3">
-        <f t="shared" ref="Z19" ca="1" si="106">OFFSET($B19, 0, MATCH(S19,$B$1:$H$1, 0)-1)</f>
-        <v>0.35799586999999999</v>
-      </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19" ca="1" si="107">OFFSET($B19, 0, MATCH(T19,$B$1:$H$1, 0)-1)</f>
-        <v>0.34728740000000002</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19" ca="1" si="108">OFFSET($B19, 0, MATCH(U19,$B$1:$H$1, 0)-1)</f>
-        <v>0.33438727000000001</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" ref="AC19" ca="1" si="109">OFFSET($B19, 0, MATCH(V19,$B$1:$H$1, 0)-1)</f>
-        <v>0.32025668000000002</v>
+      <c r="W19" s="7">
+        <f t="shared" ref="W19" ca="1" si="104">OFFSET($I19, 0, MATCH(P19,$B$1:$H$1, 0)-1)</f>
+        <v>3.5988375128343408E-2</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" ref="X19" ca="1" si="105">OFFSET($I19, 0, MATCH(Q19,$B$1:$H$1, 0)-1)</f>
+        <v>3.0328278620228577E-3</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" ref="Y19" ca="1" si="106">OFFSET($I19, 0, MATCH(R19,$B$1:$H$1, 0)-1)</f>
+        <v>2.3158105415251651E-2</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" ref="Z19" ca="1" si="107">OFFSET($I19, 0, MATCH(S19,$B$1:$H$1, 0)-1)</f>
+        <v>2.4745021143606882E-2</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" ref="AA19" ca="1" si="108">OFFSET($I19, 0, MATCH(T19,$B$1:$H$1, 0)-1)</f>
+        <v>1.6605778811025207E-3</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" ref="AB19" ca="1" si="109">OFFSET($I19, 0, MATCH(U19,$B$1:$H$1, 0)-1)</f>
+        <v>4.3381740420034287E-3</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" ref="AC19" ca="1" si="110">OFFSET($I19, 0, MATCH(V19,$B$1:$H$1, 0)-1)</f>
+        <v>6.7404813472866643E-3</v>
       </c>
     </row>
-    <row r="43" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
+      <c r="A20" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.477738</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.41782330000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.36844197000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.38042009999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.40485801999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.37301203999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.39985287000000003</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 1), $B20:$H20, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 2), $B20:$H20, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 3), $B20:$H20, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 4), $B20:$H20, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 5), $B20:$H20, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 6), $B20:$H20, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 7), $B20:$H20, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="W20" s="3">
+        <f ca="1">OFFSET($B20, 0, MATCH(P20,$B$1:$H$1, 0)-1)</f>
+        <v>0.477738</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" ref="X20" ca="1" si="111">OFFSET($B20, 0, MATCH(Q20,$B$1:$H$1, 0)-1)</f>
+        <v>0.41782330000000001</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" ref="Y20" ca="1" si="112">OFFSET($B20, 0, MATCH(R20,$B$1:$H$1, 0)-1)</f>
+        <v>0.40485801999999999</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" ref="Z20" ca="1" si="113">OFFSET($B20, 0, MATCH(S20,$B$1:$H$1, 0)-1)</f>
+        <v>0.39985287000000003</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" ref="AA20" ca="1" si="114">OFFSET($B20, 0, MATCH(T20,$B$1:$H$1, 0)-1)</f>
+        <v>0.38042009999999998</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" ref="AB20" ca="1" si="115">OFFSET($B20, 0, MATCH(U20,$B$1:$H$1, 0)-1)</f>
+        <v>0.37301203999999999</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" ref="AC20" ca="1" si="116">OFFSET($B20, 0, MATCH(V20,$B$1:$H$1, 0)-1)</f>
+        <v>0.36844197000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11" ht="16.5">
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" ht="16.5">
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" ht="16.5">
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="11:11" ht="16.5">
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:11" ht="16.5">
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:11" ht="16.5">
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="11:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" ht="16.5">
       <c r="K49" s="13"/>
     </row>
   </sheetData>
@@ -23591,7 +23917,7 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="1"/>
@@ -23599,7 +23925,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23697,7 +24023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
@@ -23810,7 +24136,7 @@
         <v>-2.3155785985105037E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" s="2">
         <v>45413</v>
       </c>
@@ -23923,7 +24249,7 @@
         <v>2.2692751561654845E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="2">
         <v>45444</v>
       </c>
@@ -24036,7 +24362,7 @@
         <v>6.2986334749755013E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="2">
         <v>45474</v>
       </c>
@@ -24149,7 +24475,7 @@
         <v>2.4869721183520044E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="2">
         <v>45505</v>
       </c>
@@ -24262,7 +24588,7 @@
         <v>1.5568246103825789E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7" s="2">
         <v>45536</v>
       </c>
@@ -24375,7 +24701,7 @@
         <v>1.8505971429233048E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="A8" s="2">
         <v>45566</v>
       </c>
@@ -24488,7 +24814,7 @@
         <v>-2.7707154335527839E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="A9" s="2">
         <v>45597</v>
       </c>
@@ -24601,7 +24927,7 @@
         <v>1.3007975248745085E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32">
       <c r="A10" s="2">
         <v>45627</v>
       </c>
@@ -24714,7 +25040,7 @@
         <v>-1.6909554384795134E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32">
       <c r="A11" s="2">
         <v>45658</v>
       </c>
@@ -24827,7 +25153,7 @@
         <v>6.0293414207548413E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32">
       <c r="A12" s="2">
         <v>45689</v>
       </c>
@@ -24940,7 +25266,7 @@
         <v>2.2264729575390607E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32">
       <c r="A13" s="2">
         <v>45717</v>
       </c>
@@ -25053,7 +25379,7 @@
         <v>-7.0583664605657903E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32">
       <c r="A14" s="2">
         <v>45748</v>
       </c>
@@ -25166,7 +25492,7 @@
         <v>-2.0929367960389467E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32">
       <c r="A15" s="2">
         <v>45778</v>
       </c>
@@ -25279,7 +25605,7 @@
         <v>-7.8988257287460062E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32">
       <c r="A16" s="2">
         <v>45809</v>
       </c>
@@ -25392,7 +25718,7 @@
         <v>1.9218216746560879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32">
       <c r="A17" s="2">
         <v>45839</v>
       </c>
@@ -25505,7 +25831,7 @@
         <v>2.4721693147857771E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32">
       <c r="A18" s="2">
         <v>45870</v>
       </c>

--- a/data/streamlit_24_allocation.xlsx
+++ b/data/streamlit_24_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C544657-8EA0-441C-AFC6-108628A149D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7C43E-7A4B-47DD-8538-BE3164AC054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAgg1" sheetId="2" r:id="rId1"/>
@@ -63,15 +63,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ret01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ret02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ret03</t>
@@ -90,15 +90,15 @@
   </si>
   <si>
     <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fret01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fret02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fret03</t>
@@ -117,47 +117,47 @@
   </si>
   <si>
     <t>Fret00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Label07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ret01</t>
@@ -167,119 +167,119 @@
   </si>
   <si>
     <t>EUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>APAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tsy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Corp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MBS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FRN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ret07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지방정부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TIPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>초단기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중단기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>초장기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cycl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ener</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Infra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,19 +287,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="192" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="193" formatCode="##0"/>
-    <numFmt numFmtId="194" formatCode="#,##0.##"/>
-    <numFmt numFmtId="195" formatCode="#,##0.###"/>
-    <numFmt numFmtId="196" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="177" formatCode="##0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.##"/>
+    <numFmt numFmtId="179" formatCode="#,##0.###"/>
+    <numFmt numFmtId="180" formatCode="mmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="KoPub돋움체_Pro Light"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -874,334 +882,328 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="195" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
@@ -1210,39 +1212,255 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="196" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="196" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1254,49 +1472,76 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="59" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="59" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="203">
+    <cellStyle name="20% - 강조색1" xfId="146" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2" xfId="150" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3" xfId="154" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4" xfId="158" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 강조색4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5" xfId="162" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 강조색5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6" xfId="166" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 강조색6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="147" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 강조색1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2" xfId="151" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 강조색2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3" xfId="155" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 강조색3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4" xfId="159" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 강조색4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5" xfId="163" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 강조색5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6" xfId="167" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 강조색6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1" xfId="148" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 강조색1 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="60% - 강조색1 3" xfId="80" xr:uid="{AEAC62B1-9445-4428-B65A-C59B511D90EA}"/>
+    <cellStyle name="60% - 강조색2" xfId="152" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 강조색2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="60% - 강조색2 3" xfId="81" xr:uid="{463DCB90-F96E-4666-BF97-8AB2361F7BC8}"/>
+    <cellStyle name="60% - 강조색3" xfId="156" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 강조색3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="60% - 강조색3 3" xfId="82" xr:uid="{7165558C-4A55-4EC5-802E-76AE855A3102}"/>
+    <cellStyle name="60% - 강조색4" xfId="160" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 강조색4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - 강조색4 3" xfId="83" xr:uid="{691985E6-5DA6-4743-9E71-9EF0DC48B1E0}"/>
+    <cellStyle name="60% - 강조색5" xfId="164" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 강조색5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="60% - 강조색5 3" xfId="84" xr:uid="{21D458C8-397D-4A0A-B809-3517F1F799DC}"/>
+    <cellStyle name="60% - 강조색6" xfId="168" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 강조색6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="60% - 강조색6 3" xfId="85" xr:uid="{80D046E7-89A3-460C-80AF-36FC5B2749A2}"/>
     <cellStyle name="blp_column_header" xfId="55" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
@@ -1328,83 +1573,138 @@
     <cellStyle name="tablesubHeader" xfId="99" xr:uid="{A2110104-502C-4702-9FC3-76AF7F3FB2A1}"/>
     <cellStyle name="threeDecimalDigits" xfId="111" xr:uid="{270F30D1-503F-4200-B209-3087B71BED2E}"/>
     <cellStyle name="twoDecimalDigits" xfId="110" xr:uid="{ED02EAE9-DA90-4204-9146-7CBC52094AE6}"/>
+    <cellStyle name="강조색1" xfId="145" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색2" xfId="149" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색3" xfId="153" builtinId="37" customBuiltin="1"/>
     <cellStyle name="강조색3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색4" xfId="157" builtinId="41" customBuiltin="1"/>
     <cellStyle name="강조색4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색5" xfId="161" builtinId="45" customBuiltin="1"/>
     <cellStyle name="강조색5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="강조색6" xfId="165" builtinId="49" customBuiltin="1"/>
     <cellStyle name="강조색6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="경고문" xfId="142" builtinId="11" customBuiltin="1"/>
     <cellStyle name="경고문 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="계산" xfId="139" builtinId="22" customBuiltin="1"/>
     <cellStyle name="계산 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="나쁨" xfId="135" builtinId="27" customBuiltin="1"/>
     <cellStyle name="나쁨 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="메모 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="메모 3" xfId="200" xr:uid="{2AFF23DF-6E6B-4279-B18F-B6E5EA239117}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="백분율 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="백분율 3" xfId="67" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="백분율 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="보통" xfId="136" builtinId="28" customBuiltin="1"/>
     <cellStyle name="보통 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="보통 3" xfId="78" xr:uid="{29224A82-804E-477D-B6CD-A0AE70607B71}"/>
     <cellStyle name="常规 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="常规 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="176" xr:uid="{D146599A-A20D-417E-B960-D8ED51D797F7}"/>
     <cellStyle name="常规 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="182" xr:uid="{2FFC0B3B-969B-4B6F-B4E6-56EE8F646722}"/>
+    <cellStyle name="常规 2 4" xfId="169" xr:uid="{F040CF09-8C32-4746-A96C-C84CBF46C1E7}"/>
+    <cellStyle name="설명 텍스트" xfId="143" builtinId="53" customBuiltin="1"/>
     <cellStyle name="설명 텍스트 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="셀 확인" xfId="141" builtinId="23" customBuiltin="1"/>
     <cellStyle name="셀 확인 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="연결된 셀" xfId="140" builtinId="24" customBuiltin="1"/>
     <cellStyle name="연결된 셀 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="요약" xfId="144" builtinId="25" customBuiltin="1"/>
     <cellStyle name="요약 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="입력" xfId="137" builtinId="20" customBuiltin="1"/>
     <cellStyle name="입력 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="130" builtinId="16" customBuiltin="1"/>
     <cellStyle name="제목 1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="제목 2" xfId="131" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="제목 3" xfId="132" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="제목 4" xfId="133" builtinId="19" customBuiltin="1"/>
     <cellStyle name="제목 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="좋음" xfId="134" builtinId="26" customBuiltin="1"/>
     <cellStyle name="좋음 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="출력" xfId="138" builtinId="21" customBuiltin="1"/>
     <cellStyle name="출력 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 10" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="표준 10 2" xfId="97" xr:uid="{B9A596A3-857D-417C-AF3C-74E5C3BE6DDD}"/>
+    <cellStyle name="표준 10 2 2" xfId="197" xr:uid="{0A87E2D2-205C-472A-BBD9-309615FD1246}"/>
     <cellStyle name="표준 11" xfId="59" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="표준 11 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="표준 11 2 2" xfId="180" xr:uid="{D52BA5EB-F37B-48A1-BEE6-9E4EBC47FBF2}"/>
     <cellStyle name="표준 11 3" xfId="100" xr:uid="{9453B06B-15DE-4ED8-805D-0EAD1C7F6597}"/>
+    <cellStyle name="표준 11 3 2" xfId="198" xr:uid="{86F792BF-A842-46CF-860F-28D4C78B6B49}"/>
+    <cellStyle name="표준 11 4" xfId="173" xr:uid="{4FE9D3F0-4B34-4606-85D7-500A684F7E52}"/>
     <cellStyle name="표준 12" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="표준 12 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="표준 12 2 2" xfId="181" xr:uid="{0E003FA8-D00C-4601-933F-8BF9057CDB5C}"/>
     <cellStyle name="표준 12 3" xfId="92" xr:uid="{E7281335-C1B2-4FE6-B2F7-11D4F6BDF45D}"/>
+    <cellStyle name="표준 12 3 2" xfId="192" xr:uid="{23D4D0FE-C946-458D-BEC2-6B5B45AFCAC2}"/>
+    <cellStyle name="표준 12 4" xfId="174" xr:uid="{E141E65D-77E5-4E6E-933F-F41489E59B8F}"/>
     <cellStyle name="표준 13" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="표준 13 2" xfId="103" xr:uid="{3EC4B03F-2F2E-4416-A3D2-EE65109A63B9}"/>
+    <cellStyle name="표준 13 2 2" xfId="199" xr:uid="{171E30C6-7682-43BD-AFC8-07BD395A7118}"/>
     <cellStyle name="표준 14" xfId="61" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="표준 14 2" xfId="104" xr:uid="{08A94590-F051-4381-B0B7-0C28B7E10D19}"/>
+    <cellStyle name="표준 14 3" xfId="175" xr:uid="{6F7FB4DE-DF09-4189-8275-52C6B0F9E3FD}"/>
     <cellStyle name="표준 15" xfId="44" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="표준 15 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="표준 15 2 2" xfId="91" xr:uid="{FE17B1DB-E3AC-423D-A07E-9BACF4C78039}"/>
+    <cellStyle name="표준 15 3" xfId="183" xr:uid="{020DD5F6-D886-44E2-9057-2460D8006675}"/>
     <cellStyle name="표준 16" xfId="74" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="표준 16 2" xfId="129" xr:uid="{3311EE68-2A01-4CA5-B9E8-11B278B88118}"/>
+    <cellStyle name="표준 16 2 2" xfId="201" xr:uid="{D4160F64-1AA5-4819-9F41-42E1D5B7E721}"/>
+    <cellStyle name="표준 16 3" xfId="184" xr:uid="{6B9589F0-9433-48E7-B5E2-EE69669AF9CB}"/>
     <cellStyle name="표준 17" xfId="75" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="표준 17 2" xfId="185" xr:uid="{A1C80534-66E8-44F1-9ECA-DAE15012DDBD}"/>
     <cellStyle name="표준 18" xfId="76" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="표준 18 2" xfId="186" xr:uid="{102D53CE-0C4A-4176-A0F0-4FA084E47A6F}"/>
     <cellStyle name="표준 19" xfId="77" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="표준 19 2" xfId="187" xr:uid="{29DCD1ED-DDC8-4896-A575-3D737494CEC5}"/>
     <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="표준 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="표준 2 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="표준 2 3" xfId="87" xr:uid="{3EFDB289-D2E2-44C6-8AA7-C216F1663B18}"/>
+    <cellStyle name="표준 2 3 2" xfId="190" xr:uid="{456681DD-7BFD-4788-8E1A-AB9B40A53999}"/>
     <cellStyle name="표준 20" xfId="79" xr:uid="{F882CA49-7EAC-4C5B-9F93-B008A5EA8DB9}"/>
+    <cellStyle name="표준 20 2" xfId="188" xr:uid="{09D3C48B-B5D7-417B-B6BB-4B50B303C472}"/>
     <cellStyle name="표준 21" xfId="86" xr:uid="{3DD8A9B9-0771-4A58-9F82-70A223F28FF9}"/>
+    <cellStyle name="표준 21 2" xfId="189" xr:uid="{82EDF134-2359-420D-8CB2-99453D0CE0F9}"/>
+    <cellStyle name="표준 22" xfId="202" xr:uid="{FD703F4C-152F-41B9-8E2B-7B4D243510C6}"/>
     <cellStyle name="표준 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="표준 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="표준 3 3" xfId="88" xr:uid="{D3140F65-398A-4339-BC5C-09255B6446EC}"/>
+    <cellStyle name="표준 3 3 2" xfId="191" xr:uid="{33E054C0-F484-4986-8BE7-57220DBA6B7E}"/>
     <cellStyle name="표준 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="표준 4 2" xfId="89" xr:uid="{E03C0F16-3246-4B8D-BE17-4EA12877C3D7}"/>
     <cellStyle name="표준 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="표준 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="표준 5 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="표준 5 2 2 2" xfId="178" xr:uid="{F24EA12B-1E0C-4924-933E-1B3344026483}"/>
+    <cellStyle name="표준 5 2 3" xfId="171" xr:uid="{A5582EDB-7823-415B-B0AC-84AA65D72843}"/>
     <cellStyle name="표준 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="표준 5 3 2" xfId="177" xr:uid="{856E2732-85F5-4B59-89A7-491DBE0BAE15}"/>
     <cellStyle name="표준 5 4" xfId="90" xr:uid="{74009500-2E95-4D79-88DA-949AA43878C9}"/>
+    <cellStyle name="표준 5 5" xfId="170" xr:uid="{77BFB879-8635-4FA8-B021-A6FFC880B755}"/>
     <cellStyle name="표준 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="표준 6 2" xfId="93" xr:uid="{A9548D10-2FF4-4650-9E0B-02D9A2B05145}"/>
+    <cellStyle name="표준 6 2 2" xfId="193" xr:uid="{4013D51A-3412-4AC7-B3DD-141DD1F69703}"/>
     <cellStyle name="표준 7" xfId="52" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="표준 7 2" xfId="94" xr:uid="{43A15C86-DB38-44D5-B8A1-9AB5D93FA026}"/>
+    <cellStyle name="표준 7 2 2" xfId="194" xr:uid="{7A49FCAC-AC68-49C5-B0B0-182FCA2E610B}"/>
     <cellStyle name="표준 8" xfId="53" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="표준 8 2" xfId="95" xr:uid="{B49771DC-DE2D-4202-A6AC-C496C0999DC9}"/>
+    <cellStyle name="표준 8 2 2" xfId="195" xr:uid="{462A718A-32D1-4B73-98D0-778081B110DB}"/>
     <cellStyle name="표준 9" xfId="54" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
     <cellStyle name="표준 9 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="표준 9 2 2" xfId="179" xr:uid="{30D68290-7B9D-48E6-A029-53D52BE55377}"/>
     <cellStyle name="표준 9 3" xfId="96" xr:uid="{2F5BB5C6-4E01-413C-98B8-06F66C6ADBEB}"/>
+    <cellStyle name="표준 9 3 2" xfId="196" xr:uid="{E460C6A5-AB25-4C25-9217-AAD4D9EC1FBC}"/>
+    <cellStyle name="표준 9 4" xfId="172" xr:uid="{085CC6B5-0392-4A7A-B9BD-DD77E24F5FEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16343,16 +16643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16367,7 +16667,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4781550" y="3305175"/>
+          <a:off x="3343275" y="3810000"/>
           <a:ext cx="7267575" cy="2095500"/>
           <a:chOff x="171450" y="3714750"/>
           <a:chExt cx="7267575" cy="2095500"/>
@@ -16918,15 +17218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16941,7 +17241,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3733800" y="3276600"/>
+          <a:off x="3695700" y="4114800"/>
           <a:ext cx="7258050" cy="2305050"/>
           <a:chOff x="-76200" y="3409950"/>
           <a:chExt cx="7258050" cy="2305050"/>
@@ -17286,7 +17586,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17504,27 +17804,27 @@
         <v>1.6999291993815335E-2</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N19" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N20" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>UK</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O19" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O20" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>EUR</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P19" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P20" si="7">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>EM</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q19" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q20" si="8">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>China</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R19" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R20" si="9">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>APAC</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S19" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S20" si="10">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>US</v>
       </c>
       <c r="T3" s="7">
@@ -18981,71 +19281,168 @@
         <v>45931</v>
       </c>
       <c r="B20" s="4">
-        <v>0.52971829999999998</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>0.3962309</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4">
-        <v>0.39088115000000001</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <v>0.32350846999999999</v>
+        <v>6</v>
       </c>
       <c r="F20" s="4">
-        <v>0.37187369999999997</v>
+        <v>5</v>
       </c>
       <c r="G20" s="4">
-        <v>0.50544816000000004</v>
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.2454536454770171E-3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.2068039391226471E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2.6145641606494019E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8.2194329347577977E-3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.7293292108115956E-3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2.623620623554701E-2</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 1), $B20:$G20, 0))</f>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="O20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 2), $B20:$G20, 0))</f>
+        <f t="shared" si="6"/>
         <v>EM</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 3), $B20:$G20, 0))</f>
+        <f t="shared" si="7"/>
         <v>EUR</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 4), $B20:$G20, 0))</f>
+        <f t="shared" si="8"/>
         <v>UK</v>
       </c>
       <c r="R20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 5), $B20:$G20, 0))</f>
+        <f t="shared" si="9"/>
         <v>APAC</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 6), $B20:$G20, 0))</f>
+        <f t="shared" si="10"/>
         <v>China</v>
       </c>
-      <c r="T20" s="3">
-        <f ca="1">OFFSET($B20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
-        <v>0.52971829999999998</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" ref="U20:Y20" ca="1" si="81">OFFSET($B20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
-        <v>0.50544816000000004</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" ca="1" si="81"/>
-        <v>0.3962309</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" ca="1" si="81"/>
-        <v>0.39088115000000001</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" ca="1" si="81"/>
-        <v>0.37187369999999997</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" ca="1" si="81"/>
-        <v>0.32350846999999999</v>
-      </c>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20" ca="1" si="81">OFFSET($H20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
+        <v>6.2454536454770171E-3</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" ref="U20" ca="1" si="82">OFFSET($H20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
+        <v>2.623620623554701E-2</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" ref="V20" ca="1" si="83">OFFSET($H20, 0, MATCH(P20,$B$1:$G$1, 0)-1)</f>
+        <v>1.2068039391226471E-2</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20" ca="1" si="84">OFFSET($H20, 0, MATCH(Q20,$B$1:$G$1, 0)-1)</f>
+        <v>2.6145641606494019E-2</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" ref="X20" ca="1" si="85">OFFSET($H20, 0, MATCH(R20,$B$1:$G$1, 0)-1)</f>
+        <v>5.7293292108115956E-3</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" ref="Y20" ca="1" si="86">OFFSET($H20, 0, MATCH(S20,$B$1:$G$1, 0)-1)</f>
+        <v>8.2194329347577977E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="5">
+        <v>45962</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.51143645999999998</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.41058144000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.41944872999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.37074765999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.37774488000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.55767447000000003</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 1), $B21:$G21, 0))</f>
+        <v>EM</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 2), $B21:$G21, 0))</f>
+        <v>US</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 3), $B21:$G21, 0))</f>
+        <v>UK</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 4), $B21:$G21, 0))</f>
+        <v>EUR</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 5), $B21:$G21, 0))</f>
+        <v>APAC</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 6), $B21:$G21, 0))</f>
+        <v>China</v>
+      </c>
+      <c r="T21" s="3">
+        <f ca="1">OFFSET($B21, 0, MATCH(N21,$B$1:$G$1, 0)-1)</f>
+        <v>0.55767447000000003</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" ref="U21" ca="1" si="87">OFFSET($B21, 0, MATCH(O21,$B$1:$G$1, 0)-1)</f>
+        <v>0.51143645999999998</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" ref="V21" ca="1" si="88">OFFSET($B21, 0, MATCH(P21,$B$1:$G$1, 0)-1)</f>
+        <v>0.41944872999999999</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" ref="W21" ca="1" si="89">OFFSET($B21, 0, MATCH(Q21,$B$1:$G$1, 0)-1)</f>
+        <v>0.41058144000000002</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" ref="X21" ca="1" si="90">OFFSET($B21, 0, MATCH(R21,$B$1:$G$1, 0)-1)</f>
+        <v>0.37774488000000001</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21" ca="1" si="91">OFFSET($B21, 0, MATCH(S21,$B$1:$G$1, 0)-1)</f>
+        <v>0.37074765999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="32" spans="1:25" ht="16.5">
       <c r="B32" s="13"/>
@@ -19072,7 +19469,7 @@
       <c r="E37" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19080,10 +19477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -19203,15 +19600,15 @@
         <v>1.9981017055295203E-2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H19" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
+        <f t="shared" ref="H3:H20" si="2">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 1), $B3:$D3, 0))</f>
         <v>Corp</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I19" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
+        <f t="shared" ref="I3:I20" si="3">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 2), $B3:$D3, 0))</f>
         <v>MBS</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J19" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
+        <f t="shared" ref="J3:J20" si="4">INDEX($B$1:$D$1, MATCH(SMALL($B3:$D3, 3), $B3:$D3, 0))</f>
         <v>Tsy</v>
       </c>
       <c r="K3" s="7">
@@ -19984,58 +20381,88 @@
         <v>45931</v>
       </c>
       <c r="B20" s="4">
-        <v>0.2061624</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
-        <v>0.50467340000000005</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>0.37844097999999998</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6.1706139532955451E-3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.8398853154253398E-3</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8.6345878907183593E-3</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 1), $B20:$D20, 0))</f>
+        <f t="shared" si="2"/>
         <v>Corp</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 2), $B20:$D20, 0))</f>
+        <f t="shared" si="3"/>
         <v>MBS</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>INDEX($B$1:$D$1, MATCH(LARGE($B20:$D20, 3), $B20:$D20, 0))</f>
+        <f t="shared" si="4"/>
         <v>Tsy</v>
       </c>
-      <c r="K20" s="3">
-        <f ca="1">OFFSET($B20, 0, MATCH(H20,$B$1:$D$1, 0)-1)</f>
-        <v>0.50467340000000005</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" ref="L20:M20" ca="1" si="48">OFFSET($B20, 0, MATCH(I20,$B$1:$D$1, 0)-1)</f>
-        <v>0.37844097999999998</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" ca="1" si="48"/>
-        <v>0.2061624</v>
+      <c r="K20" s="7">
+        <f t="shared" ref="K20" ca="1" si="48">OFFSET($E20, 0, MATCH(H20,$B$1:$D$1, 0)-1)</f>
+        <v>3.8398853154253398E-3</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" ref="L20" ca="1" si="49">OFFSET($E20, 0, MATCH(I20,$B$1:$D$1, 0)-1)</f>
+        <v>8.6345878907183593E-3</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" ref="M20" ca="1" si="50">OFFSET($E20, 0, MATCH(J20,$B$1:$D$1, 0)-1)</f>
+        <v>6.1706139532955451E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="16.5">
-      <c r="A26" s="13"/>
-      <c r="F26" s="13"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5">
+        <v>45962</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.27775045999999998</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.41885867999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.2986355</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B21:$D21, 1), $B21:$D21, 0))</f>
+        <v>Corp</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B21:$D21, 2), $B21:$D21, 0))</f>
+        <v>MBS</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>INDEX($B$1:$D$1, MATCH(LARGE($B21:$D21, 3), $B21:$D21, 0))</f>
+        <v>Tsy</v>
+      </c>
+      <c r="K21" s="3">
+        <f ca="1">OFFSET($B21, 0, MATCH(H21,$B$1:$D$1, 0)-1)</f>
+        <v>0.41885867999999998</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" ref="L21" ca="1" si="51">OFFSET($B21, 0, MATCH(I21,$B$1:$D$1, 0)-1)</f>
+        <v>0.2986355</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ref="M21" ca="1" si="52">OFFSET($B21, 0, MATCH(J21,$B$1:$D$1, 0)-1)</f>
+        <v>0.27775045999999998</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20046,7 +20473,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -20262,27 +20689,27 @@
         <v>5.5478502080443803E-3</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N19" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
+        <f t="shared" ref="N3:N20" si="1">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 1), $B3:$G3, 0))</f>
         <v>HY</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O19" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
+        <f t="shared" ref="O3:O20" si="2">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 2), $B3:$G3, 0))</f>
         <v>FRN</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P19" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
+        <f t="shared" ref="P3:P20" si="3">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 3), $B3:$G3, 0))</f>
         <v>CB</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q19" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
+        <f t="shared" ref="Q3:Q20" si="4">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 4), $B3:$G3, 0))</f>
         <v>장기</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R19" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
+        <f t="shared" ref="R3:R20" si="5">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 5), $B3:$G3, 0))</f>
         <v>중기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S19" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
+        <f t="shared" ref="S3:S20" si="6">INDEX($B$1:$G$1, MATCH(SMALL($B3:$G3, 6), $B3:$G3, 0))</f>
         <v>단기</v>
       </c>
       <c r="T3" s="7">
@@ -21739,70 +22166,159 @@
         <v>45931</v>
       </c>
       <c r="B20" s="4">
-        <v>0.37622187000000001</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4">
-        <v>0.48419784999999999</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4">
-        <v>0.45061435999999999</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <v>0.54921660000000005</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>0.48890063</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
-        <v>0.40873090000000001</v>
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>3.5072100655790805E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4.110586435223107E-3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4.0026611219305952E-3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.5746389279942541E-3</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3.1983163869548026E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4.086636697997692E-3</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 1), $B20:$G20, 0))</f>
+        <f t="shared" si="1"/>
         <v>HY</v>
       </c>
       <c r="O20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 2), $B20:$G20, 0))</f>
+        <f t="shared" si="2"/>
         <v>CB</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 3), $B20:$G20, 0))</f>
+        <f t="shared" si="3"/>
         <v>중기</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 4), $B20:$G20, 0))</f>
+        <f t="shared" si="4"/>
         <v>장기</v>
       </c>
       <c r="R20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 5), $B20:$G20, 0))</f>
+        <f t="shared" si="5"/>
         <v>FRN</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f>INDEX($B$1:$G$1, MATCH(LARGE($B20:$G20, 6), $B20:$G20, 0))</f>
+        <f t="shared" si="6"/>
         <v>단기</v>
       </c>
-      <c r="T20" s="3">
-        <f ca="1">OFFSET($B20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
-        <v>0.54921660000000005</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" ref="U20" ca="1" si="92">OFFSET($B20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
-        <v>0.48890063</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" ref="V20" ca="1" si="93">OFFSET($B20, 0, MATCH(P20,$B$1:$G$1, 0)-1)</f>
-        <v>0.48419784999999999</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20" ca="1" si="94">OFFSET($B20, 0, MATCH(Q20,$B$1:$G$1, 0)-1)</f>
-        <v>0.45061435999999999</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" ref="X20" ca="1" si="95">OFFSET($B20, 0, MATCH(R20,$B$1:$G$1, 0)-1)</f>
-        <v>0.40873090000000001</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" ref="Y20" ca="1" si="96">OFFSET($B20, 0, MATCH(S20,$B$1:$G$1, 0)-1)</f>
-        <v>0.37622187000000001</v>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20" ca="1" si="92">OFFSET($H20, 0, MATCH(N20,$B$1:$G$1, 0)-1)</f>
+        <v>1.5746389279942541E-3</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" ref="U20" ca="1" si="93">OFFSET($H20, 0, MATCH(O20,$B$1:$G$1, 0)-1)</f>
+        <v>3.1983163869548026E-2</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" ref="V20" ca="1" si="94">OFFSET($H20, 0, MATCH(P20,$B$1:$G$1, 0)-1)</f>
+        <v>4.110586435223107E-3</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20" ca="1" si="95">OFFSET($H20, 0, MATCH(Q20,$B$1:$G$1, 0)-1)</f>
+        <v>4.0026611219305952E-3</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" ref="X20" ca="1" si="96">OFFSET($H20, 0, MATCH(R20,$B$1:$G$1, 0)-1)</f>
+        <v>4.086636697997692E-3</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" ref="Y20" ca="1" si="97">OFFSET($H20, 0, MATCH(S20,$B$1:$G$1, 0)-1)</f>
+        <v>3.5072100655790805E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="5">
+        <v>45962</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.39564428000000001</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.44055090000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.50862929999999995</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.50421289999999996</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.52687289999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.47397852000000001</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 1), $B21:$G21, 0))</f>
+        <v>CB</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 2), $B21:$G21, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 3), $B21:$G21, 0))</f>
+        <v>HY</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 4), $B21:$G21, 0))</f>
+        <v>FRN</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 5), $B21:$G21, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f>INDEX($B$1:$G$1, MATCH(LARGE($B21:$G21, 6), $B21:$G21, 0))</f>
+        <v>단기</v>
+      </c>
+      <c r="T21" s="3">
+        <f ca="1">OFFSET($B21, 0, MATCH(N21,$B$1:$G$1, 0)-1)</f>
+        <v>0.52687289999999998</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" ref="U21" ca="1" si="98">OFFSET($B21, 0, MATCH(O21,$B$1:$G$1, 0)-1)</f>
+        <v>0.50862929999999995</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" ref="V21" ca="1" si="99">OFFSET($B21, 0, MATCH(P21,$B$1:$G$1, 0)-1)</f>
+        <v>0.50421289999999996</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" ref="W21" ca="1" si="100">OFFSET($B21, 0, MATCH(Q21,$B$1:$G$1, 0)-1)</f>
+        <v>0.47397852000000001</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" ref="X21" ca="1" si="101">OFFSET($B21, 0, MATCH(R21,$B$1:$G$1, 0)-1)</f>
+        <v>0.44055090000000002</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21" ca="1" si="102">OFFSET($B21, 0, MATCH(S21,$B$1:$G$1, 0)-1)</f>
+        <v>0.39564428000000001</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5">
@@ -21836,7 +22352,7 @@
       <c r="J36" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21847,7 +22363,7 @@
   <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -22095,31 +22611,31 @@
         <v>1.7178252433660113E-2</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f t="shared" ref="P3:P19" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
+        <f t="shared" ref="P3:P20" si="5">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 1), $B3:$H3, 0))</f>
         <v>초단기</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q19" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
+        <f t="shared" ref="Q3:Q20" si="6">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 2), $B3:$H3, 0))</f>
         <v>지방정부</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R19" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
+        <f t="shared" ref="R3:R20" si="7">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 3), $B3:$H3, 0))</f>
         <v>초장기</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S19" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
+        <f t="shared" ref="S3:S20" si="8">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 4), $B3:$H3, 0))</f>
         <v>장기</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T19" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
+        <f t="shared" ref="T3:T20" si="9">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 5), $B3:$H3, 0))</f>
         <v>TIPS</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U19" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
+        <f t="shared" ref="U3:U20" si="10">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 6), $B3:$H3, 0))</f>
         <v>중기</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V19" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
+        <f t="shared" ref="V3:V20" si="11">INDEX($B$1:$H$1, MATCH(SMALL($B3:$H3, 7), $B3:$H3, 0))</f>
         <v>중단기</v>
       </c>
       <c r="W3" s="7">
@@ -23804,81 +24320,184 @@
         <v>45931</v>
       </c>
       <c r="B20" s="4">
-        <v>0.477738</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>0.41782330000000001</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
-        <v>0.36844197000000001</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4">
-        <v>0.38042009999999998</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4">
-        <v>0.40485801999999999</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
-        <v>0.37301203999999999</v>
+        <v>6</v>
       </c>
       <c r="H20" s="4">
-        <v>0.39985287000000003</v>
+        <v>4</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.389154704944275E-3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4.8313755210305231E-3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6.8763069004342814E-3</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.1393080337366079E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1.3975911709865452E-2</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.2402771714970395E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3.5459096253989131E-3</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 1), $B20:$H20, 0))</f>
+        <f t="shared" si="5"/>
         <v>초단기</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 2), $B20:$H20, 0))</f>
+        <f t="shared" si="6"/>
         <v>중단기</v>
       </c>
       <c r="R20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 3), $B20:$H20, 0))</f>
+        <f t="shared" si="7"/>
         <v>초장기</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 4), $B20:$H20, 0))</f>
+        <f t="shared" si="8"/>
         <v>TIPS</v>
       </c>
       <c r="T20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 5), $B20:$H20, 0))</f>
+        <f t="shared" si="9"/>
         <v>장기</v>
       </c>
       <c r="U20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 6), $B20:$H20, 0))</f>
+        <f t="shared" si="10"/>
         <v>지방정부</v>
       </c>
       <c r="V20" s="4" t="str">
-        <f>INDEX($B$1:$H$1, MATCH(LARGE($B20:$H20, 7), $B20:$H20, 0))</f>
+        <f t="shared" si="11"/>
         <v>중기</v>
       </c>
-      <c r="W20" s="3">
-        <f ca="1">OFFSET($B20, 0, MATCH(P20,$B$1:$H$1, 0)-1)</f>
-        <v>0.477738</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" ref="X20" ca="1" si="111">OFFSET($B20, 0, MATCH(Q20,$B$1:$H$1, 0)-1)</f>
-        <v>0.41782330000000001</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" ref="Y20" ca="1" si="112">OFFSET($B20, 0, MATCH(R20,$B$1:$H$1, 0)-1)</f>
-        <v>0.40485801999999999</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" ref="Z20" ca="1" si="113">OFFSET($B20, 0, MATCH(S20,$B$1:$H$1, 0)-1)</f>
-        <v>0.39985287000000003</v>
-      </c>
-      <c r="AA20" s="3">
-        <f t="shared" ref="AA20" ca="1" si="114">OFFSET($B20, 0, MATCH(T20,$B$1:$H$1, 0)-1)</f>
-        <v>0.38042009999999998</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" ref="AB20" ca="1" si="115">OFFSET($B20, 0, MATCH(U20,$B$1:$H$1, 0)-1)</f>
-        <v>0.37301203999999999</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" ref="AC20" ca="1" si="116">OFFSET($B20, 0, MATCH(V20,$B$1:$H$1, 0)-1)</f>
-        <v>0.36844197000000001</v>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20" ca="1" si="111">OFFSET($I20, 0, MATCH(P20,$B$1:$H$1, 0)-1)</f>
+        <v>3.389154704944275E-3</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" ref="X20" ca="1" si="112">OFFSET($I20, 0, MATCH(Q20,$B$1:$H$1, 0)-1)</f>
+        <v>4.8313755210305231E-3</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" ref="Y20" ca="1" si="113">OFFSET($I20, 0, MATCH(R20,$B$1:$H$1, 0)-1)</f>
+        <v>1.3975911709865452E-2</v>
+      </c>
+      <c r="Z20" s="7">
+        <f t="shared" ref="Z20" ca="1" si="114">OFFSET($I20, 0, MATCH(S20,$B$1:$H$1, 0)-1)</f>
+        <v>3.5459096253989131E-3</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" ref="AA20" ca="1" si="115">OFFSET($I20, 0, MATCH(T20,$B$1:$H$1, 0)-1)</f>
+        <v>1.1393080337366079E-2</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" ref="AB20" ca="1" si="116">OFFSET($I20, 0, MATCH(U20,$B$1:$H$1, 0)-1)</f>
+        <v>1.2402771714970395E-2</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" ref="AC20" ca="1" si="117">OFFSET($I20, 0, MATCH(V20,$B$1:$H$1, 0)-1)</f>
+        <v>6.8763069004342814E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="5">
+        <v>45962</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.38283553999999997</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.36474094000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.39691927999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.45317125000000003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.47688229999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.39788768000000002</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.36358550000000001</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 1), $B21:$H21, 0))</f>
+        <v>초장기</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 2), $B21:$H21, 0))</f>
+        <v>장기</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 3), $B21:$H21, 0))</f>
+        <v>지방정부</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 4), $B21:$H21, 0))</f>
+        <v>중기</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 5), $B21:$H21, 0))</f>
+        <v>초단기</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 6), $B21:$H21, 0))</f>
+        <v>중단기</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <f>INDEX($B$1:$H$1, MATCH(LARGE($B21:$H21, 7), $B21:$H21, 0))</f>
+        <v>TIPS</v>
+      </c>
+      <c r="W21" s="3">
+        <f ca="1">OFFSET($B21, 0, MATCH(P21,$B$1:$H$1, 0)-1)</f>
+        <v>0.47688229999999998</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" ref="X21" ca="1" si="118">OFFSET($B21, 0, MATCH(Q21,$B$1:$H$1, 0)-1)</f>
+        <v>0.45317125000000003</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21" ca="1" si="119">OFFSET($B21, 0, MATCH(R21,$B$1:$H$1, 0)-1)</f>
+        <v>0.39788768000000002</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" ref="Z21" ca="1" si="120">OFFSET($B21, 0, MATCH(S21,$B$1:$H$1, 0)-1)</f>
+        <v>0.39691927999999999</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" ref="AA21" ca="1" si="121">OFFSET($B21, 0, MATCH(T21,$B$1:$H$1, 0)-1)</f>
+        <v>0.38283553999999997</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21" ca="1" si="122">OFFSET($B21, 0, MATCH(U21,$B$1:$H$1, 0)-1)</f>
+        <v>0.36474094000000001</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" ref="AC21" ca="1" si="123">OFFSET($B21, 0, MATCH(V21,$B$1:$H$1, 0)-1)</f>
+        <v>0.36358550000000001</v>
       </c>
     </row>
     <row r="43" spans="11:11" ht="16.5">
@@ -23903,7 +24522,7 @@
       <c r="K49" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23913,8 +24532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -25914,7 +26533,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
